--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="161">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -437,6 +437,66 @@
   </si>
   <si>
     <t>facilityType</t>
+  </si>
+  <si>
+    <t>HURUNGWE</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Chidamoyo Mission Hospital</t>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:34.280966Z</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50_yrs</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Static</t>
   </si>
 </sst>
 </file>
@@ -794,13 +854,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:EL1"/>
+  <dimension ref="A1:EL2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:142">
+    <row r="1" spans="1:142">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,6 +1283,398 @@
       </c>
       <c r="EL1" s="1" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:142">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>144</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>145</v>
+      </c>
+      <c r="V2" t="s">
+        <v>142</v>
+      </c>
+      <c r="W2" t="s">
+        <v>146</v>
+      </c>
+      <c r="X2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>147</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>149</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>150</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>151</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>152</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>152</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>154</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>152</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>152</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>152</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>142</v>
+      </c>
+      <c r="DV2">
+        <v>0</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>152</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>142</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>152</v>
+      </c>
+      <c r="DZ2">
+        <v>0</v>
+      </c>
+      <c r="EA2">
+        <v>0</v>
+      </c>
+      <c r="EB2">
+        <v>0</v>
+      </c>
+      <c r="EC2">
+        <v>0</v>
+      </c>
+      <c r="ED2">
+        <v>0</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>158</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>152</v>
+      </c>
+      <c r="EJ2">
+        <v>0</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>159</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="170">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -442,9 +442,15 @@
     <t>HURUNGWE</t>
   </si>
   <si>
+    <t>MBIRE</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
@@ -454,19 +460,34 @@
     <t>Chidamoyo Mission Hospital</t>
   </si>
   <si>
+    <t>Chitsungo Mission Hospital</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>correction</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>6</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>1</t>
@@ -478,10 +499,16 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>2025-05-28T09:04:34.280966Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T10:05:11.440353Z</t>
   </si>
   <si>
     <t>April</t>
@@ -854,7 +881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EL2"/>
+  <dimension ref="A1:EL3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1314,367 +1341,768 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>147</v>
+      </c>
+      <c r="V2" t="s">
+        <v>143</v>
+      </c>
+      <c r="W2" t="s">
+        <v>150</v>
+      </c>
+      <c r="X2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>154</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>153</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>155</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>154</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>159</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>159</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>157</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>159</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>159</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>159</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DV2">
+        <v>0</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>159</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>159</v>
+      </c>
+      <c r="DZ2">
+        <v>0</v>
+      </c>
+      <c r="EA2">
+        <v>0</v>
+      </c>
+      <c r="EB2">
+        <v>0</v>
+      </c>
+      <c r="EC2">
+        <v>0</v>
+      </c>
+      <c r="ED2">
+        <v>0</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>167</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>159</v>
+      </c>
+      <c r="EJ2">
+        <v>0</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>168</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:142">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>142</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>143</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>144</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
         <v>145</v>
       </c>
-      <c r="V2" t="s">
-        <v>142</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
         <v>146</v>
       </c>
-      <c r="X2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
         <v>148</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="V3" t="s">
         <v>149</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="W3" t="s">
         <v>150</v>
       </c>
-      <c r="AB2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="X3" t="s">
         <v>152</v>
       </c>
-      <c r="AD2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="Y3" t="s">
         <v>154</v>
       </c>
-      <c r="AL2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>152</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>152</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>149</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>150</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>152</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>152</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="s">
+      <c r="Z3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="s">
         <v>155</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BN3" t="s">
         <v>156</v>
       </c>
-      <c r="BY2" t="s">
-        <v>152</v>
-      </c>
-      <c r="BZ2" t="s">
+      <c r="BO3" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP3" t="s">
         <v>157</v>
       </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>148</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>149</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>150</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>151</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>152</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>152</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>154</v>
-      </c>
-      <c r="DG2">
-        <v>0</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>152</v>
-      </c>
-      <c r="DI2">
-        <v>0</v>
-      </c>
-      <c r="DK2">
-        <v>0</v>
-      </c>
-      <c r="DM2">
-        <v>0</v>
-      </c>
-      <c r="DP2">
-        <v>0</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>152</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>152</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DV2">
-        <v>0</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>152</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>152</v>
-      </c>
-      <c r="DZ2">
-        <v>0</v>
-      </c>
-      <c r="EA2">
-        <v>0</v>
-      </c>
-      <c r="EB2">
-        <v>0</v>
-      </c>
-      <c r="EC2">
-        <v>0</v>
-      </c>
-      <c r="ED2">
-        <v>0</v>
-      </c>
-      <c r="EE2">
-        <v>0</v>
-      </c>
-      <c r="EF2">
-        <v>0</v>
-      </c>
-      <c r="EG2" t="s">
+      <c r="BQ3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BR3" t="s">
         <v>158</v>
       </c>
-      <c r="EH2" t="s">
-        <v>152</v>
-      </c>
-      <c r="EJ2">
-        <v>0</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>159</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>160</v>
+      <c r="BS3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>155</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>156</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>157</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>159</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>158</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>161</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>159</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>159</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>158</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>159</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>159</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>159</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>159</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>159</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EA3">
+        <v>0</v>
+      </c>
+      <c r="EB3">
+        <v>0</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>157</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>159</v>
+      </c>
+      <c r="EJ3">
+        <v>0</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>168</v>
+      </c>
+      <c r="EL3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="170">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -1535,8 +1535,8 @@
       <c r="BX2" t="s">
         <v>165</v>
       </c>
-      <c r="BY2">
-        <v>0</v>
+      <c r="BY2" t="s">
+        <v>159</v>
       </c>
       <c r="BZ2" t="s">
         <v>166</v>
@@ -1927,8 +1927,8 @@
       <c r="BX3" t="s">
         <v>165</v>
       </c>
-      <c r="BY3">
-        <v>0</v>
+      <c r="BY3" t="s">
+        <v>159</v>
       </c>
       <c r="BZ3" t="s">
         <v>166</v>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="172">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -463,6 +463,9 @@
     <t>Chitsungo Mission Hospital</t>
   </si>
   <si>
+    <t>Mahuwe Clinic</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -509,6 +512,9 @@
   </si>
   <si>
     <t>2025-05-28T10:05:11.440353Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T11:04:46.655913Z</t>
   </si>
   <si>
     <t>April</t>
@@ -881,7 +887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EL3"/>
+  <dimension ref="A1:EL4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1380,259 +1386,259 @@
         <v>143</v>
       </c>
       <c r="W2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA2" t="s">
         <v>155</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI2" t="s">
         <v>154</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AJ2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK2" t="s">
         <v>158</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AL2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>154</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>159</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="BR2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>168</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>152</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>154</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>156</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>155</v>
+      </c>
+      <c r="CF2" t="s">
         <v>159</v>
       </c>
-      <c r="AF2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>153</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>155</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>154</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="CG2" t="s">
+        <v>160</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>160</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2" t="s">
         <v>158</v>
       </c>
-      <c r="BR2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>163</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>165</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>151</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>153</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>155</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>154</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>158</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>159</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>159</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>157</v>
-      </c>
       <c r="DG2">
         <v>0</v>
       </c>
       <c r="DH2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DI2">
         <v>0</v>
@@ -1647,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="DQ2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DS2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DU2" t="s">
         <v>143</v>
@@ -1659,13 +1665,13 @@
         <v>0</v>
       </c>
       <c r="DW2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DX2" t="s">
         <v>143</v>
       </c>
       <c r="DY2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DZ2">
         <v>0</v>
@@ -1689,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="EG2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="EH2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="EJ2">
         <v>0</v>
       </c>
       <c r="EK2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="EL2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:142">
@@ -1769,266 +1775,266 @@
         <v>148</v>
       </c>
       <c r="V3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="W3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>160</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>160</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>160</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="s">
         <v>156</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="BN3" t="s">
         <v>157</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="BO3" t="s">
+        <v>163</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>158</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>160</v>
+      </c>
+      <c r="BR3" t="s">
         <v>159</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="BS3" t="s">
+        <v>160</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>167</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>168</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>156</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>157</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>163</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>158</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>160</v>
+      </c>
+      <c r="CG3" t="s">
         <v>159</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>162</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>160</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>160</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3" t="s">
         <v>159</v>
       </c>
-      <c r="AF3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>155</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>156</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>162</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>157</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>155</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>156</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>162</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>157</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>159</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>158</v>
-      </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CQ3">
-        <v>0</v>
-      </c>
-      <c r="CR3">
-        <v>0</v>
-      </c>
-      <c r="CS3">
-        <v>0</v>
-      </c>
-      <c r="CT3">
-        <v>0</v>
-      </c>
-      <c r="CU3">
-        <v>0</v>
-      </c>
-      <c r="CV3">
-        <v>0</v>
-      </c>
-      <c r="CW3">
-        <v>0</v>
-      </c>
-      <c r="CX3">
-        <v>0</v>
-      </c>
-      <c r="CY3">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>161</v>
-      </c>
-      <c r="DA3">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>159</v>
-      </c>
-      <c r="DC3">
-        <v>0</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>159</v>
-      </c>
-      <c r="DE3">
-        <v>0</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>158</v>
-      </c>
       <c r="DG3">
         <v>0</v>
       </c>
@@ -2036,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="DJ3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DK3">
         <v>0</v>
@@ -2048,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="DQ3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DS3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DU3" t="s">
         <v>144</v>
@@ -2060,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DX3" t="s">
         <v>144</v>
       </c>
       <c r="DY3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DZ3">
         <v>0</v>
@@ -2090,18 +2096,443 @@
         <v>0</v>
       </c>
       <c r="EG3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="EH3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="EJ3">
         <v>0</v>
       </c>
       <c r="EK3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="EL3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:142">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>145</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>146</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>149</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>151</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>166</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
+      <c r="DT4">
+        <v>0</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>160</v>
+      </c>
+      <c r="DV4">
+        <v>0</v>
+      </c>
+      <c r="DW4">
+        <v>0</v>
+      </c>
+      <c r="DX4">
+        <v>0</v>
+      </c>
+      <c r="DY4">
+        <v>0</v>
+      </c>
+      <c r="DZ4">
+        <v>0</v>
+      </c>
+      <c r="EA4">
+        <v>0</v>
+      </c>
+      <c r="EB4">
+        <v>0</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4">
+        <v>0</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4">
+        <v>0</v>
+      </c>
+      <c r="EG4">
+        <v>0</v>
+      </c>
+      <c r="EH4">
+        <v>0</v>
+      </c>
+      <c r="EI4">
+        <v>0</v>
+      </c>
+      <c r="EJ4">
+        <v>0</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>170</v>
+      </c>
+      <c r="EL4">
         <v>0</v>
       </c>
     </row>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="174">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -451,6 +451,9 @@
     <t>33</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
@@ -490,15 +493,18 @@
     <t>8</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
@@ -514,7 +520,7 @@
     <t>2025-05-28T10:05:11.440353Z</t>
   </si>
   <si>
-    <t>2025-05-28T11:04:46.655913Z</t>
+    <t>2025-05-28T12:33:30.415196Z</t>
   </si>
   <si>
     <t>April</t>
@@ -1359,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1368,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1380,265 +1386,265 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V2" t="s">
         <v>143</v>
       </c>
       <c r="W2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA2" t="s">
         <v>156</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI2" t="s">
         <v>155</v>
       </c>
-      <c r="AB2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AJ2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK2" t="s">
         <v>160</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AL2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>155</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>156</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>162</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>161</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>161</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2" t="s">
         <v>160</v>
       </c>
-      <c r="AF2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>152</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>154</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>156</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>155</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>164</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>167</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>168</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>152</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>154</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>156</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>155</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>159</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>160</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>160</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>158</v>
-      </c>
       <c r="DG2">
         <v>0</v>
       </c>
       <c r="DH2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DI2">
         <v>0</v>
@@ -1653,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="DQ2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DS2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DU2" t="s">
         <v>143</v>
@@ -1665,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="DW2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DX2" t="s">
         <v>143</v>
       </c>
       <c r="DY2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DZ2">
         <v>0</v>
@@ -1695,19 +1701,19 @@
         <v>0</v>
       </c>
       <c r="EG2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="EH2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="EJ2">
         <v>0</v>
       </c>
       <c r="EK2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="EL2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:142">
@@ -1751,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1760,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1772,194 +1778,194 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="s">
         <v>157</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="BN3" t="s">
         <v>158</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="BO3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP3" t="s">
         <v>160</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="BQ3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>162</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>167</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>157</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>158</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>165</v>
+      </c>
+      <c r="CE3" t="s">
         <v>160</v>
       </c>
-      <c r="AD3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="CF3" t="s">
+        <v>161</v>
+      </c>
+      <c r="CG3" t="s">
         <v>162</v>
       </c>
-      <c r="AI3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>156</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>157</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>167</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>168</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>156</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>157</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>163</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>158</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>160</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>159</v>
-      </c>
       <c r="CH3">
         <v>0</v>
       </c>
@@ -2015,26 +2021,26 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>161</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>161</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3" t="s">
         <v>162</v>
       </c>
-      <c r="DA3">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>160</v>
-      </c>
-      <c r="DC3">
-        <v>0</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>160</v>
-      </c>
-      <c r="DE3">
-        <v>0</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>159</v>
-      </c>
       <c r="DG3">
         <v>0</v>
       </c>
@@ -2042,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="DJ3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DK3">
         <v>0</v>
@@ -2054,10 +2060,10 @@
         <v>0</v>
       </c>
       <c r="DQ3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DS3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DU3" t="s">
         <v>144</v>
@@ -2066,46 +2072,46 @@
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DX3" t="s">
         <v>144</v>
       </c>
       <c r="DY3" t="s">
+        <v>161</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EA3">
+        <v>0</v>
+      </c>
+      <c r="EB3">
+        <v>0</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EG3" t="s">
         <v>160</v>
       </c>
-      <c r="DZ3">
-        <v>0</v>
-      </c>
-      <c r="EA3">
-        <v>0</v>
-      </c>
-      <c r="EB3">
-        <v>0</v>
-      </c>
-      <c r="EC3">
-        <v>0</v>
-      </c>
-      <c r="ED3">
-        <v>0</v>
-      </c>
-      <c r="EE3">
-        <v>0</v>
-      </c>
-      <c r="EF3">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>158</v>
-      </c>
       <c r="EH3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="EJ3">
         <v>0</v>
       </c>
       <c r="EK3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="EL3">
         <v>0</v>
@@ -2139,8 +2145,8 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>0</v>
+      <c r="J4" t="s">
+        <v>145</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2152,73 +2158,70 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>147</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V4" t="s">
         <v>145</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>146</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4" t="s">
-        <v>149</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
       <c r="W4" t="s">
-        <v>151</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="X4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>163</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
+      <c r="AH4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>160</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -2259,14 +2262,14 @@
       <c r="AW4">
         <v>0</v>
       </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
+      <c r="AX4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>161</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -2305,196 +2308,172 @@
         <v>0</v>
       </c>
       <c r="BM4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>153</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>161</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>161</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>161</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>162</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4" t="s">
         <v>160</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4" t="s">
         <v>160</v>
       </c>
-      <c r="BO4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>166</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>167</v>
-      </c>
-      <c r="BY4">
-        <v>0</v>
-      </c>
-      <c r="BZ4">
-        <v>0</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4">
-        <v>0</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
-        <v>0</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
-        <v>0</v>
-      </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="CZ4">
-        <v>0</v>
-      </c>
-      <c r="DA4">
-        <v>0</v>
-      </c>
-      <c r="DB4">
-        <v>0</v>
-      </c>
-      <c r="DC4">
-        <v>0</v>
-      </c>
-      <c r="DD4">
-        <v>0</v>
-      </c>
       <c r="DE4">
         <v>0</v>
       </c>
-      <c r="DF4">
-        <v>0</v>
-      </c>
       <c r="DG4">
         <v>0</v>
       </c>
-      <c r="DH4">
-        <v>0</v>
-      </c>
       <c r="DI4">
         <v>0</v>
       </c>
-      <c r="DJ4">
-        <v>0</v>
-      </c>
       <c r="DK4">
         <v>0</v>
       </c>
-      <c r="DL4">
-        <v>0</v>
-      </c>
       <c r="DM4">
         <v>0</v>
       </c>
-      <c r="DN4">
-        <v>0</v>
-      </c>
-      <c r="DO4">
-        <v>0</v>
-      </c>
       <c r="DP4">
         <v>0</v>
       </c>
-      <c r="DQ4">
-        <v>0</v>
-      </c>
-      <c r="DR4">
-        <v>0</v>
-      </c>
-      <c r="DS4">
-        <v>0</v>
-      </c>
-      <c r="DT4">
-        <v>0</v>
+      <c r="DQ4" t="s">
+        <v>161</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>161</v>
       </c>
       <c r="DU4" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="DV4">
         <v>0</v>
       </c>
-      <c r="DW4">
-        <v>0</v>
-      </c>
-      <c r="DX4">
-        <v>0</v>
-      </c>
-      <c r="DY4">
-        <v>0</v>
+      <c r="DW4" t="s">
+        <v>161</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>145</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>161</v>
       </c>
       <c r="DZ4">
         <v>0</v>
@@ -2517,20 +2496,17 @@
       <c r="EF4">
         <v>0</v>
       </c>
-      <c r="EG4">
-        <v>0</v>
-      </c>
-      <c r="EH4">
-        <v>0</v>
-      </c>
-      <c r="EI4">
-        <v>0</v>
+      <c r="EG4" t="s">
+        <v>154</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>161</v>
       </c>
       <c r="EJ4">
         <v>0</v>
       </c>
       <c r="EK4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="EL4">
         <v>0</v>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="175">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50_yrs</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
   <si>
     <t>39</t>
@@ -1694,14 +1697,14 @@
       <c r="ED2">
         <v>0</v>
       </c>
-      <c r="EE2">
-        <v>0</v>
+      <c r="EE2" t="s">
+        <v>171</v>
       </c>
       <c r="EF2">
         <v>0</v>
       </c>
       <c r="EG2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="EH2" t="s">
         <v>161</v>
@@ -1710,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="EK2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="EL2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:142">
@@ -2095,8 +2098,8 @@
       <c r="ED3">
         <v>0</v>
       </c>
-      <c r="EE3">
-        <v>0</v>
+      <c r="EE3" t="s">
+        <v>171</v>
       </c>
       <c r="EF3">
         <v>0</v>
@@ -2111,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="EK3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="EL3">
         <v>0</v>
@@ -2490,8 +2493,8 @@
       <c r="ED4">
         <v>0</v>
       </c>
-      <c r="EE4">
-        <v>0</v>
+      <c r="EE4" t="s">
+        <v>171</v>
       </c>
       <c r="EF4">
         <v>0</v>
@@ -2506,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="EK4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="EL4">
         <v>0</v>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="174">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -527,9 +527,6 @@
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50_yrs</t>
-  </si>
-  <si>
-    <t>OK</t>
   </si>
   <si>
     <t>39</t>
@@ -1697,26 +1694,26 @@
       <c r="ED2">
         <v>0</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2" t="s">
         <v>171</v>
       </c>
-      <c r="EF2">
-        <v>0</v>
-      </c>
-      <c r="EG2" t="s">
+      <c r="EH2" t="s">
+        <v>161</v>
+      </c>
+      <c r="EJ2">
+        <v>0</v>
+      </c>
+      <c r="EK2" t="s">
         <v>172</v>
       </c>
-      <c r="EH2" t="s">
-        <v>161</v>
-      </c>
-      <c r="EJ2">
-        <v>0</v>
-      </c>
-      <c r="EK2" t="s">
+      <c r="EL2" t="s">
         <v>173</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:142">
@@ -2098,8 +2095,8 @@
       <c r="ED3">
         <v>0</v>
       </c>
-      <c r="EE3" t="s">
-        <v>171</v>
+      <c r="EE3">
+        <v>0</v>
       </c>
       <c r="EF3">
         <v>0</v>
@@ -2114,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="EK3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="EL3">
         <v>0</v>
@@ -2493,8 +2490,8 @@
       <c r="ED4">
         <v>0</v>
       </c>
-      <c r="EE4" t="s">
-        <v>171</v>
+      <c r="EE4">
+        <v>0</v>
       </c>
       <c r="EF4">
         <v>0</v>
@@ -2509,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="EK4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="EL4">
         <v>0</v>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="171">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -512,15 +512,6 @@
   </si>
   <si>
     <t>11</t>
-  </si>
-  <si>
-    <t>2025-05-28T09:04:34.280966Z</t>
-  </si>
-  <si>
-    <t>2025-05-28T10:05:11.440353Z</t>
-  </si>
-  <si>
-    <t>2025-05-28T12:33:30.415196Z</t>
   </si>
   <si>
     <t>April</t>
@@ -542,6 +533,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -594,11 +588,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1541,17 +1536,17 @@
       <c r="BV2">
         <v>0</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BW2" s="2">
+        <v>45805.37817454822</v>
+      </c>
+      <c r="BX2" t="s">
         <v>166</v>
       </c>
-      <c r="BX2" t="s">
-        <v>169</v>
-      </c>
       <c r="BY2" t="s">
         <v>161</v>
       </c>
       <c r="BZ2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -1701,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="EG2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="EH2" t="s">
         <v>161</v>
@@ -1710,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="EK2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="EL2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:142">
@@ -1933,17 +1928,17 @@
       <c r="BV3">
         <v>0</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="BW3" s="2">
+        <v>45805.42027130038</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BZ3" t="s">
         <v>167</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>170</v>
       </c>
       <c r="CA3">
         <v>0</v>
@@ -2111,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="EK3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="EL3">
         <v>0</v>
@@ -2334,17 +2329,17 @@
       <c r="BV4">
         <v>0</v>
       </c>
-      <c r="BW4" t="s">
-        <v>168</v>
+      <c r="BW4" s="2">
+        <v>45805.5232686944</v>
       </c>
       <c r="BX4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="BY4" t="s">
         <v>161</v>
       </c>
       <c r="BZ4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="CA4">
         <v>0</v>
@@ -2506,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="EK4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="EL4">
         <v>0</v>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="174">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -512,6 +512,15 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:34.280966Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T10:05:11.440353Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T12:33:30.415196Z</t>
   </si>
   <si>
     <t>April</t>
@@ -533,9 +542,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -588,12 +594,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,17 +1541,17 @@
       <c r="BV2">
         <v>0</v>
       </c>
-      <c r="BW2" s="2">
-        <v>45805.37817454822</v>
+      <c r="BW2" t="s">
+        <v>166</v>
       </c>
       <c r="BX2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BY2" t="s">
         <v>161</v>
       </c>
       <c r="BZ2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -1696,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="EG2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="EH2" t="s">
         <v>161</v>
@@ -1705,10 +1710,10 @@
         <v>0</v>
       </c>
       <c r="EK2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="EL2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:142">
@@ -1928,17 +1933,17 @@
       <c r="BV3">
         <v>0</v>
       </c>
-      <c r="BW3" s="2">
-        <v>45805.42027130038</v>
+      <c r="BW3" t="s">
+        <v>167</v>
       </c>
       <c r="BX3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BY3" t="s">
         <v>161</v>
       </c>
       <c r="BZ3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="CA3">
         <v>0</v>
@@ -2106,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="EK3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="EL3">
         <v>0</v>
@@ -2329,17 +2334,17 @@
       <c r="BV4">
         <v>0</v>
       </c>
-      <c r="BW4" s="2">
-        <v>45805.5232686944</v>
+      <c r="BW4" t="s">
+        <v>168</v>
       </c>
       <c r="BX4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BY4" t="s">
         <v>161</v>
       </c>
       <c r="BZ4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="CA4">
         <v>0</v>
@@ -2501,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="EK4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="EL4">
         <v>0</v>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="178">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -428,6 +428,18 @@
   </si>
   <si>
     <t>uncircumcisedClientsForHTS</t>
+  </si>
+  <si>
+    <t>uncircumcised_care</t>
+  </si>
+  <si>
+    <t>uncircumcised_prep</t>
+  </si>
+  <si>
+    <t>uncircumcised_srh</t>
+  </si>
+  <si>
+    <t>uncircumcised_sti</t>
   </si>
   <si>
     <t>vmmc_number</t>
@@ -893,13 +905,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EL4"/>
+  <dimension ref="A1:EP4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:142">
+    <row r="1" spans="1:146">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1323,8 +1335,20 @@
       <c r="EL1" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="EM1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="2" spans="1:142">
+    <row r="2" spans="1:146">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1338,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1353,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1365,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1374,208 +1398,208 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
+        <v>151</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>152</v>
+      </c>
+      <c r="V2" t="s">
         <v>147</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>148</v>
-      </c>
-      <c r="V2" t="s">
-        <v>143</v>
-      </c>
       <c r="W2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="X2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Y2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Z2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
         <v>157</v>
       </c>
-      <c r="AA2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AI2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>161</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AK2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BO2" t="s">
         <v>161</v>
       </c>
-      <c r="AF2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="BP2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="s">
         <v>157</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="CC2" t="s">
+        <v>159</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>161</v>
+      </c>
+      <c r="CE2" t="s">
         <v>160</v>
       </c>
-      <c r="AL2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>153</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>155</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>156</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="s">
+      <c r="CF2" t="s">
         <v>166</v>
       </c>
-      <c r="BX2" t="s">
-        <v>169</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>170</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>153</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>155</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>157</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>156</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>162</v>
-      </c>
       <c r="CG2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="CH2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="CI2">
         <v>0</v>
@@ -1638,13 +1662,13 @@
         <v>0</v>
       </c>
       <c r="DF2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="DG2">
         <v>0</v>
       </c>
       <c r="DH2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="DI2">
         <v>0</v>
@@ -1659,25 +1683,25 @@
         <v>0</v>
       </c>
       <c r="DQ2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="DS2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="DU2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="DV2">
         <v>0</v>
       </c>
       <c r="DW2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="DX2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="DY2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="DZ2">
         <v>0</v>
@@ -1701,22 +1725,34 @@
         <v>0</v>
       </c>
       <c r="EG2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="EH2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="EJ2">
         <v>0</v>
       </c>
-      <c r="EK2" t="s">
-        <v>172</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>173</v>
+      <c r="EK2">
+        <v>0</v>
+      </c>
+      <c r="EL2">
+        <v>0</v>
+      </c>
+      <c r="EM2">
+        <v>0</v>
+      </c>
+      <c r="EN2">
+        <v>0</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>176</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:142">
+    <row r="3" spans="1:146">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1730,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1745,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1757,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1766,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1778,193 +1814,193 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="V3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="W3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="X3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Y3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Z3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AA3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AB3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="s">
         <v>161</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="BN3" t="s">
+        <v>162</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="s">
         <v>161</v>
       </c>
-      <c r="AD3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="CC3" t="s">
+        <v>162</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>169</v>
+      </c>
+      <c r="CE3" t="s">
         <v>164</v>
       </c>
-      <c r="AI3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>162</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>167</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>170</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>157</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>158</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>165</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>160</v>
-      </c>
       <c r="CF3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="CG3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -2021,103 +2057,115 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="s">
+        <v>168</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>165</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>165</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>166</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>165</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>165</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>165</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>148</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>165</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>165</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EA3">
+        <v>0</v>
+      </c>
+      <c r="EB3">
+        <v>0</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EG3" t="s">
         <v>164</v>
       </c>
-      <c r="DA3">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>161</v>
-      </c>
-      <c r="DC3">
-        <v>0</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>161</v>
-      </c>
-      <c r="DE3">
-        <v>0</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>162</v>
-      </c>
-      <c r="DG3">
-        <v>0</v>
-      </c>
-      <c r="DI3">
-        <v>0</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>161</v>
-      </c>
-      <c r="DK3">
-        <v>0</v>
-      </c>
-      <c r="DM3">
-        <v>0</v>
-      </c>
-      <c r="DP3">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>161</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>161</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>144</v>
-      </c>
-      <c r="DV3">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>161</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>144</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>161</v>
-      </c>
-      <c r="DZ3">
-        <v>0</v>
-      </c>
-      <c r="EA3">
-        <v>0</v>
-      </c>
-      <c r="EB3">
-        <v>0</v>
-      </c>
-      <c r="EC3">
-        <v>0</v>
-      </c>
-      <c r="ED3">
-        <v>0</v>
-      </c>
-      <c r="EE3">
-        <v>0</v>
-      </c>
-      <c r="EF3">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>160</v>
-      </c>
       <c r="EH3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="EJ3">
         <v>0</v>
       </c>
-      <c r="EK3" t="s">
-        <v>172</v>
+      <c r="EK3">
+        <v>0</v>
       </c>
       <c r="EL3">
         <v>0</v>
       </c>
+      <c r="EM3">
+        <v>0</v>
+      </c>
+      <c r="EN3">
+        <v>0</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>176</v>
+      </c>
+      <c r="EP3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:142">
+    <row r="4" spans="1:146">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2131,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2146,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2158,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2167,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2179,154 +2227,154 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="W4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="X4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Y4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Z4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AA4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AB4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AC4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AD4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AF4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BO4" t="s">
         <v>163</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>161</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>159</v>
-      </c>
       <c r="BP4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="BQ4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="BR4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="BS4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="BU4">
         <v>0</v>
@@ -2335,37 +2383,37 @@
         <v>0</v>
       </c>
       <c r="BW4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="BX4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="BY4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="BZ4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="CA4">
         <v>0</v>
       </c>
       <c r="CB4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="CC4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="CD4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="CE4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="CF4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="CG4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="CH4">
         <v>0</v>
@@ -2422,19 +2470,19 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="DA4">
         <v>0</v>
       </c>
       <c r="DB4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="DC4">
         <v>0</v>
       </c>
       <c r="DD4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="DE4">
         <v>0</v>
@@ -2455,25 +2503,25 @@
         <v>0</v>
       </c>
       <c r="DQ4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="DS4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="DU4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="DV4">
         <v>0</v>
       </c>
       <c r="DW4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="DX4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="DY4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="DZ4">
         <v>0</v>
@@ -2497,18 +2545,30 @@
         <v>0</v>
       </c>
       <c r="EG4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="EH4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="EJ4">
         <v>0</v>
       </c>
-      <c r="EK4" t="s">
-        <v>172</v>
+      <c r="EK4">
+        <v>0</v>
       </c>
       <c r="EL4">
+        <v>0</v>
+      </c>
+      <c r="EM4">
+        <v>0</v>
+      </c>
+      <c r="EN4">
+        <v>0</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>176</v>
+      </c>
+      <c r="EP4">
         <v>0</v>
       </c>
     </row>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="183">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -457,6 +457,9 @@
     <t>MBIRE</t>
   </si>
   <si>
+    <t>SANYATI</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
@@ -466,6 +469,9 @@
     <t>22</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
@@ -481,6 +487,9 @@
     <t>Mahuwe Clinic</t>
   </si>
   <si>
+    <t>Sanyati Hospital</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -493,6 +502,9 @@
     <t>7</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
@@ -514,15 +526,12 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -535,7 +544,13 @@
     <t>2025-05-28T12:33:30.415196Z</t>
   </si>
   <si>
+    <t>2025-06-12T12:16:06.575018Z</t>
+  </si>
+  <si>
     <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50_yrs</t>
@@ -905,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EP4"/>
+  <dimension ref="A1:EP5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1377,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1389,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1398,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1410,196 +1425,196 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="V2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="X2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Z2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AA2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
         <v>160</v>
       </c>
-      <c r="AB2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AI2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>165</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AK2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BO2" t="s">
         <v>165</v>
       </c>
-      <c r="AF2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="BP2" t="s">
         <v>164</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="BQ2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>179</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>160</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>163</v>
+      </c>
+      <c r="CD2" t="s">
         <v>165</v>
       </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>165</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>166</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>165</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>165</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>170</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>173</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>165</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>157</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>159</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>161</v>
-      </c>
       <c r="CE2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="CF2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="CG2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="CH2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="CI2">
         <v>0</v>
@@ -1662,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="DF2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="DG2">
         <v>0</v>
       </c>
       <c r="DH2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="DI2">
         <v>0</v>
@@ -1683,25 +1698,25 @@
         <v>0</v>
       </c>
       <c r="DQ2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="DS2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="DU2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DV2">
         <v>0</v>
       </c>
       <c r="DW2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="DX2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DY2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="DZ2">
         <v>0</v>
@@ -1725,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="EG2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="EH2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="EJ2">
         <v>0</v>
@@ -1746,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="EO2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="EP2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:146">
@@ -1781,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1793,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1802,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1814,334 +1829,334 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="V3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="W3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="X3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Y3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Z3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK3" t="s">
         <v>162</v>
       </c>
-      <c r="AA3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="s">
         <v>165</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="BN3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>162</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>177</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>179</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="s">
         <v>165</v>
       </c>
-      <c r="AD3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="CC3" t="s">
+        <v>166</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CE3" t="s">
         <v>168</v>
       </c>
-      <c r="AI3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN3" t="s">
+      <c r="CF3" t="s">
+        <v>169</v>
+      </c>
+      <c r="CG3" t="s">
         <v>162</v>
       </c>
-      <c r="BO3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>166</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>171</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>173</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>161</v>
-      </c>
-      <c r="CC3" t="s">
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>170</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>169</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>169</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3" t="s">
         <v>162</v>
       </c>
-      <c r="CD3" t="s">
-        <v>169</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>164</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>165</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>166</v>
-      </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CQ3">
-        <v>0</v>
-      </c>
-      <c r="CR3">
-        <v>0</v>
-      </c>
-      <c r="CS3">
-        <v>0</v>
-      </c>
-      <c r="CT3">
-        <v>0</v>
-      </c>
-      <c r="CU3">
-        <v>0</v>
-      </c>
-      <c r="CV3">
-        <v>0</v>
-      </c>
-      <c r="CW3">
-        <v>0</v>
-      </c>
-      <c r="CX3">
-        <v>0</v>
-      </c>
-      <c r="CY3">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="s">
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>169</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>169</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>169</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>149</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>169</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>149</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>169</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EA3">
+        <v>0</v>
+      </c>
+      <c r="EB3">
+        <v>0</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EG3" t="s">
         <v>168</v>
       </c>
-      <c r="DA3">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DC3">
-        <v>0</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DE3">
-        <v>0</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>166</v>
-      </c>
-      <c r="DG3">
-        <v>0</v>
-      </c>
-      <c r="DI3">
-        <v>0</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DK3">
-        <v>0</v>
-      </c>
-      <c r="DM3">
-        <v>0</v>
-      </c>
-      <c r="DP3">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DV3">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DZ3">
-        <v>0</v>
-      </c>
-      <c r="EA3">
-        <v>0</v>
-      </c>
-      <c r="EB3">
-        <v>0</v>
-      </c>
-      <c r="EC3">
-        <v>0</v>
-      </c>
-      <c r="ED3">
-        <v>0</v>
-      </c>
-      <c r="EE3">
-        <v>0</v>
-      </c>
-      <c r="EF3">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>164</v>
-      </c>
       <c r="EH3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="EJ3">
         <v>0</v>
@@ -2159,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="EO3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="EP3">
         <v>0</v>
@@ -2194,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2206,369 +2221,770 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
+        <v>152</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>153</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>156</v>
+      </c>
+      <c r="V4" t="s">
         <v>150</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="W4" t="s">
+        <v>159</v>
+      </c>
+      <c r="X4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>179</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>160</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>167</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>169</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>169</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>169</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>162</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>168</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>168</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>150</v>
+      </c>
+      <c r="DV4">
+        <v>0</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>150</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DZ4">
+        <v>0</v>
+      </c>
+      <c r="EA4">
+        <v>0</v>
+      </c>
+      <c r="EB4">
+        <v>0</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4">
+        <v>0</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4">
+        <v>0</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>161</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>169</v>
+      </c>
+      <c r="EJ4">
+        <v>0</v>
+      </c>
+      <c r="EK4">
+        <v>0</v>
+      </c>
+      <c r="EL4">
+        <v>0</v>
+      </c>
+      <c r="EM4">
+        <v>0</v>
+      </c>
+      <c r="EN4">
+        <v>0</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>181</v>
+      </c>
+      <c r="EP4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:146">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>151</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4" t="s">
-        <v>154</v>
-      </c>
-      <c r="V4" t="s">
-        <v>149</v>
-      </c>
-      <c r="W4" t="s">
-        <v>156</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>152</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>153</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
         <v>157</v>
       </c>
-      <c r="Y4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="V5" t="s">
+        <v>151</v>
+      </c>
+      <c r="W5" t="s">
+        <v>159</v>
+      </c>
+      <c r="X5" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z5" t="s">
         <v>167</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AA5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI5" t="s">
         <v>164</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AJ5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN5" t="s">
         <v>164</v>
       </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>157</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>165</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>165</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>165</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>165</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>172</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>173</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>165</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>157</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>157</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>163</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>165</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>165</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>165</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
-        <v>0</v>
-      </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>166</v>
-      </c>
-      <c r="DA4">
-        <v>0</v>
-      </c>
-      <c r="DB4" t="s">
+      <c r="BO5" t="s">
+        <v>167</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>169</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>169</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>170</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>162</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>176</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>178</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>170</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>179</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>169</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>169</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>169</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>169</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>162</v>
+      </c>
+      <c r="CK5" t="s">
         <v>164</v>
       </c>
-      <c r="DC4">
-        <v>0</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>164</v>
-      </c>
-      <c r="DE4">
-        <v>0</v>
-      </c>
-      <c r="DG4">
-        <v>0</v>
-      </c>
-      <c r="DI4">
-        <v>0</v>
-      </c>
-      <c r="DK4">
-        <v>0</v>
-      </c>
-      <c r="DM4">
-        <v>0</v>
-      </c>
-      <c r="DP4">
-        <v>0</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>149</v>
-      </c>
-      <c r="DV4">
-        <v>0</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>149</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DZ4">
-        <v>0</v>
-      </c>
-      <c r="EA4">
-        <v>0</v>
-      </c>
-      <c r="EB4">
-        <v>0</v>
-      </c>
-      <c r="EC4">
-        <v>0</v>
-      </c>
-      <c r="ED4">
-        <v>0</v>
-      </c>
-      <c r="EE4">
-        <v>0</v>
-      </c>
-      <c r="EF4">
-        <v>0</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>158</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>165</v>
-      </c>
-      <c r="EJ4">
-        <v>0</v>
-      </c>
-      <c r="EK4">
-        <v>0</v>
-      </c>
-      <c r="EL4">
-        <v>0</v>
-      </c>
-      <c r="EM4">
-        <v>0</v>
-      </c>
-      <c r="EN4">
-        <v>0</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>176</v>
-      </c>
-      <c r="EP4">
+      <c r="CL5" t="s">
+        <v>167</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>170</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>162</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>169</v>
+      </c>
+      <c r="DS5">
+        <v>0</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>151</v>
+      </c>
+      <c r="DV5">
+        <v>0</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>169</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>169</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>151</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>169</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>169</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>161</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5">
+        <v>0</v>
+      </c>
+      <c r="EE5">
+        <v>0</v>
+      </c>
+      <c r="EF5">
+        <v>0</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>151</v>
+      </c>
+      <c r="EH5">
+        <v>0</v>
+      </c>
+      <c r="EI5">
+        <v>0</v>
+      </c>
+      <c r="EJ5">
+        <v>0</v>
+      </c>
+      <c r="EK5">
+        <v>0</v>
+      </c>
+      <c r="EL5">
+        <v>0</v>
+      </c>
+      <c r="EM5">
+        <v>0</v>
+      </c>
+      <c r="EN5">
+        <v>0</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>181</v>
+      </c>
+      <c r="EP5">
         <v>0</v>
       </c>
     </row>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="185">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -469,6 +469,9 @@
     <t>22</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
@@ -487,6 +490,9 @@
     <t>Mahuwe Clinic</t>
   </si>
   <si>
+    <t>Muuyu</t>
+  </si>
+  <si>
     <t>Sanyati Hospital</t>
   </si>
   <si>
@@ -499,9 +505,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -511,6 +514,9 @@
     <t>6</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -526,9 +532,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
@@ -542,6 +545,9 @@
   </si>
   <si>
     <t>2025-05-28T12:33:30.415196Z</t>
+  </si>
+  <si>
+    <t>2025-06-12T12:20:17.324703Z</t>
   </si>
   <si>
     <t>2025-06-12T12:16:06.575018Z</t>
@@ -920,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EP5"/>
+  <dimension ref="A1:EP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1404,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1413,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1425,196 +1431,196 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V2" t="s">
         <v>148</v>
       </c>
       <c r="W2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="X2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Y2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB2" t="s">
         <v>163</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BP2" t="s">
         <v>165</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="BQ2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>181</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>162</v>
+      </c>
+      <c r="CC2" t="s">
         <v>164</v>
       </c>
-      <c r="AB2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="CD2" t="s">
+        <v>167</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF2" t="s">
         <v>163</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>169</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>169</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>163</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>164</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>169</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>169</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>173</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>177</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>169</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>179</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>160</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>163</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>165</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>164</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>162</v>
-      </c>
       <c r="CG2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CH2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CI2">
         <v>0</v>
@@ -1677,13 +1683,13 @@
         <v>0</v>
       </c>
       <c r="DF2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="DG2">
         <v>0</v>
       </c>
       <c r="DH2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DI2">
         <v>0</v>
@@ -1698,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="DQ2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DS2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DU2" t="s">
         <v>148</v>
@@ -1710,13 +1716,13 @@
         <v>0</v>
       </c>
       <c r="DW2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DX2" t="s">
         <v>148</v>
       </c>
       <c r="DY2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DZ2">
         <v>0</v>
@@ -1740,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="EG2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="EH2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="EJ2">
         <v>0</v>
@@ -1761,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="EO2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EP2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:146">
@@ -1808,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1817,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1829,268 +1835,268 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="W3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="X3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="Y3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
         <v>166</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AI3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>167</v>
+      </c>
+      <c r="BN3" t="s">
         <v>168</v>
       </c>
-      <c r="AB3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="BO3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BP3" t="s">
         <v>170</v>
       </c>
-      <c r="AI3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BN3" t="s">
+      <c r="BQ3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>163</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>179</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>181</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>167</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>168</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>173</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>170</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>163</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="s">
         <v>166</v>
       </c>
-      <c r="BO3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>168</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>162</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>174</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>177</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>165</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>166</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>168</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>169</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>162</v>
-      </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CQ3">
-        <v>0</v>
-      </c>
-      <c r="CR3">
-        <v>0</v>
-      </c>
-      <c r="CS3">
-        <v>0</v>
-      </c>
-      <c r="CT3">
-        <v>0</v>
-      </c>
-      <c r="CU3">
-        <v>0</v>
-      </c>
-      <c r="CV3">
-        <v>0</v>
-      </c>
-      <c r="CW3">
-        <v>0</v>
-      </c>
-      <c r="CX3">
-        <v>0</v>
-      </c>
-      <c r="CY3">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>170</v>
-      </c>
       <c r="DA3">
         <v>0</v>
       </c>
       <c r="DB3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DC3">
         <v>0</v>
       </c>
       <c r="DD3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DE3">
         <v>0</v>
       </c>
       <c r="DF3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DG3">
         <v>0</v>
@@ -2099,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="DJ3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DK3">
         <v>0</v>
@@ -2111,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="DQ3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DS3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DU3" t="s">
         <v>149</v>
@@ -2123,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DX3" t="s">
         <v>149</v>
       </c>
       <c r="DY3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DZ3">
         <v>0</v>
@@ -2153,10 +2159,10 @@
         <v>0</v>
       </c>
       <c r="EG3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="EH3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="EJ3">
         <v>0</v>
@@ -2174,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="EO3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EP3">
         <v>0</v>
@@ -2221,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2230,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2242,193 +2248,193 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V4" t="s">
         <v>150</v>
       </c>
       <c r="W4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="X4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Y4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Z4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AA4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>162</v>
+      </c>
+      <c r="BO4" t="s">
         <v>169</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="BP4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>179</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>181</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>162</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>162</v>
+      </c>
+      <c r="CD4" t="s">
         <v>169</v>
       </c>
-      <c r="AC4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>167</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>177</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>179</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>160</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>160</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>167</v>
-      </c>
       <c r="CE4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CF4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CG4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CH4">
         <v>0</v>
@@ -2485,19 +2491,19 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DA4">
         <v>0</v>
       </c>
       <c r="DB4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="DC4">
         <v>0</v>
       </c>
       <c r="DD4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="DE4">
         <v>0</v>
@@ -2518,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="DQ4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DS4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DU4" t="s">
         <v>150</v>
@@ -2530,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="DW4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DX4" t="s">
         <v>150</v>
       </c>
       <c r="DY4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DZ4">
         <v>0</v>
@@ -2560,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="EG4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="EH4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="EJ4">
         <v>0</v>
@@ -2581,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="EO4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EP4">
         <v>0</v>
@@ -2628,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2637,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2649,61 +2655,61 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V5" t="s">
         <v>151</v>
       </c>
       <c r="W5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="X5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Z5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AB5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AC5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AD5" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AF5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AI5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AJ5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK5">
         <v>0</v>
       </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>162</v>
+      <c r="AL5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -2778,25 +2784,25 @@
         <v>0</v>
       </c>
       <c r="BM5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BN5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BO5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BP5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BQ5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="BR5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BS5" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="BU5">
         <v>0</v>
@@ -2805,64 +2811,64 @@
         <v>0</v>
       </c>
       <c r="BW5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BX5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BY5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BZ5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CA5">
         <v>0</v>
       </c>
       <c r="CB5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CC5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CD5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CE5">
         <v>0</v>
       </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>169</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>169</v>
+      <c r="CF5" t="s">
+        <v>171</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
       </c>
       <c r="CI5">
         <v>0</v>
       </c>
       <c r="CJ5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CK5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CL5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="CM5">
         <v>0</v>
       </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>170</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>162</v>
+      <c r="CN5" t="s">
+        <v>166</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
       </c>
       <c r="CQ5">
         <v>0</v>
@@ -2916,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="DQ5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DS5">
         <v>0</v>
@@ -2928,22 +2934,22 @@
         <v>0</v>
       </c>
       <c r="DW5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DX5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DY5" t="s">
         <v>151</v>
       </c>
       <c r="DZ5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="EA5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="EB5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="EC5">
         <v>0</v>
@@ -2982,9 +2988,410 @@
         <v>0</v>
       </c>
       <c r="EO5" t="s">
+        <v>183</v>
+      </c>
+      <c r="EP5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:146">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>154</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>159</v>
+      </c>
+      <c r="V6" t="s">
+        <v>152</v>
+      </c>
+      <c r="W6" t="s">
+        <v>161</v>
+      </c>
+      <c r="X6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>163</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>169</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>171</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>166</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>163</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>180</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>166</v>
+      </c>
+      <c r="BZ6" t="s">
         <v>181</v>
       </c>
-      <c r="EP5">
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>163</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>169</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>163</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS6">
+        <v>0</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>152</v>
+      </c>
+      <c r="DV6">
+        <v>0</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>171</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>171</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>152</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>171</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>151</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
+      </c>
+      <c r="ED6">
+        <v>0</v>
+      </c>
+      <c r="EE6">
+        <v>0</v>
+      </c>
+      <c r="EF6">
+        <v>0</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>152</v>
+      </c>
+      <c r="EH6">
+        <v>0</v>
+      </c>
+      <c r="EI6">
+        <v>0</v>
+      </c>
+      <c r="EJ6">
+        <v>0</v>
+      </c>
+      <c r="EK6">
+        <v>0</v>
+      </c>
+      <c r="EL6">
+        <v>0</v>
+      </c>
+      <c r="EM6">
+        <v>0</v>
+      </c>
+      <c r="EN6">
+        <v>0</v>
+      </c>
+      <c r="EO6" t="s">
+        <v>183</v>
+      </c>
+      <c r="EP6">
         <v>0</v>
       </c>
     </row>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="187">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -454,15 +454,18 @@
     <t>HURUNGWE</t>
   </si>
   <si>
+    <t>SANYATI</t>
+  </si>
+  <si>
     <t>MBIRE</t>
   </si>
   <si>
-    <t>SANYATI</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
@@ -484,6 +487,9 @@
     <t>Chidamoyo Mission Hospital</t>
   </si>
   <si>
+    <t>Chirikiti</t>
+  </si>
+  <si>
     <t>Chitsungo Mission Hospital</t>
   </si>
   <si>
@@ -511,9 +517,6 @@
     <t>17</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -526,12 +529,12 @@
     <t>4</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
@@ -539,6 +542,9 @@
   </si>
   <si>
     <t>2025-05-28T09:04:34.280966Z</t>
+  </si>
+  <si>
+    <t>2025-06-12T12:25:14.018607Z</t>
   </si>
   <si>
     <t>2025-05-28T10:05:11.440353Z</t>
@@ -926,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EP6"/>
+  <dimension ref="A1:EP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1410,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1419,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1431,259 +1437,259 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V2" t="s">
         <v>148</v>
       </c>
       <c r="W2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="X2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Y2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
         <v>164</v>
       </c>
-      <c r="Z2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AI2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>165</v>
       </c>
-      <c r="AB2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="BR2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>183</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>164</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>166</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>168</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>149</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2" t="s">
         <v>172</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>164</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>167</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>165</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>163</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>174</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>181</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>162</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>164</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>167</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>165</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>163</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>171</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>171</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>170</v>
       </c>
       <c r="DG2">
         <v>0</v>
@@ -1746,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="EG2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="EH2" t="s">
         <v>171</v>
@@ -1767,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="EO2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="EP2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:146">
@@ -1814,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1823,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1835,61 +1841,61 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="W3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="X3" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="Y3" t="s">
         <v>165</v>
       </c>
       <c r="Z3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AB3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AC3" t="s">
         <v>171</v>
       </c>
       <c r="AD3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AF3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AJ3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>165</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1918,23 +1924,23 @@
       <c r="AW3">
         <v>0</v>
       </c>
-      <c r="AX3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>171</v>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
       </c>
       <c r="BB3">
         <v>0</v>
       </c>
-      <c r="BC3" t="s">
-        <v>171</v>
+      <c r="BC3">
+        <v>0</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -1964,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="BM3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BO3" t="s">
         <v>167</v>
       </c>
-      <c r="BN3" t="s">
-        <v>168</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>173</v>
-      </c>
       <c r="BP3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BQ3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="BR3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="BS3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="BU3">
         <v>0</v>
@@ -1991,64 +1997,64 @@
         <v>0</v>
       </c>
       <c r="BW3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BX3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="BY3" t="s">
         <v>171</v>
       </c>
       <c r="BZ3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="CA3">
         <v>0</v>
       </c>
       <c r="CB3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL3" t="s">
         <v>167</v>
       </c>
-      <c r="CC3" t="s">
-        <v>168</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>173</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>170</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>171</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>163</v>
-      </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
       <c r="CM3">
         <v>0</v>
       </c>
-      <c r="CN3">
-        <v>0</v>
+      <c r="CN3" t="s">
+        <v>165</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
-      <c r="CP3">
-        <v>0</v>
+      <c r="CP3" t="s">
+        <v>165</v>
       </c>
       <c r="CQ3">
         <v>0</v>
@@ -2077,36 +2083,21 @@
       <c r="CY3">
         <v>0</v>
       </c>
-      <c r="CZ3" t="s">
-        <v>166</v>
-      </c>
       <c r="DA3">
         <v>0</v>
       </c>
-      <c r="DB3" t="s">
-        <v>171</v>
-      </c>
       <c r="DC3">
         <v>0</v>
       </c>
-      <c r="DD3" t="s">
-        <v>171</v>
-      </c>
       <c r="DE3">
         <v>0</v>
       </c>
-      <c r="DF3" t="s">
-        <v>163</v>
-      </c>
       <c r="DG3">
         <v>0</v>
       </c>
       <c r="DI3">
         <v>0</v>
       </c>
-      <c r="DJ3" t="s">
-        <v>171</v>
-      </c>
       <c r="DK3">
         <v>0</v>
       </c>
@@ -2119,8 +2110,8 @@
       <c r="DQ3" t="s">
         <v>171</v>
       </c>
-      <c r="DS3" t="s">
-        <v>171</v>
+      <c r="DS3">
+        <v>0</v>
       </c>
       <c r="DU3" t="s">
         <v>149</v>
@@ -2132,19 +2123,19 @@
         <v>171</v>
       </c>
       <c r="DX3" t="s">
+        <v>171</v>
+      </c>
+      <c r="DY3" t="s">
         <v>149</v>
       </c>
-      <c r="DY3" t="s">
-        <v>171</v>
-      </c>
-      <c r="DZ3">
-        <v>0</v>
-      </c>
-      <c r="EA3">
-        <v>0</v>
-      </c>
-      <c r="EB3">
-        <v>0</v>
+      <c r="DZ3" t="s">
+        <v>171</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>167</v>
       </c>
       <c r="EC3">
         <v>0</v>
@@ -2159,10 +2150,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="s">
-        <v>170</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>171</v>
+        <v>149</v>
+      </c>
+      <c r="EH3">
+        <v>0</v>
+      </c>
+      <c r="EI3">
+        <v>0</v>
       </c>
       <c r="EJ3">
         <v>0</v>
@@ -2180,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="EO3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="EP3">
         <v>0</v>
@@ -2200,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2227,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2236,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2248,25 +2242,25 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V4" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="W4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="X4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="Y4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Z4" t="s">
         <v>169</v>
       </c>
       <c r="AA4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AB4" t="s">
         <v>171</v>
@@ -2278,163 +2272,163 @@
         <v>171</v>
       </c>
       <c r="AF4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP4" t="s">
         <v>172</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>162</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>162</v>
-      </c>
-      <c r="BO4" t="s">
+      <c r="BQ4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>183</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>168</v>
+      </c>
+      <c r="CC4" t="s">
         <v>169</v>
       </c>
-      <c r="BP4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>176</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>181</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>162</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>162</v>
-      </c>
       <c r="CD4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="CE4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="CF4" t="s">
         <v>171</v>
       </c>
       <c r="CG4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="CH4">
         <v>0</v>
@@ -2491,28 +2485,34 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="DA4">
         <v>0</v>
       </c>
       <c r="DB4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DC4">
         <v>0</v>
       </c>
       <c r="DD4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DE4">
         <v>0</v>
       </c>
+      <c r="DF4" t="s">
+        <v>165</v>
+      </c>
       <c r="DG4">
         <v>0</v>
       </c>
       <c r="DI4">
         <v>0</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>171</v>
       </c>
       <c r="DK4">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="EG4" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="EH4" t="s">
         <v>171</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="EO4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="EP4">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2655,28 +2655,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V5" t="s">
         <v>151</v>
       </c>
       <c r="W5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="X5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Z5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="s">
         <v>171</v>
       </c>
       <c r="AB5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AC5" t="s">
         <v>171</v>
@@ -2685,25 +2685,25 @@
         <v>171</v>
       </c>
       <c r="AF5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI5" t="s">
         <v>172</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>166</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AK5">
         <v>0</v>
       </c>
-      <c r="AL5" t="s">
-        <v>166</v>
+      <c r="AL5">
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -2738,14 +2738,14 @@
       <c r="AW5">
         <v>0</v>
       </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
+      <c r="AX5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>171</v>
       </c>
       <c r="BA5">
         <v>0</v>
@@ -2784,19 +2784,19 @@
         <v>0</v>
       </c>
       <c r="BM5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BN5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BO5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="BP5" t="s">
         <v>171</v>
       </c>
       <c r="BQ5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BR5" t="s">
         <v>171</v>
@@ -2811,37 +2811,37 @@
         <v>0</v>
       </c>
       <c r="BW5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BX5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BY5" t="s">
         <v>171</v>
       </c>
       <c r="BZ5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="CA5">
         <v>0</v>
       </c>
       <c r="CB5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="CC5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="CD5" t="s">
-        <v>171</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>171</v>
       </c>
       <c r="CF5" t="s">
         <v>171</v>
       </c>
-      <c r="CG5">
-        <v>0</v>
+      <c r="CG5" t="s">
+        <v>171</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -2849,20 +2849,20 @@
       <c r="CI5">
         <v>0</v>
       </c>
-      <c r="CJ5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>166</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>166</v>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
       </c>
       <c r="CM5">
         <v>0</v>
       </c>
-      <c r="CN5" t="s">
-        <v>166</v>
+      <c r="CN5">
+        <v>0</v>
       </c>
       <c r="CO5">
         <v>0</v>
@@ -2897,12 +2897,21 @@
       <c r="CY5">
         <v>0</v>
       </c>
+      <c r="CZ5" t="s">
+        <v>165</v>
+      </c>
       <c r="DA5">
         <v>0</v>
       </c>
+      <c r="DB5" t="s">
+        <v>172</v>
+      </c>
       <c r="DC5">
         <v>0</v>
       </c>
+      <c r="DD5" t="s">
+        <v>172</v>
+      </c>
       <c r="DE5">
         <v>0</v>
       </c>
@@ -2924,8 +2933,8 @@
       <c r="DQ5" t="s">
         <v>171</v>
       </c>
-      <c r="DS5">
-        <v>0</v>
+      <c r="DS5" t="s">
+        <v>171</v>
       </c>
       <c r="DU5" t="s">
         <v>151</v>
@@ -2937,19 +2946,19 @@
         <v>171</v>
       </c>
       <c r="DX5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="DY5" t="s">
-        <v>151</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>171</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>171</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>166</v>
+        <v>171</v>
+      </c>
+      <c r="DZ5">
+        <v>0</v>
+      </c>
+      <c r="EA5">
+        <v>0</v>
+      </c>
+      <c r="EB5">
+        <v>0</v>
       </c>
       <c r="EC5">
         <v>0</v>
@@ -2964,13 +2973,10 @@
         <v>0</v>
       </c>
       <c r="EG5" t="s">
-        <v>151</v>
-      </c>
-      <c r="EH5">
-        <v>0</v>
-      </c>
-      <c r="EI5">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>171</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -2988,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="EO5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="EP5">
         <v>0</v>
@@ -3008,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3035,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -3044,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -3056,220 +3062,220 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="V6" t="s">
         <v>152</v>
       </c>
       <c r="W6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="X6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Y6" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="s">
         <v>165</v>
       </c>
-      <c r="Z6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>163</v>
-      </c>
       <c r="AI6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="s">
         <v>165</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>163</v>
-      </c>
       <c r="BN6" t="s">
+        <v>167</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>167</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>171</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>167</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>171</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>171</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>179</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>182</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="s">
         <v>165</v>
       </c>
-      <c r="BO6" t="s">
-        <v>169</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>171</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>166</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>163</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>178</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>180</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>166</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>181</v>
-      </c>
-      <c r="CA6">
-        <v>0</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>171</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>171</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>171</v>
-      </c>
-      <c r="CE6">
-        <v>0</v>
-      </c>
-      <c r="CF6">
-        <v>0</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>171</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>171</v>
-      </c>
-      <c r="CI6">
-        <v>0</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>163</v>
-      </c>
       <c r="CK6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CL6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="CM6">
         <v>0</v>
       </c>
-      <c r="CN6">
-        <v>0</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>166</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>163</v>
+      <c r="CN6" t="s">
+        <v>167</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
       </c>
       <c r="CQ6">
         <v>0</v>
@@ -3350,7 +3356,7 @@
         <v>171</v>
       </c>
       <c r="EB6" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="EC6">
         <v>0</v>
@@ -3389,9 +3395,410 @@
         <v>0</v>
       </c>
       <c r="EO6" t="s">
+        <v>185</v>
+      </c>
+      <c r="EP6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:146">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>154</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>155</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>161</v>
+      </c>
+      <c r="V7" t="s">
+        <v>153</v>
+      </c>
+      <c r="W7" t="s">
+        <v>163</v>
+      </c>
+      <c r="X7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>149</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>171</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>180</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>182</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BZ7" t="s">
         <v>183</v>
       </c>
-      <c r="EP6">
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>171</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>171</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>171</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>171</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>171</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>149</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>170</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>167</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DI7">
+        <v>0</v>
+      </c>
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DP7">
+        <v>0</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS7">
+        <v>0</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>153</v>
+      </c>
+      <c r="DV7">
+        <v>0</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>171</v>
+      </c>
+      <c r="DX7" t="s">
+        <v>171</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>153</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>171</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>152</v>
+      </c>
+      <c r="EC7">
+        <v>0</v>
+      </c>
+      <c r="ED7">
+        <v>0</v>
+      </c>
+      <c r="EE7">
+        <v>0</v>
+      </c>
+      <c r="EF7">
+        <v>0</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>153</v>
+      </c>
+      <c r="EH7">
+        <v>0</v>
+      </c>
+      <c r="EI7">
+        <v>0</v>
+      </c>
+      <c r="EJ7">
+        <v>0</v>
+      </c>
+      <c r="EK7">
+        <v>0</v>
+      </c>
+      <c r="EL7">
+        <v>0</v>
+      </c>
+      <c r="EM7">
+        <v>0</v>
+      </c>
+      <c r="EN7">
+        <v>0</v>
+      </c>
+      <c r="EO7" t="s">
+        <v>185</v>
+      </c>
+      <c r="EP7">
         <v>0</v>
       </c>
     </row>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="190">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -475,6 +475,9 @@
     <t>7</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
@@ -499,6 +502,9 @@
     <t>Muuyu</t>
   </si>
   <si>
+    <t>Sanyati Arda</t>
+  </si>
+  <si>
     <t>Sanyati Hospital</t>
   </si>
   <si>
@@ -514,12 +520,18 @@
     <t>1</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -529,12 +541,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
@@ -554,6 +560,9 @@
   </si>
   <si>
     <t>2025-06-12T12:20:17.324703Z</t>
+  </si>
+  <si>
+    <t>2025-06-12T12:30:42.528492Z</t>
   </si>
   <si>
     <t>2025-06-12T12:16:06.575018Z</t>
@@ -932,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EP7"/>
+  <dimension ref="A1:EP8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1416,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1425,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1437,154 +1446,154 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V2" t="s">
         <v>148</v>
       </c>
       <c r="W2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="X2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Y2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Z2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AA2" t="s">
         <v>149</v>
       </c>
       <c r="AB2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AC2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK2" t="s">
         <v>171</v>
       </c>
-      <c r="AD2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="s">
         <v>166</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="BN2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BO2" t="s">
         <v>172</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>164</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>166</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>168</v>
       </c>
       <c r="BP2" t="s">
         <v>149</v>
       </c>
       <c r="BQ2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BR2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BS2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BU2">
         <v>0</v>
@@ -1593,109 +1602,109 @@
         <v>0</v>
       </c>
       <c r="BW2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BX2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BY2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BZ2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="CA2">
         <v>0</v>
       </c>
       <c r="CB2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CC2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="CD2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="CE2" t="s">
         <v>149</v>
       </c>
       <c r="CF2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CG2" t="s">
+        <v>168</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>168</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2" t="s">
         <v>171</v>
       </c>
-      <c r="CH2" t="s">
-        <v>171</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>172</v>
-      </c>
       <c r="DG2">
         <v>0</v>
       </c>
       <c r="DH2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DI2">
         <v>0</v>
@@ -1710,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="DQ2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DS2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DU2" t="s">
         <v>148</v>
@@ -1722,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="DW2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DX2" t="s">
         <v>148</v>
       </c>
       <c r="DY2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DZ2">
         <v>0</v>
@@ -1752,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="EG2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="EH2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="EJ2">
         <v>0</v>
@@ -1773,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="EO2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="EP2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:146">
@@ -1820,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1829,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1841,61 +1850,61 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V3" t="s">
         <v>149</v>
       </c>
       <c r="W3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="X3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Z3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AA3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AB3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AC3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AD3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AF3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AI3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AJ3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1970,25 +1979,25 @@
         <v>0</v>
       </c>
       <c r="BM3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BN3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BO3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BP3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BQ3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BR3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BS3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BU3">
         <v>0</v>
@@ -1997,64 +2006,64 @@
         <v>0</v>
       </c>
       <c r="BW3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BX3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BY3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BZ3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="CA3">
         <v>0</v>
       </c>
       <c r="CB3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="CC3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="CD3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="CE3">
         <v>0</v>
       </c>
       <c r="CF3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="CG3">
         <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CK3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CL3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="CM3">
         <v>0</v>
       </c>
       <c r="CN3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CQ3">
         <v>0</v>
@@ -2108,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="DQ3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DS3">
         <v>0</v>
@@ -2120,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DX3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DY3" t="s">
         <v>149</v>
       </c>
       <c r="DZ3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="EA3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="EB3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="EC3">
         <v>0</v>
@@ -2174,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="EO3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="EP3">
         <v>0</v>
@@ -2221,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2230,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2242,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="W4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="X4" t="s">
         <v>152</v>
@@ -2257,178 +2266,178 @@
         <v>149</v>
       </c>
       <c r="Z4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AA4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="s">
         <v>172</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="BN4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BP4" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="BQ4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>179</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>172</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>173</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>176</v>
+      </c>
+      <c r="CE4" t="s">
         <v>171</v>
       </c>
-      <c r="AD4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>168</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>174</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>172</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>165</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>177</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>183</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>168</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>169</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>174</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>172</v>
-      </c>
       <c r="CF4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="CG4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CH4">
         <v>0</v>
@@ -2485,25 +2494,25 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="DA4">
         <v>0</v>
       </c>
       <c r="DB4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DC4">
         <v>0</v>
       </c>
       <c r="DD4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DE4">
         <v>0</v>
       </c>
       <c r="DF4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="DG4">
         <v>0</v>
@@ -2512,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="DJ4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DK4">
         <v>0</v>
@@ -2524,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="DQ4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DS4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DU4" t="s">
         <v>150</v>
@@ -2536,40 +2545,40 @@
         <v>0</v>
       </c>
       <c r="DW4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DX4" t="s">
         <v>150</v>
       </c>
       <c r="DY4" t="s">
+        <v>168</v>
+      </c>
+      <c r="DZ4">
+        <v>0</v>
+      </c>
+      <c r="EA4">
+        <v>0</v>
+      </c>
+      <c r="EB4">
+        <v>0</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4">
+        <v>0</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4">
+        <v>0</v>
+      </c>
+      <c r="EG4" t="s">
         <v>171</v>
       </c>
-      <c r="DZ4">
-        <v>0</v>
-      </c>
-      <c r="EA4">
-        <v>0</v>
-      </c>
-      <c r="EB4">
-        <v>0</v>
-      </c>
-      <c r="EC4">
-        <v>0</v>
-      </c>
-      <c r="ED4">
-        <v>0</v>
-      </c>
-      <c r="EE4">
-        <v>0</v>
-      </c>
-      <c r="EF4">
-        <v>0</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>172</v>
-      </c>
       <c r="EH4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="EJ4">
         <v>0</v>
@@ -2587,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="EO4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="EP4">
         <v>0</v>
@@ -2634,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2643,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2655,263 +2664,263 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="V5" t="s">
         <v>151</v>
       </c>
       <c r="W5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="X5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Y5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Z5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AA5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI5" t="s">
         <v>171</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AJ5" t="s">
         <v>171</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>168</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>166</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>166</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>168</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>168</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>168</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>180</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>166</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>166</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>174</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>168</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>168</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>168</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>167</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="s">
         <v>171</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5" t="s">
         <v>171</v>
       </c>
-      <c r="AF5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>172</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>171</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>171</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>164</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>164</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>171</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>171</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>171</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>178</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>181</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>171</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>183</v>
-      </c>
-      <c r="CA5">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>164</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>164</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>170</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>171</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>171</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>171</v>
-      </c>
-      <c r="CH5">
-        <v>0</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5">
-        <v>0</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5">
-        <v>0</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
-      </c>
-      <c r="CP5">
-        <v>0</v>
-      </c>
-      <c r="CQ5">
-        <v>0</v>
-      </c>
-      <c r="CR5">
-        <v>0</v>
-      </c>
-      <c r="CS5">
-        <v>0</v>
-      </c>
-      <c r="CT5">
-        <v>0</v>
-      </c>
-      <c r="CU5">
-        <v>0</v>
-      </c>
-      <c r="CV5">
-        <v>0</v>
-      </c>
-      <c r="CW5">
-        <v>0</v>
-      </c>
-      <c r="CX5">
-        <v>0</v>
-      </c>
-      <c r="CY5">
-        <v>0</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>165</v>
-      </c>
-      <c r="DA5">
-        <v>0</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>172</v>
-      </c>
-      <c r="DC5">
-        <v>0</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>172</v>
-      </c>
       <c r="DE5">
         <v>0</v>
       </c>
@@ -2931,10 +2940,10 @@
         <v>0</v>
       </c>
       <c r="DQ5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DS5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DU5" t="s">
         <v>151</v>
@@ -2943,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="DW5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DX5" t="s">
         <v>151</v>
       </c>
       <c r="DY5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DZ5">
         <v>0</v>
@@ -2976,7 +2985,7 @@
         <v>152</v>
       </c>
       <c r="EH5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -2994,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="EO5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="EP5">
         <v>0</v>
@@ -3041,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -3050,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -3062,55 +3071,55 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V6" t="s">
         <v>152</v>
       </c>
       <c r="W6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="X6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Z6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AA6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AB6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AC6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AD6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AF6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AI6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AJ6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AK6">
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -3191,25 +3200,25 @@
         <v>0</v>
       </c>
       <c r="BM6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BN6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BO6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BP6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BQ6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BS6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BU6">
         <v>0</v>
@@ -3218,34 +3227,34 @@
         <v>0</v>
       </c>
       <c r="BW6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BX6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BY6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BZ6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="CA6">
         <v>0</v>
       </c>
       <c r="CB6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="CC6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="CD6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="CE6">
         <v>0</v>
       </c>
       <c r="CF6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="CG6">
         <v>0</v>
@@ -3257,19 +3266,19 @@
         <v>0</v>
       </c>
       <c r="CJ6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CK6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="CL6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="CM6">
         <v>0</v>
       </c>
       <c r="CN6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="CO6">
         <v>0</v>
@@ -3329,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="DQ6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DS6">
         <v>0</v>
@@ -3341,22 +3350,22 @@
         <v>0</v>
       </c>
       <c r="DW6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DX6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DY6" t="s">
         <v>152</v>
       </c>
       <c r="DZ6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="EA6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="EB6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="EC6">
         <v>0</v>
@@ -3395,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="EO6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="EP6">
         <v>0</v>
@@ -3442,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -3451,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -3463,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="V7" t="s">
         <v>153</v>
       </c>
       <c r="W7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="X7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Y7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z7" t="s">
         <v>149</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>170</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>171</v>
       </c>
       <c r="AB7" t="s">
         <v>171</v>
@@ -3490,34 +3499,34 @@
         <v>167</v>
       </c>
       <c r="AD7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AF7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
-      <c r="AH7" t="s">
-        <v>165</v>
+      <c r="AH7">
+        <v>0</v>
       </c>
       <c r="AI7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>149</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>170</v>
       </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
+      <c r="AL7" t="s">
+        <v>171</v>
       </c>
       <c r="AM7" t="s">
         <v>167</v>
       </c>
       <c r="AN7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -3592,16 +3601,16 @@
         <v>0</v>
       </c>
       <c r="BM7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="BN7" t="s">
+        <v>171</v>
+      </c>
+      <c r="BO7" t="s">
         <v>149</v>
       </c>
-      <c r="BO7" t="s">
+      <c r="BP7" t="s">
         <v>170</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>171</v>
       </c>
       <c r="BQ7" t="s">
         <v>171</v>
@@ -3610,7 +3619,7 @@
         <v>167</v>
       </c>
       <c r="BS7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BU7">
         <v>0</v>
@@ -3619,64 +3628,64 @@
         <v>0</v>
       </c>
       <c r="BW7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BX7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BY7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BZ7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="CA7">
         <v>0</v>
       </c>
-      <c r="CB7" t="s">
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>168</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>168</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>168</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>168</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>168</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>168</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7" t="s">
         <v>171</v>
       </c>
-      <c r="CC7" t="s">
+      <c r="CL7" t="s">
+        <v>149</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>170</v>
+      </c>
+      <c r="CN7" t="s">
         <v>171</v>
       </c>
-      <c r="CD7" t="s">
-        <v>171</v>
-      </c>
-      <c r="CE7">
-        <v>0</v>
-      </c>
-      <c r="CF7">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>171</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>171</v>
-      </c>
-      <c r="CI7">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>165</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>149</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>170</v>
-      </c>
-      <c r="CM7">
-        <v>0</v>
-      </c>
-      <c r="CN7">
-        <v>0</v>
-      </c>
       <c r="CO7" t="s">
         <v>167</v>
       </c>
       <c r="CP7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CQ7">
         <v>0</v>
@@ -3730,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="DQ7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DS7">
         <v>0</v>
@@ -3742,22 +3751,22 @@
         <v>0</v>
       </c>
       <c r="DW7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DX7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DY7" t="s">
         <v>153</v>
       </c>
       <c r="DZ7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="EA7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="EB7" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="EC7">
         <v>0</v>
@@ -3796,9 +3805,410 @@
         <v>0</v>
       </c>
       <c r="EO7" t="s">
+        <v>188</v>
+      </c>
+      <c r="EP7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:146">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>155</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>163</v>
+      </c>
+      <c r="V8" t="s">
+        <v>154</v>
+      </c>
+      <c r="W8" t="s">
+        <v>165</v>
+      </c>
+      <c r="X8" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>167</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>149</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>168</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>170</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>167</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX8" t="s">
         <v>185</v>
       </c>
-      <c r="EP7">
+      <c r="BY8" t="s">
+        <v>170</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>168</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>168</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>168</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>168</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>168</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>167</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>149</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>174</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>170</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>167</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>168</v>
+      </c>
+      <c r="DS8">
+        <v>0</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>154</v>
+      </c>
+      <c r="DV8">
+        <v>0</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>168</v>
+      </c>
+      <c r="DX8" t="s">
+        <v>168</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>154</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>168</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>168</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>152</v>
+      </c>
+      <c r="EC8">
+        <v>0</v>
+      </c>
+      <c r="ED8">
+        <v>0</v>
+      </c>
+      <c r="EE8">
+        <v>0</v>
+      </c>
+      <c r="EF8">
+        <v>0</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>154</v>
+      </c>
+      <c r="EH8">
+        <v>0</v>
+      </c>
+      <c r="EI8">
+        <v>0</v>
+      </c>
+      <c r="EJ8">
+        <v>0</v>
+      </c>
+      <c r="EK8">
+        <v>0</v>
+      </c>
+      <c r="EL8">
+        <v>0</v>
+      </c>
+      <c r="EM8">
+        <v>0</v>
+      </c>
+      <c r="EN8">
+        <v>0</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>188</v>
+      </c>
+      <c r="EP8">
         <v>0</v>
       </c>
     </row>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="196">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -469,12 +469,18 @@
     <t>33</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
@@ -496,12 +502,18 @@
     <t>Chitsungo Mission Hospital</t>
   </si>
   <si>
+    <t>Jompani</t>
+  </si>
+  <si>
     <t>Mahuwe Clinic</t>
   </si>
   <si>
     <t>Muuyu</t>
   </si>
   <si>
+    <t>Nyabango</t>
+  </si>
+  <si>
     <t>Sanyati Arda</t>
   </si>
   <si>
@@ -520,6 +532,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -529,24 +547,21 @@
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>2025-05-28T09:04:34.280966Z</t>
   </si>
   <si>
@@ -556,12 +571,18 @@
     <t>2025-05-28T10:05:11.440353Z</t>
   </si>
   <si>
+    <t>2025-06-12T12:35:28.391560Z</t>
+  </si>
+  <si>
     <t>2025-05-28T12:33:30.415196Z</t>
   </si>
   <si>
     <t>2025-06-12T12:20:17.324703Z</t>
   </si>
   <si>
+    <t>2025-06-12T12:39:52.292053Z</t>
+  </si>
+  <si>
     <t>2025-06-12T12:30:42.528492Z</t>
   </si>
   <si>
@@ -575,9 +596,6 @@
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50_yrs</t>
-  </si>
-  <si>
-    <t>39</t>
   </si>
   <si>
     <t>2025</t>
@@ -941,7 +959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EP8"/>
+  <dimension ref="A1:EP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1425,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1434,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1446,55 +1464,55 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="V2" t="s">
         <v>148</v>
       </c>
       <c r="W2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="X2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Y2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Z2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AA2" t="s">
         <v>149</v>
       </c>
       <c r="AB2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AC2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AD2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AF2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI2" t="s">
         <v>175</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>169</v>
-      </c>
       <c r="AJ2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK2" t="s">
         <v>172</v>
       </c>
-      <c r="AK2" t="s">
-        <v>171</v>
-      </c>
       <c r="AL2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -1539,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="BA2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="BB2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="BC2">
         <v>0</v>
@@ -1575,25 +1593,25 @@
         <v>0</v>
       </c>
       <c r="BM2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="BN2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="BO2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="BP2" t="s">
         <v>149</v>
       </c>
       <c r="BQ2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="BR2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="BS2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="BU2">
         <v>0</v>
@@ -1602,40 +1620,40 @@
         <v>0</v>
       </c>
       <c r="BW2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>193</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>170</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>175</v>
+      </c>
+      <c r="CD2" t="s">
         <v>177</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>184</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>168</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>186</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>166</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>169</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>172</v>
       </c>
       <c r="CE2" t="s">
         <v>149</v>
       </c>
       <c r="CF2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="CG2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="CH2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="CI2">
         <v>0</v>
@@ -1698,13 +1716,13 @@
         <v>0</v>
       </c>
       <c r="DF2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="DG2">
         <v>0</v>
       </c>
       <c r="DH2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DI2">
         <v>0</v>
@@ -1719,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="DQ2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DS2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DU2" t="s">
         <v>148</v>
@@ -1731,13 +1749,13 @@
         <v>0</v>
       </c>
       <c r="DW2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DX2" t="s">
         <v>148</v>
       </c>
       <c r="DY2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DZ2">
         <v>0</v>
@@ -1761,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="EG2" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="EH2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="EJ2">
         <v>0</v>
@@ -1782,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="EO2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="EP2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:146">
@@ -1829,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1838,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1850,61 +1868,61 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V3" t="s">
         <v>149</v>
       </c>
       <c r="W3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="X3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Y3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Z3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AA3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AB3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AC3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AD3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AF3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AI3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1979,25 +1997,25 @@
         <v>0</v>
       </c>
       <c r="BM3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="BN3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="BO3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="BP3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="BQ3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="BR3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="BS3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="BU3">
         <v>0</v>
@@ -2006,64 +2024,64 @@
         <v>0</v>
       </c>
       <c r="BW3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="BX3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="BY3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="BZ3" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="CA3">
         <v>0</v>
       </c>
       <c r="CB3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="CC3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="CD3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="CE3">
         <v>0</v>
       </c>
       <c r="CF3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="CG3">
         <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="CK3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="CL3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="CM3">
         <v>0</v>
       </c>
       <c r="CN3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="CQ3">
         <v>0</v>
@@ -2117,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="DQ3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DS3">
         <v>0</v>
@@ -2129,22 +2147,22 @@
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DX3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DY3" t="s">
         <v>149</v>
       </c>
       <c r="DZ3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="EA3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="EB3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="EC3">
         <v>0</v>
@@ -2183,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="EO3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="EP3">
         <v>0</v>
@@ -2230,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2239,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2251,58 +2269,58 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="V4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="W4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="X4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y4" t="s">
         <v>149</v>
       </c>
       <c r="Z4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AA4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AB4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AC4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AD4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AF4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AI4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AJ4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AK4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -2335,22 +2353,22 @@
         <v>0</v>
       </c>
       <c r="AX4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AY4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AZ4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="BA4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="BB4">
         <v>0</v>
       </c>
       <c r="BC4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -2380,139 +2398,139 @@
         <v>0</v>
       </c>
       <c r="BM4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>178</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>180</v>
+      </c>
+      <c r="BP4" t="s">
         <v>172</v>
       </c>
-      <c r="BN4" t="s">
-        <v>173</v>
-      </c>
-      <c r="BO4" t="s">
+      <c r="BQ4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>191</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>193</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>177</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>178</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>180</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>172</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>174</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>171</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4" t="s">
         <v>176</v>
       </c>
-      <c r="BP4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>168</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>167</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>168</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>184</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>168</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>186</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>172</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>173</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>176</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>168</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>167</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
-        <v>0</v>
-      </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>170</v>
-      </c>
       <c r="DA4">
         <v>0</v>
       </c>
       <c r="DB4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DC4">
         <v>0</v>
       </c>
       <c r="DD4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DE4">
         <v>0</v>
       </c>
       <c r="DF4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="DG4">
         <v>0</v>
@@ -2521,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="DJ4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DK4">
         <v>0</v>
@@ -2533,10 +2551,10 @@
         <v>0</v>
       </c>
       <c r="DQ4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DS4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DU4" t="s">
         <v>150</v>
@@ -2545,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="DW4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DX4" t="s">
         <v>150</v>
       </c>
       <c r="DY4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DZ4">
         <v>0</v>
@@ -2575,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="EG4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="EH4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="EJ4">
         <v>0</v>
@@ -2596,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="EO4" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="EP4">
         <v>0</v>
@@ -2616,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2643,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2652,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2664,61 +2682,61 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="V5" t="s">
         <v>151</v>
       </c>
       <c r="W5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="X5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Y5" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="Z5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AA5" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="AB5" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="AC5" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AD5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AF5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AI5" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="AJ5" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
+        <v>178</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>171</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -2747,14 +2765,14 @@
       <c r="AW5">
         <v>0</v>
       </c>
-      <c r="AX5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>168</v>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
       </c>
       <c r="BA5">
         <v>0</v>
@@ -2793,25 +2811,25 @@
         <v>0</v>
       </c>
       <c r="BM5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="BN5" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="BO5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="BP5" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="BQ5" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="BR5" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="BS5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="BU5">
         <v>0</v>
@@ -2820,64 +2838,64 @@
         <v>0</v>
       </c>
       <c r="BW5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>193</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>174</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>174</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>174</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>174</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>174</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>174</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>174</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>172</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>149</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>178</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>179</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>179</v>
+      </c>
+      <c r="CO5" t="s">
         <v>180</v>
       </c>
-      <c r="BX5" t="s">
-        <v>184</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>186</v>
-      </c>
-      <c r="CA5">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>166</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>166</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>174</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CH5">
-        <v>0</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5">
-        <v>0</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5">
-        <v>0</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
-      </c>
-      <c r="CP5">
-        <v>0</v>
+      <c r="CP5" t="s">
+        <v>171</v>
       </c>
       <c r="CQ5">
         <v>0</v>
@@ -2906,21 +2924,12 @@
       <c r="CY5">
         <v>0</v>
       </c>
-      <c r="CZ5" t="s">
-        <v>167</v>
-      </c>
       <c r="DA5">
         <v>0</v>
       </c>
-      <c r="DB5" t="s">
-        <v>171</v>
-      </c>
       <c r="DC5">
         <v>0</v>
       </c>
-      <c r="DD5" t="s">
-        <v>171</v>
-      </c>
       <c r="DE5">
         <v>0</v>
       </c>
@@ -2940,10 +2949,10 @@
         <v>0</v>
       </c>
       <c r="DQ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="DS5">
+        <v>0</v>
       </c>
       <c r="DU5" t="s">
         <v>151</v>
@@ -2952,22 +2961,22 @@
         <v>0</v>
       </c>
       <c r="DW5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DX5" t="s">
+        <v>174</v>
+      </c>
+      <c r="DY5" t="s">
         <v>151</v>
       </c>
-      <c r="DY5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DZ5">
-        <v>0</v>
-      </c>
-      <c r="EA5">
-        <v>0</v>
-      </c>
-      <c r="EB5">
-        <v>0</v>
+      <c r="DZ5" t="s">
+        <v>174</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>174</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>177</v>
       </c>
       <c r="EC5">
         <v>0</v>
@@ -2982,10 +2991,13 @@
         <v>0</v>
       </c>
       <c r="EG5" t="s">
-        <v>152</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>168</v>
+        <v>151</v>
+      </c>
+      <c r="EH5">
+        <v>0</v>
+      </c>
+      <c r="EI5">
+        <v>0</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -3003,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="EO5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="EP5">
         <v>0</v>
@@ -3023,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3050,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -3059,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -3071,193 +3083,193 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="V6" t="s">
         <v>152</v>
       </c>
       <c r="W6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="X6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Y6" t="s">
         <v>170</v>
       </c>
       <c r="Z6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>174</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="s">
         <v>170</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>167</v>
       </c>
       <c r="BN6" t="s">
         <v>170</v>
       </c>
       <c r="BO6" t="s">
+        <v>173</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>174</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>174</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>174</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>186</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>191</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>193</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="s">
         <v>170</v>
       </c>
-      <c r="BP6" t="s">
-        <v>168</v>
-      </c>
-      <c r="BQ6" t="s">
+      <c r="CC6" t="s">
         <v>170</v>
       </c>
-      <c r="BR6" t="s">
-        <v>168</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>168</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>185</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>168</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>186</v>
-      </c>
-      <c r="CA6">
-        <v>0</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>168</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>168</v>
-      </c>
       <c r="CD6" t="s">
-        <v>168</v>
-      </c>
-      <c r="CE6">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>174</v>
       </c>
       <c r="CF6" t="s">
-        <v>168</v>
-      </c>
-      <c r="CG6">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>174</v>
       </c>
       <c r="CH6">
         <v>0</v>
@@ -3265,20 +3277,20 @@
       <c r="CI6">
         <v>0</v>
       </c>
-      <c r="CJ6" t="s">
-        <v>167</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>170</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>170</v>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
       </c>
       <c r="CM6">
         <v>0</v>
       </c>
-      <c r="CN6" t="s">
-        <v>170</v>
+      <c r="CN6">
+        <v>0</v>
       </c>
       <c r="CO6">
         <v>0</v>
@@ -3313,12 +3325,21 @@
       <c r="CY6">
         <v>0</v>
       </c>
+      <c r="CZ6" t="s">
+        <v>171</v>
+      </c>
       <c r="DA6">
         <v>0</v>
       </c>
+      <c r="DB6" t="s">
+        <v>172</v>
+      </c>
       <c r="DC6">
         <v>0</v>
       </c>
+      <c r="DD6" t="s">
+        <v>172</v>
+      </c>
       <c r="DE6">
         <v>0</v>
       </c>
@@ -3338,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="DQ6" t="s">
-        <v>168</v>
-      </c>
-      <c r="DS6">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>174</v>
       </c>
       <c r="DU6" t="s">
         <v>152</v>
@@ -3350,22 +3371,22 @@
         <v>0</v>
       </c>
       <c r="DW6" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DX6" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="DY6" t="s">
-        <v>152</v>
-      </c>
-      <c r="DZ6" t="s">
-        <v>168</v>
-      </c>
-      <c r="EA6" t="s">
-        <v>168</v>
-      </c>
-      <c r="EB6" t="s">
-        <v>170</v>
+        <v>174</v>
+      </c>
+      <c r="DZ6">
+        <v>0</v>
+      </c>
+      <c r="EA6">
+        <v>0</v>
+      </c>
+      <c r="EB6">
+        <v>0</v>
       </c>
       <c r="EC6">
         <v>0</v>
@@ -3380,13 +3401,10 @@
         <v>0</v>
       </c>
       <c r="EG6" t="s">
-        <v>152</v>
-      </c>
-      <c r="EH6">
-        <v>0</v>
-      </c>
-      <c r="EI6">
-        <v>0</v>
+        <v>153</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>174</v>
       </c>
       <c r="EJ6">
         <v>0</v>
@@ -3404,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="EO6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="EP6">
         <v>0</v>
@@ -3451,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -3460,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -3472,61 +3490,61 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V7" t="s">
         <v>153</v>
       </c>
       <c r="W7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="X7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Y7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Z7" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="AA7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AB7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AC7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AD7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AF7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
-      <c r="AH7">
-        <v>0</v>
+      <c r="AH7" t="s">
+        <v>171</v>
       </c>
       <c r="AI7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AJ7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>170</v>
+        <v>176</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>167</v>
+        <v>176</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -3601,25 +3619,25 @@
         <v>0</v>
       </c>
       <c r="BM7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="BN7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="BO7" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="BP7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="BQ7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="BR7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="BS7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="BU7">
         <v>0</v>
@@ -3628,64 +3646,64 @@
         <v>0</v>
       </c>
       <c r="BW7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="BX7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="BY7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="BZ7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="CA7">
         <v>0</v>
       </c>
-      <c r="CB7">
-        <v>0</v>
+      <c r="CB7" t="s">
+        <v>174</v>
       </c>
       <c r="CC7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="CD7" t="s">
-        <v>168</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
       </c>
       <c r="CF7" t="s">
-        <v>168</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>168</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
       </c>
       <c r="CI7">
         <v>0</v>
       </c>
-      <c r="CJ7">
-        <v>0</v>
+      <c r="CJ7" t="s">
+        <v>171</v>
       </c>
       <c r="CK7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="CL7" t="s">
-        <v>149</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>170</v>
+        <v>176</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
       </c>
       <c r="CN7" t="s">
-        <v>171</v>
-      </c>
-      <c r="CO7" t="s">
-        <v>167</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>167</v>
+        <v>176</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
       </c>
       <c r="CQ7">
         <v>0</v>
@@ -3739,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="DQ7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DS7">
         <v>0</v>
@@ -3751,22 +3769,22 @@
         <v>0</v>
       </c>
       <c r="DW7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DX7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DY7" t="s">
         <v>153</v>
       </c>
       <c r="DZ7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="EA7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="EB7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="EC7">
         <v>0</v>
@@ -3805,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="EO7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="EP7">
         <v>0</v>
@@ -3852,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -3861,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -3873,61 +3891,61 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="V8" t="s">
         <v>154</v>
       </c>
       <c r="W8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="X8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Y8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Z8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA8" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AB8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AC8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AD8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AF8" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AI8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AJ8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>173</v>
       </c>
       <c r="AM8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -4002,25 +4020,25 @@
         <v>0</v>
       </c>
       <c r="BM8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="BN8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="BO8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BP8" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="BQ8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="BR8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BS8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="BU8">
         <v>0</v>
@@ -4029,64 +4047,64 @@
         <v>0</v>
       </c>
       <c r="BW8" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="BX8" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="BY8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="BZ8" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="CA8">
         <v>0</v>
       </c>
       <c r="CB8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="CC8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="CD8" t="s">
-        <v>168</v>
-      </c>
-      <c r="CE8">
-        <v>0</v>
-      </c>
-      <c r="CF8">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>174</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>174</v>
       </c>
       <c r="CG8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="CH8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="CI8">
         <v>0</v>
       </c>
       <c r="CJ8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="CK8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="CL8" t="s">
-        <v>174</v>
-      </c>
-      <c r="CM8">
-        <v>0</v>
-      </c>
-      <c r="CN8">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>176</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>173</v>
       </c>
       <c r="CO8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="CP8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="CQ8">
         <v>0</v>
@@ -4140,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="DQ8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DS8">
         <v>0</v>
@@ -4152,22 +4170,22 @@
         <v>0</v>
       </c>
       <c r="DW8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DX8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DY8" t="s">
         <v>154</v>
       </c>
       <c r="DZ8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="EA8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="EB8" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="EC8">
         <v>0</v>
@@ -4206,9 +4224,811 @@
         <v>0</v>
       </c>
       <c r="EO8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="EP8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:146">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>157</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>158</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>166</v>
+      </c>
+      <c r="V9" t="s">
+        <v>155</v>
+      </c>
+      <c r="W9" t="s">
+        <v>169</v>
+      </c>
+      <c r="X9" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>174</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>172</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>149</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>176</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>172</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>189</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>192</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>193</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>174</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>174</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>174</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>174</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>174</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>174</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>172</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>149</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>176</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>172</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DI9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>0</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>174</v>
+      </c>
+      <c r="DS9">
+        <v>0</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>155</v>
+      </c>
+      <c r="DV9">
+        <v>0</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>174</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>174</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>155</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>174</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>174</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>173</v>
+      </c>
+      <c r="EC9">
+        <v>0</v>
+      </c>
+      <c r="ED9">
+        <v>0</v>
+      </c>
+      <c r="EE9">
+        <v>0</v>
+      </c>
+      <c r="EF9">
+        <v>0</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>155</v>
+      </c>
+      <c r="EH9">
+        <v>0</v>
+      </c>
+      <c r="EI9">
+        <v>0</v>
+      </c>
+      <c r="EJ9">
+        <v>0</v>
+      </c>
+      <c r="EK9">
+        <v>0</v>
+      </c>
+      <c r="EL9">
+        <v>0</v>
+      </c>
+      <c r="EM9">
+        <v>0</v>
+      </c>
+      <c r="EN9">
+        <v>0</v>
+      </c>
+      <c r="EO9" t="s">
+        <v>194</v>
+      </c>
+      <c r="EP9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:146">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>157</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>158</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>167</v>
+      </c>
+      <c r="V10" t="s">
+        <v>156</v>
+      </c>
+      <c r="W10" t="s">
+        <v>169</v>
+      </c>
+      <c r="X10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>171</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>149</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>173</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>174</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>174</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>176</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>171</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>190</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>192</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>176</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>193</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>174</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>174</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>174</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>174</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>174</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>171</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>149</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>173</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>176</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>171</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DI10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DP10">
+        <v>0</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>174</v>
+      </c>
+      <c r="DS10">
+        <v>0</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DV10">
+        <v>0</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>174</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>174</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>174</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>174</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>153</v>
+      </c>
+      <c r="EC10">
+        <v>0</v>
+      </c>
+      <c r="ED10">
+        <v>0</v>
+      </c>
+      <c r="EE10">
+        <v>0</v>
+      </c>
+      <c r="EF10">
+        <v>0</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>156</v>
+      </c>
+      <c r="EH10">
+        <v>0</v>
+      </c>
+      <c r="EI10">
+        <v>0</v>
+      </c>
+      <c r="EJ10">
+        <v>0</v>
+      </c>
+      <c r="EK10">
+        <v>0</v>
+      </c>
+      <c r="EL10">
+        <v>0</v>
+      </c>
+      <c r="EM10">
+        <v>0</v>
+      </c>
+      <c r="EN10">
+        <v>0</v>
+      </c>
+      <c r="EO10" t="s">
+        <v>194</v>
+      </c>
+      <c r="EP10">
         <v>0</v>
       </c>
     </row>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="200">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -469,6 +469,9 @@
     <t>33</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
@@ -502,6 +505,9 @@
     <t>Chitsungo Mission Hospital</t>
   </si>
   <si>
+    <t>Geja</t>
+  </si>
+  <si>
     <t>Jompani</t>
   </si>
   <si>
@@ -544,6 +550,9 @@
     <t>17</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -553,9 +562,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -571,6 +577,9 @@
     <t>2025-05-28T10:05:11.440353Z</t>
   </si>
   <si>
+    <t>2025-06-12T12:48:01.280653Z</t>
+  </si>
+  <si>
     <t>2025-06-12T12:35:28.391560Z</t>
   </si>
   <si>
@@ -596,6 +605,9 @@
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50_yrs</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>2025</t>
@@ -959,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EP10"/>
+  <dimension ref="A1:EP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1443,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1452,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1464,154 +1476,154 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="V2" t="s">
         <v>148</v>
       </c>
       <c r="W2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="X2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Z2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AA2" t="s">
         <v>149</v>
       </c>
       <c r="AB2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AC2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK2" t="s">
         <v>174</v>
       </c>
-      <c r="AD2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN2" t="s">
         <v>177</v>
       </c>
-      <c r="AK2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>174</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>174</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>175</v>
-      </c>
       <c r="BO2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="BP2" t="s">
         <v>149</v>
       </c>
       <c r="BQ2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BR2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BS2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BU2">
         <v>0</v>
@@ -1620,109 +1632,109 @@
         <v>0</v>
       </c>
       <c r="BW2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BX2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="BY2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BZ2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="CA2">
         <v>0</v>
       </c>
       <c r="CB2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="CC2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="CD2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="CE2" t="s">
         <v>149</v>
       </c>
       <c r="CF2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="CG2" t="s">
+        <v>176</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>176</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2" t="s">
         <v>174</v>
       </c>
-      <c r="CH2" t="s">
-        <v>174</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>172</v>
-      </c>
       <c r="DG2">
         <v>0</v>
       </c>
       <c r="DH2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DI2">
         <v>0</v>
@@ -1737,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="DQ2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DS2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DU2" t="s">
         <v>148</v>
@@ -1749,13 +1761,13 @@
         <v>0</v>
       </c>
       <c r="DW2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DX2" t="s">
         <v>148</v>
       </c>
       <c r="DY2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DZ2">
         <v>0</v>
@@ -1779,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="EG2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="EH2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="EJ2">
         <v>0</v>
@@ -1800,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="EO2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="EP2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:146">
@@ -1847,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1856,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1868,61 +1880,61 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V3" t="s">
         <v>149</v>
       </c>
       <c r="W3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="X3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AA3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AB3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AC3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AD3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AF3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AI3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1997,25 +2009,25 @@
         <v>0</v>
       </c>
       <c r="BM3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BN3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BO3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="BP3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BQ3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BR3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BS3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BU3">
         <v>0</v>
@@ -2024,64 +2036,64 @@
         <v>0</v>
       </c>
       <c r="BW3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BX3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BY3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BZ3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="CA3">
         <v>0</v>
       </c>
       <c r="CB3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CC3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CD3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CE3">
         <v>0</v>
       </c>
       <c r="CF3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CG3">
         <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="CK3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="CL3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="CM3">
         <v>0</v>
       </c>
       <c r="CN3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="CQ3">
         <v>0</v>
@@ -2135,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="DQ3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DS3">
         <v>0</v>
@@ -2147,22 +2159,22 @@
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DX3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DY3" t="s">
         <v>149</v>
       </c>
       <c r="DZ3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="EA3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="EB3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="EC3">
         <v>0</v>
@@ -2201,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="EO3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="EP3">
         <v>0</v>
@@ -2248,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2257,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2269,193 +2281,193 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="V4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="W4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="X4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y4" t="s">
         <v>149</v>
       </c>
       <c r="Z4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AA4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AB4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>180</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BP4" t="s">
         <v>174</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="BQ4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>194</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>196</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>180</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>181</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>182</v>
+      </c>
+      <c r="CE4" t="s">
         <v>174</v>
       </c>
-      <c r="AD4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>174</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>174</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>174</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>178</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>180</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>172</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>174</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>174</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>184</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>191</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>174</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>193</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>177</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>178</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>180</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>172</v>
-      </c>
       <c r="CF4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CG4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="CH4">
         <v>0</v>
@@ -2512,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="DA4">
         <v>0</v>
       </c>
       <c r="DB4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DC4">
         <v>0</v>
       </c>
       <c r="DD4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DE4">
         <v>0</v>
       </c>
       <c r="DF4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="DG4">
         <v>0</v>
@@ -2539,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="DJ4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DK4">
         <v>0</v>
@@ -2551,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="DQ4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DS4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DU4" t="s">
         <v>150</v>
@@ -2563,40 +2575,40 @@
         <v>0</v>
       </c>
       <c r="DW4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DX4" t="s">
         <v>150</v>
       </c>
       <c r="DY4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DZ4">
+        <v>0</v>
+      </c>
+      <c r="EA4">
+        <v>0</v>
+      </c>
+      <c r="EB4">
+        <v>0</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4">
+        <v>0</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4">
+        <v>0</v>
+      </c>
+      <c r="EG4" t="s">
         <v>174</v>
       </c>
-      <c r="DZ4">
-        <v>0</v>
-      </c>
-      <c r="EA4">
-        <v>0</v>
-      </c>
-      <c r="EB4">
-        <v>0</v>
-      </c>
-      <c r="EC4">
-        <v>0</v>
-      </c>
-      <c r="ED4">
-        <v>0</v>
-      </c>
-      <c r="EE4">
-        <v>0</v>
-      </c>
-      <c r="EF4">
-        <v>0</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>172</v>
-      </c>
       <c r="EH4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="EJ4">
         <v>0</v>
@@ -2614,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="EO4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="EP4">
         <v>0</v>
@@ -2661,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2670,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2682,22 +2694,22 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="V5" t="s">
         <v>151</v>
       </c>
       <c r="W5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="X5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Y5" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z5" t="s">
         <v>149</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>178</v>
       </c>
       <c r="AA5" t="s">
         <v>179</v>
@@ -2706,37 +2718,37 @@
         <v>179</v>
       </c>
       <c r="AC5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AF5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AI5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>149</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>178</v>
       </c>
       <c r="AK5" t="s">
         <v>179</v>
       </c>
       <c r="AL5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM5" t="s">
         <v>179</v>
       </c>
-      <c r="AM5" t="s">
-        <v>180</v>
-      </c>
       <c r="AN5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -2777,8 +2789,8 @@
       <c r="BA5">
         <v>0</v>
       </c>
-      <c r="BB5">
-        <v>0</v>
+      <c r="BB5" t="s">
+        <v>176</v>
       </c>
       <c r="BC5">
         <v>0</v>
@@ -2811,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="BM5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BN5" t="s">
+        <v>178</v>
+      </c>
+      <c r="BO5" t="s">
         <v>149</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>178</v>
       </c>
       <c r="BP5" t="s">
         <v>179</v>
@@ -2826,10 +2838,10 @@
         <v>179</v>
       </c>
       <c r="BR5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BS5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BU5">
         <v>0</v>
@@ -2838,52 +2850,52 @@
         <v>0</v>
       </c>
       <c r="BW5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="BX5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BY5" t="s">
+        <v>175</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>176</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>176</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>176</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>176</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>176</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>176</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="s">
         <v>174</v>
       </c>
-      <c r="BZ5" t="s">
-        <v>193</v>
-      </c>
-      <c r="CA5">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>174</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>174</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>174</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>174</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>174</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>174</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>174</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>172</v>
-      </c>
       <c r="CK5" t="s">
+        <v>178</v>
+      </c>
+      <c r="CL5" t="s">
         <v>149</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>178</v>
       </c>
       <c r="CM5" t="s">
         <v>179</v>
@@ -2892,10 +2904,10 @@
         <v>179</v>
       </c>
       <c r="CO5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="CP5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="CQ5">
         <v>0</v>
@@ -2936,6 +2948,9 @@
       <c r="DG5">
         <v>0</v>
       </c>
+      <c r="DH5" t="s">
+        <v>173</v>
+      </c>
       <c r="DI5">
         <v>0</v>
       </c>
@@ -2949,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="DQ5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DS5">
         <v>0</v>
@@ -2961,22 +2976,22 @@
         <v>0</v>
       </c>
       <c r="DW5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DX5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DY5" t="s">
         <v>151</v>
       </c>
       <c r="DZ5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="EA5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="EB5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="EC5">
         <v>0</v>
@@ -2991,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="EG5" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="EH5">
         <v>0</v>
@@ -3015,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="EO5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="EP5">
         <v>0</v>
@@ -3035,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3062,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -3071,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -3083,220 +3098,220 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V6" t="s">
         <v>152</v>
       </c>
       <c r="W6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="X6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Y6" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="Z6" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AA6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="s">
         <v>174</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AI6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="s">
         <v>174</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="BN6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>181</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>182</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>173</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>188</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>195</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>176</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>196</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>176</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>176</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>176</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>176</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>176</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>176</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="s">
         <v>174</v>
       </c>
-      <c r="AD6" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="CK6" t="s">
+        <v>149</v>
+      </c>
+      <c r="CL6" t="s">
         <v>181</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>174</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>174</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>170</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>173</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>174</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>174</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>174</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>174</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>186</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>191</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>174</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>193</v>
-      </c>
-      <c r="CA6">
-        <v>0</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>170</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>170</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>173</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>174</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>174</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>174</v>
-      </c>
-      <c r="CH6">
-        <v>0</v>
-      </c>
-      <c r="CI6">
-        <v>0</v>
-      </c>
-      <c r="CJ6">
-        <v>0</v>
-      </c>
-      <c r="CK6">
-        <v>0</v>
-      </c>
-      <c r="CL6">
-        <v>0</v>
-      </c>
-      <c r="CM6">
-        <v>0</v>
-      </c>
-      <c r="CN6">
-        <v>0</v>
-      </c>
-      <c r="CO6">
-        <v>0</v>
-      </c>
-      <c r="CP6">
-        <v>0</v>
+      <c r="CM6" t="s">
+        <v>178</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>178</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>182</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>173</v>
       </c>
       <c r="CQ6">
         <v>0</v>
@@ -3325,21 +3340,12 @@
       <c r="CY6">
         <v>0</v>
       </c>
-      <c r="CZ6" t="s">
-        <v>171</v>
-      </c>
       <c r="DA6">
         <v>0</v>
       </c>
-      <c r="DB6" t="s">
-        <v>172</v>
-      </c>
       <c r="DC6">
         <v>0</v>
       </c>
-      <c r="DD6" t="s">
-        <v>172</v>
-      </c>
       <c r="DE6">
         <v>0</v>
       </c>
@@ -3359,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="DQ6" t="s">
-        <v>174</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="DS6">
+        <v>0</v>
       </c>
       <c r="DU6" t="s">
         <v>152</v>
@@ -3371,22 +3377,22 @@
         <v>0</v>
       </c>
       <c r="DW6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DX6" t="s">
+        <v>176</v>
+      </c>
+      <c r="DY6" t="s">
         <v>152</v>
       </c>
-      <c r="DY6" t="s">
-        <v>174</v>
-      </c>
-      <c r="DZ6">
-        <v>0</v>
-      </c>
-      <c r="EA6">
-        <v>0</v>
-      </c>
-      <c r="EB6">
-        <v>0</v>
+      <c r="DZ6" t="s">
+        <v>176</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>176</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>180</v>
       </c>
       <c r="EC6">
         <v>0</v>
@@ -3401,10 +3407,13 @@
         <v>0</v>
       </c>
       <c r="EG6" t="s">
-        <v>153</v>
-      </c>
-      <c r="EH6" t="s">
-        <v>174</v>
+        <v>152</v>
+      </c>
+      <c r="EH6">
+        <v>0</v>
+      </c>
+      <c r="EI6">
+        <v>0</v>
       </c>
       <c r="EJ6">
         <v>0</v>
@@ -3422,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="EO6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="EP6">
         <v>0</v>
@@ -3442,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3469,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -3478,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -3490,254 +3499,263 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V7" t="s">
         <v>153</v>
       </c>
       <c r="W7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="X7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Z7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI7" t="s">
         <v>174</v>
       </c>
-      <c r="AB7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC7" t="s">
+      <c r="AJ7" t="s">
         <v>174</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>176</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>176</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>176</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>176</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>194</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>176</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>196</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>172</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>172</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>176</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>176</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>173</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="s">
         <v>174</v>
       </c>
-      <c r="AF7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>171</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BP7" t="s">
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DD7" t="s">
         <v>174</v>
       </c>
-      <c r="BQ7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>174</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>174</v>
-      </c>
-      <c r="BU7">
-        <v>0</v>
-      </c>
-      <c r="BV7">
-        <v>0</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>187</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>192</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>174</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>193</v>
-      </c>
-      <c r="CA7">
-        <v>0</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>174</v>
-      </c>
-      <c r="CC7" t="s">
-        <v>174</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>174</v>
-      </c>
-      <c r="CE7">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>174</v>
-      </c>
-      <c r="CG7">
-        <v>0</v>
-      </c>
-      <c r="CH7">
-        <v>0</v>
-      </c>
-      <c r="CI7">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>171</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>176</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>176</v>
-      </c>
-      <c r="CM7">
-        <v>0</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>176</v>
-      </c>
-      <c r="CO7">
-        <v>0</v>
-      </c>
-      <c r="CP7">
-        <v>0</v>
-      </c>
-      <c r="CQ7">
-        <v>0</v>
-      </c>
-      <c r="CR7">
-        <v>0</v>
-      </c>
-      <c r="CS7">
-        <v>0</v>
-      </c>
-      <c r="CT7">
-        <v>0</v>
-      </c>
-      <c r="CU7">
-        <v>0</v>
-      </c>
-      <c r="CV7">
-        <v>0</v>
-      </c>
-      <c r="CW7">
-        <v>0</v>
-      </c>
-      <c r="CX7">
-        <v>0</v>
-      </c>
-      <c r="CY7">
-        <v>0</v>
-      </c>
-      <c r="DA7">
-        <v>0</v>
-      </c>
-      <c r="DC7">
-        <v>0</v>
-      </c>
       <c r="DE7">
         <v>0</v>
       </c>
@@ -3757,10 +3775,10 @@
         <v>0</v>
       </c>
       <c r="DQ7" t="s">
-        <v>174</v>
-      </c>
-      <c r="DS7">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>176</v>
       </c>
       <c r="DU7" t="s">
         <v>153</v>
@@ -3769,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="DW7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DX7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="DY7" t="s">
-        <v>153</v>
-      </c>
-      <c r="DZ7" t="s">
-        <v>174</v>
-      </c>
-      <c r="EA7" t="s">
-        <v>174</v>
-      </c>
-      <c r="EB7" t="s">
-        <v>176</v>
+        <v>176</v>
+      </c>
+      <c r="DZ7">
+        <v>0</v>
+      </c>
+      <c r="EA7">
+        <v>0</v>
+      </c>
+      <c r="EB7">
+        <v>0</v>
       </c>
       <c r="EC7">
         <v>0</v>
@@ -3799,13 +3817,10 @@
         <v>0</v>
       </c>
       <c r="EG7" t="s">
-        <v>153</v>
-      </c>
-      <c r="EH7">
-        <v>0</v>
-      </c>
-      <c r="EI7">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="EH7" t="s">
+        <v>176</v>
       </c>
       <c r="EJ7">
         <v>0</v>
@@ -3823,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="EO7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="EP7">
         <v>0</v>
@@ -3870,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -3879,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -3891,37 +3906,37 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V8" t="s">
         <v>154</v>
       </c>
       <c r="W8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="X8" t="s">
         <v>173</v>
       </c>
       <c r="Y8" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="Z8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AA8" t="s">
         <v>176</v>
       </c>
       <c r="AB8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AC8" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AD8" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AF8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -3930,22 +3945,22 @@
         <v>173</v>
       </c>
       <c r="AI8" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="AJ8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>171</v>
+        <v>179</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -4023,22 +4038,22 @@
         <v>173</v>
       </c>
       <c r="BN8" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="BO8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="BP8" t="s">
         <v>176</v>
       </c>
       <c r="BQ8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="BR8" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="BS8" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="BU8">
         <v>0</v>
@@ -4047,40 +4062,40 @@
         <v>0</v>
       </c>
       <c r="BW8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="BX8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BY8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BZ8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="CA8">
         <v>0</v>
       </c>
       <c r="CB8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CC8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CD8" t="s">
-        <v>174</v>
-      </c>
-      <c r="CE8" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
       </c>
       <c r="CF8" t="s">
-        <v>174</v>
-      </c>
-      <c r="CG8" t="s">
-        <v>174</v>
-      </c>
-      <c r="CH8" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
       </c>
       <c r="CI8">
         <v>0</v>
@@ -4089,22 +4104,22 @@
         <v>173</v>
       </c>
       <c r="CK8" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="CL8" t="s">
-        <v>173</v>
-      </c>
-      <c r="CM8" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
       </c>
       <c r="CN8" t="s">
-        <v>173</v>
-      </c>
-      <c r="CO8" t="s">
-        <v>171</v>
-      </c>
-      <c r="CP8" t="s">
-        <v>171</v>
+        <v>179</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
       </c>
       <c r="CQ8">
         <v>0</v>
@@ -4158,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="DQ8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DS8">
         <v>0</v>
@@ -4170,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="DW8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DX8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DY8" t="s">
         <v>154</v>
       </c>
       <c r="DZ8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="EA8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="EB8" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="EC8">
         <v>0</v>
@@ -4224,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="EO8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="EP8">
         <v>0</v>
@@ -4271,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -4280,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -4292,61 +4307,61 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V9" t="s">
         <v>155</v>
       </c>
       <c r="W9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="X9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y9" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="Z9" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="AA9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AB9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AC9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AD9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AF9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
-      <c r="AH9">
-        <v>0</v>
+      <c r="AH9" t="s">
+        <v>175</v>
       </c>
       <c r="AI9" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="AJ9" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="AK9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AL9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AM9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AN9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -4421,25 +4436,25 @@
         <v>0</v>
       </c>
       <c r="BM9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BN9" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="BO9" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="BP9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="BQ9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="BR9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BS9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BU9">
         <v>0</v>
@@ -4448,64 +4463,64 @@
         <v>0</v>
       </c>
       <c r="BW9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="BX9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BY9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BZ9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="CA9">
         <v>0</v>
       </c>
-      <c r="CB9">
-        <v>0</v>
+      <c r="CB9" t="s">
+        <v>176</v>
       </c>
       <c r="CC9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CD9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CE9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CF9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CG9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CH9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CI9">
         <v>0</v>
       </c>
-      <c r="CJ9">
-        <v>0</v>
+      <c r="CJ9" t="s">
+        <v>175</v>
       </c>
       <c r="CK9" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="CL9" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="CM9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="CN9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="CO9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="CP9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="CQ9">
         <v>0</v>
@@ -4559,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="DQ9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DS9">
         <v>0</v>
@@ -4571,22 +4586,22 @@
         <v>0</v>
       </c>
       <c r="DW9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DX9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DY9" t="s">
         <v>155</v>
       </c>
       <c r="DZ9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="EA9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="EB9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="EC9">
         <v>0</v>
@@ -4625,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="EO9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="EP9">
         <v>0</v>
@@ -4672,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -4681,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -4693,61 +4708,61 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="V10" t="s">
         <v>156</v>
       </c>
       <c r="W10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="X10" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Y10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z10" t="s">
         <v>149</v>
       </c>
-      <c r="Z10" t="s">
-        <v>173</v>
-      </c>
       <c r="AA10" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AB10" t="s">
         <v>174</v>
       </c>
       <c r="AC10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AD10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AF10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
-      <c r="AH10" t="s">
-        <v>171</v>
+      <c r="AH10">
+        <v>0</v>
       </c>
       <c r="AI10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>149</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
+      <c r="AK10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>174</v>
       </c>
       <c r="AM10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -4822,25 +4837,25 @@
         <v>0</v>
       </c>
       <c r="BM10" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="BN10" t="s">
+        <v>174</v>
+      </c>
+      <c r="BO10" t="s">
         <v>149</v>
       </c>
-      <c r="BO10" t="s">
-        <v>173</v>
-      </c>
       <c r="BP10" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="BQ10" t="s">
         <v>174</v>
       </c>
       <c r="BR10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="BS10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BU10">
         <v>0</v>
@@ -4849,64 +4864,64 @@
         <v>0</v>
       </c>
       <c r="BW10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BX10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BY10" t="s">
         <v>176</v>
       </c>
       <c r="BZ10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="CA10">
         <v>0</v>
       </c>
-      <c r="CB10" t="s">
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>176</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>176</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>176</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>176</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>176</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="s">
         <v>174</v>
       </c>
-      <c r="CC10" t="s">
+      <c r="CL10" t="s">
+        <v>149</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>179</v>
+      </c>
+      <c r="CN10" t="s">
         <v>174</v>
       </c>
-      <c r="CD10" t="s">
-        <v>174</v>
-      </c>
-      <c r="CE10">
-        <v>0</v>
-      </c>
-      <c r="CF10">
-        <v>0</v>
-      </c>
-      <c r="CG10" t="s">
-        <v>174</v>
-      </c>
-      <c r="CH10" t="s">
-        <v>174</v>
-      </c>
-      <c r="CI10">
-        <v>0</v>
-      </c>
-      <c r="CJ10" t="s">
-        <v>171</v>
-      </c>
-      <c r="CK10" t="s">
-        <v>149</v>
-      </c>
-      <c r="CL10" t="s">
-        <v>173</v>
-      </c>
-      <c r="CM10">
-        <v>0</v>
-      </c>
-      <c r="CN10">
-        <v>0</v>
-      </c>
       <c r="CO10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="CP10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="CQ10">
         <v>0</v>
@@ -4960,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="DQ10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DS10">
         <v>0</v>
@@ -4972,22 +4987,22 @@
         <v>0</v>
       </c>
       <c r="DW10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DX10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DY10" t="s">
         <v>156</v>
       </c>
       <c r="DZ10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="EA10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="EB10" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="EC10">
         <v>0</v>
@@ -5026,9 +5041,410 @@
         <v>0</v>
       </c>
       <c r="EO10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="EP10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:146">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>158</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>159</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>169</v>
+      </c>
+      <c r="V11" t="s">
+        <v>157</v>
+      </c>
+      <c r="W11" t="s">
+        <v>171</v>
+      </c>
+      <c r="X11" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>173</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>149</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>175</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>176</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>176</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>179</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>173</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>193</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>195</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>179</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>196</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>176</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>176</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>176</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>176</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>176</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>173</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>149</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>175</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>179</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>173</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DI11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>0</v>
+      </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DP11">
+        <v>0</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>176</v>
+      </c>
+      <c r="DS11">
+        <v>0</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV11">
+        <v>0</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>176</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>176</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>157</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>176</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>176</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>154</v>
+      </c>
+      <c r="EC11">
+        <v>0</v>
+      </c>
+      <c r="ED11">
+        <v>0</v>
+      </c>
+      <c r="EE11">
+        <v>0</v>
+      </c>
+      <c r="EF11">
+        <v>0</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>157</v>
+      </c>
+      <c r="EH11">
+        <v>0</v>
+      </c>
+      <c r="EI11">
+        <v>0</v>
+      </c>
+      <c r="EJ11">
+        <v>0</v>
+      </c>
+      <c r="EK11">
+        <v>0</v>
+      </c>
+      <c r="EL11">
+        <v>0</v>
+      </c>
+      <c r="EM11">
+        <v>0</v>
+      </c>
+      <c r="EN11">
+        <v>0</v>
+      </c>
+      <c r="EO11" t="s">
+        <v>198</v>
+      </c>
+      <c r="EP11">
         <v>0</v>
       </c>
     </row>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="210">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -460,6 +460,9 @@
     <t>MBIRE</t>
   </si>
   <si>
+    <t>MATOBO</t>
+  </si>
+  <si>
     <t>May</t>
   </si>
   <si>
@@ -499,6 +502,9 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
@@ -514,6 +520,9 @@
     <t>Geja</t>
   </si>
   <si>
+    <t>Homestead</t>
+  </si>
+  <si>
     <t>Jompani</t>
   </si>
   <si>
@@ -538,6 +547,9 @@
     <t>24</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>correction</t>
   </si>
   <si>
@@ -553,9 +565,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -592,6 +601,9 @@
     <t>2025-06-12T12:48:01.280653Z</t>
   </si>
   <si>
+    <t>2025-06-18T17:19:31.957371Z</t>
+  </si>
+  <si>
     <t>2025-06-12T12:35:28.391560Z</t>
   </si>
   <si>
@@ -616,7 +628,13 @@
     <t>April</t>
   </si>
   <si>
+    <t>September</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs</t>
   </si>
   <si>
     <t>OPD</t>
@@ -983,7 +1001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EP12"/>
+  <dimension ref="A1:EP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1455,379 +1473,379 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>163</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>164</v>
+      </c>
+      <c r="V2" t="s">
+        <v>151</v>
+      </c>
+      <c r="W2" t="s">
+        <v>178</v>
+      </c>
+      <c r="X2" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>203</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>205</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>179</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>183</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>152</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>180</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>177</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>177</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>177</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>151</v>
+      </c>
+      <c r="DV2">
+        <v>0</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>151</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>177</v>
+      </c>
+      <c r="DZ2">
+        <v>0</v>
+      </c>
+      <c r="EA2">
+        <v>0</v>
+      </c>
+      <c r="EB2">
+        <v>0</v>
+      </c>
+      <c r="EC2">
+        <v>0</v>
+      </c>
+      <c r="ED2">
+        <v>0</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>155</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ2">
+        <v>0</v>
+      </c>
+      <c r="EK2">
+        <v>0</v>
+      </c>
+      <c r="EL2">
+        <v>0</v>
+      </c>
+      <c r="EM2">
+        <v>0</v>
+      </c>
+      <c r="EN2">
+        <v>0</v>
+      </c>
+      <c r="EO2" t="s">
         <v>150</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>161</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>162</v>
-      </c>
-      <c r="V2" t="s">
-        <v>150</v>
-      </c>
-      <c r="W2" t="s">
-        <v>174</v>
-      </c>
-      <c r="X2" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>175</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>180</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>183</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>176</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>199</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>200</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>175</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>180</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>183</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>151</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>176</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>179</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>179</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>177</v>
-      </c>
-      <c r="DG2">
-        <v>0</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>179</v>
-      </c>
-      <c r="DI2">
-        <v>0</v>
-      </c>
-      <c r="DK2">
-        <v>0</v>
-      </c>
-      <c r="DM2">
-        <v>0</v>
-      </c>
-      <c r="DP2">
-        <v>0</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>179</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>150</v>
-      </c>
-      <c r="DV2">
-        <v>0</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>150</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>179</v>
-      </c>
-      <c r="DZ2">
-        <v>0</v>
-      </c>
-      <c r="EA2">
-        <v>0</v>
-      </c>
-      <c r="EB2">
-        <v>0</v>
-      </c>
-      <c r="EC2">
-        <v>0</v>
-      </c>
-      <c r="ED2">
-        <v>0</v>
-      </c>
-      <c r="EE2">
-        <v>0</v>
-      </c>
-      <c r="EF2">
-        <v>0</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>154</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>179</v>
-      </c>
-      <c r="EJ2">
-        <v>0</v>
-      </c>
-      <c r="EK2">
-        <v>0</v>
-      </c>
-      <c r="EL2">
-        <v>0</v>
-      </c>
-      <c r="EM2">
-        <v>0</v>
-      </c>
-      <c r="EN2">
-        <v>0</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>149</v>
-      </c>
       <c r="EP2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:146">
@@ -1859,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1871,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1880,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1892,61 +1910,61 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="V3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="X3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Y3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Z3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AA3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AB3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AC3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AD3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AF3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AI3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AJ3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -2021,25 +2039,25 @@
         <v>0</v>
       </c>
       <c r="BM3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BN3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BO3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BP3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BQ3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BR3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BS3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BU3">
         <v>0</v>
@@ -2048,64 +2066,64 @@
         <v>0</v>
       </c>
       <c r="BW3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BX3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BY3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BZ3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CA3">
         <v>0</v>
       </c>
       <c r="CB3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CC3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CD3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CE3">
         <v>0</v>
       </c>
       <c r="CF3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CG3">
         <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CK3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CL3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="CM3">
         <v>0</v>
       </c>
       <c r="CN3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CQ3">
         <v>0</v>
@@ -2159,34 +2177,34 @@
         <v>0</v>
       </c>
       <c r="DQ3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DS3">
         <v>0</v>
       </c>
       <c r="DU3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DV3">
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DX3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DY3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DZ3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="EA3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="EB3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EC3">
         <v>0</v>
@@ -2201,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="EG3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="EH3">
         <v>0</v>
@@ -2225,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="EO3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EP3">
         <v>0</v>
@@ -2260,301 +2278,301 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>161</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>163</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>166</v>
+      </c>
+      <c r="V4" t="s">
+        <v>176</v>
+      </c>
+      <c r="W4" t="s">
+        <v>178</v>
+      </c>
+      <c r="X4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y4" t="s">
         <v>152</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>160</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>161</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4" t="s">
-        <v>164</v>
-      </c>
-      <c r="V4" t="s">
-        <v>173</v>
-      </c>
-      <c r="W4" t="s">
-        <v>174</v>
-      </c>
-      <c r="X4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>151</v>
-      </c>
       <c r="Z4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AA4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AB4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AC4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AD4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="s">
         <v>186</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>183</v>
-      </c>
       <c r="BN4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="BO4" t="s">
+        <v>188</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>180</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>203</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>205</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>186</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>187</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>188</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>181</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>177</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>180</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4" t="s">
         <v>185</v>
       </c>
-      <c r="BP4" t="s">
-        <v>177</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>176</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>190</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>200</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>183</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>184</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>185</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>177</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>179</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>176</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
-        <v>0</v>
-      </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>182</v>
-      </c>
       <c r="DA4">
         <v>0</v>
       </c>
       <c r="DB4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DC4">
         <v>0</v>
       </c>
       <c r="DD4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DE4">
         <v>0</v>
       </c>
       <c r="DF4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="DG4">
         <v>0</v>
@@ -2563,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="DJ4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DK4">
         <v>0</v>
@@ -2575,25 +2593,25 @@
         <v>0</v>
       </c>
       <c r="DQ4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DS4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DU4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DV4">
         <v>0</v>
       </c>
       <c r="DW4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DX4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DY4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DZ4">
         <v>0</v>
@@ -2617,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="EG4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="EH4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="EJ4">
         <v>0</v>
@@ -2638,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="EO4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EP4">
         <v>0</v>
@@ -2673,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2685,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2694,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2706,305 +2724,305 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="V5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="W5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="X5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Y5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="s">
         <v>181</v>
       </c>
-      <c r="Z5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="AI5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>181</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>152</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>180</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>194</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>149</v>
+      </c>
+      <c r="BY5" t="s">
         <v>182</v>
       </c>
-      <c r="AB5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="BZ5" t="s">
+        <v>205</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>177</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>177</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>177</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>177</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>177</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>177</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="s">
         <v>181</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="s">
+      <c r="CK5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>152</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>185</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>185</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>185</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>180</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>180</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS5">
+        <v>0</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>154</v>
+      </c>
+      <c r="DV5">
+        <v>0</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>177</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>154</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>177</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>177</v>
+      </c>
+      <c r="EB5" t="s">
         <v>179</v>
       </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>181</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>182</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>182</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>182</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>176</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>191</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>178</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>200</v>
-      </c>
-      <c r="CA5">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>179</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>179</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>179</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>179</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>179</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>179</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>179</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>177</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>181</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>151</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>182</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>182</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>182</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>176</v>
-      </c>
-      <c r="CQ5">
-        <v>0</v>
-      </c>
-      <c r="CR5">
-        <v>0</v>
-      </c>
-      <c r="CS5">
-        <v>0</v>
-      </c>
-      <c r="CT5">
-        <v>0</v>
-      </c>
-      <c r="CU5">
-        <v>0</v>
-      </c>
-      <c r="CV5">
-        <v>0</v>
-      </c>
-      <c r="CW5">
-        <v>0</v>
-      </c>
-      <c r="CX5">
-        <v>0</v>
-      </c>
-      <c r="CY5">
-        <v>0</v>
-      </c>
-      <c r="DA5">
-        <v>0</v>
-      </c>
-      <c r="DC5">
-        <v>0</v>
-      </c>
-      <c r="DE5">
-        <v>0</v>
-      </c>
-      <c r="DG5">
-        <v>0</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>176</v>
-      </c>
-      <c r="DI5">
-        <v>0</v>
-      </c>
-      <c r="DK5">
-        <v>0</v>
-      </c>
-      <c r="DM5">
-        <v>0</v>
-      </c>
-      <c r="DP5">
-        <v>0</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS5">
-        <v>0</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>153</v>
-      </c>
-      <c r="DV5">
-        <v>0</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>179</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>153</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>179</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>179</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>175</v>
-      </c>
       <c r="EC5">
         <v>0</v>
       </c>
@@ -3018,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="EG5" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="EH5">
         <v>0</v>
@@ -3042,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="EO5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EP5">
         <v>0</v>
@@ -3062,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3076,9 +3094,6 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>154</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
@@ -3089,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -3098,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -3110,304 +3125,304 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="V6" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="W6" t="s">
-        <v>174</v>
-      </c>
-      <c r="X6" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA6" t="s">
+        <v>178</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AI6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="BN6" t="s">
+        <v>180</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>195</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>204</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>177</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>206</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="s">
         <v>181</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="CC6" t="s">
+        <v>177</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>177</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>180</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS6">
+        <v>0</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>182</v>
+      </c>
+      <c r="DV6">
+        <v>0</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>180</v>
+      </c>
+      <c r="DX6" t="s">
         <v>181</v>
       </c>
-      <c r="AM6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>151</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>185</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>176</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>192</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>179</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CA6">
-        <v>0</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CI6">
-        <v>0</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>177</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>151</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>184</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>181</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>181</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>176</v>
-      </c>
-      <c r="CQ6">
-        <v>0</v>
-      </c>
-      <c r="CR6">
-        <v>0</v>
-      </c>
-      <c r="CS6">
-        <v>0</v>
-      </c>
-      <c r="CT6">
-        <v>0</v>
-      </c>
-      <c r="CU6">
-        <v>0</v>
-      </c>
-      <c r="CV6">
-        <v>0</v>
-      </c>
-      <c r="CW6">
-        <v>0</v>
-      </c>
-      <c r="CX6">
-        <v>0</v>
-      </c>
-      <c r="CY6">
-        <v>0</v>
-      </c>
-      <c r="DA6">
-        <v>0</v>
-      </c>
-      <c r="DC6">
-        <v>0</v>
-      </c>
-      <c r="DE6">
-        <v>0</v>
-      </c>
-      <c r="DG6">
-        <v>0</v>
-      </c>
-      <c r="DI6">
-        <v>0</v>
-      </c>
-      <c r="DK6">
-        <v>0</v>
-      </c>
-      <c r="DM6">
-        <v>0</v>
-      </c>
-      <c r="DP6">
-        <v>0</v>
-      </c>
-      <c r="DQ6" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS6">
-        <v>0</v>
-      </c>
-      <c r="DU6" t="s">
-        <v>154</v>
-      </c>
-      <c r="DV6">
-        <v>0</v>
-      </c>
-      <c r="DW6" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX6" t="s">
-        <v>179</v>
-      </c>
-      <c r="DY6" t="s">
-        <v>154</v>
-      </c>
       <c r="DZ6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EA6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EB6" t="s">
-        <v>183</v>
-      </c>
-      <c r="EC6">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>180</v>
       </c>
       <c r="ED6">
         <v>0</v>
@@ -3419,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="EG6" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="EH6">
         <v>0</v>
@@ -3443,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="EO6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EP6">
         <v>0</v>
@@ -3463,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3490,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -3499,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -3511,61 +3526,61 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="V7" t="s">
         <v>155</v>
       </c>
       <c r="W7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="X7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Y7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="Z7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="AA7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AC7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="AD7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AI7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="AJ7" t="s">
-        <v>177</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>180</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -3594,14 +3609,14 @@
       <c r="AW7">
         <v>0</v>
       </c>
-      <c r="AX7" t="s">
-        <v>179</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>179</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>179</v>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
       </c>
       <c r="BA7">
         <v>0</v>
@@ -3640,25 +3655,25 @@
         <v>0</v>
       </c>
       <c r="BM7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="BN7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="BO7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="BP7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="BQ7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="BR7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="BS7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BU7">
         <v>0</v>
@@ -3667,64 +3682,64 @@
         <v>0</v>
       </c>
       <c r="BW7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="BX7" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="BY7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BZ7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CA7">
         <v>0</v>
       </c>
       <c r="CB7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="CC7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="CD7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="CE7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CF7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CG7" t="s">
-        <v>179</v>
-      </c>
-      <c r="CH7">
-        <v>0</v>
+        <v>177</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>177</v>
       </c>
       <c r="CI7">
         <v>0</v>
       </c>
-      <c r="CJ7">
-        <v>0</v>
-      </c>
-      <c r="CK7">
-        <v>0</v>
-      </c>
-      <c r="CL7">
-        <v>0</v>
-      </c>
-      <c r="CM7">
-        <v>0</v>
-      </c>
-      <c r="CN7">
-        <v>0</v>
-      </c>
-      <c r="CO7">
-        <v>0</v>
-      </c>
-      <c r="CP7">
-        <v>0</v>
+      <c r="CJ7" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>152</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>187</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>188</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>180</v>
       </c>
       <c r="CQ7">
         <v>0</v>
@@ -3753,21 +3768,12 @@
       <c r="CY7">
         <v>0</v>
       </c>
-      <c r="CZ7" t="s">
-        <v>176</v>
-      </c>
       <c r="DA7">
         <v>0</v>
       </c>
-      <c r="DB7" t="s">
-        <v>177</v>
-      </c>
       <c r="DC7">
         <v>0</v>
       </c>
-      <c r="DD7" t="s">
-        <v>177</v>
-      </c>
       <c r="DE7">
         <v>0</v>
       </c>
@@ -3787,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="DQ7" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS7" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="DS7">
+        <v>0</v>
       </c>
       <c r="DU7" t="s">
         <v>155</v>
@@ -3799,22 +3805,22 @@
         <v>0</v>
       </c>
       <c r="DW7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DX7" t="s">
+        <v>177</v>
+      </c>
+      <c r="DY7" t="s">
         <v>155</v>
       </c>
-      <c r="DY7" t="s">
-        <v>179</v>
-      </c>
-      <c r="DZ7">
-        <v>0</v>
-      </c>
-      <c r="EA7">
-        <v>0</v>
-      </c>
-      <c r="EB7">
-        <v>0</v>
+      <c r="DZ7" t="s">
+        <v>177</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>177</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>186</v>
       </c>
       <c r="EC7">
         <v>0</v>
@@ -3829,10 +3835,13 @@
         <v>0</v>
       </c>
       <c r="EG7" t="s">
-        <v>156</v>
-      </c>
-      <c r="EH7" t="s">
-        <v>179</v>
+        <v>155</v>
+      </c>
+      <c r="EH7">
+        <v>0</v>
+      </c>
+      <c r="EI7">
+        <v>0</v>
       </c>
       <c r="EJ7">
         <v>0</v>
@@ -3850,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="EO7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EP7">
         <v>0</v>
@@ -3870,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3897,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -3906,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -3918,154 +3927,154 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="V8" t="s">
         <v>156</v>
       </c>
       <c r="W8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="X8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Y8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Z8" t="s">
         <v>182</v>
       </c>
       <c r="AA8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="s">
         <v>179</v>
       </c>
-      <c r="AB8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="BN8" t="s">
         <v>179</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>182</v>
       </c>
       <c r="BO8" t="s">
         <v>182</v>
       </c>
       <c r="BP8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BQ8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="BR8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BS8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BU8">
         <v>0</v>
@@ -4074,16 +4083,16 @@
         <v>0</v>
       </c>
       <c r="BW8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="BX8" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="BY8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BZ8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CA8">
         <v>0</v>
@@ -4095,16 +4104,16 @@
         <v>179</v>
       </c>
       <c r="CD8" t="s">
-        <v>179</v>
-      </c>
-      <c r="CE8">
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>177</v>
       </c>
       <c r="CF8" t="s">
-        <v>179</v>
-      </c>
-      <c r="CG8">
-        <v>0</v>
+        <v>177</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>177</v>
       </c>
       <c r="CH8">
         <v>0</v>
@@ -4112,20 +4121,20 @@
       <c r="CI8">
         <v>0</v>
       </c>
-      <c r="CJ8" t="s">
-        <v>176</v>
-      </c>
-      <c r="CK8" t="s">
-        <v>182</v>
-      </c>
-      <c r="CL8" t="s">
-        <v>182</v>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
       </c>
       <c r="CM8">
         <v>0</v>
       </c>
-      <c r="CN8" t="s">
-        <v>182</v>
+      <c r="CN8">
+        <v>0</v>
       </c>
       <c r="CO8">
         <v>0</v>
@@ -4160,12 +4169,21 @@
       <c r="CY8">
         <v>0</v>
       </c>
+      <c r="CZ8" t="s">
+        <v>180</v>
+      </c>
       <c r="DA8">
         <v>0</v>
       </c>
+      <c r="DB8" t="s">
+        <v>181</v>
+      </c>
       <c r="DC8">
         <v>0</v>
       </c>
+      <c r="DD8" t="s">
+        <v>181</v>
+      </c>
       <c r="DE8">
         <v>0</v>
       </c>
@@ -4185,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="DQ8" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS8">
-        <v>0</v>
+        <v>177</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>177</v>
       </c>
       <c r="DU8" t="s">
         <v>156</v>
@@ -4197,22 +4215,22 @@
         <v>0</v>
       </c>
       <c r="DW8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DX8" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="DY8" t="s">
-        <v>156</v>
-      </c>
-      <c r="DZ8" t="s">
-        <v>179</v>
-      </c>
-      <c r="EA8" t="s">
-        <v>179</v>
-      </c>
-      <c r="EB8" t="s">
-        <v>182</v>
+        <v>177</v>
+      </c>
+      <c r="DZ8">
+        <v>0</v>
+      </c>
+      <c r="EA8">
+        <v>0</v>
+      </c>
+      <c r="EB8">
+        <v>0</v>
       </c>
       <c r="EC8">
         <v>0</v>
@@ -4227,13 +4245,10 @@
         <v>0</v>
       </c>
       <c r="EG8" t="s">
-        <v>156</v>
-      </c>
-      <c r="EH8">
-        <v>0</v>
-      </c>
-      <c r="EI8">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>177</v>
       </c>
       <c r="EJ8">
         <v>0</v>
@@ -4251,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="EO8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EP8">
         <v>0</v>
@@ -4298,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -4307,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -4319,61 +4334,61 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V9" t="s">
         <v>157</v>
       </c>
       <c r="W9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="X9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Y9" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="Z9" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AA9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AB9" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AC9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AI9" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="AJ9" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>176</v>
+        <v>185</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -4448,25 +4463,25 @@
         <v>0</v>
       </c>
       <c r="BM9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BN9" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="BO9" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="BP9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="BQ9" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="BR9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BS9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BU9">
         <v>0</v>
@@ -4475,64 +4490,64 @@
         <v>0</v>
       </c>
       <c r="BW9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="BX9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BY9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BZ9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CA9">
         <v>0</v>
       </c>
       <c r="CB9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CC9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CD9" t="s">
-        <v>179</v>
-      </c>
-      <c r="CE9" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
       </c>
       <c r="CF9" t="s">
-        <v>179</v>
-      </c>
-      <c r="CG9" t="s">
-        <v>179</v>
-      </c>
-      <c r="CH9" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
       </c>
       <c r="CI9">
         <v>0</v>
       </c>
       <c r="CJ9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CK9" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="CL9" t="s">
-        <v>178</v>
-      </c>
-      <c r="CM9" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
       </c>
       <c r="CN9" t="s">
-        <v>178</v>
-      </c>
-      <c r="CO9" t="s">
-        <v>176</v>
-      </c>
-      <c r="CP9" t="s">
-        <v>176</v>
+        <v>185</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
       </c>
       <c r="CQ9">
         <v>0</v>
@@ -4586,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="DQ9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DS9">
         <v>0</v>
@@ -4598,22 +4613,22 @@
         <v>0</v>
       </c>
       <c r="DW9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DX9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DY9" t="s">
         <v>157</v>
       </c>
       <c r="DZ9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="EA9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="EB9" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="EC9">
         <v>0</v>
@@ -4652,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="EO9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EP9">
         <v>0</v>
@@ -4699,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -4708,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -4720,61 +4735,61 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="V10" t="s">
         <v>158</v>
       </c>
       <c r="W10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="X10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Y10" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="Z10" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="AA10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB10" t="s">
         <v>182</v>
       </c>
-      <c r="AB10" t="s">
-        <v>177</v>
-      </c>
       <c r="AC10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AD10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AF10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
-      <c r="AH10">
-        <v>0</v>
+      <c r="AH10" t="s">
+        <v>182</v>
       </c>
       <c r="AI10" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="AJ10" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="AK10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL10" t="s">
         <v>182</v>
       </c>
-      <c r="AL10" t="s">
-        <v>177</v>
-      </c>
       <c r="AM10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AN10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -4849,25 +4864,25 @@
         <v>0</v>
       </c>
       <c r="BM10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="BN10" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="BO10" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="BP10" t="s">
+        <v>185</v>
+      </c>
+      <c r="BQ10" t="s">
         <v>182</v>
       </c>
-      <c r="BQ10" t="s">
-        <v>177</v>
-      </c>
       <c r="BR10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BS10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BU10">
         <v>0</v>
@@ -4876,64 +4891,64 @@
         <v>0</v>
       </c>
       <c r="BW10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="BX10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BY10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BZ10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CA10">
         <v>0</v>
       </c>
-      <c r="CB10">
-        <v>0</v>
+      <c r="CB10" t="s">
+        <v>177</v>
       </c>
       <c r="CC10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CD10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CE10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CF10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CG10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CH10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CI10">
         <v>0</v>
       </c>
-      <c r="CJ10">
-        <v>0</v>
+      <c r="CJ10" t="s">
+        <v>182</v>
       </c>
       <c r="CK10" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="CL10" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="CM10" t="s">
+        <v>185</v>
+      </c>
+      <c r="CN10" t="s">
         <v>182</v>
       </c>
-      <c r="CN10" t="s">
-        <v>177</v>
-      </c>
       <c r="CO10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CP10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CQ10">
         <v>0</v>
@@ -4987,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="DQ10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DS10">
         <v>0</v>
@@ -4999,22 +5014,22 @@
         <v>0</v>
       </c>
       <c r="DW10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DX10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DY10" t="s">
         <v>158</v>
       </c>
       <c r="DZ10" t="s">
+        <v>177</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>177</v>
+      </c>
+      <c r="EB10" t="s">
         <v>179</v>
-      </c>
-      <c r="EA10" t="s">
-        <v>179</v>
-      </c>
-      <c r="EB10" t="s">
-        <v>178</v>
       </c>
       <c r="EC10">
         <v>0</v>
@@ -5053,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="EO10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EP10">
         <v>0</v>
@@ -5100,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -5109,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -5121,61 +5136,61 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V11" t="s">
         <v>159</v>
       </c>
       <c r="W11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="X11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y11" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="Z11" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="AA11" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AB11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AC11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AD11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AF11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
-      <c r="AH11" t="s">
-        <v>176</v>
+      <c r="AH11">
+        <v>0</v>
       </c>
       <c r="AI11" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="AJ11" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>181</v>
       </c>
       <c r="AM11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AN11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -5250,25 +5265,25 @@
         <v>0</v>
       </c>
       <c r="BM11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BN11" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="BO11" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="BP11" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="BQ11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BR11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BS11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BU11">
         <v>0</v>
@@ -5277,64 +5292,64 @@
         <v>0</v>
       </c>
       <c r="BW11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="BX11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BY11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="BZ11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CA11">
         <v>0</v>
       </c>
-      <c r="CB11" t="s">
-        <v>179</v>
+      <c r="CB11">
+        <v>0</v>
       </c>
       <c r="CC11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CD11" t="s">
-        <v>179</v>
-      </c>
-      <c r="CE11">
-        <v>0</v>
-      </c>
-      <c r="CF11">
-        <v>0</v>
+        <v>177</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>177</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>177</v>
       </c>
       <c r="CG11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CH11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CI11">
         <v>0</v>
       </c>
-      <c r="CJ11" t="s">
-        <v>176</v>
+      <c r="CJ11">
+        <v>0</v>
       </c>
       <c r="CK11" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="CL11" t="s">
-        <v>178</v>
-      </c>
-      <c r="CM11">
-        <v>0</v>
-      </c>
-      <c r="CN11">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>185</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>181</v>
       </c>
       <c r="CO11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="CP11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CQ11">
         <v>0</v>
@@ -5388,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="DQ11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DS11">
         <v>0</v>
@@ -5400,22 +5415,22 @@
         <v>0</v>
       </c>
       <c r="DW11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DX11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DY11" t="s">
         <v>159</v>
       </c>
       <c r="DZ11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="EA11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="EB11" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="EC11">
         <v>0</v>
@@ -5454,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="EO11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EP11">
         <v>0</v>
@@ -5476,388 +5491,789 @@
       <c r="E12" t="s">
         <v>146</v>
       </c>
-      <c r="F12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>161</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>163</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>174</v>
+      </c>
+      <c r="V12" t="s">
+        <v>160</v>
+      </c>
+      <c r="W12" t="s">
+        <v>178</v>
+      </c>
+      <c r="X12" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>180</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>177</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>177</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>185</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>180</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>201</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>149</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>185</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>205</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>177</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>177</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>177</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>177</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>180</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>152</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>185</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>180</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
+      <c r="DA12">
+        <v>0</v>
+      </c>
+      <c r="DC12">
+        <v>0</v>
+      </c>
+      <c r="DE12">
+        <v>0</v>
+      </c>
+      <c r="DG12">
+        <v>0</v>
+      </c>
+      <c r="DI12">
+        <v>0</v>
+      </c>
+      <c r="DK12">
+        <v>0</v>
+      </c>
+      <c r="DM12">
+        <v>0</v>
+      </c>
+      <c r="DP12">
+        <v>0</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS12">
+        <v>0</v>
+      </c>
+      <c r="DU12" t="s">
+        <v>160</v>
+      </c>
+      <c r="DV12">
+        <v>0</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX12" t="s">
+        <v>177</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>160</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>177</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>177</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>157</v>
+      </c>
+      <c r="EC12">
+        <v>0</v>
+      </c>
+      <c r="ED12">
+        <v>0</v>
+      </c>
+      <c r="EE12">
+        <v>0</v>
+      </c>
+      <c r="EF12">
+        <v>0</v>
+      </c>
+      <c r="EG12" t="s">
+        <v>160</v>
+      </c>
+      <c r="EH12">
+        <v>0</v>
+      </c>
+      <c r="EI12">
+        <v>0</v>
+      </c>
+      <c r="EJ12">
+        <v>0</v>
+      </c>
+      <c r="EK12">
+        <v>0</v>
+      </c>
+      <c r="EL12">
+        <v>0</v>
+      </c>
+      <c r="EM12">
+        <v>0</v>
+      </c>
+      <c r="EN12">
+        <v>0</v>
+      </c>
+      <c r="EO12" t="s">
+        <v>150</v>
+      </c>
+      <c r="EP12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:146">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>146</v>
       </c>
-      <c r="H12" t="s">
+      <c r="F13" t="s">
         <v>149</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>158</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>160</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="G13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
         <v>161</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>172</v>
-      </c>
-      <c r="V12" t="s">
-        <v>158</v>
-      </c>
-      <c r="W12" t="s">
-        <v>174</v>
-      </c>
-      <c r="X12" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC12" t="s">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>163</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>175</v>
+      </c>
+      <c r="V13" t="s">
+        <v>159</v>
+      </c>
+      <c r="W13" t="s">
         <v>178</v>
       </c>
-      <c r="AD12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>178</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
-      <c r="BI12">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>0</v>
-      </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>151</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>177</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>179</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>178</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BU12">
-        <v>0</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>187</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>198</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BZ12" t="s">
-        <v>200</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>201</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>179</v>
-      </c>
-      <c r="CC12" t="s">
-        <v>179</v>
-      </c>
-      <c r="CD12" t="s">
-        <v>179</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>179</v>
-      </c>
-      <c r="CF12">
-        <v>0</v>
-      </c>
-      <c r="CG12" t="s">
-        <v>179</v>
-      </c>
-      <c r="CH12" t="s">
-        <v>179</v>
-      </c>
-      <c r="CI12">
-        <v>0</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>176</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>176</v>
-      </c>
-      <c r="CL12" t="s">
-        <v>151</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>177</v>
-      </c>
-      <c r="CN12">
-        <v>0</v>
-      </c>
-      <c r="CO12" t="s">
-        <v>178</v>
-      </c>
-      <c r="CP12" t="s">
-        <v>176</v>
-      </c>
-      <c r="CQ12">
-        <v>0</v>
-      </c>
-      <c r="CR12">
-        <v>0</v>
-      </c>
-      <c r="CS12">
-        <v>0</v>
-      </c>
-      <c r="CT12">
-        <v>0</v>
-      </c>
-      <c r="CU12">
-        <v>0</v>
-      </c>
-      <c r="CV12">
-        <v>0</v>
-      </c>
-      <c r="CW12">
-        <v>0</v>
-      </c>
-      <c r="CX12">
-        <v>0</v>
-      </c>
-      <c r="CY12">
-        <v>0</v>
-      </c>
-      <c r="DA12">
-        <v>0</v>
-      </c>
-      <c r="DC12">
-        <v>0</v>
-      </c>
-      <c r="DE12">
-        <v>0</v>
-      </c>
-      <c r="DG12">
-        <v>0</v>
-      </c>
-      <c r="DI12">
-        <v>0</v>
-      </c>
-      <c r="DK12">
-        <v>0</v>
-      </c>
-      <c r="DM12">
-        <v>0</v>
-      </c>
-      <c r="DP12">
-        <v>0</v>
-      </c>
-      <c r="DQ12" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS12">
-        <v>0</v>
-      </c>
-      <c r="DU12" t="s">
-        <v>158</v>
-      </c>
-      <c r="DV12">
-        <v>0</v>
-      </c>
-      <c r="DW12" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX12" t="s">
-        <v>179</v>
-      </c>
-      <c r="DY12" t="s">
-        <v>158</v>
-      </c>
-      <c r="DZ12" t="s">
-        <v>179</v>
-      </c>
-      <c r="EA12" t="s">
-        <v>179</v>
-      </c>
-      <c r="EB12" t="s">
-        <v>156</v>
-      </c>
-      <c r="EC12">
-        <v>0</v>
-      </c>
-      <c r="ED12">
-        <v>0</v>
-      </c>
-      <c r="EE12">
-        <v>0</v>
-      </c>
-      <c r="EF12">
-        <v>0</v>
-      </c>
-      <c r="EG12" t="s">
-        <v>158</v>
-      </c>
-      <c r="EH12">
-        <v>0</v>
-      </c>
-      <c r="EI12">
-        <v>0</v>
-      </c>
-      <c r="EJ12">
-        <v>0</v>
-      </c>
-      <c r="EK12">
-        <v>0</v>
-      </c>
-      <c r="EL12">
-        <v>0</v>
-      </c>
-      <c r="EM12">
-        <v>0</v>
-      </c>
-      <c r="EN12">
-        <v>0</v>
-      </c>
-      <c r="EO12" t="s">
+      <c r="X13" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>180</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>180</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>177</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>182</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>180</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>190</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>202</v>
+      </c>
+      <c r="BX13" t="s">
         <v>149</v>
       </c>
-      <c r="EP12">
+      <c r="BY13" t="s">
+        <v>180</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>205</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>207</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>177</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>177</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>177</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>177</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>177</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>180</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>180</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>152</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>181</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>182</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>180</v>
+      </c>
+      <c r="CQ13">
+        <v>0</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DC13">
+        <v>0</v>
+      </c>
+      <c r="DE13">
+        <v>0</v>
+      </c>
+      <c r="DG13">
+        <v>0</v>
+      </c>
+      <c r="DI13">
+        <v>0</v>
+      </c>
+      <c r="DK13">
+        <v>0</v>
+      </c>
+      <c r="DM13">
+        <v>0</v>
+      </c>
+      <c r="DP13">
+        <v>0</v>
+      </c>
+      <c r="DQ13" t="s">
+        <v>177</v>
+      </c>
+      <c r="DS13">
+        <v>0</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>159</v>
+      </c>
+      <c r="DV13">
+        <v>0</v>
+      </c>
+      <c r="DW13" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX13" t="s">
+        <v>177</v>
+      </c>
+      <c r="DY13" t="s">
+        <v>159</v>
+      </c>
+      <c r="DZ13" t="s">
+        <v>177</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>177</v>
+      </c>
+      <c r="EB13" t="s">
+        <v>157</v>
+      </c>
+      <c r="EC13">
+        <v>0</v>
+      </c>
+      <c r="ED13">
+        <v>0</v>
+      </c>
+      <c r="EE13">
+        <v>0</v>
+      </c>
+      <c r="EF13">
+        <v>0</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>159</v>
+      </c>
+      <c r="EH13">
+        <v>0</v>
+      </c>
+      <c r="EI13">
+        <v>0</v>
+      </c>
+      <c r="EJ13">
+        <v>0</v>
+      </c>
+      <c r="EK13">
+        <v>0</v>
+      </c>
+      <c r="EL13">
+        <v>0</v>
+      </c>
+      <c r="EM13">
+        <v>0</v>
+      </c>
+      <c r="EN13">
+        <v>0</v>
+      </c>
+      <c r="EO13" t="s">
+        <v>150</v>
+      </c>
+      <c r="EP13">
         <v>0</v>
       </c>
     </row>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="210">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -28,6 +28,9 @@
     <t>District</t>
   </si>
   <si>
+    <t>LinkagesSelection</t>
+  </si>
+  <si>
     <t>ReferrelRecordingMonth</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>client_age</t>
   </si>
   <si>
+    <t>copy-1-of-LinkagesSelection</t>
+  </si>
+  <si>
     <t>date_ae_identified</t>
   </si>
   <si>
@@ -460,6 +466,9 @@
     <t>MBIRE</t>
   </si>
   <si>
+    <t>GOKWE SOUTH</t>
+  </si>
+  <si>
     <t>May</t>
   </si>
   <si>
@@ -502,6 +511,9 @@
     <t>false</t>
   </si>
   <si>
+    <t>referral_srh</t>
+  </si>
+  <si>
     <t>Chidamoyo Mission Hospital</t>
   </si>
   <si>
@@ -532,6 +544,9 @@
     <t>Sanyati Hospital</t>
   </si>
   <si>
+    <t>Tongwe Clinic</t>
+  </si>
+  <si>
     <t>Vere</t>
   </si>
   <si>
@@ -608,6 +623,9 @@
   </si>
   <si>
     <t>2025-06-12T12:16:06.575018Z</t>
+  </si>
+  <si>
+    <t>2025-06-19T13:07:31.950496Z</t>
   </si>
   <si>
     <t>2025-06-12T12:51:46.809490Z</t>
@@ -983,13 +1001,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EP12"/>
+  <dimension ref="A1:ER13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:146">
+    <row r="1" spans="1:148">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1425,8 +1443,14 @@
       <c r="EP1" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="EQ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="2" spans="1:146">
+    <row r="2" spans="1:148">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1440,10 +1464,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1454,11 +1475,11 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>153</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1466,20 +1487,20 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>163</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>161</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>164</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1487,62 +1508,59 @@
       <c r="T2">
         <v>0</v>
       </c>
-      <c r="U2" t="s">
-        <v>162</v>
-      </c>
-      <c r="V2" t="s">
-        <v>150</v>
+      <c r="V2">
+        <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="X2" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="Y2" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z2" t="s">
         <v>180</v>
       </c>
-      <c r="Z2" t="s">
-        <v>183</v>
-      </c>
       <c r="AA2" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="AB2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AC2" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="AD2" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>184</v>
       </c>
       <c r="AF2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="AH2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AI2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>180</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>183</v>
-      </c>
       <c r="AK2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AL2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
+        <v>188</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>184</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -1580,17 +1598,17 @@
       <c r="AZ2">
         <v>0</v>
       </c>
-      <c r="BA2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>184</v>
       </c>
       <c r="BE2">
         <v>0</v>
@@ -1616,74 +1634,74 @@
       <c r="BL2">
         <v>0</v>
       </c>
-      <c r="BM2" t="s">
-        <v>175</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="s">
         <v>180</v>
       </c>
-      <c r="BO2" t="s">
-        <v>183</v>
-      </c>
       <c r="BP2" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="BQ2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="BR2" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="BS2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>205</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>206</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>180</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>185</v>
+      </c>
+      <c r="CF2" t="s">
         <v>188</v>
       </c>
-      <c r="BX2" t="s">
-        <v>199</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>200</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>175</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>180</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>183</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>151</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>176</v>
-      </c>
       <c r="CG2" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="CH2" t="s">
-        <v>179</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>184</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -1730,6 +1748,9 @@
       <c r="CY2">
         <v>0</v>
       </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
       <c r="DA2">
         <v>0</v>
       </c>
@@ -1739,53 +1760,50 @@
       <c r="DE2">
         <v>0</v>
       </c>
-      <c r="DF2" t="s">
-        <v>177</v>
-      </c>
       <c r="DG2">
         <v>0</v>
       </c>
       <c r="DH2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="DI2">
         <v>0</v>
       </c>
+      <c r="DJ2" t="s">
+        <v>184</v>
+      </c>
       <c r="DK2">
         <v>0</v>
       </c>
       <c r="DM2">
         <v>0</v>
       </c>
-      <c r="DP2">
-        <v>0</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>179</v>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="DU2" t="s">
-        <v>150</v>
-      </c>
-      <c r="DV2">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="DW2" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>150</v>
+        <v>153</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>179</v>
-      </c>
-      <c r="DZ2">
-        <v>0</v>
-      </c>
-      <c r="EA2">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>153</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>184</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -1802,17 +1820,17 @@
       <c r="EF2">
         <v>0</v>
       </c>
-      <c r="EG2" t="s">
-        <v>154</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>179</v>
-      </c>
-      <c r="EJ2">
-        <v>0</v>
-      </c>
-      <c r="EK2">
-        <v>0</v>
+      <c r="EG2">
+        <v>0</v>
+      </c>
+      <c r="EH2">
+        <v>0</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>157</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>184</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -1823,14 +1841,20 @@
       <c r="EN2">
         <v>0</v>
       </c>
-      <c r="EO2" t="s">
-        <v>149</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>203</v>
+      <c r="EO2">
+        <v>0</v>
+      </c>
+      <c r="EP2">
+        <v>0</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>152</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:146">
+    <row r="3" spans="1:148">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1844,10 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1858,260 +1879,260 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>164</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>165</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>167</v>
+      </c>
+      <c r="X3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>181</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>181</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>181</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>194</v>
+      </c>
+      <c r="BZ3" t="s">
         <v>151</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>160</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>161</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3" t="s">
-        <v>163</v>
-      </c>
-      <c r="V3" t="s">
-        <v>151</v>
-      </c>
-      <c r="W3" t="s">
-        <v>174</v>
-      </c>
-      <c r="X3" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>182</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>179</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>179</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>200</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
+      <c r="CA3" t="s">
+        <v>184</v>
       </c>
       <c r="CB3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>179</v>
+        <v>206</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>184</v>
       </c>
       <c r="CF3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="CG3">
         <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3" t="s">
-        <v>176</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>176</v>
+        <v>184</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
       </c>
       <c r="CL3" t="s">
-        <v>182</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>181</v>
       </c>
       <c r="CN3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="CQ3">
         <v>0</v>
       </c>
-      <c r="CR3">
-        <v>0</v>
+      <c r="CR3" t="s">
+        <v>181</v>
       </c>
       <c r="CS3">
         <v>0</v>
@@ -2134,6 +2155,9 @@
       <c r="CY3">
         <v>0</v>
       </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
       <c r="DA3">
         <v>0</v>
       </c>
@@ -2155,44 +2179,41 @@
       <c r="DM3">
         <v>0</v>
       </c>
-      <c r="DP3">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS3">
-        <v>0</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>151</v>
-      </c>
-      <c r="DV3">
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU3">
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>179</v>
+        <v>154</v>
+      </c>
+      <c r="DX3">
+        <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="DZ3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="EA3" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="EB3" t="s">
-        <v>182</v>
-      </c>
-      <c r="EC3">
-        <v>0</v>
-      </c>
-      <c r="ED3">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>187</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2200,14 +2221,14 @@
       <c r="EF3">
         <v>0</v>
       </c>
-      <c r="EG3" t="s">
-        <v>151</v>
+      <c r="EG3">
+        <v>0</v>
       </c>
       <c r="EH3">
         <v>0</v>
       </c>
-      <c r="EI3">
-        <v>0</v>
+      <c r="EI3" t="s">
+        <v>154</v>
       </c>
       <c r="EJ3">
         <v>0</v>
@@ -2224,14 +2245,20 @@
       <c r="EN3">
         <v>0</v>
       </c>
-      <c r="EO3" t="s">
-        <v>149</v>
+      <c r="EO3">
+        <v>0</v>
       </c>
       <c r="EP3">
         <v>0</v>
       </c>
+      <c r="EQ3" t="s">
+        <v>152</v>
+      </c>
+      <c r="ER3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:146">
+    <row r="4" spans="1:148">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2245,10 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2259,392 +2283,395 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>164</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>168</v>
+      </c>
+      <c r="X4" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>188</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>205</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>206</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>188</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>189</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>190</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>182</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>187</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>181</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>155</v>
+      </c>
+      <c r="DX4">
+        <v>0</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>155</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EB4">
+        <v>0</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4">
+        <v>0</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4">
+        <v>0</v>
+      </c>
+      <c r="EG4">
+        <v>0</v>
+      </c>
+      <c r="EH4">
+        <v>0</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>182</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EL4">
+        <v>0</v>
+      </c>
+      <c r="EM4">
+        <v>0</v>
+      </c>
+      <c r="EN4">
+        <v>0</v>
+      </c>
+      <c r="EO4">
+        <v>0</v>
+      </c>
+      <c r="EP4">
+        <v>0</v>
+      </c>
+      <c r="EQ4" t="s">
         <v>152</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>160</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>161</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4" t="s">
-        <v>164</v>
-      </c>
-      <c r="V4" t="s">
-        <v>173</v>
-      </c>
-      <c r="W4" t="s">
-        <v>174</v>
-      </c>
-      <c r="X4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>183</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>184</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>185</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>177</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>176</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>190</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>200</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>183</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>184</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>185</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>177</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>179</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>176</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
-        <v>0</v>
-      </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>182</v>
-      </c>
-      <c r="DA4">
-        <v>0</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>179</v>
-      </c>
-      <c r="DC4">
-        <v>0</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>179</v>
-      </c>
-      <c r="DE4">
-        <v>0</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>176</v>
-      </c>
-      <c r="DG4">
-        <v>0</v>
-      </c>
-      <c r="DI4">
-        <v>0</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>179</v>
-      </c>
-      <c r="DK4">
-        <v>0</v>
-      </c>
-      <c r="DM4">
-        <v>0</v>
-      </c>
-      <c r="DP4">
-        <v>0</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>179</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>152</v>
-      </c>
-      <c r="DV4">
-        <v>0</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>152</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>179</v>
-      </c>
-      <c r="DZ4">
-        <v>0</v>
-      </c>
-      <c r="EA4">
-        <v>0</v>
-      </c>
-      <c r="EB4">
-        <v>0</v>
-      </c>
-      <c r="EC4">
-        <v>0</v>
-      </c>
-      <c r="ED4">
-        <v>0</v>
-      </c>
-      <c r="EE4">
-        <v>0</v>
-      </c>
-      <c r="EF4">
-        <v>0</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>177</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>179</v>
-      </c>
-      <c r="EJ4">
-        <v>0</v>
-      </c>
-      <c r="EK4">
-        <v>0</v>
-      </c>
-      <c r="EL4">
-        <v>0</v>
-      </c>
-      <c r="EM4">
-        <v>0</v>
-      </c>
-      <c r="EN4">
-        <v>0</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>149</v>
-      </c>
-      <c r="EP4">
+      <c r="ER4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:146">
+    <row r="5" spans="1:148">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2658,10 +2685,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2672,11 +2696,11 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>156</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2684,20 +2708,20 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>163</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="Q5" t="s">
-        <v>161</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>164</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2708,224 +2732,224 @@
       <c r="U5" t="s">
         <v>165</v>
       </c>
-      <c r="V5" t="s">
-        <v>153</v>
+      <c r="V5">
+        <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="X5" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="Y5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Z5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>182</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>154</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>181</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ5" t="s">
         <v>151</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="CA5" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>206</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>184</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="s">
         <v>182</v>
       </c>
-      <c r="AB5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF5" t="s">
+      <c r="CM5" t="s">
         <v>186</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>179</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>181</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>182</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>182</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>182</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>176</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>191</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>178</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>200</v>
-      </c>
-      <c r="CA5">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>179</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>179</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>179</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>179</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>179</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>179</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>179</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>177</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>181</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>151</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>182</v>
-      </c>
       <c r="CN5" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="CO5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CP5" t="s">
-        <v>176</v>
-      </c>
-      <c r="CQ5">
-        <v>0</v>
-      </c>
-      <c r="CR5">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>187</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>181</v>
       </c>
       <c r="CS5">
         <v>0</v>
@@ -2948,6 +2972,9 @@
       <c r="CY5">
         <v>0</v>
       </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
       <c r="DA5">
         <v>0</v>
       </c>
@@ -2960,56 +2987,53 @@
       <c r="DG5">
         <v>0</v>
       </c>
-      <c r="DH5" t="s">
-        <v>176</v>
-      </c>
       <c r="DI5">
         <v>0</v>
       </c>
+      <c r="DJ5" t="s">
+        <v>181</v>
+      </c>
       <c r="DK5">
         <v>0</v>
       </c>
       <c r="DM5">
         <v>0</v>
       </c>
-      <c r="DP5">
-        <v>0</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS5">
-        <v>0</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>153</v>
-      </c>
-      <c r="DV5">
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU5">
         <v>0</v>
       </c>
       <c r="DW5" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>179</v>
+        <v>156</v>
+      </c>
+      <c r="DX5">
+        <v>0</v>
       </c>
       <c r="DY5" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="DZ5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="EA5" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="EB5" t="s">
-        <v>175</v>
-      </c>
-      <c r="EC5">
-        <v>0</v>
-      </c>
-      <c r="ED5">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>180</v>
       </c>
       <c r="EE5">
         <v>0</v>
@@ -3017,14 +3041,14 @@
       <c r="EF5">
         <v>0</v>
       </c>
-      <c r="EG5" t="s">
-        <v>202</v>
+      <c r="EG5">
+        <v>0</v>
       </c>
       <c r="EH5">
         <v>0</v>
       </c>
-      <c r="EI5">
-        <v>0</v>
+      <c r="EI5" t="s">
+        <v>208</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -3041,14 +3065,20 @@
       <c r="EN5">
         <v>0</v>
       </c>
-      <c r="EO5" t="s">
-        <v>149</v>
+      <c r="EO5">
+        <v>0</v>
       </c>
       <c r="EP5">
         <v>0</v>
       </c>
+      <c r="EQ5" t="s">
+        <v>152</v>
+      </c>
+      <c r="ER5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:146">
+    <row r="6" spans="1:148">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3062,10 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3076,260 +3103,260 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>163</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>164</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>165</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>170</v>
+      </c>
+      <c r="X6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA6" t="s">
         <v>154</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>160</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>161</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6" t="s">
-        <v>166</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="AB6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK6" t="s">
         <v>154</v>
       </c>
-      <c r="W6" t="s">
-        <v>174</v>
-      </c>
-      <c r="X6" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="AL6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>182</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>154</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>189</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>186</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>181</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>197</v>
+      </c>
+      <c r="BZ6" t="s">
         <v>151</v>
       </c>
-      <c r="Z6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="CA6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>206</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>182</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>154</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>189</v>
+      </c>
+      <c r="CO6" t="s">
         <v>186</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>151</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>185</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>176</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>192</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>179</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CA6">
-        <v>0</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CI6">
-        <v>0</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>177</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>151</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>184</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>181</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>181</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>185</v>
-      </c>
       <c r="CP6" t="s">
-        <v>176</v>
-      </c>
-      <c r="CQ6">
-        <v>0</v>
-      </c>
-      <c r="CR6">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>190</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>181</v>
       </c>
       <c r="CS6">
         <v>0</v>
@@ -3352,6 +3379,9 @@
       <c r="CY6">
         <v>0</v>
       </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
       <c r="DA6">
         <v>0</v>
       </c>
@@ -3373,44 +3403,41 @@
       <c r="DM6">
         <v>0</v>
       </c>
-      <c r="DP6">
-        <v>0</v>
-      </c>
-      <c r="DQ6" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS6">
-        <v>0</v>
-      </c>
-      <c r="DU6" t="s">
-        <v>154</v>
-      </c>
-      <c r="DV6">
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU6">
         <v>0</v>
       </c>
       <c r="DW6" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX6" t="s">
-        <v>179</v>
+        <v>157</v>
+      </c>
+      <c r="DX6">
+        <v>0</v>
       </c>
       <c r="DY6" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="DZ6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="EA6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="EB6" t="s">
-        <v>183</v>
-      </c>
-      <c r="EC6">
-        <v>0</v>
-      </c>
-      <c r="ED6">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>188</v>
       </c>
       <c r="EE6">
         <v>0</v>
@@ -3418,14 +3445,14 @@
       <c r="EF6">
         <v>0</v>
       </c>
-      <c r="EG6" t="s">
-        <v>154</v>
+      <c r="EG6">
+        <v>0</v>
       </c>
       <c r="EH6">
         <v>0</v>
       </c>
-      <c r="EI6">
-        <v>0</v>
+      <c r="EI6" t="s">
+        <v>157</v>
       </c>
       <c r="EJ6">
         <v>0</v>
@@ -3442,14 +3469,20 @@
       <c r="EN6">
         <v>0</v>
       </c>
-      <c r="EO6" t="s">
-        <v>149</v>
+      <c r="EO6">
+        <v>0</v>
       </c>
       <c r="EP6">
         <v>0</v>
       </c>
+      <c r="EQ6" t="s">
+        <v>152</v>
+      </c>
+      <c r="ER6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:146">
+    <row r="7" spans="1:148">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3463,10 +3496,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3477,11 +3507,11 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>158</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3489,20 +3519,20 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" t="s">
-        <v>160</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>163</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q7" t="s">
-        <v>161</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>164</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -3510,56 +3540,53 @@
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7" t="s">
-        <v>167</v>
-      </c>
-      <c r="V7" t="s">
-        <v>155</v>
+      <c r="V7">
+        <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="X7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Y7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Z7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AA7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AC7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AD7" t="s">
-        <v>179</v>
+        <v>184</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>184</v>
       </c>
       <c r="AF7" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="AH7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>177</v>
+        <v>191</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
       <c r="AJ7" t="s">
-        <v>177</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>182</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -3594,20 +3621,20 @@
       <c r="AW7">
         <v>0</v>
       </c>
-      <c r="AX7" t="s">
-        <v>179</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>179</v>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
       </c>
       <c r="AZ7" t="s">
-        <v>179</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>184</v>
       </c>
       <c r="BC7">
         <v>0</v>
@@ -3639,71 +3666,71 @@
       <c r="BL7">
         <v>0</v>
       </c>
-      <c r="BM7" t="s">
-        <v>175</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>175</v>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
       </c>
       <c r="BO7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BP7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BQ7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="BR7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="BS7" t="s">
-        <v>179</v>
-      </c>
-      <c r="BU7">
-        <v>0</v>
-      </c>
-      <c r="BV7">
-        <v>0</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>193</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>199</v>
+        <v>184</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
       </c>
       <c r="BY7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="BZ7" t="s">
-        <v>200</v>
-      </c>
-      <c r="CA7">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>184</v>
       </c>
       <c r="CB7" t="s">
-        <v>175</v>
-      </c>
-      <c r="CC7" t="s">
-        <v>175</v>
+        <v>206</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
       </c>
       <c r="CD7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CE7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CF7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="CG7" t="s">
-        <v>179</v>
-      </c>
-      <c r="CH7">
-        <v>0</v>
-      </c>
-      <c r="CI7">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>184</v>
       </c>
       <c r="CJ7">
         <v>0</v>
@@ -3753,24 +3780,27 @@
       <c r="CY7">
         <v>0</v>
       </c>
-      <c r="CZ7" t="s">
-        <v>176</v>
+      <c r="CZ7">
+        <v>0</v>
       </c>
       <c r="DA7">
         <v>0</v>
       </c>
       <c r="DB7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="DC7">
         <v>0</v>
       </c>
       <c r="DD7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="DE7">
         <v>0</v>
       </c>
+      <c r="DF7" t="s">
+        <v>182</v>
+      </c>
       <c r="DG7">
         <v>0</v>
       </c>
@@ -3783,35 +3813,32 @@
       <c r="DM7">
         <v>0</v>
       </c>
-      <c r="DP7">
-        <v>0</v>
-      </c>
-      <c r="DQ7" t="s">
-        <v>179</v>
+      <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DR7">
+        <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="DU7" t="s">
-        <v>155</v>
-      </c>
-      <c r="DV7">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="DW7" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX7" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="DX7">
+        <v>0</v>
       </c>
       <c r="DY7" t="s">
-        <v>179</v>
-      </c>
-      <c r="DZ7">
-        <v>0</v>
-      </c>
-      <c r="EA7">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>158</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>184</v>
       </c>
       <c r="EB7">
         <v>0</v>
@@ -3828,17 +3855,17 @@
       <c r="EF7">
         <v>0</v>
       </c>
-      <c r="EG7" t="s">
-        <v>156</v>
-      </c>
-      <c r="EH7" t="s">
-        <v>179</v>
-      </c>
-      <c r="EJ7">
-        <v>0</v>
-      </c>
-      <c r="EK7">
-        <v>0</v>
+      <c r="EG7">
+        <v>0</v>
+      </c>
+      <c r="EH7">
+        <v>0</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>159</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>184</v>
       </c>
       <c r="EL7">
         <v>0</v>
@@ -3849,14 +3876,20 @@
       <c r="EN7">
         <v>0</v>
       </c>
-      <c r="EO7" t="s">
-        <v>149</v>
+      <c r="EO7">
+        <v>0</v>
       </c>
       <c r="EP7">
         <v>0</v>
       </c>
+      <c r="EQ7" t="s">
+        <v>152</v>
+      </c>
+      <c r="ER7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:146">
+    <row r="8" spans="1:148">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3870,10 +3903,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3884,11 +3914,11 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>156</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>159</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3896,20 +3926,20 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" t="s">
-        <v>160</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>163</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8" t="s">
-        <v>161</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>164</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -3918,61 +3948,61 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>168</v>
-      </c>
-      <c r="V8" t="s">
-        <v>156</v>
+        <v>165</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="X8" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="Y8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Z8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA8" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AB8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AC8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AD8" t="s">
-        <v>179</v>
+        <v>187</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>184</v>
       </c>
       <c r="AF8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="AH8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>182</v>
+        <v>191</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
       <c r="AJ8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>187</v>
       </c>
       <c r="AL8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AM8">
         <v>0</v>
       </c>
-      <c r="AN8">
-        <v>0</v>
+      <c r="AN8" t="s">
+        <v>187</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -4046,92 +4076,92 @@
       <c r="BL8">
         <v>0</v>
       </c>
-      <c r="BM8" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>182</v>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
       </c>
       <c r="BO8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BP8" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="BQ8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="BR8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="BS8" t="s">
-        <v>179</v>
-      </c>
-      <c r="BU8">
-        <v>0</v>
-      </c>
-      <c r="BV8">
-        <v>0</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>148</v>
+        <v>187</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="BZ8" t="s">
-        <v>200</v>
-      </c>
-      <c r="CA8">
-        <v>0</v>
+        <v>151</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>184</v>
       </c>
       <c r="CB8" t="s">
-        <v>179</v>
-      </c>
-      <c r="CC8" t="s">
-        <v>179</v>
+        <v>206</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
       </c>
       <c r="CD8" t="s">
-        <v>179</v>
-      </c>
-      <c r="CE8">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>184</v>
       </c>
       <c r="CF8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="CG8">
         <v>0</v>
       </c>
-      <c r="CH8">
-        <v>0</v>
+      <c r="CH8" t="s">
+        <v>184</v>
       </c>
       <c r="CI8">
         <v>0</v>
       </c>
-      <c r="CJ8" t="s">
-        <v>176</v>
-      </c>
-      <c r="CK8" t="s">
-        <v>182</v>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
       </c>
       <c r="CL8" t="s">
-        <v>182</v>
-      </c>
-      <c r="CM8">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>187</v>
       </c>
       <c r="CN8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CO8">
         <v>0</v>
       </c>
-      <c r="CP8">
-        <v>0</v>
+      <c r="CP8" t="s">
+        <v>187</v>
       </c>
       <c r="CQ8">
         <v>0</v>
@@ -4160,6 +4190,9 @@
       <c r="CY8">
         <v>0</v>
       </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
       <c r="DA8">
         <v>0</v>
       </c>
@@ -4181,44 +4214,41 @@
       <c r="DM8">
         <v>0</v>
       </c>
-      <c r="DP8">
-        <v>0</v>
-      </c>
-      <c r="DQ8" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS8">
-        <v>0</v>
-      </c>
-      <c r="DU8" t="s">
-        <v>156</v>
-      </c>
-      <c r="DV8">
+      <c r="DO8">
+        <v>0</v>
+      </c>
+      <c r="DR8">
+        <v>0</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU8">
         <v>0</v>
       </c>
       <c r="DW8" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX8" t="s">
-        <v>179</v>
+        <v>159</v>
+      </c>
+      <c r="DX8">
+        <v>0</v>
       </c>
       <c r="DY8" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="DZ8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="EA8" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="EB8" t="s">
-        <v>182</v>
-      </c>
-      <c r="EC8">
-        <v>0</v>
-      </c>
-      <c r="ED8">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>187</v>
       </c>
       <c r="EE8">
         <v>0</v>
@@ -4226,14 +4256,14 @@
       <c r="EF8">
         <v>0</v>
       </c>
-      <c r="EG8" t="s">
-        <v>156</v>
+      <c r="EG8">
+        <v>0</v>
       </c>
       <c r="EH8">
         <v>0</v>
       </c>
-      <c r="EI8">
-        <v>0</v>
+      <c r="EI8" t="s">
+        <v>159</v>
       </c>
       <c r="EJ8">
         <v>0</v>
@@ -4250,14 +4280,20 @@
       <c r="EN8">
         <v>0</v>
       </c>
-      <c r="EO8" t="s">
-        <v>149</v>
+      <c r="EO8">
+        <v>0</v>
       </c>
       <c r="EP8">
         <v>0</v>
       </c>
+      <c r="EQ8" t="s">
+        <v>152</v>
+      </c>
+      <c r="ER8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:146">
+    <row r="9" spans="1:148">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4271,10 +4307,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4285,11 +4318,11 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>157</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>160</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4297,89 +4330,89 @@
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>164</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>165</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>173</v>
+      </c>
+      <c r="X9" t="s">
         <v>160</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>161</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" t="s">
-        <v>169</v>
-      </c>
-      <c r="V9" t="s">
-        <v>157</v>
-      </c>
-      <c r="W9" t="s">
-        <v>174</v>
-      </c>
-      <c r="X9" t="s">
-        <v>178</v>
-      </c>
       <c r="Y9" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="Z9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AA9" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="AB9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AC9" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="AD9" t="s">
-        <v>176</v>
+        <v>183</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>181</v>
       </c>
       <c r="AF9" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="AH9" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>156</v>
+        <v>191</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AK9" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="AL9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AM9" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="AN9" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>181</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -4447,98 +4480,98 @@
       <c r="BL9">
         <v>0</v>
       </c>
-      <c r="BM9" t="s">
-        <v>178</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>156</v>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
       </c>
       <c r="BO9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="BP9" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="BQ9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="BR9" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="BS9" t="s">
-        <v>176</v>
-      </c>
-      <c r="BU9">
-        <v>0</v>
-      </c>
-      <c r="BV9">
-        <v>0</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>195</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>148</v>
+        <v>183</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>181</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>181</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="BZ9" t="s">
-        <v>200</v>
-      </c>
-      <c r="CA9">
-        <v>0</v>
+        <v>151</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>184</v>
       </c>
       <c r="CB9" t="s">
-        <v>179</v>
-      </c>
-      <c r="CC9" t="s">
-        <v>179</v>
+        <v>206</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
       </c>
       <c r="CD9" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="CE9" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="CF9" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="CG9" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="CH9" t="s">
-        <v>179</v>
-      </c>
-      <c r="CI9">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>184</v>
       </c>
       <c r="CJ9" t="s">
-        <v>178</v>
-      </c>
-      <c r="CK9" t="s">
-        <v>156</v>
+        <v>184</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
       </c>
       <c r="CL9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="CM9" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="CN9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="CO9" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="CP9" t="s">
-        <v>176</v>
-      </c>
-      <c r="CQ9">
-        <v>0</v>
-      </c>
-      <c r="CR9">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>181</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>181</v>
       </c>
       <c r="CS9">
         <v>0</v>
@@ -4561,6 +4594,9 @@
       <c r="CY9">
         <v>0</v>
       </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
       <c r="DA9">
         <v>0</v>
       </c>
@@ -4582,44 +4618,41 @@
       <c r="DM9">
         <v>0</v>
       </c>
-      <c r="DP9">
-        <v>0</v>
-      </c>
-      <c r="DQ9" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS9">
-        <v>0</v>
-      </c>
-      <c r="DU9" t="s">
-        <v>157</v>
-      </c>
-      <c r="DV9">
+      <c r="DO9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>0</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU9">
         <v>0</v>
       </c>
       <c r="DW9" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX9" t="s">
-        <v>179</v>
+        <v>160</v>
+      </c>
+      <c r="DX9">
+        <v>0</v>
       </c>
       <c r="DY9" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="DZ9" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="EA9" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="EB9" t="s">
-        <v>175</v>
-      </c>
-      <c r="EC9">
-        <v>0</v>
-      </c>
-      <c r="ED9">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED9" t="s">
+        <v>180</v>
       </c>
       <c r="EE9">
         <v>0</v>
@@ -4627,14 +4660,14 @@
       <c r="EF9">
         <v>0</v>
       </c>
-      <c r="EG9" t="s">
-        <v>157</v>
+      <c r="EG9">
+        <v>0</v>
       </c>
       <c r="EH9">
         <v>0</v>
       </c>
-      <c r="EI9">
-        <v>0</v>
+      <c r="EI9" t="s">
+        <v>160</v>
       </c>
       <c r="EJ9">
         <v>0</v>
@@ -4651,14 +4684,20 @@
       <c r="EN9">
         <v>0</v>
       </c>
-      <c r="EO9" t="s">
-        <v>149</v>
+      <c r="EO9">
+        <v>0</v>
       </c>
       <c r="EP9">
         <v>0</v>
       </c>
+      <c r="EQ9" t="s">
+        <v>152</v>
+      </c>
+      <c r="ER9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:146">
+    <row r="10" spans="1:148">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4672,10 +4711,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4686,11 +4722,11 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
-        <v>158</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>161</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4698,20 +4734,20 @@
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10" t="s">
-        <v>160</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>163</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
-      <c r="Q10" t="s">
-        <v>161</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>164</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4720,67 +4756,67 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>170</v>
-      </c>
-      <c r="V10" t="s">
-        <v>158</v>
+        <v>165</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
       </c>
       <c r="W10" t="s">
         <v>174</v>
       </c>
       <c r="X10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y10" t="s">
         <v>179</v>
       </c>
-      <c r="Y10" t="s">
-        <v>177</v>
-      </c>
       <c r="Z10" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="AA10" t="s">
         <v>182</v>
       </c>
       <c r="AB10" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="AC10" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="AD10" t="s">
-        <v>176</v>
+        <v>182</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>181</v>
       </c>
       <c r="AF10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>151</v>
+        <v>181</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
       </c>
       <c r="AK10" t="s">
         <v>182</v>
       </c>
       <c r="AL10" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="AM10" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="AN10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>181</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -4848,98 +4884,98 @@
       <c r="BL10">
         <v>0</v>
       </c>
-      <c r="BM10" t="s">
-        <v>179</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>177</v>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
       </c>
       <c r="BO10" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="BP10" t="s">
         <v>182</v>
       </c>
       <c r="BQ10" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="BR10" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="BS10" t="s">
-        <v>176</v>
-      </c>
-      <c r="BU10">
-        <v>0</v>
-      </c>
-      <c r="BV10">
-        <v>0</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>196</v>
-      </c>
-      <c r="BX10" t="s">
-        <v>148</v>
+        <v>182</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
       </c>
       <c r="BY10" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="BZ10" t="s">
-        <v>200</v>
-      </c>
-      <c r="CA10">
-        <v>0</v>
-      </c>
-      <c r="CB10">
-        <v>0</v>
-      </c>
-      <c r="CC10" t="s">
-        <v>179</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>179</v>
+        <v>151</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>206</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
       </c>
       <c r="CE10" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="CF10" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="CG10" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="CH10" t="s">
-        <v>179</v>
-      </c>
-      <c r="CI10">
-        <v>0</v>
-      </c>
-      <c r="CJ10">
-        <v>0</v>
-      </c>
-      <c r="CK10" t="s">
-        <v>177</v>
-      </c>
-      <c r="CL10" t="s">
-        <v>151</v>
+        <v>184</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
       </c>
       <c r="CM10" t="s">
         <v>182</v>
       </c>
       <c r="CN10" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="CO10" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="CP10" t="s">
-        <v>176</v>
-      </c>
-      <c r="CQ10">
-        <v>0</v>
-      </c>
-      <c r="CR10">
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>181</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>181</v>
       </c>
       <c r="CS10">
         <v>0</v>
@@ -4962,6 +4998,9 @@
       <c r="CY10">
         <v>0</v>
       </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
       <c r="DA10">
         <v>0</v>
       </c>
@@ -4983,44 +5022,41 @@
       <c r="DM10">
         <v>0</v>
       </c>
-      <c r="DP10">
-        <v>0</v>
-      </c>
-      <c r="DQ10" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS10">
-        <v>0</v>
-      </c>
-      <c r="DU10" t="s">
-        <v>158</v>
-      </c>
-      <c r="DV10">
+      <c r="DO10">
+        <v>0</v>
+      </c>
+      <c r="DR10">
+        <v>0</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU10">
         <v>0</v>
       </c>
       <c r="DW10" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX10" t="s">
-        <v>179</v>
+        <v>161</v>
+      </c>
+      <c r="DX10">
+        <v>0</v>
       </c>
       <c r="DY10" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="DZ10" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="EA10" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="EB10" t="s">
-        <v>178</v>
-      </c>
-      <c r="EC10">
-        <v>0</v>
-      </c>
-      <c r="ED10">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED10" t="s">
+        <v>183</v>
       </c>
       <c r="EE10">
         <v>0</v>
@@ -5028,14 +5064,14 @@
       <c r="EF10">
         <v>0</v>
       </c>
-      <c r="EG10" t="s">
-        <v>158</v>
+      <c r="EG10">
+        <v>0</v>
       </c>
       <c r="EH10">
         <v>0</v>
       </c>
-      <c r="EI10">
-        <v>0</v>
+      <c r="EI10" t="s">
+        <v>161</v>
       </c>
       <c r="EJ10">
         <v>0</v>
@@ -5052,14 +5088,20 @@
       <c r="EN10">
         <v>0</v>
       </c>
-      <c r="EO10" t="s">
-        <v>149</v>
+      <c r="EO10">
+        <v>0</v>
       </c>
       <c r="EP10">
         <v>0</v>
       </c>
+      <c r="EQ10" t="s">
+        <v>152</v>
+      </c>
+      <c r="ER10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:146">
+    <row r="11" spans="1:148">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5073,10 +5115,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5087,356 +5126,356 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>163</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>164</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>175</v>
+      </c>
+      <c r="X11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>181</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>154</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>183</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>184</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>184</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>187</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>181</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>202</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>151</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>187</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>206</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>184</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>184</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>184</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>181</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>154</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>183</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>187</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>181</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DI11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>0</v>
+      </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DO11">
+        <v>0</v>
+      </c>
+      <c r="DR11">
+        <v>0</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU11">
+        <v>0</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>162</v>
+      </c>
+      <c r="DX11">
+        <v>0</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>184</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>184</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>162</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>184</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED11" t="s">
         <v>159</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>160</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>161</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11" t="s">
-        <v>171</v>
-      </c>
-      <c r="V11" t="s">
-        <v>159</v>
-      </c>
-      <c r="W11" t="s">
-        <v>174</v>
-      </c>
-      <c r="X11" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BD11">
-        <v>0</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11">
-        <v>0</v>
-      </c>
-      <c r="BH11">
-        <v>0</v>
-      </c>
-      <c r="BI11">
-        <v>0</v>
-      </c>
-      <c r="BJ11">
-        <v>0</v>
-      </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>151</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>178</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>179</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>176</v>
-      </c>
-      <c r="BU11">
-        <v>0</v>
-      </c>
-      <c r="BV11">
-        <v>0</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>197</v>
-      </c>
-      <c r="BX11" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BZ11" t="s">
-        <v>200</v>
-      </c>
-      <c r="CA11">
-        <v>0</v>
-      </c>
-      <c r="CB11" t="s">
-        <v>179</v>
-      </c>
-      <c r="CC11" t="s">
-        <v>179</v>
-      </c>
-      <c r="CD11" t="s">
-        <v>179</v>
-      </c>
-      <c r="CE11">
-        <v>0</v>
-      </c>
-      <c r="CF11">
-        <v>0</v>
-      </c>
-      <c r="CG11" t="s">
-        <v>179</v>
-      </c>
-      <c r="CH11" t="s">
-        <v>179</v>
-      </c>
-      <c r="CI11">
-        <v>0</v>
-      </c>
-      <c r="CJ11" t="s">
-        <v>176</v>
-      </c>
-      <c r="CK11" t="s">
-        <v>151</v>
-      </c>
-      <c r="CL11" t="s">
-        <v>178</v>
-      </c>
-      <c r="CM11">
-        <v>0</v>
-      </c>
-      <c r="CN11">
-        <v>0</v>
-      </c>
-      <c r="CO11" t="s">
-        <v>182</v>
-      </c>
-      <c r="CP11" t="s">
-        <v>176</v>
-      </c>
-      <c r="CQ11">
-        <v>0</v>
-      </c>
-      <c r="CR11">
-        <v>0</v>
-      </c>
-      <c r="CS11">
-        <v>0</v>
-      </c>
-      <c r="CT11">
-        <v>0</v>
-      </c>
-      <c r="CU11">
-        <v>0</v>
-      </c>
-      <c r="CV11">
-        <v>0</v>
-      </c>
-      <c r="CW11">
-        <v>0</v>
-      </c>
-      <c r="CX11">
-        <v>0</v>
-      </c>
-      <c r="CY11">
-        <v>0</v>
-      </c>
-      <c r="DA11">
-        <v>0</v>
-      </c>
-      <c r="DC11">
-        <v>0</v>
-      </c>
-      <c r="DE11">
-        <v>0</v>
-      </c>
-      <c r="DG11">
-        <v>0</v>
-      </c>
-      <c r="DI11">
-        <v>0</v>
-      </c>
-      <c r="DK11">
-        <v>0</v>
-      </c>
-      <c r="DM11">
-        <v>0</v>
-      </c>
-      <c r="DP11">
-        <v>0</v>
-      </c>
-      <c r="DQ11" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS11">
-        <v>0</v>
-      </c>
-      <c r="DU11" t="s">
-        <v>159</v>
-      </c>
-      <c r="DV11">
-        <v>0</v>
-      </c>
-      <c r="DW11" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX11" t="s">
-        <v>179</v>
-      </c>
-      <c r="DY11" t="s">
-        <v>159</v>
-      </c>
-      <c r="DZ11" t="s">
-        <v>179</v>
-      </c>
-      <c r="EA11" t="s">
-        <v>179</v>
-      </c>
-      <c r="EB11" t="s">
-        <v>156</v>
-      </c>
-      <c r="EC11">
-        <v>0</v>
-      </c>
-      <c r="ED11">
-        <v>0</v>
-      </c>
       <c r="EE11">
         <v>0</v>
       </c>
       <c r="EF11">
         <v>0</v>
       </c>
-      <c r="EG11" t="s">
-        <v>159</v>
+      <c r="EG11">
+        <v>0</v>
       </c>
       <c r="EH11">
         <v>0</v>
       </c>
-      <c r="EI11">
-        <v>0</v>
+      <c r="EI11" t="s">
+        <v>162</v>
       </c>
       <c r="EJ11">
         <v>0</v>
@@ -5453,14 +5492,20 @@
       <c r="EN11">
         <v>0</v>
       </c>
-      <c r="EO11" t="s">
-        <v>149</v>
+      <c r="EO11">
+        <v>0</v>
       </c>
       <c r="EP11">
         <v>0</v>
       </c>
+      <c r="EQ11" t="s">
+        <v>152</v>
+      </c>
+      <c r="ER11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:146">
+    <row r="12" spans="1:148">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5474,390 +5519,836 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>163</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>164</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>176</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>184</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>184</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>184</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>184</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>184</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>184</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>203</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>151</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
+      </c>
+      <c r="CO12">
+        <v>0</v>
+      </c>
+      <c r="CP12">
+        <v>0</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
+      <c r="CZ12">
+        <v>0</v>
+      </c>
+      <c r="DA12">
+        <v>0</v>
+      </c>
+      <c r="DB12">
+        <v>0</v>
+      </c>
+      <c r="DC12">
+        <v>0</v>
+      </c>
+      <c r="DD12">
+        <v>0</v>
+      </c>
+      <c r="DE12">
+        <v>0</v>
+      </c>
+      <c r="DF12">
+        <v>0</v>
+      </c>
+      <c r="DG12">
+        <v>0</v>
+      </c>
+      <c r="DH12">
+        <v>0</v>
+      </c>
+      <c r="DI12">
+        <v>0</v>
+      </c>
+      <c r="DJ12">
+        <v>0</v>
+      </c>
+      <c r="DK12">
+        <v>0</v>
+      </c>
+      <c r="DL12">
+        <v>0</v>
+      </c>
+      <c r="DM12">
+        <v>0</v>
+      </c>
+      <c r="DN12">
+        <v>0</v>
+      </c>
+      <c r="DO12">
+        <v>0</v>
+      </c>
+      <c r="DP12">
+        <v>0</v>
+      </c>
+      <c r="DQ12">
+        <v>0</v>
+      </c>
+      <c r="DR12">
+        <v>0</v>
+      </c>
+      <c r="DS12">
+        <v>0</v>
+      </c>
+      <c r="DT12">
+        <v>0</v>
+      </c>
+      <c r="DU12">
+        <v>0</v>
+      </c>
+      <c r="DV12">
+        <v>0</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>184</v>
+      </c>
+      <c r="DX12">
+        <v>0</v>
+      </c>
+      <c r="DY12">
+        <v>0</v>
+      </c>
+      <c r="DZ12">
+        <v>0</v>
+      </c>
+      <c r="EA12">
+        <v>0</v>
+      </c>
+      <c r="EB12">
+        <v>0</v>
+      </c>
+      <c r="EC12">
+        <v>0</v>
+      </c>
+      <c r="ED12">
+        <v>0</v>
+      </c>
+      <c r="EE12">
+        <v>0</v>
+      </c>
+      <c r="EF12">
+        <v>0</v>
+      </c>
+      <c r="EG12">
+        <v>0</v>
+      </c>
+      <c r="EH12">
+        <v>0</v>
+      </c>
+      <c r="EI12">
+        <v>0</v>
+      </c>
+      <c r="EJ12">
+        <v>0</v>
+      </c>
+      <c r="EK12">
+        <v>0</v>
+      </c>
+      <c r="EL12">
+        <v>0</v>
+      </c>
+      <c r="EM12">
+        <v>0</v>
+      </c>
+      <c r="EN12">
+        <v>0</v>
+      </c>
+      <c r="EO12">
+        <v>0</v>
+      </c>
+      <c r="EP12">
+        <v>0</v>
+      </c>
+      <c r="EQ12" t="s">
+        <v>152</v>
+      </c>
+      <c r="ER12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:148">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>148</v>
       </c>
-      <c r="G12" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" t="s">
-        <v>149</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>158</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>160</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="G13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
         <v>161</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>172</v>
-      </c>
-      <c r="V12" t="s">
-        <v>158</v>
-      </c>
-      <c r="W12" t="s">
-        <v>174</v>
-      </c>
-      <c r="X12" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>163</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>164</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>165</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>177</v>
+      </c>
+      <c r="X13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>181</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>154</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>182</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>184</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>183</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>181</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>192</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>204</v>
+      </c>
+      <c r="BZ13" t="s">
         <v>151</v>
       </c>
-      <c r="AA12" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>178</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>178</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
-      <c r="BI12">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>0</v>
-      </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>151</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>177</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>179</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>178</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BU12">
-        <v>0</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>187</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>198</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BZ12" t="s">
-        <v>200</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>201</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>179</v>
-      </c>
-      <c r="CC12" t="s">
-        <v>179</v>
-      </c>
-      <c r="CD12" t="s">
-        <v>179</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>179</v>
-      </c>
-      <c r="CF12">
-        <v>0</v>
-      </c>
-      <c r="CG12" t="s">
-        <v>179</v>
-      </c>
-      <c r="CH12" t="s">
-        <v>179</v>
-      </c>
-      <c r="CI12">
-        <v>0</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>176</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>176</v>
-      </c>
-      <c r="CL12" t="s">
-        <v>151</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>177</v>
-      </c>
-      <c r="CN12">
-        <v>0</v>
-      </c>
-      <c r="CO12" t="s">
-        <v>178</v>
-      </c>
-      <c r="CP12" t="s">
-        <v>176</v>
-      </c>
-      <c r="CQ12">
-        <v>0</v>
-      </c>
-      <c r="CR12">
-        <v>0</v>
-      </c>
-      <c r="CS12">
-        <v>0</v>
-      </c>
-      <c r="CT12">
-        <v>0</v>
-      </c>
-      <c r="CU12">
-        <v>0</v>
-      </c>
-      <c r="CV12">
-        <v>0</v>
-      </c>
-      <c r="CW12">
-        <v>0</v>
-      </c>
-      <c r="CX12">
-        <v>0</v>
-      </c>
-      <c r="CY12">
-        <v>0</v>
-      </c>
-      <c r="DA12">
-        <v>0</v>
-      </c>
-      <c r="DC12">
-        <v>0</v>
-      </c>
-      <c r="DE12">
-        <v>0</v>
-      </c>
-      <c r="DG12">
-        <v>0</v>
-      </c>
-      <c r="DI12">
-        <v>0</v>
-      </c>
-      <c r="DK12">
-        <v>0</v>
-      </c>
-      <c r="DM12">
-        <v>0</v>
-      </c>
-      <c r="DP12">
-        <v>0</v>
-      </c>
-      <c r="DQ12" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS12">
-        <v>0</v>
-      </c>
-      <c r="DU12" t="s">
-        <v>158</v>
-      </c>
-      <c r="DV12">
-        <v>0</v>
-      </c>
-      <c r="DW12" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX12" t="s">
-        <v>179</v>
-      </c>
-      <c r="DY12" t="s">
-        <v>158</v>
-      </c>
-      <c r="DZ12" t="s">
-        <v>179</v>
-      </c>
-      <c r="EA12" t="s">
-        <v>179</v>
-      </c>
-      <c r="EB12" t="s">
-        <v>156</v>
-      </c>
-      <c r="EC12">
-        <v>0</v>
-      </c>
-      <c r="ED12">
-        <v>0</v>
-      </c>
-      <c r="EE12">
-        <v>0</v>
-      </c>
-      <c r="EF12">
-        <v>0</v>
-      </c>
-      <c r="EG12" t="s">
-        <v>158</v>
-      </c>
-      <c r="EH12">
-        <v>0</v>
-      </c>
-      <c r="EI12">
-        <v>0</v>
-      </c>
-      <c r="EJ12">
-        <v>0</v>
-      </c>
-      <c r="EK12">
-        <v>0</v>
-      </c>
-      <c r="EL12">
-        <v>0</v>
-      </c>
-      <c r="EM12">
-        <v>0</v>
-      </c>
-      <c r="EN12">
-        <v>0</v>
-      </c>
-      <c r="EO12" t="s">
-        <v>149</v>
-      </c>
-      <c r="EP12">
+      <c r="CA13" t="s">
+        <v>181</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>206</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>207</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>184</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>184</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>184</v>
+      </c>
+      <c r="CH13">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>184</v>
+      </c>
+      <c r="CK13">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>181</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>181</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>154</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>182</v>
+      </c>
+      <c r="CP13">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>183</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>181</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DC13">
+        <v>0</v>
+      </c>
+      <c r="DE13">
+        <v>0</v>
+      </c>
+      <c r="DG13">
+        <v>0</v>
+      </c>
+      <c r="DI13">
+        <v>0</v>
+      </c>
+      <c r="DK13">
+        <v>0</v>
+      </c>
+      <c r="DM13">
+        <v>0</v>
+      </c>
+      <c r="DO13">
+        <v>0</v>
+      </c>
+      <c r="DR13">
+        <v>0</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU13">
+        <v>0</v>
+      </c>
+      <c r="DW13" t="s">
+        <v>161</v>
+      </c>
+      <c r="DX13">
+        <v>0</v>
+      </c>
+      <c r="DY13" t="s">
+        <v>184</v>
+      </c>
+      <c r="DZ13" t="s">
+        <v>184</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>161</v>
+      </c>
+      <c r="EB13" t="s">
+        <v>184</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED13" t="s">
+        <v>159</v>
+      </c>
+      <c r="EE13">
+        <v>0</v>
+      </c>
+      <c r="EF13">
+        <v>0</v>
+      </c>
+      <c r="EG13">
+        <v>0</v>
+      </c>
+      <c r="EH13">
+        <v>0</v>
+      </c>
+      <c r="EI13" t="s">
+        <v>161</v>
+      </c>
+      <c r="EJ13">
+        <v>0</v>
+      </c>
+      <c r="EK13">
+        <v>0</v>
+      </c>
+      <c r="EL13">
+        <v>0</v>
+      </c>
+      <c r="EM13">
+        <v>0</v>
+      </c>
+      <c r="EN13">
+        <v>0</v>
+      </c>
+      <c r="EO13">
+        <v>0</v>
+      </c>
+      <c r="EP13">
+        <v>0</v>
+      </c>
+      <c r="EQ13" t="s">
+        <v>152</v>
+      </c>
+      <c r="ER13">
         <v>0</v>
       </c>
     </row>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="214">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -529,6 +529,9 @@
     <t>Jompani</t>
   </si>
   <si>
+    <t>Krima Clinic</t>
+  </si>
+  <si>
     <t>Mahuwe Clinic</t>
   </si>
   <si>
@@ -565,6 +568,9 @@
     <t>3</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -577,15 +583,15 @@
     <t>5</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -610,6 +616,9 @@
     <t>2025-06-12T12:35:28.391560Z</t>
   </si>
   <si>
+    <t>2025-06-19T13:27:12.807739Z</t>
+  </si>
+  <si>
     <t>2025-05-28T12:33:30.415196Z</t>
   </si>
   <si>
@@ -644,6 +653,9 @@
   </si>
   <si>
     <t>Static</t>
+  </si>
+  <si>
+    <t>Outreach</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ER13"/>
+  <dimension ref="A1:ER14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1518,49 +1530,49 @@
         <v>153</v>
       </c>
       <c r="Y2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AB2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AC2" t="s">
         <v>154</v>
       </c>
       <c r="AD2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL2" t="s">
         <v>191</v>
       </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>188</v>
-      </c>
       <c r="AM2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -1605,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="BC2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BD2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BE2">
         <v>0</v>
@@ -1641,67 +1653,67 @@
         <v>0</v>
       </c>
       <c r="BO2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BP2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="BQ2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BR2" t="s">
         <v>154</v>
       </c>
       <c r="BS2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>208</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>186</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>209</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="s">
         <v>181</v>
       </c>
-      <c r="BT2" t="s">
-        <v>184</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>184</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>193</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>205</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>184</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>206</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>180</v>
-      </c>
       <c r="CE2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="CF2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="CG2" t="s">
         <v>154</v>
       </c>
       <c r="CH2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CI2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CJ2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -1764,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="DH2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DI2">
         <v>0</v>
       </c>
       <c r="DJ2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DK2">
         <v>0</v>
@@ -1785,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DU2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DW2" t="s">
         <v>153</v>
@@ -1797,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DZ2" t="s">
         <v>153</v>
       </c>
       <c r="EA2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -1830,7 +1842,7 @@
         <v>157</v>
       </c>
       <c r="EJ2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -1851,7 +1863,7 @@
         <v>152</v>
       </c>
       <c r="ER2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:148">
@@ -1925,55 +1937,55 @@
         <v>154</v>
       </c>
       <c r="Y3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AC3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AD3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AE3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AH3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -2048,25 +2060,25 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BP3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BQ3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BR3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BS3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BT3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BU3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -2075,64 +2087,64 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="BZ3" t="s">
         <v>151</v>
       </c>
       <c r="CA3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CB3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CE3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CF3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CG3">
         <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CK3">
         <v>0</v>
       </c>
       <c r="CL3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CM3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CN3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CQ3">
         <v>0</v>
       </c>
       <c r="CR3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CS3">
         <v>0</v>
@@ -2186,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DU3">
         <v>0</v>
@@ -2198,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DZ3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="EA3" t="s">
         <v>154</v>
       </c>
       <c r="EB3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="EC3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="ED3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2323,10 +2335,10 @@
         <v>168</v>
       </c>
       <c r="X4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z4" t="s">
         <v>159</v>
@@ -2335,253 +2347,253 @@
         <v>154</v>
       </c>
       <c r="AB4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AC4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>191</v>
+      </c>
+      <c r="BP4" t="s">
         <v>184</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="BQ4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>183</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>197</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>208</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>186</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>209</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>191</v>
+      </c>
+      <c r="CE4" t="s">
         <v>184</v>
       </c>
-      <c r="AF4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>184</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>184</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>184</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>184</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>184</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>188</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ4" t="s">
+      <c r="CF4" t="s">
+        <v>192</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>183</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>186</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>182</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4" t="s">
         <v>190</v>
       </c>
-      <c r="BR4" t="s">
-        <v>182</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>184</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>184</v>
-      </c>
-      <c r="BW4">
-        <v>0</v>
-      </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>195</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>205</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>184</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>206</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>188</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>189</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>182</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>184</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>181</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
-        <v>0</v>
-      </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="CZ4">
-        <v>0</v>
-      </c>
-      <c r="DA4">
-        <v>0</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>187</v>
-      </c>
       <c r="DC4">
         <v>0</v>
       </c>
       <c r="DD4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DE4">
         <v>0</v>
       </c>
       <c r="DF4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DG4">
         <v>0</v>
       </c>
       <c r="DH4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DI4">
         <v>0</v>
@@ -2590,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="DL4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DM4">
         <v>0</v>
@@ -2602,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DU4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DW4" t="s">
         <v>155</v>
@@ -2614,13 +2626,13 @@
         <v>0</v>
       </c>
       <c r="DY4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DZ4" t="s">
         <v>155</v>
       </c>
       <c r="EA4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2644,10 +2656,10 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EJ4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2742,55 +2754,55 @@
         <v>156</v>
       </c>
       <c r="Y5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AB5" t="s">
         <v>154</v>
       </c>
       <c r="AC5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AD5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AE5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AF5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AH5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AL5" t="s">
         <v>154</v>
       </c>
       <c r="AM5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AN5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AO5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AP5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2832,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="BD5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -2865,25 +2877,25 @@
         <v>0</v>
       </c>
       <c r="BO5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BP5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="BQ5" t="s">
         <v>154</v>
       </c>
       <c r="BR5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BS5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BT5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BU5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -2892,64 +2904,64 @@
         <v>0</v>
       </c>
       <c r="BY5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="BZ5" t="s">
         <v>151</v>
       </c>
       <c r="CA5" t="s">
+        <v>185</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>209</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>186</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>186</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>186</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>186</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>186</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>186</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="s">
         <v>183</v>
       </c>
-      <c r="CB5" t="s">
-        <v>206</v>
-      </c>
-      <c r="CC5">
-        <v>0</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>184</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>184</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>184</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>184</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>184</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>184</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>184</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>182</v>
-      </c>
       <c r="CM5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="CN5" t="s">
         <v>154</v>
       </c>
       <c r="CO5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="CP5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="CQ5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="CR5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CS5">
         <v>0</v>
@@ -2991,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="DJ5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DK5">
         <v>0</v>
@@ -3006,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DU5">
         <v>0</v>
@@ -3018,22 +3030,22 @@
         <v>0</v>
       </c>
       <c r="DY5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DZ5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="EA5" t="s">
         <v>156</v>
       </c>
       <c r="EB5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="EC5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="ED5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="EE5">
         <v>0</v>
@@ -3048,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -3149,55 +3161,55 @@
         <v>157</v>
       </c>
       <c r="Y6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA6" t="s">
         <v>154</v>
       </c>
       <c r="AB6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AC6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AD6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AE6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AH6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK6" t="s">
         <v>154</v>
       </c>
       <c r="AL6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AM6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AN6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AO6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AP6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -3272,25 +3284,25 @@
         <v>0</v>
       </c>
       <c r="BO6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BP6" t="s">
         <v>154</v>
       </c>
       <c r="BQ6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="BR6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="BS6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="BT6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BU6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -3299,64 +3311,64 @@
         <v>0</v>
       </c>
       <c r="BY6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BZ6" t="s">
         <v>151</v>
       </c>
       <c r="CA6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CB6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="CC6">
         <v>0</v>
       </c>
       <c r="CD6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CE6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CF6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CG6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CH6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CI6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CJ6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CK6">
         <v>0</v>
       </c>
       <c r="CL6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM6" t="s">
         <v>154</v>
       </c>
       <c r="CN6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="CO6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="CP6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="CQ6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CR6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CS6">
         <v>0</v>
@@ -3410,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DU6">
         <v>0</v>
@@ -3422,22 +3434,22 @@
         <v>0</v>
       </c>
       <c r="DY6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DZ6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="EA6" t="s">
         <v>157</v>
       </c>
       <c r="EB6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="EC6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="ED6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="EE6">
         <v>0</v>
@@ -3496,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3511,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3547,208 +3559,211 @@
         <v>171</v>
       </c>
       <c r="X7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Y7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AA7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AB7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AC7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="s">
         <v>184</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="BP7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>182</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>186</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>186</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>200</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>151</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>186</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>186</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>186</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>186</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="s">
         <v>184</v>
       </c>
-      <c r="AE7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>184</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>184</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>184</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>180</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>180</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>183</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>184</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>184</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>184</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>184</v>
-      </c>
-      <c r="BW7">
-        <v>0</v>
-      </c>
-      <c r="BX7">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>198</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>205</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>184</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>206</v>
-      </c>
-      <c r="CC7">
-        <v>0</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>180</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>180</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>183</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>184</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>184</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>184</v>
-      </c>
-      <c r="CJ7">
-        <v>0</v>
-      </c>
-      <c r="CK7">
-        <v>0</v>
-      </c>
-      <c r="CL7">
-        <v>0</v>
-      </c>
-      <c r="CM7">
-        <v>0</v>
-      </c>
-      <c r="CN7">
-        <v>0</v>
-      </c>
-      <c r="CO7">
-        <v>0</v>
+      <c r="CM7" t="s">
+        <v>189</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>189</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>182</v>
       </c>
       <c r="CP7">
         <v>0</v>
@@ -3786,21 +3801,12 @@
       <c r="DA7">
         <v>0</v>
       </c>
-      <c r="DB7" t="s">
-        <v>181</v>
-      </c>
       <c r="DC7">
         <v>0</v>
       </c>
-      <c r="DD7" t="s">
-        <v>182</v>
-      </c>
       <c r="DE7">
         <v>0</v>
       </c>
-      <c r="DF7" t="s">
-        <v>182</v>
-      </c>
       <c r="DG7">
         <v>0</v>
       </c>
@@ -3820,31 +3826,31 @@
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>184</v>
-      </c>
-      <c r="DU7" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="DU7">
+        <v>0</v>
       </c>
       <c r="DW7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="DX7">
         <v>0</v>
       </c>
       <c r="DY7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DZ7" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="EA7" t="s">
-        <v>184</v>
-      </c>
-      <c r="EB7">
-        <v>0</v>
-      </c>
-      <c r="EC7">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>186</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>186</v>
       </c>
       <c r="ED7">
         <v>0</v>
@@ -3862,10 +3868,13 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>159</v>
-      </c>
-      <c r="EJ7" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="EJ7">
+        <v>0</v>
+      </c>
+      <c r="EK7">
+        <v>0</v>
       </c>
       <c r="EL7">
         <v>0</v>
@@ -3885,8 +3894,8 @@
       <c r="EQ7" t="s">
         <v>152</v>
       </c>
-      <c r="ER7">
-        <v>0</v>
+      <c r="ER7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:148">
@@ -3903,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3918,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3947,9 +3956,6 @@
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="U8" t="s">
-        <v>165</v>
-      </c>
       <c r="V8">
         <v>0</v>
       </c>
@@ -3957,52 +3963,52 @@
         <v>172</v>
       </c>
       <c r="X8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z8" t="s">
         <v>181</v>
       </c>
       <c r="AA8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AB8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AC8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AD8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AE8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AH8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
       <c r="AJ8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AL8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AM8">
         <v>0</v>
       </c>
-      <c r="AN8" t="s">
-        <v>187</v>
+      <c r="AN8">
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -4037,14 +4043,14 @@
       <c r="AY8">
         <v>0</v>
       </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
+      <c r="AZ8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>186</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -4086,22 +4092,22 @@
         <v>181</v>
       </c>
       <c r="BP8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="BQ8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BR8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BS8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BT8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BU8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -4110,37 +4116,37 @@
         <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BZ8" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="CA8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CB8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="CC8">
         <v>0</v>
       </c>
       <c r="CD8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="CE8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="CF8" t="s">
-        <v>184</v>
-      </c>
-      <c r="CG8">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>186</v>
       </c>
       <c r="CH8" t="s">
-        <v>184</v>
-      </c>
-      <c r="CI8">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>186</v>
       </c>
       <c r="CJ8">
         <v>0</v>
@@ -4148,20 +4154,20 @@
       <c r="CK8">
         <v>0</v>
       </c>
-      <c r="CL8" t="s">
-        <v>181</v>
-      </c>
-      <c r="CM8" t="s">
-        <v>187</v>
-      </c>
-      <c r="CN8" t="s">
-        <v>187</v>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
       </c>
       <c r="CO8">
         <v>0</v>
       </c>
-      <c r="CP8" t="s">
-        <v>187</v>
+      <c r="CP8">
+        <v>0</v>
       </c>
       <c r="CQ8">
         <v>0</v>
@@ -4196,12 +4202,21 @@
       <c r="DA8">
         <v>0</v>
       </c>
+      <c r="DB8" t="s">
+        <v>182</v>
+      </c>
       <c r="DC8">
         <v>0</v>
       </c>
+      <c r="DD8" t="s">
+        <v>183</v>
+      </c>
       <c r="DE8">
         <v>0</v>
       </c>
+      <c r="DF8" t="s">
+        <v>183</v>
+      </c>
       <c r="DG8">
         <v>0</v>
       </c>
@@ -4221,34 +4236,34 @@
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>184</v>
-      </c>
-      <c r="DU8">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>186</v>
       </c>
       <c r="DW8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="DX8">
         <v>0</v>
       </c>
       <c r="DY8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DZ8" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="EA8" t="s">
-        <v>159</v>
-      </c>
-      <c r="EB8" t="s">
-        <v>184</v>
-      </c>
-      <c r="EC8" t="s">
-        <v>184</v>
-      </c>
-      <c r="ED8" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="EB8">
+        <v>0</v>
+      </c>
+      <c r="EC8">
+        <v>0</v>
+      </c>
+      <c r="ED8">
+        <v>0</v>
       </c>
       <c r="EE8">
         <v>0</v>
@@ -4265,11 +4280,8 @@
       <c r="EI8" t="s">
         <v>159</v>
       </c>
-      <c r="EJ8">
-        <v>0</v>
-      </c>
-      <c r="EK8">
-        <v>0</v>
+      <c r="EJ8" t="s">
+        <v>186</v>
       </c>
       <c r="EL8">
         <v>0</v>
@@ -4322,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4361,58 +4373,58 @@
         <v>173</v>
       </c>
       <c r="X9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA9" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="AB9" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AC9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AD9" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AE9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AF9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AH9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AI9">
         <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK9" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="AL9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>187</v>
+        <v>190</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
       </c>
       <c r="AN9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>181</v>
+        <v>190</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -4487,25 +4499,25 @@
         <v>0</v>
       </c>
       <c r="BO9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BP9" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="BQ9" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="BR9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BS9" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="BT9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="BU9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="BW9">
         <v>0</v>
@@ -4514,145 +4526,145 @@
         <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BZ9" t="s">
         <v>151</v>
       </c>
       <c r="CA9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CB9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="CC9">
         <v>0</v>
       </c>
       <c r="CD9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CE9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CF9" t="s">
-        <v>184</v>
-      </c>
-      <c r="CG9" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
       </c>
       <c r="CH9" t="s">
-        <v>184</v>
-      </c>
-      <c r="CI9" t="s">
-        <v>184</v>
-      </c>
-      <c r="CJ9" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
       </c>
       <c r="CK9">
         <v>0</v>
       </c>
       <c r="CL9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="CM9" t="s">
+        <v>190</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>190</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>190</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DI9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>0</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DO9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>0</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>186</v>
+      </c>
+      <c r="DU9">
+        <v>0</v>
+      </c>
+      <c r="DW9" t="s">
         <v>159</v>
       </c>
-      <c r="CN9" t="s">
-        <v>183</v>
-      </c>
-      <c r="CO9" t="s">
-        <v>187</v>
-      </c>
-      <c r="CP9" t="s">
-        <v>183</v>
-      </c>
-      <c r="CQ9" t="s">
-        <v>181</v>
-      </c>
-      <c r="CR9" t="s">
-        <v>181</v>
-      </c>
-      <c r="CS9">
-        <v>0</v>
-      </c>
-      <c r="CT9">
-        <v>0</v>
-      </c>
-      <c r="CU9">
-        <v>0</v>
-      </c>
-      <c r="CV9">
-        <v>0</v>
-      </c>
-      <c r="CW9">
-        <v>0</v>
-      </c>
-      <c r="CX9">
-        <v>0</v>
-      </c>
-      <c r="CY9">
-        <v>0</v>
-      </c>
-      <c r="CZ9">
-        <v>0</v>
-      </c>
-      <c r="DA9">
-        <v>0</v>
-      </c>
-      <c r="DC9">
-        <v>0</v>
-      </c>
-      <c r="DE9">
-        <v>0</v>
-      </c>
-      <c r="DG9">
-        <v>0</v>
-      </c>
-      <c r="DI9">
-        <v>0</v>
-      </c>
-      <c r="DK9">
-        <v>0</v>
-      </c>
-      <c r="DM9">
-        <v>0</v>
-      </c>
-      <c r="DO9">
-        <v>0</v>
-      </c>
-      <c r="DR9">
-        <v>0</v>
-      </c>
-      <c r="DS9" t="s">
-        <v>184</v>
-      </c>
-      <c r="DU9">
-        <v>0</v>
-      </c>
-      <c r="DW9" t="s">
-        <v>160</v>
-      </c>
       <c r="DX9">
         <v>0</v>
       </c>
       <c r="DY9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DZ9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="EA9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="EB9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="EC9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="ED9" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="EE9">
         <v>0</v>
@@ -4667,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="EJ9">
         <v>0</v>
@@ -4726,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4765,58 +4777,58 @@
         <v>174</v>
       </c>
       <c r="X10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA10" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="AB10" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="AC10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AD10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AE10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AH10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AI10">
         <v>0</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
+      <c r="AJ10" t="s">
+        <v>185</v>
       </c>
       <c r="AK10" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="AL10" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="AM10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AN10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AO10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AP10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -4891,25 +4903,25 @@
         <v>0</v>
       </c>
       <c r="BO10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BP10" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="BQ10" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="BR10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BS10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BT10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BU10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -4918,146 +4930,146 @@
         <v>0</v>
       </c>
       <c r="BY10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="BZ10" t="s">
         <v>151</v>
       </c>
       <c r="CA10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CB10" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="CC10">
         <v>0</v>
       </c>
-      <c r="CD10">
-        <v>0</v>
+      <c r="CD10" t="s">
+        <v>186</v>
       </c>
       <c r="CE10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CF10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CG10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CH10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CI10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CJ10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CK10">
         <v>0</v>
       </c>
-      <c r="CL10">
-        <v>0</v>
+      <c r="CL10" t="s">
+        <v>185</v>
       </c>
       <c r="CM10" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="CN10" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="CO10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="CP10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="CQ10" t="s">
+        <v>182</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>182</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DI10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DO10">
+        <v>0</v>
+      </c>
+      <c r="DR10">
+        <v>0</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>186</v>
+      </c>
+      <c r="DU10">
+        <v>0</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>160</v>
+      </c>
+      <c r="DX10">
+        <v>0</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>186</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>186</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>160</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>186</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>186</v>
+      </c>
+      <c r="ED10" t="s">
         <v>181</v>
       </c>
-      <c r="CR10" t="s">
-        <v>181</v>
-      </c>
-      <c r="CS10">
-        <v>0</v>
-      </c>
-      <c r="CT10">
-        <v>0</v>
-      </c>
-      <c r="CU10">
-        <v>0</v>
-      </c>
-      <c r="CV10">
-        <v>0</v>
-      </c>
-      <c r="CW10">
-        <v>0</v>
-      </c>
-      <c r="CX10">
-        <v>0</v>
-      </c>
-      <c r="CY10">
-        <v>0</v>
-      </c>
-      <c r="CZ10">
-        <v>0</v>
-      </c>
-      <c r="DA10">
-        <v>0</v>
-      </c>
-      <c r="DC10">
-        <v>0</v>
-      </c>
-      <c r="DE10">
-        <v>0</v>
-      </c>
-      <c r="DG10">
-        <v>0</v>
-      </c>
-      <c r="DI10">
-        <v>0</v>
-      </c>
-      <c r="DK10">
-        <v>0</v>
-      </c>
-      <c r="DM10">
-        <v>0</v>
-      </c>
-      <c r="DO10">
-        <v>0</v>
-      </c>
-      <c r="DR10">
-        <v>0</v>
-      </c>
-      <c r="DS10" t="s">
-        <v>184</v>
-      </c>
-      <c r="DU10">
-        <v>0</v>
-      </c>
-      <c r="DW10" t="s">
-        <v>161</v>
-      </c>
-      <c r="DX10">
-        <v>0</v>
-      </c>
-      <c r="DY10" t="s">
-        <v>184</v>
-      </c>
-      <c r="DZ10" t="s">
-        <v>184</v>
-      </c>
-      <c r="EA10" t="s">
-        <v>161</v>
-      </c>
-      <c r="EB10" t="s">
-        <v>184</v>
-      </c>
-      <c r="EC10" t="s">
-        <v>184</v>
-      </c>
-      <c r="ED10" t="s">
-        <v>183</v>
-      </c>
       <c r="EE10">
         <v>0</v>
       </c>
@@ -5071,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="EJ10">
         <v>0</v>
@@ -5130,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5169,58 +5181,58 @@
         <v>175</v>
       </c>
       <c r="X11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z11" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AA11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB11" t="s">
         <v>154</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD11" t="s">
         <v>183</v>
       </c>
-      <c r="AC11" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>184</v>
-      </c>
       <c r="AE11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AF11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AH11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AI11">
         <v>0</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>181</v>
+      <c r="AJ11">
+        <v>0</v>
       </c>
       <c r="AK11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL11" t="s">
         <v>154</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN11" t="s">
         <v>183</v>
       </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
       <c r="AO11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AP11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -5295,25 +5307,25 @@
         <v>0</v>
       </c>
       <c r="BO11" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="BP11" t="s">
+        <v>183</v>
+      </c>
+      <c r="BQ11" t="s">
         <v>154</v>
       </c>
-      <c r="BQ11" t="s">
+      <c r="BR11" t="s">
+        <v>190</v>
+      </c>
+      <c r="BS11" t="s">
         <v>183</v>
       </c>
-      <c r="BR11" t="s">
-        <v>184</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>184</v>
-      </c>
       <c r="BT11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="BU11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BW11">
         <v>0</v>
@@ -5322,64 +5334,64 @@
         <v>0</v>
       </c>
       <c r="BY11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BZ11" t="s">
         <v>151</v>
       </c>
       <c r="CA11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="CB11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="CC11">
         <v>0</v>
       </c>
-      <c r="CD11" t="s">
-        <v>184</v>
+      <c r="CD11">
+        <v>0</v>
       </c>
       <c r="CE11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CF11" t="s">
-        <v>184</v>
-      </c>
-      <c r="CG11">
-        <v>0</v>
-      </c>
-      <c r="CH11">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>186</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>186</v>
       </c>
       <c r="CI11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CJ11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CK11">
         <v>0</v>
       </c>
-      <c r="CL11" t="s">
-        <v>181</v>
+      <c r="CL11">
+        <v>0</v>
       </c>
       <c r="CM11" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN11" t="s">
         <v>154</v>
       </c>
-      <c r="CN11" t="s">
+      <c r="CO11" t="s">
+        <v>190</v>
+      </c>
+      <c r="CP11" t="s">
         <v>183</v>
       </c>
-      <c r="CO11">
-        <v>0</v>
-      </c>
-      <c r="CP11">
-        <v>0</v>
-      </c>
       <c r="CQ11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="CR11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CS11">
         <v>0</v>
@@ -5433,34 +5445,34 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DU11">
         <v>0</v>
       </c>
       <c r="DW11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="DX11">
         <v>0</v>
       </c>
       <c r="DY11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DZ11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="EA11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="EB11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="EC11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="ED11" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="EE11">
         <v>0</v>
@@ -5475,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="EJ11">
         <v>0</v>
@@ -5519,10 +5531,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -5536,8 +5545,8 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
+      <c r="K12" t="s">
+        <v>162</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -5566,8 +5575,8 @@
       <c r="T12">
         <v>0</v>
       </c>
-      <c r="U12">
-        <v>0</v>
+      <c r="U12" t="s">
+        <v>165</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -5575,50 +5584,47 @@
       <c r="W12" t="s">
         <v>176</v>
       </c>
-      <c r="X12">
-        <v>0</v>
+      <c r="X12" t="s">
+        <v>162</v>
       </c>
       <c r="Y12" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>193</v>
       </c>
       <c r="AI12">
         <v>0</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
+      <c r="AJ12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>185</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -5626,11 +5632,11 @@
       <c r="AN12">
         <v>0</v>
       </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
+      <c r="AO12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>182</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -5705,25 +5711,25 @@
         <v>0</v>
       </c>
       <c r="BO12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BP12" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="BQ12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BR12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BS12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BT12" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="BU12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BW12">
         <v>0</v>
@@ -5732,28 +5738,28 @@
         <v>0</v>
       </c>
       <c r="BY12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BZ12" t="s">
         <v>151</v>
       </c>
-      <c r="CA12">
-        <v>0</v>
-      </c>
-      <c r="CB12">
-        <v>0</v>
+      <c r="CA12" t="s">
+        <v>190</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>209</v>
       </c>
       <c r="CC12">
         <v>0</v>
       </c>
-      <c r="CD12">
-        <v>0</v>
-      </c>
-      <c r="CE12">
-        <v>0</v>
-      </c>
-      <c r="CF12">
-        <v>0</v>
+      <c r="CD12" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>186</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>186</v>
       </c>
       <c r="CG12">
         <v>0</v>
@@ -5761,23 +5767,23 @@
       <c r="CH12">
         <v>0</v>
       </c>
-      <c r="CI12">
-        <v>0</v>
-      </c>
-      <c r="CJ12">
-        <v>0</v>
+      <c r="CI12" t="s">
+        <v>186</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>186</v>
       </c>
       <c r="CK12">
         <v>0</v>
       </c>
-      <c r="CL12">
-        <v>0</v>
-      </c>
-      <c r="CM12">
-        <v>0</v>
-      </c>
-      <c r="CN12">
-        <v>0</v>
+      <c r="CL12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>154</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>185</v>
       </c>
       <c r="CO12">
         <v>0</v>
@@ -5785,11 +5791,11 @@
       <c r="CP12">
         <v>0</v>
       </c>
-      <c r="CQ12">
-        <v>0</v>
-      </c>
-      <c r="CR12">
-        <v>0</v>
+      <c r="CQ12" t="s">
+        <v>190</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>182</v>
       </c>
       <c r="CS12">
         <v>0</v>
@@ -5818,92 +5824,59 @@
       <c r="DA12">
         <v>0</v>
       </c>
-      <c r="DB12">
-        <v>0</v>
-      </c>
       <c r="DC12">
         <v>0</v>
       </c>
-      <c r="DD12">
-        <v>0</v>
-      </c>
       <c r="DE12">
         <v>0</v>
       </c>
-      <c r="DF12">
-        <v>0</v>
-      </c>
       <c r="DG12">
         <v>0</v>
       </c>
-      <c r="DH12">
-        <v>0</v>
-      </c>
       <c r="DI12">
         <v>0</v>
       </c>
-      <c r="DJ12">
-        <v>0</v>
-      </c>
       <c r="DK12">
         <v>0</v>
       </c>
-      <c r="DL12">
-        <v>0</v>
-      </c>
       <c r="DM12">
         <v>0</v>
       </c>
-      <c r="DN12">
-        <v>0</v>
-      </c>
       <c r="DO12">
         <v>0</v>
       </c>
-      <c r="DP12">
-        <v>0</v>
-      </c>
-      <c r="DQ12">
-        <v>0</v>
-      </c>
       <c r="DR12">
         <v>0</v>
       </c>
-      <c r="DS12">
-        <v>0</v>
-      </c>
-      <c r="DT12">
-        <v>0</v>
+      <c r="DS12" t="s">
+        <v>186</v>
       </c>
       <c r="DU12">
         <v>0</v>
       </c>
-      <c r="DV12">
-        <v>0</v>
-      </c>
       <c r="DW12" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="DX12">
         <v>0</v>
       </c>
-      <c r="DY12">
-        <v>0</v>
-      </c>
-      <c r="DZ12">
-        <v>0</v>
-      </c>
-      <c r="EA12">
-        <v>0</v>
-      </c>
-      <c r="EB12">
-        <v>0</v>
-      </c>
-      <c r="EC12">
-        <v>0</v>
-      </c>
-      <c r="ED12">
-        <v>0</v>
+      <c r="DY12" t="s">
+        <v>186</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>186</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>162</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>186</v>
+      </c>
+      <c r="EC12" t="s">
+        <v>186</v>
+      </c>
+      <c r="ED12" t="s">
+        <v>159</v>
       </c>
       <c r="EE12">
         <v>0</v>
@@ -5917,8 +5890,8 @@
       <c r="EH12">
         <v>0</v>
       </c>
-      <c r="EI12">
-        <v>0</v>
+      <c r="EI12" t="s">
+        <v>162</v>
       </c>
       <c r="EJ12">
         <v>0</v>
@@ -5962,22 +5935,25 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
-      </c>
-      <c r="G13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" t="s">
-        <v>148</v>
-      </c>
-      <c r="I13" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
-        <v>161</v>
+      <c r="K13">
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -6006,8 +5982,8 @@
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13" t="s">
-        <v>165</v>
+      <c r="U13">
+        <v>0</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -6015,59 +5991,62 @@
       <c r="W13" t="s">
         <v>177</v>
       </c>
-      <c r="X13" t="s">
-        <v>161</v>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>191</v>
+        <v>180</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
       </c>
       <c r="AI13">
         <v>0</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>182</v>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
       </c>
       <c r="AN13">
         <v>0</v>
       </c>
-      <c r="AO13" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>181</v>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -6142,91 +6121,91 @@
         <v>0</v>
       </c>
       <c r="BO13" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="BP13" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="BQ13" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="BR13" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="BS13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BT13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BU13" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="BW13">
         <v>0</v>
       </c>
-      <c r="BX13" t="s">
-        <v>192</v>
+      <c r="BX13">
+        <v>0</v>
       </c>
       <c r="BY13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BZ13" t="s">
         <v>151</v>
       </c>
-      <c r="CA13" t="s">
-        <v>181</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>206</v>
-      </c>
-      <c r="CC13" t="s">
-        <v>207</v>
-      </c>
-      <c r="CD13" t="s">
-        <v>184</v>
-      </c>
-      <c r="CE13" t="s">
-        <v>184</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>184</v>
-      </c>
-      <c r="CG13" t="s">
-        <v>184</v>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13">
+        <v>0</v>
+      </c>
+      <c r="CE13">
+        <v>0</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13">
+        <v>0</v>
       </c>
       <c r="CH13">
         <v>0</v>
       </c>
-      <c r="CI13" t="s">
-        <v>184</v>
-      </c>
-      <c r="CJ13" t="s">
-        <v>184</v>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
       </c>
       <c r="CK13">
         <v>0</v>
       </c>
-      <c r="CL13" t="s">
-        <v>181</v>
-      </c>
-      <c r="CM13" t="s">
-        <v>181</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>154</v>
-      </c>
-      <c r="CO13" t="s">
-        <v>182</v>
+      <c r="CL13">
+        <v>0</v>
+      </c>
+      <c r="CM13">
+        <v>0</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>0</v>
       </c>
       <c r="CP13">
         <v>0</v>
       </c>
-      <c r="CQ13" t="s">
-        <v>183</v>
-      </c>
-      <c r="CR13" t="s">
-        <v>181</v>
+      <c r="CQ13">
+        <v>0</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
       </c>
       <c r="CS13">
         <v>0</v>
@@ -6255,59 +6234,92 @@
       <c r="DA13">
         <v>0</v>
       </c>
+      <c r="DB13">
+        <v>0</v>
+      </c>
       <c r="DC13">
         <v>0</v>
       </c>
+      <c r="DD13">
+        <v>0</v>
+      </c>
       <c r="DE13">
         <v>0</v>
       </c>
+      <c r="DF13">
+        <v>0</v>
+      </c>
       <c r="DG13">
         <v>0</v>
       </c>
+      <c r="DH13">
+        <v>0</v>
+      </c>
       <c r="DI13">
         <v>0</v>
       </c>
+      <c r="DJ13">
+        <v>0</v>
+      </c>
       <c r="DK13">
         <v>0</v>
       </c>
+      <c r="DL13">
+        <v>0</v>
+      </c>
       <c r="DM13">
         <v>0</v>
       </c>
+      <c r="DN13">
+        <v>0</v>
+      </c>
       <c r="DO13">
         <v>0</v>
       </c>
+      <c r="DP13">
+        <v>0</v>
+      </c>
+      <c r="DQ13">
+        <v>0</v>
+      </c>
       <c r="DR13">
         <v>0</v>
       </c>
-      <c r="DS13" t="s">
-        <v>184</v>
+      <c r="DS13">
+        <v>0</v>
+      </c>
+      <c r="DT13">
+        <v>0</v>
       </c>
       <c r="DU13">
         <v>0</v>
       </c>
+      <c r="DV13">
+        <v>0</v>
+      </c>
       <c r="DW13" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="DX13">
         <v>0</v>
       </c>
-      <c r="DY13" t="s">
-        <v>184</v>
-      </c>
-      <c r="DZ13" t="s">
-        <v>184</v>
-      </c>
-      <c r="EA13" t="s">
-        <v>161</v>
-      </c>
-      <c r="EB13" t="s">
-        <v>184</v>
-      </c>
-      <c r="EC13" t="s">
-        <v>184</v>
-      </c>
-      <c r="ED13" t="s">
-        <v>159</v>
+      <c r="DY13">
+        <v>0</v>
+      </c>
+      <c r="DZ13">
+        <v>0</v>
+      </c>
+      <c r="EA13">
+        <v>0</v>
+      </c>
+      <c r="EB13">
+        <v>0</v>
+      </c>
+      <c r="EC13">
+        <v>0</v>
+      </c>
+      <c r="ED13">
+        <v>0</v>
       </c>
       <c r="EE13">
         <v>0</v>
@@ -6321,8 +6333,8 @@
       <c r="EH13">
         <v>0</v>
       </c>
-      <c r="EI13" t="s">
-        <v>161</v>
+      <c r="EI13">
+        <v>0</v>
       </c>
       <c r="EJ13">
         <v>0</v>
@@ -6349,6 +6361,410 @@
         <v>152</v>
       </c>
       <c r="ER13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:148">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>163</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>164</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>165</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>178</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>182</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>182</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>154</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW14">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>207</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>151</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>182</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>209</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>210</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>186</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>186</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>186</v>
+      </c>
+      <c r="CH14">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>186</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>186</v>
+      </c>
+      <c r="CK14">
+        <v>0</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>182</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>182</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>154</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>183</v>
+      </c>
+      <c r="CP14">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>185</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>182</v>
+      </c>
+      <c r="CS14">
+        <v>0</v>
+      </c>
+      <c r="CT14">
+        <v>0</v>
+      </c>
+      <c r="CU14">
+        <v>0</v>
+      </c>
+      <c r="CV14">
+        <v>0</v>
+      </c>
+      <c r="CW14">
+        <v>0</v>
+      </c>
+      <c r="CX14">
+        <v>0</v>
+      </c>
+      <c r="CY14">
+        <v>0</v>
+      </c>
+      <c r="CZ14">
+        <v>0</v>
+      </c>
+      <c r="DA14">
+        <v>0</v>
+      </c>
+      <c r="DC14">
+        <v>0</v>
+      </c>
+      <c r="DE14">
+        <v>0</v>
+      </c>
+      <c r="DG14">
+        <v>0</v>
+      </c>
+      <c r="DI14">
+        <v>0</v>
+      </c>
+      <c r="DK14">
+        <v>0</v>
+      </c>
+      <c r="DM14">
+        <v>0</v>
+      </c>
+      <c r="DO14">
+        <v>0</v>
+      </c>
+      <c r="DR14">
+        <v>0</v>
+      </c>
+      <c r="DS14" t="s">
+        <v>186</v>
+      </c>
+      <c r="DU14">
+        <v>0</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>161</v>
+      </c>
+      <c r="DX14">
+        <v>0</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>186</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>186</v>
+      </c>
+      <c r="EA14" t="s">
+        <v>161</v>
+      </c>
+      <c r="EB14" t="s">
+        <v>186</v>
+      </c>
+      <c r="EC14" t="s">
+        <v>186</v>
+      </c>
+      <c r="ED14" t="s">
+        <v>159</v>
+      </c>
+      <c r="EE14">
+        <v>0</v>
+      </c>
+      <c r="EF14">
+        <v>0</v>
+      </c>
+      <c r="EG14">
+        <v>0</v>
+      </c>
+      <c r="EH14">
+        <v>0</v>
+      </c>
+      <c r="EI14" t="s">
+        <v>161</v>
+      </c>
+      <c r="EJ14">
+        <v>0</v>
+      </c>
+      <c r="EK14">
+        <v>0</v>
+      </c>
+      <c r="EL14">
+        <v>0</v>
+      </c>
+      <c r="EM14">
+        <v>0</v>
+      </c>
+      <c r="EN14">
+        <v>0</v>
+      </c>
+      <c r="EO14">
+        <v>0</v>
+      </c>
+      <c r="EP14">
+        <v>0</v>
+      </c>
+      <c r="EQ14" t="s">
+        <v>152</v>
+      </c>
+      <c r="ER14">
         <v>0</v>
       </c>
     </row>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="215">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -505,6 +505,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
@@ -634,7 +637,7 @@
     <t>2025-06-12T12:16:06.575018Z</t>
   </si>
   <si>
-    <t>2025-06-19T13:07:31.950496Z</t>
+    <t>2025-06-19T13:33:57.715512Z</t>
   </si>
   <si>
     <t>2025-06-12T12:51:46.809490Z</t>
@@ -1503,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1512,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1524,55 +1527,55 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X2" t="s">
         <v>153</v>
       </c>
       <c r="Y2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AC2" t="s">
         <v>154</v>
       </c>
       <c r="AD2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>182</v>
       </c>
-      <c r="AE2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>181</v>
-      </c>
       <c r="AK2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -1617,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="BC2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BD2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BE2">
         <v>0</v>
@@ -1653,67 +1656,67 @@
         <v>0</v>
       </c>
       <c r="BO2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BP2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BQ2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BR2" t="s">
         <v>154</v>
       </c>
       <c r="BS2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>209</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>187</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>210</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="s">
         <v>182</v>
       </c>
-      <c r="BT2" t="s">
-        <v>186</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>186</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>195</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>208</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>186</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>209</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>181</v>
-      </c>
       <c r="CE2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CF2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CG2" t="s">
         <v>154</v>
       </c>
       <c r="CH2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CI2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CJ2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -1776,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="DH2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DI2">
         <v>0</v>
       </c>
       <c r="DJ2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DK2">
         <v>0</v>
@@ -1797,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DU2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DW2" t="s">
         <v>153</v>
@@ -1809,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DZ2" t="s">
         <v>153</v>
       </c>
       <c r="EA2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -1842,7 +1845,7 @@
         <v>157</v>
       </c>
       <c r="EJ2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -1863,7 +1866,7 @@
         <v>152</v>
       </c>
       <c r="ER2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:148">
@@ -1907,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1916,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1925,67 +1928,67 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X3" t="s">
         <v>154</v>
       </c>
       <c r="Y3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AB3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AD3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -2060,25 +2063,25 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BP3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BQ3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BR3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BS3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BT3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BU3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -2087,64 +2090,64 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BZ3" t="s">
         <v>151</v>
       </c>
       <c r="CA3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CB3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CE3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CF3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CG3">
         <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CK3">
         <v>0</v>
       </c>
       <c r="CL3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CN3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CQ3">
         <v>0</v>
       </c>
       <c r="CR3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CS3">
         <v>0</v>
@@ -2198,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DU3">
         <v>0</v>
@@ -2210,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DZ3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EA3" t="s">
         <v>154</v>
       </c>
       <c r="EB3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EC3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="ED3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2311,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2320,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -2332,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z4" t="s">
         <v>159</v>
@@ -2347,253 +2350,253 @@
         <v>154</v>
       </c>
       <c r="AB4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC4" t="s">
         <v>184</v>
       </c>
-      <c r="AC4" t="s">
-        <v>183</v>
-      </c>
       <c r="AD4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AE4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AH4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>185</v>
+      </c>
+      <c r="BQ4" t="s">
         <v>193</v>
       </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>186</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>186</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>186</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>186</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="s">
+      <c r="BR4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>183</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>209</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>187</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>210</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>185</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>193</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>187</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>183</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4" t="s">
         <v>191</v>
       </c>
-      <c r="BP4" t="s">
-        <v>184</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>192</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>183</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>182</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>186</v>
-      </c>
-      <c r="BW4">
-        <v>0</v>
-      </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>197</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>208</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>186</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>209</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>191</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>184</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>192</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>183</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>186</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>182</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
-        <v>0</v>
-      </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="CZ4">
-        <v>0</v>
-      </c>
-      <c r="DA4">
-        <v>0</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>190</v>
-      </c>
       <c r="DC4">
         <v>0</v>
       </c>
       <c r="DD4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DE4">
         <v>0</v>
       </c>
       <c r="DF4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DG4">
         <v>0</v>
       </c>
       <c r="DH4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DI4">
         <v>0</v>
@@ -2602,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="DL4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DM4">
         <v>0</v>
@@ -2614,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DU4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DW4" t="s">
         <v>155</v>
@@ -2626,13 +2629,13 @@
         <v>0</v>
       </c>
       <c r="DY4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DZ4" t="s">
         <v>155</v>
       </c>
       <c r="EA4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2656,10 +2659,10 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EJ4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2724,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2733,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2742,67 +2745,67 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X5" t="s">
         <v>156</v>
       </c>
       <c r="Y5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AB5" t="s">
         <v>154</v>
       </c>
       <c r="AC5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AD5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL5" t="s">
         <v>154</v>
       </c>
       <c r="AM5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AP5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2844,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="BD5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -2877,25 +2880,25 @@
         <v>0</v>
       </c>
       <c r="BO5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BP5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BQ5" t="s">
         <v>154</v>
       </c>
       <c r="BR5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BS5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BT5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BU5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -2904,64 +2907,64 @@
         <v>0</v>
       </c>
       <c r="BY5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BZ5" t="s">
         <v>151</v>
       </c>
       <c r="CA5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CB5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CC5">
         <v>0</v>
       </c>
       <c r="CD5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CE5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CF5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CG5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CH5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CI5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CJ5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CK5">
         <v>0</v>
       </c>
       <c r="CL5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CN5" t="s">
         <v>154</v>
       </c>
       <c r="CO5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CP5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CQ5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CR5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CS5">
         <v>0</v>
@@ -3003,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="DJ5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DK5">
         <v>0</v>
@@ -3018,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DU5">
         <v>0</v>
@@ -3030,22 +3033,22 @@
         <v>0</v>
       </c>
       <c r="DY5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DZ5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EA5" t="s">
         <v>156</v>
       </c>
       <c r="EB5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EC5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="ED5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EE5">
         <v>0</v>
@@ -3060,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -3131,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -3140,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -3149,160 +3152,160 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X6" t="s">
         <v>157</v>
       </c>
       <c r="Y6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA6" t="s">
         <v>154</v>
       </c>
       <c r="AB6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>184</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>183</v>
       </c>
       <c r="AK6" t="s">
         <v>154</v>
       </c>
       <c r="AL6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="s">
         <v>184</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>192</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>183</v>
       </c>
       <c r="BP6" t="s">
         <v>154</v>
       </c>
       <c r="BQ6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BR6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BS6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BT6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BU6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -3311,64 +3314,64 @@
         <v>0</v>
       </c>
       <c r="BY6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BZ6" t="s">
         <v>151</v>
       </c>
       <c r="CA6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CB6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CC6">
         <v>0</v>
       </c>
       <c r="CD6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CE6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CF6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CG6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CH6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CI6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CJ6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CK6">
         <v>0</v>
       </c>
       <c r="CL6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM6" t="s">
         <v>154</v>
       </c>
       <c r="CN6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CO6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CP6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CQ6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CR6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CS6">
         <v>0</v>
@@ -3422,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DU6">
         <v>0</v>
@@ -3434,22 +3437,22 @@
         <v>0</v>
       </c>
       <c r="DY6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DZ6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EA6" t="s">
         <v>157</v>
       </c>
       <c r="EB6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EC6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="ED6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EE6">
         <v>0</v>
@@ -3535,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -3544,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -3556,40 +3559,40 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X7" t="s">
         <v>155</v>
       </c>
       <c r="Y7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AB7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AE7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AH7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -3688,28 +3691,28 @@
         <v>0</v>
       </c>
       <c r="BO7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BP7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BQ7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BR7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BS7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BT7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BU7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BV7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -3718,28 +3721,28 @@
         <v>0</v>
       </c>
       <c r="BY7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BZ7" t="s">
         <v>151</v>
       </c>
       <c r="CA7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CC7">
         <v>0</v>
       </c>
       <c r="CD7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CE7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CF7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CG7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CH7">
         <v>0</v>
@@ -3754,16 +3757,16 @@
         <v>0</v>
       </c>
       <c r="CL7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CM7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CN7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CO7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CP7">
         <v>0</v>
@@ -3826,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DU7">
         <v>0</v>
@@ -3838,19 +3841,19 @@
         <v>0</v>
       </c>
       <c r="DY7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DZ7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EA7" t="s">
         <v>155</v>
       </c>
       <c r="EB7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EC7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="ED7">
         <v>0</v>
@@ -3868,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EJ7">
         <v>0</v>
@@ -3895,7 +3898,7 @@
         <v>152</v>
       </c>
       <c r="ER7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:148">
@@ -3939,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -3948,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -3960,193 +3963,193 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X8" t="s">
         <v>158</v>
       </c>
       <c r="Y8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BQ8" t="s">
         <v>186</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="BR8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>202</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>209</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>187</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>210</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CF8" t="s">
         <v>186</v>
       </c>
-      <c r="AE8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>185</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BW8">
-        <v>0</v>
-      </c>
-      <c r="BX8">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>201</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>208</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>186</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>209</v>
-      </c>
-      <c r="CC8">
-        <v>0</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>181</v>
-      </c>
-      <c r="CE8" t="s">
-        <v>181</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>185</v>
-      </c>
       <c r="CG8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CH8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CI8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CJ8">
         <v>0</v>
@@ -4203,19 +4206,19 @@
         <v>0</v>
       </c>
       <c r="DB8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DC8">
         <v>0</v>
       </c>
       <c r="DD8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DE8">
         <v>0</v>
       </c>
       <c r="DF8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DG8">
         <v>0</v>
@@ -4236,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DU8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DW8" t="s">
         <v>158</v>
@@ -4248,13 +4251,13 @@
         <v>0</v>
       </c>
       <c r="DY8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DZ8" t="s">
         <v>158</v>
       </c>
       <c r="EA8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EB8">
         <v>0</v>
@@ -4281,7 +4284,7 @@
         <v>159</v>
       </c>
       <c r="EJ8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EL8">
         <v>0</v>
@@ -4346,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -4355,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -4364,61 +4367,61 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X9" t="s">
         <v>159</v>
       </c>
       <c r="Y9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AB9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AD9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AH9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AI9">
         <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM9">
         <v>0</v>
       </c>
       <c r="AN9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -4499,25 +4502,25 @@
         <v>0</v>
       </c>
       <c r="BO9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BP9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BQ9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BR9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BS9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BT9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BU9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BW9">
         <v>0</v>
@@ -4526,34 +4529,34 @@
         <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BZ9" t="s">
         <v>151</v>
       </c>
       <c r="CA9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CB9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CC9">
         <v>0</v>
       </c>
       <c r="CD9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CE9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CF9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CG9">
         <v>0</v>
       </c>
       <c r="CH9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CI9">
         <v>0</v>
@@ -4565,19 +4568,19 @@
         <v>0</v>
       </c>
       <c r="CL9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CN9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CO9">
         <v>0</v>
       </c>
       <c r="CP9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CQ9">
         <v>0</v>
@@ -4637,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DU9">
         <v>0</v>
@@ -4649,22 +4652,22 @@
         <v>0</v>
       </c>
       <c r="DY9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DZ9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EA9" t="s">
         <v>159</v>
       </c>
       <c r="EB9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EC9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="ED9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EE9">
         <v>0</v>
@@ -4750,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -4759,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4768,67 +4771,67 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X10" t="s">
         <v>160</v>
       </c>
       <c r="Y10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA10" t="s">
         <v>159</v>
       </c>
       <c r="AB10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AD10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AE10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AI10">
         <v>0</v>
       </c>
       <c r="AJ10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AK10" t="s">
         <v>159</v>
       </c>
       <c r="AL10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AP10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -4903,25 +4906,25 @@
         <v>0</v>
       </c>
       <c r="BO10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BP10" t="s">
         <v>159</v>
       </c>
       <c r="BQ10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BR10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BS10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BT10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BU10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -4930,64 +4933,64 @@
         <v>0</v>
       </c>
       <c r="BY10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="BZ10" t="s">
         <v>151</v>
       </c>
       <c r="CA10" t="s">
+        <v>187</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>210</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>187</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>187</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>187</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>187</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>187</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>187</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>187</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="s">
         <v>186</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>209</v>
-      </c>
-      <c r="CC10">
-        <v>0</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>186</v>
-      </c>
-      <c r="CE10" t="s">
-        <v>186</v>
-      </c>
-      <c r="CF10" t="s">
-        <v>186</v>
-      </c>
-      <c r="CG10" t="s">
-        <v>186</v>
-      </c>
-      <c r="CH10" t="s">
-        <v>186</v>
-      </c>
-      <c r="CI10" t="s">
-        <v>186</v>
-      </c>
-      <c r="CJ10" t="s">
-        <v>186</v>
-      </c>
-      <c r="CK10">
-        <v>0</v>
-      </c>
-      <c r="CL10" t="s">
-        <v>185</v>
       </c>
       <c r="CM10" t="s">
         <v>159</v>
       </c>
       <c r="CN10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CO10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CP10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CQ10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CR10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CS10">
         <v>0</v>
@@ -5041,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DU10">
         <v>0</v>
@@ -5053,22 +5056,22 @@
         <v>0</v>
       </c>
       <c r="DY10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DZ10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EA10" t="s">
         <v>160</v>
       </c>
       <c r="EB10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EC10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="ED10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EE10">
         <v>0</v>
@@ -5154,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -5163,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -5172,43 +5175,43 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X11" t="s">
         <v>161</v>
       </c>
       <c r="Y11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AB11" t="s">
         <v>154</v>
       </c>
       <c r="AC11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AD11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AE11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -5217,22 +5220,22 @@
         <v>0</v>
       </c>
       <c r="AK11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL11" t="s">
         <v>154</v>
       </c>
       <c r="AM11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AP11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -5307,25 +5310,25 @@
         <v>0</v>
       </c>
       <c r="BO11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BP11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BQ11" t="s">
         <v>154</v>
       </c>
       <c r="BR11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BS11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BT11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BU11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW11">
         <v>0</v>
@@ -5334,16 +5337,16 @@
         <v>0</v>
       </c>
       <c r="BY11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="BZ11" t="s">
         <v>151</v>
       </c>
       <c r="CA11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CB11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CC11">
         <v>0</v>
@@ -5352,22 +5355,22 @@
         <v>0</v>
       </c>
       <c r="CE11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CF11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CG11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CH11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CI11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CJ11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CK11">
         <v>0</v>
@@ -5376,22 +5379,22 @@
         <v>0</v>
       </c>
       <c r="CM11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CN11" t="s">
         <v>154</v>
       </c>
       <c r="CO11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CP11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CQ11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CR11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CS11">
         <v>0</v>
@@ -5445,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DU11">
         <v>0</v>
@@ -5457,22 +5460,22 @@
         <v>0</v>
       </c>
       <c r="DY11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DZ11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EA11" t="s">
         <v>161</v>
       </c>
       <c r="EB11" t="s">
+        <v>187</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>187</v>
+      </c>
+      <c r="ED11" t="s">
         <v>186</v>
-      </c>
-      <c r="EC11" t="s">
-        <v>186</v>
-      </c>
-      <c r="ED11" t="s">
-        <v>185</v>
       </c>
       <c r="EE11">
         <v>0</v>
@@ -5558,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -5567,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -5576,55 +5579,55 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="X12" t="s">
         <v>162</v>
       </c>
       <c r="Y12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA12" t="s">
         <v>154</v>
       </c>
       <c r="AB12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AD12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AE12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AI12">
         <v>0</v>
       </c>
       <c r="AJ12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK12" t="s">
         <v>154</v>
       </c>
       <c r="AL12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -5633,10 +5636,10 @@
         <v>0</v>
       </c>
       <c r="AO12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AP12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -5711,25 +5714,25 @@
         <v>0</v>
       </c>
       <c r="BO12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BP12" t="s">
         <v>154</v>
       </c>
       <c r="BQ12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BR12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BS12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BT12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BU12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW12">
         <v>0</v>
@@ -5738,28 +5741,28 @@
         <v>0</v>
       </c>
       <c r="BY12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BZ12" t="s">
         <v>151</v>
       </c>
       <c r="CA12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CC12">
         <v>0</v>
       </c>
       <c r="CD12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CE12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CF12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CG12">
         <v>0</v>
@@ -5768,22 +5771,22 @@
         <v>0</v>
       </c>
       <c r="CI12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CJ12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CK12">
         <v>0</v>
       </c>
       <c r="CL12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM12" t="s">
         <v>154</v>
       </c>
       <c r="CN12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CO12">
         <v>0</v>
@@ -5792,10 +5795,10 @@
         <v>0</v>
       </c>
       <c r="CQ12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CR12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CS12">
         <v>0</v>
@@ -5849,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DU12">
         <v>0</v>
@@ -5861,19 +5864,19 @@
         <v>0</v>
       </c>
       <c r="DY12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DZ12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EA12" t="s">
         <v>162</v>
       </c>
       <c r="EB12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EC12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="ED12" t="s">
         <v>159</v>
@@ -5937,9 +5940,6 @@
       <c r="E13" t="s">
         <v>150</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
@@ -5952,8 +5952,8 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
+      <c r="K13" t="s">
+        <v>163</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -5965,64 +5965,61 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
+        <v>164</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>165</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>178</v>
+      </c>
+      <c r="X13" t="s">
         <v>163</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>164</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s">
-        <v>177</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
       <c r="Y13" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>194</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -6121,25 +6118,28 @@
         <v>0</v>
       </c>
       <c r="BO13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="BP13" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="BQ13" t="s">
         <v>186</v>
       </c>
       <c r="BR13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BS13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BT13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BU13" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>187</v>
       </c>
       <c r="BW13">
         <v>0</v>
@@ -6148,28 +6148,25 @@
         <v>0</v>
       </c>
       <c r="BY13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="BZ13" t="s">
         <v>151</v>
       </c>
-      <c r="CA13">
-        <v>0</v>
-      </c>
-      <c r="CB13">
-        <v>0</v>
+      <c r="CA13" t="s">
+        <v>187</v>
       </c>
       <c r="CC13">
         <v>0</v>
       </c>
-      <c r="CD13">
-        <v>0</v>
-      </c>
-      <c r="CE13">
-        <v>0</v>
-      </c>
-      <c r="CF13">
-        <v>0</v>
+      <c r="CD13" t="s">
+        <v>187</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>187</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>187</v>
       </c>
       <c r="CG13">
         <v>0</v>
@@ -6186,14 +6183,14 @@
       <c r="CK13">
         <v>0</v>
       </c>
-      <c r="CL13">
-        <v>0</v>
-      </c>
-      <c r="CM13">
-        <v>0</v>
-      </c>
-      <c r="CN13">
-        <v>0</v>
+      <c r="CL13" t="s">
+        <v>184</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>154</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>186</v>
       </c>
       <c r="CO13">
         <v>0</v>
@@ -6234,89 +6231,56 @@
       <c r="DA13">
         <v>0</v>
       </c>
-      <c r="DB13">
-        <v>0</v>
-      </c>
       <c r="DC13">
         <v>0</v>
       </c>
-      <c r="DD13">
-        <v>0</v>
-      </c>
       <c r="DE13">
         <v>0</v>
       </c>
-      <c r="DF13">
-        <v>0</v>
-      </c>
       <c r="DG13">
         <v>0</v>
       </c>
-      <c r="DH13">
-        <v>0</v>
-      </c>
       <c r="DI13">
         <v>0</v>
       </c>
-      <c r="DJ13">
-        <v>0</v>
-      </c>
       <c r="DK13">
         <v>0</v>
       </c>
-      <c r="DL13">
-        <v>0</v>
-      </c>
       <c r="DM13">
         <v>0</v>
       </c>
-      <c r="DN13">
-        <v>0</v>
-      </c>
       <c r="DO13">
         <v>0</v>
       </c>
-      <c r="DP13">
-        <v>0</v>
-      </c>
-      <c r="DQ13">
-        <v>0</v>
-      </c>
       <c r="DR13">
         <v>0</v>
       </c>
-      <c r="DS13">
-        <v>0</v>
-      </c>
-      <c r="DT13">
-        <v>0</v>
+      <c r="DS13" t="s">
+        <v>187</v>
       </c>
       <c r="DU13">
         <v>0</v>
       </c>
-      <c r="DV13">
-        <v>0</v>
-      </c>
       <c r="DW13" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="DX13">
         <v>0</v>
       </c>
-      <c r="DY13">
-        <v>0</v>
-      </c>
-      <c r="DZ13">
-        <v>0</v>
-      </c>
-      <c r="EA13">
-        <v>0</v>
-      </c>
-      <c r="EB13">
-        <v>0</v>
-      </c>
-      <c r="EC13">
-        <v>0</v>
+      <c r="DY13" t="s">
+        <v>187</v>
+      </c>
+      <c r="DZ13" t="s">
+        <v>187</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB13" t="s">
+        <v>187</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>187</v>
       </c>
       <c r="ED13">
         <v>0</v>
@@ -6333,8 +6297,8 @@
       <c r="EH13">
         <v>0</v>
       </c>
-      <c r="EI13">
-        <v>0</v>
+      <c r="EI13" t="s">
+        <v>187</v>
       </c>
       <c r="EJ13">
         <v>0</v>
@@ -6405,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -6414,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -6423,67 +6387,67 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X14" t="s">
         <v>161</v>
       </c>
       <c r="Y14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AB14" t="s">
         <v>154</v>
       </c>
       <c r="AC14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD14" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE14" t="s">
         <v>186</v>
       </c>
-      <c r="AE14" t="s">
-        <v>185</v>
-      </c>
       <c r="AF14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AI14">
         <v>0</v>
       </c>
       <c r="AJ14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL14" t="s">
         <v>154</v>
       </c>
       <c r="AM14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN14">
         <v>0</v>
       </c>
       <c r="AO14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AP14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -6558,91 +6522,91 @@
         <v>0</v>
       </c>
       <c r="BO14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BP14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BQ14" t="s">
         <v>154</v>
       </c>
       <c r="BR14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BS14" t="s">
+        <v>187</v>
+      </c>
+      <c r="BT14" t="s">
         <v>186</v>
       </c>
-      <c r="BT14" t="s">
-        <v>185</v>
-      </c>
       <c r="BU14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW14">
         <v>0</v>
       </c>
       <c r="BX14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BY14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BZ14" t="s">
         <v>151</v>
       </c>
       <c r="CA14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CB14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CC14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CD14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CE14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CF14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CG14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CH14">
         <v>0</v>
       </c>
       <c r="CI14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CJ14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CK14">
         <v>0</v>
       </c>
       <c r="CL14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CM14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CN14" t="s">
         <v>154</v>
       </c>
       <c r="CO14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CP14">
         <v>0</v>
       </c>
       <c r="CQ14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CR14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CS14">
         <v>0</v>
@@ -6696,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DU14">
         <v>0</v>
@@ -6708,19 +6672,19 @@
         <v>0</v>
       </c>
       <c r="DY14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DZ14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EA14" t="s">
         <v>161</v>
       </c>
       <c r="EB14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EC14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="ED14" t="s">
         <v>159</v>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="224">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -469,6 +469,9 @@
     <t>GOKWE SOUTH</t>
   </si>
   <si>
+    <t>MARONDERA</t>
+  </si>
+  <si>
     <t>May</t>
   </si>
   <si>
@@ -493,12 +496,18 @@
     <t>22</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
@@ -538,12 +547,18 @@
     <t>Mahuwe Clinic</t>
   </si>
   <si>
+    <t>Mtanke Clinic</t>
+  </si>
+  <si>
     <t>Muuyu</t>
   </si>
   <si>
     <t>Nyabango</t>
   </si>
   <si>
+    <t>Nyembanzvere Council Clinic</t>
+  </si>
+  <si>
     <t>Sanyati Arda</t>
   </si>
   <si>
@@ -574,9 +589,15 @@
     <t>8</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -625,12 +646,18 @@
     <t>2025-05-28T12:33:30.415196Z</t>
   </si>
   <si>
+    <t>2025-06-19T13:37:03.395042Z</t>
+  </si>
+  <si>
     <t>2025-06-12T12:20:17.324703Z</t>
   </si>
   <si>
     <t>2025-06-12T12:39:52.292053Z</t>
   </si>
   <si>
+    <t>2025-06-19T13:41:03.298006Z</t>
+  </si>
+  <si>
     <t>2025-06-12T12:30:42.528492Z</t>
   </si>
   <si>
@@ -649,10 +676,10 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs</t>
+  </si>
+  <si>
     <t>OPD</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
   <si>
     <t>Static</t>
@@ -1016,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ER14"/>
+  <dimension ref="A1:ER16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1494,379 +1521,379 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>167</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>168</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>170</v>
+      </c>
+      <c r="X2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>199</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>203</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>218</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>194</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>219</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>187</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>195</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>199</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>155</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>188</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>194</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>194</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>189</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>194</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>194</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>194</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>154</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>194</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>154</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>194</v>
+      </c>
+      <c r="EB2">
+        <v>0</v>
+      </c>
+      <c r="EC2">
+        <v>0</v>
+      </c>
+      <c r="ED2">
+        <v>0</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2">
+        <v>0</v>
+      </c>
+      <c r="EH2">
+        <v>0</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>158</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>194</v>
+      </c>
+      <c r="EL2">
+        <v>0</v>
+      </c>
+      <c r="EM2">
+        <v>0</v>
+      </c>
+      <c r="EN2">
+        <v>0</v>
+      </c>
+      <c r="EO2">
+        <v>0</v>
+      </c>
+      <c r="EP2">
+        <v>0</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>153</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>164</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>165</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>167</v>
-      </c>
-      <c r="X2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>187</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>187</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>182</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>192</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>154</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>183</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>187</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>187</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>196</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>209</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>187</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>210</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>182</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>188</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>192</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>154</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>183</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>187</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>187</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="CZ2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DG2">
-        <v>0</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>184</v>
-      </c>
-      <c r="DI2">
-        <v>0</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>187</v>
-      </c>
-      <c r="DK2">
-        <v>0</v>
-      </c>
-      <c r="DM2">
-        <v>0</v>
-      </c>
-      <c r="DO2">
-        <v>0</v>
-      </c>
-      <c r="DR2">
-        <v>0</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>187</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>187</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>153</v>
-      </c>
-      <c r="DX2">
-        <v>0</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>187</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>153</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>187</v>
-      </c>
-      <c r="EB2">
-        <v>0</v>
-      </c>
-      <c r="EC2">
-        <v>0</v>
-      </c>
-      <c r="ED2">
-        <v>0</v>
-      </c>
-      <c r="EE2">
-        <v>0</v>
-      </c>
-      <c r="EF2">
-        <v>0</v>
-      </c>
-      <c r="EG2">
-        <v>0</v>
-      </c>
-      <c r="EH2">
-        <v>0</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>157</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>187</v>
-      </c>
-      <c r="EL2">
-        <v>0</v>
-      </c>
-      <c r="EM2">
-        <v>0</v>
-      </c>
-      <c r="EN2">
-        <v>0</v>
-      </c>
-      <c r="EO2">
-        <v>0</v>
-      </c>
-      <c r="EP2">
-        <v>0</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>152</v>
-      </c>
       <c r="ER2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:148">
@@ -1898,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1910,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1919,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1928,67 +1955,67 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="X3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Z3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AA3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AB3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AC3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AD3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AE3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AF3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AH3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AK3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AL3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -2063,25 +2090,25 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="BP3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="BQ3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="BR3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="BS3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="BT3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="BU3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -2090,64 +2117,64 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="BZ3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CA3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="CB3" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="CE3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="CF3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="CG3">
         <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="CK3">
         <v>0</v>
       </c>
       <c r="CL3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="CM3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="CN3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="CQ3">
         <v>0</v>
       </c>
       <c r="CR3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="CS3">
         <v>0</v>
@@ -2201,34 +2228,34 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DU3">
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="DX3">
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DZ3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="EA3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="EB3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="EC3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="ED3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2243,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="EJ3">
         <v>0</v>
@@ -2267,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="EQ3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="ER3">
         <v>0</v>
@@ -2302,91 +2329,91 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>168</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>172</v>
+      </c>
+      <c r="X4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA4" t="s">
         <v>155</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>164</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>165</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>169</v>
-      </c>
-      <c r="X4" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>154</v>
-      </c>
       <c r="AB4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AC4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AD4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AE4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AF4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AH4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AK4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AL4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AM4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AO4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -2419,22 +2446,22 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="BA4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="BB4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="BC4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="BD4">
         <v>0</v>
       </c>
       <c r="BE4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -2464,25 +2491,25 @@
         <v>0</v>
       </c>
       <c r="BO4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="BP4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="BQ4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="BR4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="BS4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="BT4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="BU4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="BW4">
         <v>0</v>
@@ -2491,112 +2518,112 @@
         <v>0</v>
       </c>
       <c r="BY4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>218</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>194</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>219</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>190</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>189</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>194</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>188</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4" t="s">
         <v>198</v>
       </c>
-      <c r="BZ4" t="s">
-        <v>209</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>187</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>210</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>192</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>185</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>193</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>184</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>187</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>183</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
-        <v>0</v>
-      </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="CZ4">
-        <v>0</v>
-      </c>
-      <c r="DA4">
-        <v>0</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>191</v>
-      </c>
       <c r="DC4">
         <v>0</v>
       </c>
       <c r="DD4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DE4">
         <v>0</v>
       </c>
       <c r="DF4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DG4">
         <v>0</v>
       </c>
       <c r="DH4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="DI4">
         <v>0</v>
@@ -2605,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="DL4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DM4">
         <v>0</v>
@@ -2617,25 +2644,25 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DU4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DW4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="DX4">
         <v>0</v>
       </c>
       <c r="DY4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DZ4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="EA4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2659,10 +2686,10 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="EJ4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2680,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="EQ4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="ER4">
         <v>0</v>
@@ -2715,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2727,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2736,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2745,326 +2772,326 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="X5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Z5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AA5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>189</v>
       </c>
-      <c r="AB5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AK5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>189</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>155</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>188</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>206</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>219</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>194</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>189</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>155</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>198</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>198</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>198</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>188</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>188</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>194</v>
+      </c>
+      <c r="DU5">
+        <v>0</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>157</v>
+      </c>
+      <c r="DX5">
+        <v>0</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>194</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>194</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>157</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>194</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>194</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>187</v>
+      </c>
+      <c r="EE5">
+        <v>0</v>
+      </c>
+      <c r="EF5">
+        <v>0</v>
+      </c>
+      <c r="EG5">
+        <v>0</v>
+      </c>
+      <c r="EH5">
+        <v>0</v>
+      </c>
+      <c r="EI5" t="s">
         <v>191</v>
       </c>
-      <c r="AD5" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>191</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>191</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>187</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>154</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>191</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>191</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>191</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>183</v>
-      </c>
-      <c r="BW5">
-        <v>0</v>
-      </c>
-      <c r="BX5">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>151</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>186</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>210</v>
-      </c>
-      <c r="CC5">
-        <v>0</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>187</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>187</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>187</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>187</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>187</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>187</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>187</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>184</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>189</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>154</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>191</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>191</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>191</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>183</v>
-      </c>
-      <c r="CS5">
-        <v>0</v>
-      </c>
-      <c r="CT5">
-        <v>0</v>
-      </c>
-      <c r="CU5">
-        <v>0</v>
-      </c>
-      <c r="CV5">
-        <v>0</v>
-      </c>
-      <c r="CW5">
-        <v>0</v>
-      </c>
-      <c r="CX5">
-        <v>0</v>
-      </c>
-      <c r="CY5">
-        <v>0</v>
-      </c>
-      <c r="CZ5">
-        <v>0</v>
-      </c>
-      <c r="DA5">
-        <v>0</v>
-      </c>
-      <c r="DC5">
-        <v>0</v>
-      </c>
-      <c r="DE5">
-        <v>0</v>
-      </c>
-      <c r="DG5">
-        <v>0</v>
-      </c>
-      <c r="DI5">
-        <v>0</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>183</v>
-      </c>
-      <c r="DK5">
-        <v>0</v>
-      </c>
-      <c r="DM5">
-        <v>0</v>
-      </c>
-      <c r="DO5">
-        <v>0</v>
-      </c>
-      <c r="DR5">
-        <v>0</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>187</v>
-      </c>
-      <c r="DU5">
-        <v>0</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>156</v>
-      </c>
-      <c r="DX5">
-        <v>0</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>187</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>187</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>156</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>187</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>187</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>182</v>
-      </c>
-      <c r="EE5">
-        <v>0</v>
-      </c>
-      <c r="EF5">
-        <v>0</v>
-      </c>
-      <c r="EG5">
-        <v>0</v>
-      </c>
-      <c r="EH5">
-        <v>0</v>
-      </c>
-      <c r="EI5" t="s">
-        <v>212</v>
-      </c>
       <c r="EJ5">
         <v>0</v>
       </c>
@@ -3087,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="EQ5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="ER5">
         <v>0</v>
@@ -3122,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3134,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -3143,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -3152,226 +3179,226 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="X6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Z6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AA6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AB6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AC6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>189</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AK6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="s">
         <v>189</v>
       </c>
-      <c r="AE6" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="BP6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>196</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>196</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>200</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>188</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>207</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>194</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>219</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>194</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>194</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>194</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>194</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="s">
         <v>189</v>
       </c>
-      <c r="AN6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>193</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>154</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>185</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>189</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>189</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>193</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>183</v>
-      </c>
-      <c r="BW6">
-        <v>0</v>
-      </c>
-      <c r="BX6">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="s">
+      <c r="CM6" t="s">
+        <v>155</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>190</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>196</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>196</v>
+      </c>
+      <c r="CQ6" t="s">
         <v>200</v>
       </c>
-      <c r="BZ6" t="s">
-        <v>151</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>187</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>210</v>
-      </c>
-      <c r="CC6">
-        <v>0</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>187</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>187</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>187</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>187</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>187</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>187</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>187</v>
-      </c>
-      <c r="CK6">
-        <v>0</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>184</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>154</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>189</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>189</v>
-      </c>
-      <c r="CQ6" t="s">
-        <v>193</v>
-      </c>
       <c r="CR6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="CS6">
         <v>0</v>
@@ -3425,34 +3452,34 @@
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DU6">
         <v>0</v>
       </c>
       <c r="DW6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DX6">
         <v>0</v>
       </c>
       <c r="DY6" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DZ6" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="EA6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="EB6" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="EC6" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="ED6" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="EE6">
         <v>0</v>
@@ -3467,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="EJ6">
         <v>0</v>
@@ -3491,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="EQ6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -3526,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3538,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -3547,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -3559,214 +3586,214 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Z7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AA7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="s">
         <v>190</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="BP7" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>197</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>188</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>194</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>194</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>194</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>208</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>194</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>194</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="s">
         <v>190</v>
       </c>
-      <c r="AC7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>185</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>190</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>190</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>183</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>187</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>187</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>187</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>187</v>
-      </c>
-      <c r="BW7">
-        <v>0</v>
-      </c>
-      <c r="BX7">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>201</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>151</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>187</v>
-      </c>
-      <c r="CC7">
-        <v>0</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>187</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>187</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>187</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>187</v>
-      </c>
-      <c r="CH7">
-        <v>0</v>
-      </c>
-      <c r="CI7">
-        <v>0</v>
-      </c>
-      <c r="CJ7">
-        <v>0</v>
-      </c>
-      <c r="CK7">
-        <v>0</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>185</v>
-      </c>
       <c r="CM7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CN7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CO7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="CP7">
         <v>0</v>
@@ -3829,31 +3856,31 @@
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DU7">
         <v>0</v>
       </c>
       <c r="DW7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="DX7">
         <v>0</v>
       </c>
       <c r="DY7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DZ7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="EA7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="EB7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="EC7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="ED7">
         <v>0</v>
@@ -3871,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="EJ7">
         <v>0</v>
@@ -3895,10 +3922,10 @@
         <v>0</v>
       </c>
       <c r="EQ7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="ER7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:148">
@@ -3930,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3942,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -3951,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -3963,193 +3990,193 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="X8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Z8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AA8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AB8" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AC8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>194</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>194</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="s">
         <v>187</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="BP8" t="s">
         <v>187</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="BQ8" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>194</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>194</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>194</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>194</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>209</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>218</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>194</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>219</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="s">
         <v>187</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="CE8" t="s">
         <v>187</v>
       </c>
-      <c r="AH8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BW8">
-        <v>0</v>
-      </c>
-      <c r="BX8">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>202</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>209</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>187</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>210</v>
-      </c>
-      <c r="CC8">
-        <v>0</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>182</v>
-      </c>
-      <c r="CE8" t="s">
-        <v>182</v>
-      </c>
       <c r="CF8" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="CG8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="CH8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="CI8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="CJ8">
         <v>0</v>
@@ -4206,19 +4233,19 @@
         <v>0</v>
       </c>
       <c r="DB8" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="DC8">
         <v>0</v>
       </c>
       <c r="DD8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="DE8">
         <v>0</v>
       </c>
       <c r="DF8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="DG8">
         <v>0</v>
@@ -4239,25 +4266,25 @@
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DU8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DW8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DX8">
         <v>0</v>
       </c>
       <c r="DY8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DZ8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="EA8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="EB8">
         <v>0</v>
@@ -4281,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="EI8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="EJ8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="EL8">
         <v>0</v>
@@ -4302,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="EQ8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="ER8">
         <v>0</v>
@@ -4322,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4337,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4349,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -4358,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -4366,221 +4393,221 @@
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9" t="s">
-        <v>166</v>
-      </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="X9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Z9" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="AA9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="s">
         <v>191</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="BP9" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>190</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>194</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>194</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>194</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>194</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>210</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>194</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>194</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="s">
         <v>191</v>
       </c>
-      <c r="AC9" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>191</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>191</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>191</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>0</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>183</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>191</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>191</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>187</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>191</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>187</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>187</v>
-      </c>
-      <c r="BW9">
-        <v>0</v>
-      </c>
-      <c r="BX9">
-        <v>0</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>203</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>151</v>
-      </c>
-      <c r="CA9" t="s">
-        <v>187</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>210</v>
-      </c>
-      <c r="CC9">
-        <v>0</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>187</v>
-      </c>
-      <c r="CE9" t="s">
-        <v>187</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>187</v>
-      </c>
-      <c r="CG9">
-        <v>0</v>
-      </c>
-      <c r="CH9" t="s">
-        <v>187</v>
-      </c>
-      <c r="CI9">
-        <v>0</v>
-      </c>
-      <c r="CJ9">
-        <v>0</v>
-      </c>
-      <c r="CK9">
-        <v>0</v>
-      </c>
-      <c r="CL9" t="s">
-        <v>183</v>
-      </c>
       <c r="CM9" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="CN9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="CO9">
         <v>0</v>
       </c>
-      <c r="CP9" t="s">
-        <v>191</v>
+      <c r="CP9">
+        <v>0</v>
       </c>
       <c r="CQ9">
         <v>0</v>
@@ -4640,34 +4667,34 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DU9">
         <v>0</v>
       </c>
       <c r="DW9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DX9">
         <v>0</v>
       </c>
       <c r="DY9" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DZ9" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="EA9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="EB9" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="EC9" t="s">
-        <v>187</v>
-      </c>
-      <c r="ED9" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="ED9">
+        <v>0</v>
       </c>
       <c r="EE9">
         <v>0</v>
@@ -4682,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="EJ9">
         <v>0</v>
@@ -4706,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="EQ9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="ER9">
         <v>0</v>
@@ -4741,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4753,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -4762,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4771,67 +4798,67 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="X10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y10" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Z10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AA10" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="AB10" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="AC10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AD10" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="AE10" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AF10" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AH10" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AI10">
         <v>0</v>
       </c>
       <c r="AJ10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AK10" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="AL10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>191</v>
+        <v>198</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
       </c>
       <c r="AN10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>183</v>
+        <v>198</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -4906,25 +4933,25 @@
         <v>0</v>
       </c>
       <c r="BO10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="BP10" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="BQ10" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="BR10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="BS10" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="BT10" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="BU10" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -4933,64 +4960,64 @@
         <v>0</v>
       </c>
       <c r="BY10" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="BZ10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CA10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="CB10" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="CC10">
         <v>0</v>
       </c>
       <c r="CD10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="CE10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="CF10" t="s">
-        <v>187</v>
-      </c>
-      <c r="CG10" t="s">
-        <v>187</v>
+        <v>194</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
       </c>
       <c r="CH10" t="s">
-        <v>187</v>
-      </c>
-      <c r="CI10" t="s">
-        <v>187</v>
-      </c>
-      <c r="CJ10" t="s">
-        <v>187</v>
+        <v>194</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
       </c>
       <c r="CK10">
         <v>0</v>
       </c>
       <c r="CL10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="CM10" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="CN10" t="s">
-        <v>186</v>
-      </c>
-      <c r="CO10" t="s">
-        <v>191</v>
+        <v>198</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
       </c>
       <c r="CP10" t="s">
-        <v>186</v>
-      </c>
-      <c r="CQ10" t="s">
-        <v>183</v>
-      </c>
-      <c r="CR10" t="s">
-        <v>183</v>
+        <v>198</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
       </c>
       <c r="CS10">
         <v>0</v>
@@ -5044,34 +5071,34 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DU10">
         <v>0</v>
       </c>
       <c r="DW10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DX10">
         <v>0</v>
       </c>
       <c r="DY10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DZ10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="EA10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="EB10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="EC10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="ED10" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="EE10">
         <v>0</v>
@@ -5086,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="EJ10">
         <v>0</v>
@@ -5110,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="ER10">
         <v>0</v>
@@ -5145,338 +5172,338 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>167</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>168</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>169</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>179</v>
+      </c>
+      <c r="X11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA11" t="s">
         <v>161</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>164</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>165</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11" t="s">
-        <v>166</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11" t="s">
-        <v>176</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="AB11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK11" t="s">
         <v>161</v>
       </c>
-      <c r="Y11" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z11" t="s">
+      <c r="AL11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>161</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>198</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>192</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>188</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>188</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>212</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>194</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>219</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>194</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>194</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>194</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>194</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>192</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>161</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>192</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>198</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>192</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>188</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>188</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DI11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>0</v>
+      </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DO11">
+        <v>0</v>
+      </c>
+      <c r="DR11">
+        <v>0</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>194</v>
+      </c>
+      <c r="DU11">
+        <v>0</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>162</v>
+      </c>
+      <c r="DX11">
+        <v>0</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>194</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>194</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>162</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>194</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>194</v>
+      </c>
+      <c r="ED11" t="s">
         <v>187</v>
       </c>
-      <c r="AA11" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>184</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>191</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BD11">
-        <v>0</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11">
-        <v>0</v>
-      </c>
-      <c r="BH11">
-        <v>0</v>
-      </c>
-      <c r="BI11">
-        <v>0</v>
-      </c>
-      <c r="BJ11">
-        <v>0</v>
-      </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>0</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>187</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>184</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>154</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>191</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>184</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>183</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>183</v>
-      </c>
-      <c r="BW11">
-        <v>0</v>
-      </c>
-      <c r="BX11">
-        <v>0</v>
-      </c>
-      <c r="BY11" t="s">
-        <v>205</v>
-      </c>
-      <c r="BZ11" t="s">
-        <v>151</v>
-      </c>
-      <c r="CA11" t="s">
-        <v>187</v>
-      </c>
-      <c r="CB11" t="s">
-        <v>210</v>
-      </c>
-      <c r="CC11">
-        <v>0</v>
-      </c>
-      <c r="CD11">
-        <v>0</v>
-      </c>
-      <c r="CE11" t="s">
-        <v>187</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>187</v>
-      </c>
-      <c r="CG11" t="s">
-        <v>187</v>
-      </c>
-      <c r="CH11" t="s">
-        <v>187</v>
-      </c>
-      <c r="CI11" t="s">
-        <v>187</v>
-      </c>
-      <c r="CJ11" t="s">
-        <v>187</v>
-      </c>
-      <c r="CK11">
-        <v>0</v>
-      </c>
-      <c r="CL11">
-        <v>0</v>
-      </c>
-      <c r="CM11" t="s">
-        <v>184</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>154</v>
-      </c>
-      <c r="CO11" t="s">
-        <v>191</v>
-      </c>
-      <c r="CP11" t="s">
-        <v>184</v>
-      </c>
-      <c r="CQ11" t="s">
-        <v>183</v>
-      </c>
-      <c r="CR11" t="s">
-        <v>183</v>
-      </c>
-      <c r="CS11">
-        <v>0</v>
-      </c>
-      <c r="CT11">
-        <v>0</v>
-      </c>
-      <c r="CU11">
-        <v>0</v>
-      </c>
-      <c r="CV11">
-        <v>0</v>
-      </c>
-      <c r="CW11">
-        <v>0</v>
-      </c>
-      <c r="CX11">
-        <v>0</v>
-      </c>
-      <c r="CY11">
-        <v>0</v>
-      </c>
-      <c r="CZ11">
-        <v>0</v>
-      </c>
-      <c r="DA11">
-        <v>0</v>
-      </c>
-      <c r="DC11">
-        <v>0</v>
-      </c>
-      <c r="DE11">
-        <v>0</v>
-      </c>
-      <c r="DG11">
-        <v>0</v>
-      </c>
-      <c r="DI11">
-        <v>0</v>
-      </c>
-      <c r="DK11">
-        <v>0</v>
-      </c>
-      <c r="DM11">
-        <v>0</v>
-      </c>
-      <c r="DO11">
-        <v>0</v>
-      </c>
-      <c r="DR11">
-        <v>0</v>
-      </c>
-      <c r="DS11" t="s">
-        <v>187</v>
-      </c>
-      <c r="DU11">
-        <v>0</v>
-      </c>
-      <c r="DW11" t="s">
-        <v>161</v>
-      </c>
-      <c r="DX11">
-        <v>0</v>
-      </c>
-      <c r="DY11" t="s">
-        <v>187</v>
-      </c>
-      <c r="DZ11" t="s">
-        <v>187</v>
-      </c>
-      <c r="EA11" t="s">
-        <v>161</v>
-      </c>
-      <c r="EB11" t="s">
-        <v>187</v>
-      </c>
-      <c r="EC11" t="s">
-        <v>187</v>
-      </c>
-      <c r="ED11" t="s">
-        <v>186</v>
-      </c>
       <c r="EE11">
         <v>0</v>
       </c>
@@ -5490,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="EJ11">
         <v>0</v>
@@ -5514,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="EQ11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="ER11">
         <v>0</v>
@@ -5534,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -5549,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -5560,9 +5587,6 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12" t="s">
-        <v>164</v>
-      </c>
       <c r="P12">
         <v>0</v>
       </c>
@@ -5570,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -5578,324 +5602,336 @@
       <c r="T12">
         <v>0</v>
       </c>
-      <c r="U12" t="s">
-        <v>166</v>
-      </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="X12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y12" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Z12" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AA12" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="AB12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>194</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>194</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>213</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>194</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>220</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>194</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>193</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN12" t="s">
         <v>187</v>
       </c>
-      <c r="AD12" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE12" t="s">
+      <c r="CO12" t="s">
+        <v>188</v>
+      </c>
+      <c r="CP12">
+        <v>0</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
+      <c r="CZ12">
+        <v>0</v>
+      </c>
+      <c r="DA12">
+        <v>0</v>
+      </c>
+      <c r="DB12" t="s">
+        <v>189</v>
+      </c>
+      <c r="DC12">
+        <v>0</v>
+      </c>
+      <c r="DD12" t="s">
+        <v>200</v>
+      </c>
+      <c r="DE12">
+        <v>0</v>
+      </c>
+      <c r="DF12" t="s">
+        <v>196</v>
+      </c>
+      <c r="DG12">
+        <v>0</v>
+      </c>
+      <c r="DI12">
+        <v>0</v>
+      </c>
+      <c r="DK12">
+        <v>0</v>
+      </c>
+      <c r="DM12">
+        <v>0</v>
+      </c>
+      <c r="DO12">
+        <v>0</v>
+      </c>
+      <c r="DR12">
+        <v>0</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>194</v>
+      </c>
+      <c r="DU12">
+        <v>0</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>163</v>
+      </c>
+      <c r="DX12">
+        <v>0</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>194</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>194</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>194</v>
+      </c>
+      <c r="EC12" t="s">
+        <v>194</v>
+      </c>
+      <c r="ED12">
+        <v>0</v>
+      </c>
+      <c r="EE12">
+        <v>0</v>
+      </c>
+      <c r="EF12">
+        <v>0</v>
+      </c>
+      <c r="EG12">
+        <v>0</v>
+      </c>
+      <c r="EH12">
+        <v>0</v>
+      </c>
+      <c r="EI12" t="s">
         <v>191</v>
       </c>
-      <c r="AF12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>191</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
-      <c r="BI12">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>0</v>
-      </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
-        <v>0</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>183</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>154</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>186</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>187</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>187</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>191</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>183</v>
-      </c>
-      <c r="BW12">
-        <v>0</v>
-      </c>
-      <c r="BX12">
-        <v>0</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>206</v>
-      </c>
-      <c r="BZ12" t="s">
-        <v>151</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>191</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>210</v>
-      </c>
-      <c r="CC12">
-        <v>0</v>
-      </c>
-      <c r="CD12" t="s">
-        <v>187</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>187</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>187</v>
-      </c>
-      <c r="CG12">
-        <v>0</v>
-      </c>
-      <c r="CH12">
-        <v>0</v>
-      </c>
-      <c r="CI12" t="s">
-        <v>187</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>187</v>
-      </c>
-      <c r="CK12">
-        <v>0</v>
-      </c>
-      <c r="CL12" t="s">
-        <v>183</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>154</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>186</v>
-      </c>
-      <c r="CO12">
-        <v>0</v>
-      </c>
-      <c r="CP12">
-        <v>0</v>
-      </c>
-      <c r="CQ12" t="s">
-        <v>191</v>
-      </c>
-      <c r="CR12" t="s">
-        <v>183</v>
-      </c>
-      <c r="CS12">
-        <v>0</v>
-      </c>
-      <c r="CT12">
-        <v>0</v>
-      </c>
-      <c r="CU12">
-        <v>0</v>
-      </c>
-      <c r="CV12">
-        <v>0</v>
-      </c>
-      <c r="CW12">
-        <v>0</v>
-      </c>
-      <c r="CX12">
-        <v>0</v>
-      </c>
-      <c r="CY12">
-        <v>0</v>
-      </c>
-      <c r="CZ12">
-        <v>0</v>
-      </c>
-      <c r="DA12">
-        <v>0</v>
-      </c>
-      <c r="DC12">
-        <v>0</v>
-      </c>
-      <c r="DE12">
-        <v>0</v>
-      </c>
-      <c r="DG12">
-        <v>0</v>
-      </c>
-      <c r="DI12">
-        <v>0</v>
-      </c>
-      <c r="DK12">
-        <v>0</v>
-      </c>
-      <c r="DM12">
-        <v>0</v>
-      </c>
-      <c r="DO12">
-        <v>0</v>
-      </c>
-      <c r="DR12">
-        <v>0</v>
-      </c>
-      <c r="DS12" t="s">
-        <v>187</v>
-      </c>
-      <c r="DU12">
-        <v>0</v>
-      </c>
-      <c r="DW12" t="s">
-        <v>162</v>
-      </c>
-      <c r="DX12">
-        <v>0</v>
-      </c>
-      <c r="DY12" t="s">
-        <v>187</v>
-      </c>
-      <c r="DZ12" t="s">
-        <v>187</v>
-      </c>
-      <c r="EA12" t="s">
-        <v>162</v>
-      </c>
-      <c r="EB12" t="s">
-        <v>187</v>
-      </c>
-      <c r="EC12" t="s">
-        <v>187</v>
-      </c>
-      <c r="ED12" t="s">
-        <v>159</v>
-      </c>
-      <c r="EE12">
-        <v>0</v>
-      </c>
-      <c r="EF12">
-        <v>0</v>
-      </c>
-      <c r="EG12">
-        <v>0</v>
-      </c>
-      <c r="EH12">
-        <v>0</v>
-      </c>
-      <c r="EI12" t="s">
-        <v>162</v>
-      </c>
       <c r="EJ12">
         <v>0</v>
       </c>
@@ -5918,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="EQ12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="ER12">
         <v>0</v>
@@ -5938,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -5953,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -5965,61 +6001,61 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
+        <v>167</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>168</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>169</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>181</v>
+      </c>
+      <c r="X13" t="s">
         <v>164</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>165</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s">
-        <v>178</v>
-      </c>
-      <c r="X13" t="s">
-        <v>163</v>
-      </c>
       <c r="Y13" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Z13" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AA13" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="AB13" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="AC13" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AD13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AE13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF13" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AH13" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -6027,23 +6063,23 @@
       <c r="AJ13">
         <v>0</v>
       </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
+      <c r="AK13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>188</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -6118,28 +6154,25 @@
         <v>0</v>
       </c>
       <c r="BO13" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="BP13" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="BQ13" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="BR13" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="BS13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="BT13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BU13" t="s">
-        <v>187</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BW13">
         <v>0</v>
@@ -6148,61 +6181,64 @@
         <v>0</v>
       </c>
       <c r="BY13" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="BZ13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CA13" t="s">
-        <v>187</v>
+        <v>194</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>219</v>
       </c>
       <c r="CC13">
         <v>0</v>
       </c>
-      <c r="CD13" t="s">
-        <v>187</v>
+      <c r="CD13">
+        <v>0</v>
       </c>
       <c r="CE13" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="CF13" t="s">
-        <v>187</v>
-      </c>
-      <c r="CG13">
-        <v>0</v>
-      </c>
-      <c r="CH13">
-        <v>0</v>
-      </c>
-      <c r="CI13">
-        <v>0</v>
-      </c>
-      <c r="CJ13">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>194</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>194</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>194</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>194</v>
       </c>
       <c r="CK13">
         <v>0</v>
       </c>
-      <c r="CL13" t="s">
-        <v>184</v>
+      <c r="CL13">
+        <v>0</v>
       </c>
       <c r="CM13" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="CN13" t="s">
-        <v>186</v>
-      </c>
-      <c r="CO13">
-        <v>0</v>
-      </c>
-      <c r="CP13">
-        <v>0</v>
-      </c>
-      <c r="CQ13">
-        <v>0</v>
-      </c>
-      <c r="CR13">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>198</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>189</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>188</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>188</v>
       </c>
       <c r="CS13">
         <v>0</v>
@@ -6256,34 +6292,34 @@
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DU13">
         <v>0</v>
       </c>
       <c r="DW13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DX13">
         <v>0</v>
       </c>
       <c r="DY13" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DZ13" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="EA13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EB13" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="EC13" t="s">
-        <v>187</v>
-      </c>
-      <c r="ED13">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="ED13" t="s">
+        <v>192</v>
       </c>
       <c r="EE13">
         <v>0</v>
@@ -6298,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="EI13" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="EJ13">
         <v>0</v>
@@ -6322,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="EQ13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="ER13">
         <v>0</v>
@@ -6344,391 +6380,1199 @@
       <c r="E14" t="s">
         <v>148</v>
       </c>
-      <c r="G14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>165</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>167</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>168</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>169</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>182</v>
+      </c>
+      <c r="X14" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>188</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>198</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>188</v>
+      </c>
+      <c r="BW14">
+        <v>0</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>219</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG14">
+        <v>0</v>
+      </c>
+      <c r="CH14">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>194</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>194</v>
+      </c>
+      <c r="CK14">
+        <v>0</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>188</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>155</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>192</v>
+      </c>
+      <c r="CO14">
+        <v>0</v>
+      </c>
+      <c r="CP14">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>188</v>
+      </c>
+      <c r="CS14">
+        <v>0</v>
+      </c>
+      <c r="CT14">
+        <v>0</v>
+      </c>
+      <c r="CU14">
+        <v>0</v>
+      </c>
+      <c r="CV14">
+        <v>0</v>
+      </c>
+      <c r="CW14">
+        <v>0</v>
+      </c>
+      <c r="CX14">
+        <v>0</v>
+      </c>
+      <c r="CY14">
+        <v>0</v>
+      </c>
+      <c r="CZ14">
+        <v>0</v>
+      </c>
+      <c r="DA14">
+        <v>0</v>
+      </c>
+      <c r="DC14">
+        <v>0</v>
+      </c>
+      <c r="DE14">
+        <v>0</v>
+      </c>
+      <c r="DG14">
+        <v>0</v>
+      </c>
+      <c r="DI14">
+        <v>0</v>
+      </c>
+      <c r="DK14">
+        <v>0</v>
+      </c>
+      <c r="DM14">
+        <v>0</v>
+      </c>
+      <c r="DO14">
+        <v>0</v>
+      </c>
+      <c r="DR14">
+        <v>0</v>
+      </c>
+      <c r="DS14" t="s">
+        <v>194</v>
+      </c>
+      <c r="DU14">
+        <v>0</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>165</v>
+      </c>
+      <c r="DX14">
+        <v>0</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>194</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>194</v>
+      </c>
+      <c r="EA14" t="s">
+        <v>165</v>
+      </c>
+      <c r="EB14" t="s">
+        <v>194</v>
+      </c>
+      <c r="EC14" t="s">
+        <v>194</v>
+      </c>
+      <c r="ED14" t="s">
+        <v>161</v>
+      </c>
+      <c r="EE14">
+        <v>0</v>
+      </c>
+      <c r="EF14">
+        <v>0</v>
+      </c>
+      <c r="EG14">
+        <v>0</v>
+      </c>
+      <c r="EH14">
+        <v>0</v>
+      </c>
+      <c r="EI14" t="s">
+        <v>165</v>
+      </c>
+      <c r="EJ14">
+        <v>0</v>
+      </c>
+      <c r="EK14">
+        <v>0</v>
+      </c>
+      <c r="EL14">
+        <v>0</v>
+      </c>
+      <c r="EM14">
+        <v>0</v>
+      </c>
+      <c r="EN14">
+        <v>0</v>
+      </c>
+      <c r="EO14">
+        <v>0</v>
+      </c>
+      <c r="EP14">
+        <v>0</v>
+      </c>
+      <c r="EQ14" t="s">
+        <v>153</v>
+      </c>
+      <c r="ER14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:148">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>167</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>168</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>183</v>
+      </c>
+      <c r="X15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>189</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>216</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>194</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG15">
+        <v>0</v>
+      </c>
+      <c r="CH15">
+        <v>0</v>
+      </c>
+      <c r="CI15">
+        <v>0</v>
+      </c>
+      <c r="CJ15">
+        <v>0</v>
+      </c>
+      <c r="CK15">
+        <v>0</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>189</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>155</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>192</v>
+      </c>
+      <c r="CO15">
+        <v>0</v>
+      </c>
+      <c r="CP15">
+        <v>0</v>
+      </c>
+      <c r="CQ15">
+        <v>0</v>
+      </c>
+      <c r="CR15">
+        <v>0</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15">
+        <v>0</v>
+      </c>
+      <c r="CU15">
+        <v>0</v>
+      </c>
+      <c r="CV15">
+        <v>0</v>
+      </c>
+      <c r="CW15">
+        <v>0</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15">
+        <v>0</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DA15">
+        <v>0</v>
+      </c>
+      <c r="DC15">
+        <v>0</v>
+      </c>
+      <c r="DE15">
+        <v>0</v>
+      </c>
+      <c r="DG15">
+        <v>0</v>
+      </c>
+      <c r="DI15">
+        <v>0</v>
+      </c>
+      <c r="DK15">
+        <v>0</v>
+      </c>
+      <c r="DM15">
+        <v>0</v>
+      </c>
+      <c r="DO15">
+        <v>0</v>
+      </c>
+      <c r="DR15">
+        <v>0</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>194</v>
+      </c>
+      <c r="DU15">
+        <v>0</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>166</v>
+      </c>
+      <c r="DX15">
+        <v>0</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>194</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>194</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>166</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>194</v>
+      </c>
+      <c r="EC15" t="s">
+        <v>194</v>
+      </c>
+      <c r="ED15">
+        <v>0</v>
+      </c>
+      <c r="EE15">
+        <v>0</v>
+      </c>
+      <c r="EF15">
+        <v>0</v>
+      </c>
+      <c r="EG15">
+        <v>0</v>
+      </c>
+      <c r="EH15">
+        <v>0</v>
+      </c>
+      <c r="EI15" t="s">
+        <v>194</v>
+      </c>
+      <c r="EJ15">
+        <v>0</v>
+      </c>
+      <c r="EK15">
+        <v>0</v>
+      </c>
+      <c r="EL15">
+        <v>0</v>
+      </c>
+      <c r="EM15">
+        <v>0</v>
+      </c>
+      <c r="EN15">
+        <v>0</v>
+      </c>
+      <c r="EO15">
+        <v>0</v>
+      </c>
+      <c r="EP15">
+        <v>0</v>
+      </c>
+      <c r="EQ15" t="s">
+        <v>153</v>
+      </c>
+      <c r="ER15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:148">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
         <v>148</v>
       </c>
-      <c r="I14" t="s">
+      <c r="G16" t="s">
         <v>152</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="H16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>167</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>168</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>169</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>184</v>
+      </c>
+      <c r="X16" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>189</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>188</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>188</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>155</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>189</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>194</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>192</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>188</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>202</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>217</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>188</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>219</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>221</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>194</v>
+      </c>
+      <c r="CH16">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>194</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>194</v>
+      </c>
+      <c r="CK16">
+        <v>0</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>188</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>188</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>155</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>189</v>
+      </c>
+      <c r="CP16">
+        <v>0</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>192</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>188</v>
+      </c>
+      <c r="CS16">
+        <v>0</v>
+      </c>
+      <c r="CT16">
+        <v>0</v>
+      </c>
+      <c r="CU16">
+        <v>0</v>
+      </c>
+      <c r="CV16">
+        <v>0</v>
+      </c>
+      <c r="CW16">
+        <v>0</v>
+      </c>
+      <c r="CX16">
+        <v>0</v>
+      </c>
+      <c r="CY16">
+        <v>0</v>
+      </c>
+      <c r="CZ16">
+        <v>0</v>
+      </c>
+      <c r="DA16">
+        <v>0</v>
+      </c>
+      <c r="DC16">
+        <v>0</v>
+      </c>
+      <c r="DE16">
+        <v>0</v>
+      </c>
+      <c r="DG16">
+        <v>0</v>
+      </c>
+      <c r="DI16">
+        <v>0</v>
+      </c>
+      <c r="DK16">
+        <v>0</v>
+      </c>
+      <c r="DM16">
+        <v>0</v>
+      </c>
+      <c r="DO16">
+        <v>0</v>
+      </c>
+      <c r="DR16">
+        <v>0</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>194</v>
+      </c>
+      <c r="DU16">
+        <v>0</v>
+      </c>
+      <c r="DW16" t="s">
+        <v>164</v>
+      </c>
+      <c r="DX16">
+        <v>0</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>194</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>194</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>164</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>194</v>
+      </c>
+      <c r="EC16" t="s">
+        <v>194</v>
+      </c>
+      <c r="ED16" t="s">
         <v>161</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="EE16">
+        <v>0</v>
+      </c>
+      <c r="EF16">
+        <v>0</v>
+      </c>
+      <c r="EG16">
+        <v>0</v>
+      </c>
+      <c r="EH16">
+        <v>0</v>
+      </c>
+      <c r="EI16" t="s">
         <v>164</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
-        <v>165</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14" t="s">
-        <v>166</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
-        <v>179</v>
-      </c>
-      <c r="X14" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
-      </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
-      <c r="BH14">
-        <v>0</v>
-      </c>
-      <c r="BI14">
-        <v>0</v>
-      </c>
-      <c r="BJ14">
-        <v>0</v>
-      </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>0</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>183</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>183</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>154</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>184</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>187</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>186</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>183</v>
-      </c>
-      <c r="BW14">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="s">
-        <v>195</v>
-      </c>
-      <c r="BY14" t="s">
-        <v>208</v>
-      </c>
-      <c r="BZ14" t="s">
-        <v>151</v>
-      </c>
-      <c r="CA14" t="s">
-        <v>183</v>
-      </c>
-      <c r="CB14" t="s">
-        <v>210</v>
-      </c>
-      <c r="CC14" t="s">
-        <v>211</v>
-      </c>
-      <c r="CD14" t="s">
-        <v>187</v>
-      </c>
-      <c r="CE14" t="s">
-        <v>187</v>
-      </c>
-      <c r="CF14" t="s">
-        <v>187</v>
-      </c>
-      <c r="CG14" t="s">
-        <v>187</v>
-      </c>
-      <c r="CH14">
-        <v>0</v>
-      </c>
-      <c r="CI14" t="s">
-        <v>187</v>
-      </c>
-      <c r="CJ14" t="s">
-        <v>187</v>
-      </c>
-      <c r="CK14">
-        <v>0</v>
-      </c>
-      <c r="CL14" t="s">
-        <v>183</v>
-      </c>
-      <c r="CM14" t="s">
-        <v>183</v>
-      </c>
-      <c r="CN14" t="s">
-        <v>154</v>
-      </c>
-      <c r="CO14" t="s">
-        <v>184</v>
-      </c>
-      <c r="CP14">
-        <v>0</v>
-      </c>
-      <c r="CQ14" t="s">
-        <v>186</v>
-      </c>
-      <c r="CR14" t="s">
-        <v>183</v>
-      </c>
-      <c r="CS14">
-        <v>0</v>
-      </c>
-      <c r="CT14">
-        <v>0</v>
-      </c>
-      <c r="CU14">
-        <v>0</v>
-      </c>
-      <c r="CV14">
-        <v>0</v>
-      </c>
-      <c r="CW14">
-        <v>0</v>
-      </c>
-      <c r="CX14">
-        <v>0</v>
-      </c>
-      <c r="CY14">
-        <v>0</v>
-      </c>
-      <c r="CZ14">
-        <v>0</v>
-      </c>
-      <c r="DA14">
-        <v>0</v>
-      </c>
-      <c r="DC14">
-        <v>0</v>
-      </c>
-      <c r="DE14">
-        <v>0</v>
-      </c>
-      <c r="DG14">
-        <v>0</v>
-      </c>
-      <c r="DI14">
-        <v>0</v>
-      </c>
-      <c r="DK14">
-        <v>0</v>
-      </c>
-      <c r="DM14">
-        <v>0</v>
-      </c>
-      <c r="DO14">
-        <v>0</v>
-      </c>
-      <c r="DR14">
-        <v>0</v>
-      </c>
-      <c r="DS14" t="s">
-        <v>187</v>
-      </c>
-      <c r="DU14">
-        <v>0</v>
-      </c>
-      <c r="DW14" t="s">
-        <v>161</v>
-      </c>
-      <c r="DX14">
-        <v>0</v>
-      </c>
-      <c r="DY14" t="s">
-        <v>187</v>
-      </c>
-      <c r="DZ14" t="s">
-        <v>187</v>
-      </c>
-      <c r="EA14" t="s">
-        <v>161</v>
-      </c>
-      <c r="EB14" t="s">
-        <v>187</v>
-      </c>
-      <c r="EC14" t="s">
-        <v>187</v>
-      </c>
-      <c r="ED14" t="s">
-        <v>159</v>
-      </c>
-      <c r="EE14">
-        <v>0</v>
-      </c>
-      <c r="EF14">
-        <v>0</v>
-      </c>
-      <c r="EG14">
-        <v>0</v>
-      </c>
-      <c r="EH14">
-        <v>0</v>
-      </c>
-      <c r="EI14" t="s">
-        <v>161</v>
-      </c>
-      <c r="EJ14">
-        <v>0</v>
-      </c>
-      <c r="EK14">
-        <v>0</v>
-      </c>
-      <c r="EL14">
-        <v>0</v>
-      </c>
-      <c r="EM14">
-        <v>0</v>
-      </c>
-      <c r="EN14">
-        <v>0</v>
-      </c>
-      <c r="EO14">
-        <v>0</v>
-      </c>
-      <c r="EP14">
-        <v>0</v>
-      </c>
-      <c r="EQ14" t="s">
-        <v>152</v>
-      </c>
-      <c r="ER14">
+      <c r="EJ16">
+        <v>0</v>
+      </c>
+      <c r="EK16">
+        <v>0</v>
+      </c>
+      <c r="EL16">
+        <v>0</v>
+      </c>
+      <c r="EM16">
+        <v>0</v>
+      </c>
+      <c r="EN16">
+        <v>0</v>
+      </c>
+      <c r="EO16">
+        <v>0</v>
+      </c>
+      <c r="EP16">
+        <v>0</v>
+      </c>
+      <c r="EQ16" t="s">
+        <v>153</v>
+      </c>
+      <c r="ER16">
         <v>0</v>
       </c>
     </row>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="233">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -496,12 +496,12 @@
     <t>21</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -547,6 +547,9 @@
     <t>Geja</t>
   </si>
   <si>
+    <t>Gonono Clinic</t>
+  </si>
+  <si>
     <t>Jompani</t>
   </si>
   <si>
@@ -589,6 +592,9 @@
     <t>24</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>correction</t>
   </si>
   <si>
@@ -647,6 +653,9 @@
   </si>
   <si>
     <t>2025-06-12T12:48:01.280653Z</t>
+  </si>
+  <si>
+    <t>2025-06-19T13:54:38.602973Z</t>
   </si>
   <si>
     <t>2025-06-12T12:35:28.391560Z</t>
@@ -1061,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ER18"/>
+  <dimension ref="A1:ER19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1578,49 +1587,49 @@
         <v>156</v>
       </c>
       <c r="Y2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AA2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AB2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AC2" t="s">
         <v>157</v>
       </c>
       <c r="AD2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AE2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AH2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL2" t="s">
         <v>205</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>203</v>
       </c>
       <c r="AM2" t="s">
         <v>162</v>
       </c>
       <c r="AN2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -1665,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="BC2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BD2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BE2">
         <v>0</v>
@@ -1701,25 +1710,25 @@
         <v>0</v>
       </c>
       <c r="BO2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="BP2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BQ2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BR2" t="s">
         <v>157</v>
       </c>
       <c r="BS2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BT2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BU2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1728,40 +1737,40 @@
         <v>0</v>
       </c>
       <c r="BY2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="BZ2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CA2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CB2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CC2">
         <v>0</v>
       </c>
       <c r="CD2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="CE2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CF2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CG2" t="s">
         <v>157</v>
       </c>
       <c r="CH2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="CI2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CJ2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -1830,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="DJ2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DK2">
         <v>0</v>
@@ -1845,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DU2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DW2" t="s">
         <v>156</v>
@@ -1857,13 +1866,13 @@
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DZ2" t="s">
         <v>156</v>
       </c>
       <c r="EA2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -1887,10 +1896,10 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="EJ2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -1911,7 +1920,7 @@
         <v>155</v>
       </c>
       <c r="ER2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:148">
@@ -1985,55 +1994,55 @@
         <v>157</v>
       </c>
       <c r="Y3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AA3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AB3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AC3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AE3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AH3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AK3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AL3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -2108,25 +2117,25 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BP3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BQ3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BR3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BS3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BT3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BU3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -2135,64 +2144,64 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="BZ3" t="s">
         <v>154</v>
       </c>
       <c r="CA3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CB3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CE3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CF3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CG3">
         <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CK3">
         <v>0</v>
       </c>
       <c r="CL3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="CM3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="CN3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="CQ3">
         <v>0</v>
       </c>
       <c r="CR3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="CS3">
         <v>0</v>
@@ -2246,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DU3">
         <v>0</v>
@@ -2258,22 +2267,22 @@
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DZ3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EA3" t="s">
         <v>157</v>
       </c>
       <c r="EB3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EC3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="ED3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2383,10 +2392,10 @@
         <v>175</v>
       </c>
       <c r="X4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z4" t="s">
         <v>164</v>
@@ -2395,139 +2404,139 @@
         <v>157</v>
       </c>
       <c r="AB4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AC4" t="s">
         <v>162</v>
       </c>
       <c r="AD4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AE4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AH4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>200</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>200</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="s">
         <v>205</v>
       </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>203</v>
-      </c>
       <c r="BP4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="BQ4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BR4" t="s">
         <v>162</v>
       </c>
       <c r="BS4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BT4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BU4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BW4">
         <v>0</v>
@@ -2536,37 +2545,37 @@
         <v>0</v>
       </c>
       <c r="BY4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="BZ4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CA4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CB4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CC4">
         <v>0</v>
       </c>
       <c r="CD4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CE4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="CF4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="CG4" t="s">
         <v>162</v>
       </c>
       <c r="CH4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CI4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="CJ4">
         <v>0</v>
@@ -2623,25 +2632,25 @@
         <v>0</v>
       </c>
       <c r="DB4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="DC4">
         <v>0</v>
       </c>
       <c r="DD4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DE4">
         <v>0</v>
       </c>
       <c r="DF4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DG4">
         <v>0</v>
       </c>
       <c r="DH4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="DI4">
         <v>0</v>
@@ -2650,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="DL4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DM4">
         <v>0</v>
@@ -2662,10 +2671,10 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DU4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DW4" t="s">
         <v>158</v>
@@ -2674,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="DY4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DZ4" t="s">
         <v>158</v>
       </c>
       <c r="EA4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2707,7 +2716,7 @@
         <v>162</v>
       </c>
       <c r="EJ4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2802,31 +2811,31 @@
         <v>159</v>
       </c>
       <c r="Y5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z5" t="s">
         <v>162</v>
       </c>
       <c r="AA5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AB5" t="s">
         <v>157</v>
       </c>
       <c r="AC5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AD5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AE5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AF5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AH5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -2835,22 +2844,22 @@
         <v>162</v>
       </c>
       <c r="AK5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL5" t="s">
         <v>157</v>
       </c>
       <c r="AM5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AN5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AO5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AP5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2892,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="BD5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -2928,22 +2937,22 @@
         <v>162</v>
       </c>
       <c r="BP5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BQ5" t="s">
         <v>157</v>
       </c>
       <c r="BR5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BS5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BT5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BU5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -2952,40 +2961,40 @@
         <v>0</v>
       </c>
       <c r="BY5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="BZ5" t="s">
         <v>154</v>
       </c>
       <c r="CA5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="CB5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CC5">
         <v>0</v>
       </c>
       <c r="CD5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CE5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CF5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CG5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CH5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CI5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CJ5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CK5">
         <v>0</v>
@@ -2994,22 +3003,22 @@
         <v>162</v>
       </c>
       <c r="CM5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="CN5" t="s">
         <v>157</v>
       </c>
       <c r="CO5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="CP5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="CQ5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="CR5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="CS5">
         <v>0</v>
@@ -3051,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="DJ5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="DK5">
         <v>0</v>
@@ -3066,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DU5">
         <v>0</v>
@@ -3078,22 +3087,22 @@
         <v>0</v>
       </c>
       <c r="DY5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DZ5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EA5" t="s">
         <v>159</v>
       </c>
       <c r="EB5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EC5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="ED5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="EE5">
         <v>0</v>
@@ -3108,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -3152,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3196,9 +3205,6 @@
       <c r="T6">
         <v>0</v>
       </c>
-      <c r="U6" t="s">
-        <v>172</v>
-      </c>
       <c r="V6">
         <v>0</v>
       </c>
@@ -3206,139 +3212,142 @@
         <v>177</v>
       </c>
       <c r="X6" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="Y6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z6" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB6" t="s">
         <v>162</v>
       </c>
-      <c r="AA6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="s">
         <v>194</v>
       </c>
-      <c r="AC6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL6" t="s">
+      <c r="BP6" t="s">
         <v>194</v>
       </c>
-      <c r="AM6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>193</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>162</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>157</v>
-      </c>
       <c r="BQ6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="BR6" t="s">
         <v>200</v>
@@ -3347,10 +3356,13 @@
         <v>200</v>
       </c>
       <c r="BT6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="BU6" t="s">
-        <v>193</v>
+        <v>200</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>200</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -3359,98 +3371,107 @@
         <v>0</v>
       </c>
       <c r="BY6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="BZ6" t="s">
         <v>154</v>
       </c>
       <c r="CA6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CB6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CC6">
         <v>0</v>
       </c>
       <c r="CD6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="CE6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="CF6" t="s">
         <v>198</v>
       </c>
-      <c r="CG6" t="s">
-        <v>198</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>198</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>198</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>198</v>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
       </c>
       <c r="CK6">
         <v>0</v>
       </c>
-      <c r="CL6" t="s">
-        <v>162</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>157</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>194</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CQ6" t="s">
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>200</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>195</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6" t="s">
         <v>204</v>
       </c>
-      <c r="CR6" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS6">
-        <v>0</v>
-      </c>
-      <c r="CT6">
-        <v>0</v>
-      </c>
-      <c r="CU6">
-        <v>0</v>
-      </c>
-      <c r="CV6">
-        <v>0</v>
-      </c>
-      <c r="CW6">
-        <v>0</v>
-      </c>
-      <c r="CX6">
-        <v>0</v>
-      </c>
-      <c r="CY6">
-        <v>0</v>
-      </c>
-      <c r="CZ6">
-        <v>0</v>
-      </c>
-      <c r="DA6">
-        <v>0</v>
-      </c>
-      <c r="DC6">
-        <v>0</v>
-      </c>
-      <c r="DE6">
-        <v>0</v>
-      </c>
       <c r="DG6">
         <v>0</v>
       </c>
@@ -3470,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DU6">
         <v>0</v>
@@ -3482,22 +3503,22 @@
         <v>0</v>
       </c>
       <c r="DY6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DZ6" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="EA6" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="EB6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EC6" t="s">
-        <v>198</v>
-      </c>
-      <c r="ED6" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="ED6">
+        <v>0</v>
       </c>
       <c r="EE6">
         <v>0</v>
@@ -3512,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="EJ6">
         <v>0</v>
@@ -3556,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3571,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3600,6 +3621,9 @@
       <c r="T7">
         <v>0</v>
       </c>
+      <c r="U7" t="s">
+        <v>172</v>
+      </c>
       <c r="V7">
         <v>0</v>
       </c>
@@ -3607,61 +3631,58 @@
         <v>178</v>
       </c>
       <c r="X7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Y7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z7" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="AA7" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="AB7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AC7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="AD7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AE7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AF7" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AH7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AI7">
         <v>0</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
+      <c r="AJ7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>195</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -3736,28 +3757,25 @@
         <v>0</v>
       </c>
       <c r="BO7" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="BP7" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="BQ7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="BR7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="BS7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="BT7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="BU7" t="s">
-        <v>198</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -3766,61 +3784,64 @@
         <v>0</v>
       </c>
       <c r="BY7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="BZ7" t="s">
         <v>154</v>
       </c>
       <c r="CA7" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>228</v>
       </c>
       <c r="CC7">
         <v>0</v>
       </c>
       <c r="CD7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CE7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CF7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CG7" t="s">
-        <v>198</v>
-      </c>
-      <c r="CH7">
-        <v>0</v>
-      </c>
-      <c r="CI7">
-        <v>0</v>
-      </c>
-      <c r="CJ7">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>200</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>200</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>200</v>
       </c>
       <c r="CK7">
         <v>0</v>
       </c>
       <c r="CL7" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="CM7" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="CN7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="CO7" t="s">
-        <v>193</v>
-      </c>
-      <c r="CP7">
-        <v>0</v>
-      </c>
-      <c r="CQ7">
-        <v>0</v>
-      </c>
-      <c r="CR7">
-        <v>0</v>
+        <v>202</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>202</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>206</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>195</v>
       </c>
       <c r="CS7">
         <v>0</v>
@@ -3874,34 +3895,34 @@
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DU7">
         <v>0</v>
       </c>
       <c r="DW7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="DX7">
         <v>0</v>
       </c>
       <c r="DY7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DZ7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EA7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="EB7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EC7" t="s">
-        <v>198</v>
-      </c>
-      <c r="ED7">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>205</v>
       </c>
       <c r="EE7">
         <v>0</v>
@@ -3916,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="EJ7">
         <v>0</v>
@@ -3942,8 +3963,8 @@
       <c r="EQ7" t="s">
         <v>155</v>
       </c>
-      <c r="ER7" t="s">
-        <v>229</v>
+      <c r="ER7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:148">
@@ -3960,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3975,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3985,6 +4006,9 @@
       </c>
       <c r="N8">
         <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>170</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -4008,52 +4032,52 @@
         <v>179</v>
       </c>
       <c r="X8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AA8" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="AB8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AC8" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="AD8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AE8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AH8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>193</v>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
       </c>
       <c r="AN8">
         <v>0</v>
@@ -4091,17 +4115,17 @@
       <c r="AY8">
         <v>0</v>
       </c>
-      <c r="AZ8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>198</v>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
       </c>
       <c r="BD8">
         <v>0</v>
@@ -4136,29 +4160,29 @@
       <c r="BN8">
         <v>0</v>
       </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>0</v>
-      </c>
-      <c r="BS8">
-        <v>0</v>
-      </c>
-      <c r="BT8">
-        <v>0</v>
-      </c>
-      <c r="BU8">
-        <v>0</v>
-      </c>
-      <c r="BV8">
-        <v>0</v>
+      <c r="BO8" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>203</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>203</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>195</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>200</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>200</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>200</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>200</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -4167,31 +4191,28 @@
         <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="BZ8" t="s">
         <v>154</v>
       </c>
       <c r="CA8" t="s">
-        <v>198</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="CC8">
         <v>0</v>
       </c>
       <c r="CD8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CE8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CF8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CG8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CH8">
         <v>0</v>
@@ -4206,16 +4227,16 @@
         <v>0</v>
       </c>
       <c r="CL8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="CM8" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="CN8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CO8" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="CP8">
         <v>0</v>
@@ -4253,27 +4274,15 @@
       <c r="DA8">
         <v>0</v>
       </c>
-      <c r="DB8" t="s">
-        <v>198</v>
-      </c>
       <c r="DC8">
         <v>0</v>
       </c>
-      <c r="DD8" t="s">
-        <v>162</v>
-      </c>
       <c r="DE8">
         <v>0</v>
       </c>
-      <c r="DF8" t="s">
-        <v>198</v>
-      </c>
       <c r="DG8">
         <v>0</v>
       </c>
-      <c r="DH8" t="s">
-        <v>193</v>
-      </c>
       <c r="DI8">
         <v>0</v>
       </c>
@@ -4290,31 +4299,31 @@
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DU8">
         <v>0</v>
       </c>
       <c r="DW8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="DX8">
         <v>0</v>
       </c>
       <c r="DY8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DZ8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EA8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="EB8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EC8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="ED8">
         <v>0</v>
@@ -4332,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="EI8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="EJ8">
         <v>0</v>
@@ -4358,8 +4367,8 @@
       <c r="EQ8" t="s">
         <v>155</v>
       </c>
-      <c r="ER8">
-        <v>0</v>
+      <c r="ER8" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:148">
@@ -4376,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4391,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4401,9 +4410,6 @@
       </c>
       <c r="N9">
         <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>170</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -4427,209 +4433,215 @@
         <v>180</v>
       </c>
       <c r="X9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Y9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AA9" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="AB9" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AC9" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="AD9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AE9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF9" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>200</v>
       </c>
       <c r="AH9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AI9">
         <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AK9" t="s">
         <v>162</v>
       </c>
       <c r="AL9" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>200</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>216</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>154</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>200</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>228</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>194</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>164</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>204</v>
+      </c>
+      <c r="CO9" t="s">
         <v>162</v>
       </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>198</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>198</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>0</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>192</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>192</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>196</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>198</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>198</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>198</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>198</v>
-      </c>
-      <c r="BW9">
-        <v>0</v>
-      </c>
-      <c r="BX9">
-        <v>0</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>214</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>224</v>
-      </c>
-      <c r="CA9" t="s">
-        <v>198</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>225</v>
-      </c>
-      <c r="CC9">
-        <v>0</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>192</v>
-      </c>
-      <c r="CE9" t="s">
-        <v>192</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>196</v>
-      </c>
-      <c r="CG9" t="s">
-        <v>198</v>
-      </c>
-      <c r="CH9" t="s">
-        <v>198</v>
-      </c>
-      <c r="CI9" t="s">
-        <v>198</v>
-      </c>
-      <c r="CJ9">
-        <v>0</v>
-      </c>
-      <c r="CK9">
-        <v>0</v>
-      </c>
-      <c r="CL9">
-        <v>0</v>
-      </c>
-      <c r="CM9">
-        <v>0</v>
-      </c>
-      <c r="CN9">
-        <v>0</v>
-      </c>
-      <c r="CO9">
-        <v>0</v>
-      </c>
       <c r="CP9">
         <v>0</v>
       </c>
@@ -4667,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="DB9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="DC9">
         <v>0</v>
@@ -4679,11 +4691,14 @@
         <v>0</v>
       </c>
       <c r="DF9" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="DG9">
         <v>0</v>
       </c>
+      <c r="DH9" t="s">
+        <v>195</v>
+      </c>
       <c r="DI9">
         <v>0</v>
       </c>
@@ -4700,52 +4715,55 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
+        <v>200</v>
+      </c>
+      <c r="DU9">
+        <v>0</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>159</v>
+      </c>
+      <c r="DX9">
+        <v>0</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>200</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>200</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>159</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>200</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>200</v>
+      </c>
+      <c r="ED9">
+        <v>0</v>
+      </c>
+      <c r="EE9">
+        <v>0</v>
+      </c>
+      <c r="EF9">
+        <v>0</v>
+      </c>
+      <c r="EG9">
+        <v>0</v>
+      </c>
+      <c r="EH9">
+        <v>0</v>
+      </c>
+      <c r="EI9" t="s">
         <v>198</v>
       </c>
-      <c r="DU9" t="s">
-        <v>198</v>
-      </c>
-      <c r="DW9" t="s">
-        <v>161</v>
-      </c>
-      <c r="DX9">
-        <v>0</v>
-      </c>
-      <c r="DY9" t="s">
-        <v>198</v>
-      </c>
-      <c r="DZ9" t="s">
-        <v>161</v>
-      </c>
-      <c r="EA9" t="s">
-        <v>198</v>
-      </c>
-      <c r="EB9">
-        <v>0</v>
-      </c>
-      <c r="EC9">
-        <v>0</v>
-      </c>
-      <c r="ED9">
-        <v>0</v>
-      </c>
-      <c r="EE9">
-        <v>0</v>
-      </c>
-      <c r="EF9">
-        <v>0</v>
-      </c>
-      <c r="EG9">
-        <v>0</v>
-      </c>
-      <c r="EH9">
-        <v>0</v>
-      </c>
-      <c r="EI9" t="s">
-        <v>164</v>
-      </c>
-      <c r="EJ9" t="s">
-        <v>198</v>
+      <c r="EJ9">
+        <v>0</v>
+      </c>
+      <c r="EK9">
+        <v>0</v>
       </c>
       <c r="EL9">
         <v>0</v>
@@ -4783,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4798,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4834,49 +4852,46 @@
         <v>181</v>
       </c>
       <c r="X10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Y10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z10" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="AA10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AB10" t="s">
         <v>198</v>
       </c>
       <c r="AC10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AE10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AH10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AI10">
         <v>0</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
+      <c r="AJ10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>162</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -4917,14 +4932,14 @@
       <c r="AY10">
         <v>0</v>
       </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
+      <c r="AZ10" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>200</v>
       </c>
       <c r="BC10">
         <v>0</v>
@@ -4963,28 +4978,25 @@
         <v>0</v>
       </c>
       <c r="BO10" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="BP10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="BQ10" t="s">
         <v>198</v>
       </c>
       <c r="BR10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BS10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BT10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BU10" t="s">
-        <v>198</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -4993,34 +5005,37 @@
         <v>0</v>
       </c>
       <c r="BY10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="BZ10" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="CA10" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>228</v>
       </c>
       <c r="CC10">
         <v>0</v>
       </c>
       <c r="CD10" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="CE10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="CF10" t="s">
         <v>198</v>
       </c>
-      <c r="CG10">
-        <v>0</v>
-      </c>
-      <c r="CH10">
-        <v>0</v>
-      </c>
-      <c r="CI10">
-        <v>0</v>
+      <c r="CG10" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>200</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>200</v>
       </c>
       <c r="CJ10">
         <v>0</v>
@@ -5076,12 +5091,21 @@
       <c r="DA10">
         <v>0</v>
       </c>
+      <c r="DB10" t="s">
+        <v>195</v>
+      </c>
       <c r="DC10">
         <v>0</v>
       </c>
+      <c r="DD10" t="s">
+        <v>162</v>
+      </c>
       <c r="DE10">
         <v>0</v>
       </c>
+      <c r="DF10" t="s">
+        <v>162</v>
+      </c>
       <c r="DG10">
         <v>0</v>
       </c>
@@ -5101,31 +5125,31 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>198</v>
-      </c>
-      <c r="DU10">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>200</v>
       </c>
       <c r="DW10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="DX10">
         <v>0</v>
       </c>
       <c r="DY10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DZ10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="EA10" t="s">
-        <v>198</v>
-      </c>
-      <c r="EB10" t="s">
-        <v>198</v>
-      </c>
-      <c r="EC10" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="EB10">
+        <v>0</v>
+      </c>
+      <c r="EC10">
+        <v>0</v>
       </c>
       <c r="ED10">
         <v>0</v>
@@ -5143,13 +5167,10 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>198</v>
-      </c>
-      <c r="EJ10">
-        <v>0</v>
-      </c>
-      <c r="EK10">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>200</v>
       </c>
       <c r="EL10">
         <v>0</v>
@@ -5187,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5202,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5238,37 +5259,37 @@
         <v>182</v>
       </c>
       <c r="X11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z11" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="AA11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AB11" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AC11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AE11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AH11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -5367,28 +5388,28 @@
         <v>0</v>
       </c>
       <c r="BO11" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="BP11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BQ11" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="BR11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BS11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BT11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BU11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BV11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BW11">
         <v>0</v>
@@ -5397,28 +5418,28 @@
         <v>0</v>
       </c>
       <c r="BY11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="BZ11" t="s">
         <v>154</v>
       </c>
       <c r="CA11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CC11">
         <v>0</v>
       </c>
       <c r="CD11" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="CE11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CF11" t="s">
-        <v>198</v>
-      </c>
-      <c r="CG11" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
       </c>
       <c r="CH11">
         <v>0</v>
@@ -5432,14 +5453,14 @@
       <c r="CK11">
         <v>0</v>
       </c>
-      <c r="CL11" t="s">
-        <v>195</v>
-      </c>
-      <c r="CM11" t="s">
-        <v>201</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>194</v>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
       </c>
       <c r="CO11">
         <v>0</v>
@@ -5505,31 +5526,31 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DU11">
         <v>0</v>
       </c>
       <c r="DW11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DX11">
         <v>0</v>
       </c>
       <c r="DY11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DZ11" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="EA11" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="EB11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EC11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="ED11">
         <v>0</v>
@@ -5547,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EJ11">
         <v>0</v>
@@ -5591,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -5606,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -5635,9 +5656,6 @@
       <c r="T12">
         <v>0</v>
       </c>
-      <c r="U12" t="s">
-        <v>172</v>
-      </c>
       <c r="V12">
         <v>0</v>
       </c>
@@ -5645,52 +5663,55 @@
         <v>183</v>
       </c>
       <c r="X12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AA12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AC12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AE12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF12" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>200</v>
       </c>
       <c r="AH12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AI12">
         <v>0</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>193</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>202</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>202</v>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
       </c>
-      <c r="AN12" t="s">
-        <v>202</v>
+      <c r="AN12">
+        <v>0</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -5771,25 +5792,28 @@
         <v>0</v>
       </c>
       <c r="BO12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="BP12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BQ12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="BR12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BS12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BT12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BU12" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>200</v>
       </c>
       <c r="BW12">
         <v>0</v>
@@ -5798,34 +5822,31 @@
         <v>0</v>
       </c>
       <c r="BY12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="BZ12" t="s">
         <v>154</v>
       </c>
       <c r="CA12" t="s">
-        <v>198</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="CC12">
         <v>0</v>
       </c>
       <c r="CD12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CE12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CF12" t="s">
-        <v>198</v>
-      </c>
-      <c r="CG12">
-        <v>0</v>
-      </c>
-      <c r="CH12" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
       </c>
       <c r="CI12">
         <v>0</v>
@@ -5837,19 +5858,19 @@
         <v>0</v>
       </c>
       <c r="CL12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="CM12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CN12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="CO12">
         <v>0</v>
       </c>
-      <c r="CP12" t="s">
-        <v>202</v>
+      <c r="CP12">
+        <v>0</v>
       </c>
       <c r="CQ12">
         <v>0</v>
@@ -5909,34 +5930,34 @@
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DU12">
         <v>0</v>
       </c>
       <c r="DW12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DX12">
         <v>0</v>
       </c>
       <c r="DY12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DZ12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EA12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="EB12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EC12" t="s">
-        <v>198</v>
-      </c>
-      <c r="ED12" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="ED12">
+        <v>0</v>
       </c>
       <c r="EE12">
         <v>0</v>
@@ -5951,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="EI12" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="EJ12">
         <v>0</v>
@@ -6010,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -6049,58 +6070,58 @@
         <v>184</v>
       </c>
       <c r="X13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA13" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="AB13" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AC13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AD13" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AE13" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AF13" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AH13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AI13">
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AK13" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="AL13" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
       </c>
       <c r="AN13" t="s">
-        <v>196</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>193</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>193</v>
+        <v>204</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -6175,25 +6196,25 @@
         <v>0</v>
       </c>
       <c r="BO13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BP13" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="BQ13" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="BR13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BS13" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="BT13" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="BU13" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="BW13">
         <v>0</v>
@@ -6202,145 +6223,145 @@
         <v>0</v>
       </c>
       <c r="BY13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="BZ13" t="s">
         <v>154</v>
       </c>
       <c r="CA13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CB13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CC13">
         <v>0</v>
       </c>
       <c r="CD13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CE13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CF13" t="s">
-        <v>198</v>
-      </c>
-      <c r="CG13" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="CG13">
+        <v>0</v>
       </c>
       <c r="CH13" t="s">
-        <v>198</v>
-      </c>
-      <c r="CI13" t="s">
-        <v>198</v>
-      </c>
-      <c r="CJ13" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
       </c>
       <c r="CK13">
         <v>0</v>
       </c>
       <c r="CL13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CM13" t="s">
+        <v>204</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>204</v>
+      </c>
+      <c r="CO13">
+        <v>0</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>204</v>
+      </c>
+      <c r="CQ13">
+        <v>0</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DC13">
+        <v>0</v>
+      </c>
+      <c r="DE13">
+        <v>0</v>
+      </c>
+      <c r="DG13">
+        <v>0</v>
+      </c>
+      <c r="DI13">
+        <v>0</v>
+      </c>
+      <c r="DK13">
+        <v>0</v>
+      </c>
+      <c r="DM13">
+        <v>0</v>
+      </c>
+      <c r="DO13">
+        <v>0</v>
+      </c>
+      <c r="DR13">
+        <v>0</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>200</v>
+      </c>
+      <c r="DU13">
+        <v>0</v>
+      </c>
+      <c r="DW13" t="s">
         <v>164</v>
       </c>
-      <c r="CN13" t="s">
-        <v>196</v>
-      </c>
-      <c r="CO13" t="s">
-        <v>202</v>
-      </c>
-      <c r="CP13" t="s">
-        <v>196</v>
-      </c>
-      <c r="CQ13" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR13" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS13">
-        <v>0</v>
-      </c>
-      <c r="CT13">
-        <v>0</v>
-      </c>
-      <c r="CU13">
-        <v>0</v>
-      </c>
-      <c r="CV13">
-        <v>0</v>
-      </c>
-      <c r="CW13">
-        <v>0</v>
-      </c>
-      <c r="CX13">
-        <v>0</v>
-      </c>
-      <c r="CY13">
-        <v>0</v>
-      </c>
-      <c r="CZ13">
-        <v>0</v>
-      </c>
-      <c r="DA13">
-        <v>0</v>
-      </c>
-      <c r="DC13">
-        <v>0</v>
-      </c>
-      <c r="DE13">
-        <v>0</v>
-      </c>
-      <c r="DG13">
-        <v>0</v>
-      </c>
-      <c r="DI13">
-        <v>0</v>
-      </c>
-      <c r="DK13">
-        <v>0</v>
-      </c>
-      <c r="DM13">
-        <v>0</v>
-      </c>
-      <c r="DO13">
-        <v>0</v>
-      </c>
-      <c r="DR13">
-        <v>0</v>
-      </c>
-      <c r="DS13" t="s">
-        <v>198</v>
-      </c>
-      <c r="DU13">
-        <v>0</v>
-      </c>
-      <c r="DW13" t="s">
-        <v>165</v>
-      </c>
       <c r="DX13">
         <v>0</v>
       </c>
       <c r="DY13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DZ13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EA13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="EB13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EC13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="ED13" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="EE13">
         <v>0</v>
@@ -6355,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="EI13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="EJ13">
         <v>0</v>
@@ -6399,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -6414,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -6424,6 +6445,9 @@
       </c>
       <c r="N14">
         <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>170</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -6440,6 +6464,9 @@
       <c r="T14">
         <v>0</v>
       </c>
+      <c r="U14" t="s">
+        <v>172</v>
+      </c>
       <c r="V14">
         <v>0</v>
       </c>
@@ -6447,157 +6474,151 @@
         <v>185</v>
       </c>
       <c r="X14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA14" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="AB14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AC14" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="AD14" t="s">
         <v>198</v>
       </c>
       <c r="AE14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>198</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AK14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL14" t="s">
         <v>198</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AM14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN14" t="s">
         <v>198</v>
       </c>
-      <c r="AH14" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK14" t="s">
+      <c r="AO14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>198</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>164</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR14" t="s">
         <v>204</v>
       </c>
-      <c r="AL14" t="s">
-        <v>200</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="s">
+      <c r="BS14" t="s">
         <v>198</v>
       </c>
-      <c r="BA14" t="s">
-        <v>198</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
-      </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
-      <c r="BH14">
-        <v>0</v>
-      </c>
-      <c r="BI14">
-        <v>0</v>
-      </c>
-      <c r="BJ14">
-        <v>0</v>
-      </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>0</v>
-      </c>
-      <c r="BO14">
-        <v>0</v>
-      </c>
-      <c r="BP14">
-        <v>0</v>
-      </c>
-      <c r="BQ14">
-        <v>0</v>
-      </c>
-      <c r="BR14">
-        <v>0</v>
-      </c>
-      <c r="BS14">
-        <v>0</v>
-      </c>
-      <c r="BT14">
-        <v>0</v>
-      </c>
-      <c r="BU14">
-        <v>0</v>
-      </c>
-      <c r="BV14">
-        <v>0</v>
+      <c r="BT14" t="s">
+        <v>195</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>195</v>
       </c>
       <c r="BW14">
         <v>0</v>
@@ -6606,64 +6627,64 @@
         <v>0</v>
       </c>
       <c r="BY14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="BZ14" t="s">
         <v>154</v>
       </c>
       <c r="CA14" t="s">
+        <v>200</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>228</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>200</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>200</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>200</v>
+      </c>
+      <c r="CK14">
+        <v>0</v>
+      </c>
+      <c r="CL14" t="s">
         <v>198</v>
       </c>
-      <c r="CB14" t="s">
-        <v>226</v>
-      </c>
-      <c r="CC14">
-        <v>0</v>
-      </c>
-      <c r="CD14" t="s">
+      <c r="CM14" t="s">
+        <v>164</v>
+      </c>
+      <c r="CN14" t="s">
         <v>198</v>
       </c>
-      <c r="CE14" t="s">
+      <c r="CO14" t="s">
+        <v>204</v>
+      </c>
+      <c r="CP14" t="s">
         <v>198</v>
       </c>
-      <c r="CF14" t="s">
-        <v>198</v>
-      </c>
-      <c r="CG14" t="s">
-        <v>198</v>
-      </c>
-      <c r="CH14">
-        <v>0</v>
-      </c>
-      <c r="CI14">
-        <v>0</v>
-      </c>
-      <c r="CJ14">
-        <v>0</v>
-      </c>
-      <c r="CK14">
-        <v>0</v>
-      </c>
-      <c r="CL14" t="s">
-        <v>197</v>
-      </c>
-      <c r="CM14" t="s">
-        <v>201</v>
-      </c>
-      <c r="CN14" t="s">
-        <v>192</v>
-      </c>
-      <c r="CO14" t="s">
-        <v>193</v>
-      </c>
-      <c r="CP14">
-        <v>0</v>
-      </c>
-      <c r="CQ14">
-        <v>0</v>
-      </c>
-      <c r="CR14">
-        <v>0</v>
+      <c r="CQ14" t="s">
+        <v>195</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>195</v>
       </c>
       <c r="CS14">
         <v>0</v>
@@ -6692,21 +6713,12 @@
       <c r="DA14">
         <v>0</v>
       </c>
-      <c r="DB14" t="s">
-        <v>162</v>
-      </c>
       <c r="DC14">
         <v>0</v>
       </c>
-      <c r="DD14" t="s">
-        <v>204</v>
-      </c>
       <c r="DE14">
         <v>0</v>
       </c>
-      <c r="DF14" t="s">
-        <v>200</v>
-      </c>
       <c r="DG14">
         <v>0</v>
       </c>
@@ -6726,34 +6738,34 @@
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DU14">
         <v>0</v>
       </c>
       <c r="DW14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="DX14">
         <v>0</v>
       </c>
       <c r="DY14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DZ14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EA14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="EB14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EC14" t="s">
-        <v>198</v>
-      </c>
-      <c r="ED14">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="ED14" t="s">
+        <v>194</v>
       </c>
       <c r="EE14">
         <v>0</v>
@@ -6768,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="EI14" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="EJ14">
         <v>0</v>
@@ -6812,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -6827,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -6837,9 +6849,6 @@
       </c>
       <c r="N15">
         <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>170</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -6856,9 +6865,6 @@
       <c r="T15">
         <v>0</v>
       </c>
-      <c r="U15" t="s">
-        <v>172</v>
-      </c>
       <c r="V15">
         <v>0</v>
       </c>
@@ -6866,58 +6872,61 @@
         <v>186</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA15" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>162</v>
       </c>
-      <c r="AB15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC15" t="s">
+      <c r="AK15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL15" t="s">
         <v>202</v>
       </c>
-      <c r="AD15" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>157</v>
-      </c>
       <c r="AM15" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>193</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>193</v>
+        <v>195</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -6946,14 +6955,14 @@
       <c r="AY15">
         <v>0</v>
       </c>
-      <c r="AZ15">
-        <v>0</v>
-      </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
+      <c r="AZ15" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>200</v>
       </c>
       <c r="BC15">
         <v>0</v>
@@ -6991,26 +7000,29 @@
       <c r="BN15">
         <v>0</v>
       </c>
-      <c r="BO15" t="s">
-        <v>198</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>162</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>202</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>162</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>193</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>193</v>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
       </c>
       <c r="BW15">
         <v>0</v>
@@ -7019,98 +7031,107 @@
         <v>0</v>
       </c>
       <c r="BY15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="BZ15" t="s">
         <v>154</v>
       </c>
       <c r="CA15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CB15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="CC15">
         <v>0</v>
       </c>
-      <c r="CD15">
-        <v>0</v>
+      <c r="CD15" t="s">
+        <v>200</v>
       </c>
       <c r="CE15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CF15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CG15" t="s">
-        <v>198</v>
-      </c>
-      <c r="CH15" t="s">
-        <v>198</v>
-      </c>
-      <c r="CI15" t="s">
-        <v>198</v>
-      </c>
-      <c r="CJ15" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="CH15">
+        <v>0</v>
+      </c>
+      <c r="CI15">
+        <v>0</v>
+      </c>
+      <c r="CJ15">
+        <v>0</v>
       </c>
       <c r="CK15">
         <v>0</v>
       </c>
-      <c r="CL15">
-        <v>0</v>
+      <c r="CL15" t="s">
+        <v>199</v>
       </c>
       <c r="CM15" t="s">
+        <v>203</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>194</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CP15">
+        <v>0</v>
+      </c>
+      <c r="CQ15">
+        <v>0</v>
+      </c>
+      <c r="CR15">
+        <v>0</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15">
+        <v>0</v>
+      </c>
+      <c r="CU15">
+        <v>0</v>
+      </c>
+      <c r="CV15">
+        <v>0</v>
+      </c>
+      <c r="CW15">
+        <v>0</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15">
+        <v>0</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DA15">
+        <v>0</v>
+      </c>
+      <c r="DB15" t="s">
         <v>162</v>
       </c>
-      <c r="CN15" t="s">
-        <v>157</v>
-      </c>
-      <c r="CO15" t="s">
+      <c r="DC15">
+        <v>0</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>206</v>
+      </c>
+      <c r="DE15">
+        <v>0</v>
+      </c>
+      <c r="DF15" t="s">
         <v>202</v>
       </c>
-      <c r="CP15" t="s">
-        <v>162</v>
-      </c>
-      <c r="CQ15" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR15" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS15">
-        <v>0</v>
-      </c>
-      <c r="CT15">
-        <v>0</v>
-      </c>
-      <c r="CU15">
-        <v>0</v>
-      </c>
-      <c r="CV15">
-        <v>0</v>
-      </c>
-      <c r="CW15">
-        <v>0</v>
-      </c>
-      <c r="CX15">
-        <v>0</v>
-      </c>
-      <c r="CY15">
-        <v>0</v>
-      </c>
-      <c r="CZ15">
-        <v>0</v>
-      </c>
-      <c r="DA15">
-        <v>0</v>
-      </c>
-      <c r="DC15">
-        <v>0</v>
-      </c>
-      <c r="DE15">
-        <v>0</v>
-      </c>
       <c r="DG15">
         <v>0</v>
       </c>
@@ -7130,34 +7151,34 @@
         <v>0</v>
       </c>
       <c r="DS15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DU15">
         <v>0</v>
       </c>
       <c r="DW15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="DX15">
         <v>0</v>
       </c>
       <c r="DY15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DZ15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EA15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="EB15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EC15" t="s">
-        <v>198</v>
-      </c>
-      <c r="ED15" t="s">
-        <v>196</v>
+        <v>200</v>
+      </c>
+      <c r="ED15">
+        <v>0</v>
       </c>
       <c r="EE15">
         <v>0</v>
@@ -7172,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="EI15" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="EJ15">
         <v>0</v>
@@ -7231,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -7270,58 +7291,58 @@
         <v>187</v>
       </c>
       <c r="X16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z16" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AA16" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB16" t="s">
         <v>157</v>
       </c>
-      <c r="AB16" t="s">
-        <v>196</v>
-      </c>
       <c r="AC16" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AD16" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="AE16" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AF16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AH16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AI16">
         <v>0</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>193</v>
+      <c r="AJ16">
+        <v>0</v>
       </c>
       <c r="AK16" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL16" t="s">
         <v>157</v>
       </c>
-      <c r="AL16" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
+      <c r="AM16" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>162</v>
       </c>
       <c r="AO16" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AP16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -7396,25 +7417,25 @@
         <v>0</v>
       </c>
       <c r="BO16" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="BP16" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ16" t="s">
         <v>157</v>
       </c>
-      <c r="BQ16" t="s">
-        <v>196</v>
-      </c>
       <c r="BR16" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="BS16" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="BT16" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="BU16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BW16">
         <v>0</v>
@@ -7423,146 +7444,146 @@
         <v>0</v>
       </c>
       <c r="BY16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BZ16" t="s">
         <v>154</v>
       </c>
       <c r="CA16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="CB16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CC16">
         <v>0</v>
       </c>
-      <c r="CD16" t="s">
+      <c r="CD16">
+        <v>0</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CK16">
+        <v>0</v>
+      </c>
+      <c r="CL16">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>162</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>157</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>204</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>162</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>195</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>195</v>
+      </c>
+      <c r="CS16">
+        <v>0</v>
+      </c>
+      <c r="CT16">
+        <v>0</v>
+      </c>
+      <c r="CU16">
+        <v>0</v>
+      </c>
+      <c r="CV16">
+        <v>0</v>
+      </c>
+      <c r="CW16">
+        <v>0</v>
+      </c>
+      <c r="CX16">
+        <v>0</v>
+      </c>
+      <c r="CY16">
+        <v>0</v>
+      </c>
+      <c r="CZ16">
+        <v>0</v>
+      </c>
+      <c r="DA16">
+        <v>0</v>
+      </c>
+      <c r="DC16">
+        <v>0</v>
+      </c>
+      <c r="DE16">
+        <v>0</v>
+      </c>
+      <c r="DG16">
+        <v>0</v>
+      </c>
+      <c r="DI16">
+        <v>0</v>
+      </c>
+      <c r="DK16">
+        <v>0</v>
+      </c>
+      <c r="DM16">
+        <v>0</v>
+      </c>
+      <c r="DO16">
+        <v>0</v>
+      </c>
+      <c r="DR16">
+        <v>0</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>200</v>
+      </c>
+      <c r="DU16">
+        <v>0</v>
+      </c>
+      <c r="DW16" t="s">
+        <v>167</v>
+      </c>
+      <c r="DX16">
+        <v>0</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>200</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>200</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>167</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>200</v>
+      </c>
+      <c r="EC16" t="s">
+        <v>200</v>
+      </c>
+      <c r="ED16" t="s">
         <v>198</v>
       </c>
-      <c r="CE16" t="s">
-        <v>198</v>
-      </c>
-      <c r="CF16" t="s">
-        <v>198</v>
-      </c>
-      <c r="CG16">
-        <v>0</v>
-      </c>
-      <c r="CH16">
-        <v>0</v>
-      </c>
-      <c r="CI16" t="s">
-        <v>198</v>
-      </c>
-      <c r="CJ16" t="s">
-        <v>198</v>
-      </c>
-      <c r="CK16">
-        <v>0</v>
-      </c>
-      <c r="CL16" t="s">
-        <v>193</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>157</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>196</v>
-      </c>
-      <c r="CO16">
-        <v>0</v>
-      </c>
-      <c r="CP16">
-        <v>0</v>
-      </c>
-      <c r="CQ16" t="s">
-        <v>202</v>
-      </c>
-      <c r="CR16" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS16">
-        <v>0</v>
-      </c>
-      <c r="CT16">
-        <v>0</v>
-      </c>
-      <c r="CU16">
-        <v>0</v>
-      </c>
-      <c r="CV16">
-        <v>0</v>
-      </c>
-      <c r="CW16">
-        <v>0</v>
-      </c>
-      <c r="CX16">
-        <v>0</v>
-      </c>
-      <c r="CY16">
-        <v>0</v>
-      </c>
-      <c r="CZ16">
-        <v>0</v>
-      </c>
-      <c r="DA16">
-        <v>0</v>
-      </c>
-      <c r="DC16">
-        <v>0</v>
-      </c>
-      <c r="DE16">
-        <v>0</v>
-      </c>
-      <c r="DG16">
-        <v>0</v>
-      </c>
-      <c r="DI16">
-        <v>0</v>
-      </c>
-      <c r="DK16">
-        <v>0</v>
-      </c>
-      <c r="DM16">
-        <v>0</v>
-      </c>
-      <c r="DO16">
-        <v>0</v>
-      </c>
-      <c r="DR16">
-        <v>0</v>
-      </c>
-      <c r="DS16" t="s">
-        <v>198</v>
-      </c>
-      <c r="DU16">
-        <v>0</v>
-      </c>
-      <c r="DW16" t="s">
-        <v>168</v>
-      </c>
-      <c r="DX16">
-        <v>0</v>
-      </c>
-      <c r="DY16" t="s">
-        <v>198</v>
-      </c>
-      <c r="DZ16" t="s">
-        <v>198</v>
-      </c>
-      <c r="EA16" t="s">
-        <v>168</v>
-      </c>
-      <c r="EB16" t="s">
-        <v>198</v>
-      </c>
-      <c r="EC16" t="s">
-        <v>198</v>
-      </c>
-      <c r="ED16" t="s">
-        <v>164</v>
-      </c>
       <c r="EE16">
         <v>0</v>
       </c>
@@ -7576,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="EI16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="EJ16">
         <v>0</v>
@@ -7620,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -7635,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -7664,6 +7685,9 @@
       <c r="T17">
         <v>0</v>
       </c>
+      <c r="U17" t="s">
+        <v>172</v>
+      </c>
       <c r="V17">
         <v>0</v>
       </c>
@@ -7671,61 +7695,58 @@
         <v>188</v>
       </c>
       <c r="X17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z17" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="AA17" t="s">
         <v>157</v>
       </c>
       <c r="AB17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AC17" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL17" t="s">
         <v>198</v>
       </c>
-      <c r="AD17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
       <c r="AM17">
         <v>0</v>
       </c>
       <c r="AN17">
         <v>0</v>
       </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
+      <c r="AO17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>195</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -7800,28 +7821,25 @@
         <v>0</v>
       </c>
       <c r="BO17" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="BP17" t="s">
         <v>157</v>
       </c>
       <c r="BQ17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="BR17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BS17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BT17" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="BU17" t="s">
-        <v>198</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="BW17">
         <v>0</v>
@@ -7830,25 +7848,28 @@
         <v>0</v>
       </c>
       <c r="BY17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BZ17" t="s">
         <v>154</v>
       </c>
       <c r="CA17" t="s">
-        <v>198</v>
+        <v>204</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>228</v>
       </c>
       <c r="CC17">
         <v>0</v>
       </c>
       <c r="CD17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CE17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CF17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CG17">
         <v>0</v>
@@ -7856,23 +7877,23 @@
       <c r="CH17">
         <v>0</v>
       </c>
-      <c r="CI17">
-        <v>0</v>
-      </c>
-      <c r="CJ17">
-        <v>0</v>
+      <c r="CI17" t="s">
+        <v>200</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>200</v>
       </c>
       <c r="CK17">
         <v>0</v>
       </c>
       <c r="CL17" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="CM17" t="s">
         <v>157</v>
       </c>
       <c r="CN17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="CO17">
         <v>0</v>
@@ -7880,11 +7901,11 @@
       <c r="CP17">
         <v>0</v>
       </c>
-      <c r="CQ17">
-        <v>0</v>
-      </c>
-      <c r="CR17">
-        <v>0</v>
+      <c r="CQ17" t="s">
+        <v>204</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>195</v>
       </c>
       <c r="CS17">
         <v>0</v>
@@ -7938,34 +7959,34 @@
         <v>0</v>
       </c>
       <c r="DS17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DU17">
         <v>0</v>
       </c>
       <c r="DW17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="DX17">
         <v>0</v>
       </c>
       <c r="DY17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DZ17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EA17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="EB17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EC17" t="s">
-        <v>198</v>
-      </c>
-      <c r="ED17">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="ED17" t="s">
+        <v>164</v>
       </c>
       <c r="EE17">
         <v>0</v>
@@ -7980,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="EI17" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="EJ17">
         <v>0</v>
@@ -8024,22 +8045,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
-      </c>
-      <c r="G18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -8068,9 +8089,6 @@
       <c r="T18">
         <v>0</v>
       </c>
-      <c r="U18" t="s">
-        <v>172</v>
-      </c>
       <c r="V18">
         <v>0</v>
       </c>
@@ -8078,217 +8096,220 @@
         <v>189</v>
       </c>
       <c r="X18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z18" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="AA18" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="AB18" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP18" t="s">
         <v>157</v>
       </c>
-      <c r="AC18" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD18" t="s">
+      <c r="BQ18" t="s">
         <v>198</v>
       </c>
-      <c r="AE18" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>193</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>193</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>193</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18">
-        <v>0</v>
-      </c>
-      <c r="BA18">
-        <v>0</v>
-      </c>
-      <c r="BB18">
-        <v>0</v>
-      </c>
-      <c r="BC18">
-        <v>0</v>
-      </c>
-      <c r="BD18">
-        <v>0</v>
-      </c>
-      <c r="BE18">
-        <v>0</v>
-      </c>
-      <c r="BF18">
-        <v>0</v>
-      </c>
-      <c r="BG18">
-        <v>0</v>
-      </c>
-      <c r="BH18">
-        <v>0</v>
-      </c>
-      <c r="BI18">
-        <v>0</v>
-      </c>
-      <c r="BJ18">
-        <v>0</v>
-      </c>
-      <c r="BK18">
-        <v>0</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BM18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
-        <v>0</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>193</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>193</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>157</v>
-      </c>
       <c r="BR18" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="BS18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BT18" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="BU18" t="s">
-        <v>193</v>
+        <v>200</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>200</v>
       </c>
       <c r="BW18">
         <v>0</v>
       </c>
-      <c r="BX18" t="s">
-        <v>206</v>
+      <c r="BX18">
+        <v>0</v>
       </c>
       <c r="BY18" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="BZ18" t="s">
         <v>154</v>
       </c>
       <c r="CA18" t="s">
-        <v>193</v>
-      </c>
-      <c r="CB18" t="s">
-        <v>225</v>
-      </c>
-      <c r="CC18" t="s">
-        <v>227</v>
+        <v>200</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
       </c>
       <c r="CD18" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG18">
+        <v>0</v>
+      </c>
+      <c r="CH18">
+        <v>0</v>
+      </c>
+      <c r="CI18">
+        <v>0</v>
+      </c>
+      <c r="CJ18">
+        <v>0</v>
+      </c>
+      <c r="CK18">
+        <v>0</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>162</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>157</v>
+      </c>
+      <c r="CN18" t="s">
         <v>198</v>
       </c>
-      <c r="CE18" t="s">
-        <v>198</v>
-      </c>
-      <c r="CF18" t="s">
-        <v>198</v>
-      </c>
-      <c r="CG18" t="s">
-        <v>198</v>
-      </c>
-      <c r="CH18">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="s">
-        <v>198</v>
-      </c>
-      <c r="CJ18" t="s">
-        <v>198</v>
-      </c>
-      <c r="CK18">
-        <v>0</v>
-      </c>
-      <c r="CL18" t="s">
-        <v>193</v>
-      </c>
-      <c r="CM18" t="s">
-        <v>193</v>
-      </c>
-      <c r="CN18" t="s">
-        <v>157</v>
-      </c>
-      <c r="CO18" t="s">
-        <v>162</v>
+      <c r="CO18">
+        <v>0</v>
       </c>
       <c r="CP18">
         <v>0</v>
       </c>
-      <c r="CQ18" t="s">
-        <v>196</v>
-      </c>
-      <c r="CR18" t="s">
-        <v>193</v>
+      <c r="CQ18">
+        <v>0</v>
+      </c>
+      <c r="CR18">
+        <v>0</v>
       </c>
       <c r="CS18">
         <v>0</v>
@@ -8342,34 +8363,34 @@
         <v>0</v>
       </c>
       <c r="DS18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DU18">
         <v>0</v>
       </c>
       <c r="DW18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="DX18">
         <v>0</v>
       </c>
       <c r="DY18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DZ18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EA18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="EB18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EC18" t="s">
-        <v>198</v>
-      </c>
-      <c r="ED18" t="s">
-        <v>164</v>
+        <v>200</v>
+      </c>
+      <c r="ED18">
+        <v>0</v>
       </c>
       <c r="EE18">
         <v>0</v>
@@ -8384,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="EI18" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="EJ18">
         <v>0</v>
@@ -8411,6 +8432,410 @@
         <v>155</v>
       </c>
       <c r="ER18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:148">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>170</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>171</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
+        <v>172</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>190</v>
+      </c>
+      <c r="X19" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>195</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>162</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>200</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>198</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>195</v>
+      </c>
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>208</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>154</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>195</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>228</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>230</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH19">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CJ19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CK19">
+        <v>0</v>
+      </c>
+      <c r="CL19" t="s">
+        <v>195</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>195</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>157</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>162</v>
+      </c>
+      <c r="CP19">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="s">
+        <v>198</v>
+      </c>
+      <c r="CR19" t="s">
+        <v>195</v>
+      </c>
+      <c r="CS19">
+        <v>0</v>
+      </c>
+      <c r="CT19">
+        <v>0</v>
+      </c>
+      <c r="CU19">
+        <v>0</v>
+      </c>
+      <c r="CV19">
+        <v>0</v>
+      </c>
+      <c r="CW19">
+        <v>0</v>
+      </c>
+      <c r="CX19">
+        <v>0</v>
+      </c>
+      <c r="CY19">
+        <v>0</v>
+      </c>
+      <c r="CZ19">
+        <v>0</v>
+      </c>
+      <c r="DA19">
+        <v>0</v>
+      </c>
+      <c r="DC19">
+        <v>0</v>
+      </c>
+      <c r="DE19">
+        <v>0</v>
+      </c>
+      <c r="DG19">
+        <v>0</v>
+      </c>
+      <c r="DI19">
+        <v>0</v>
+      </c>
+      <c r="DK19">
+        <v>0</v>
+      </c>
+      <c r="DM19">
+        <v>0</v>
+      </c>
+      <c r="DO19">
+        <v>0</v>
+      </c>
+      <c r="DR19">
+        <v>0</v>
+      </c>
+      <c r="DS19" t="s">
+        <v>200</v>
+      </c>
+      <c r="DU19">
+        <v>0</v>
+      </c>
+      <c r="DW19" t="s">
+        <v>167</v>
+      </c>
+      <c r="DX19">
+        <v>0</v>
+      </c>
+      <c r="DY19" t="s">
+        <v>200</v>
+      </c>
+      <c r="DZ19" t="s">
+        <v>200</v>
+      </c>
+      <c r="EA19" t="s">
+        <v>167</v>
+      </c>
+      <c r="EB19" t="s">
+        <v>200</v>
+      </c>
+      <c r="EC19" t="s">
+        <v>200</v>
+      </c>
+      <c r="ED19" t="s">
+        <v>164</v>
+      </c>
+      <c r="EE19">
+        <v>0</v>
+      </c>
+      <c r="EF19">
+        <v>0</v>
+      </c>
+      <c r="EG19">
+        <v>0</v>
+      </c>
+      <c r="EH19">
+        <v>0</v>
+      </c>
+      <c r="EI19" t="s">
+        <v>167</v>
+      </c>
+      <c r="EJ19">
+        <v>0</v>
+      </c>
+      <c r="EK19">
+        <v>0</v>
+      </c>
+      <c r="EL19">
+        <v>0</v>
+      </c>
+      <c r="EM19">
+        <v>0</v>
+      </c>
+      <c r="EN19">
+        <v>0</v>
+      </c>
+      <c r="EO19">
+        <v>0</v>
+      </c>
+      <c r="EP19">
+        <v>0</v>
+      </c>
+      <c r="EQ19" t="s">
+        <v>155</v>
+      </c>
+      <c r="ER19">
         <v>0</v>
       </c>
     </row>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="239">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -502,9 +502,15 @@
     <t>39</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
@@ -562,9 +568,15 @@
     <t>Mahuwe Clinic</t>
   </si>
   <si>
+    <t>Manoti Clinic</t>
+  </si>
+  <si>
     <t>Mketi Clinic</t>
   </si>
   <si>
+    <t>Mkoka Clinic</t>
+  </si>
+  <si>
     <t>Mtanke Clinic</t>
   </si>
   <si>
@@ -607,6 +619,9 @@
     <t>8</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
@@ -619,9 +634,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -670,7 +682,13 @@
     <t>2025-05-28T12:33:30.415196Z</t>
   </si>
   <si>
+    <t>2025-06-23T09:13:58.140839Z</t>
+  </si>
+  <si>
     <t>2025-06-19T13:45:20.909268Z</t>
+  </si>
+  <si>
+    <t>2025-06-23T09:17:56.248127Z</t>
   </si>
   <si>
     <t>2025-06-19T13:37:03.395042Z</t>
@@ -1070,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ER19"/>
+  <dimension ref="A1:ER21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1560,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1569,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1581,55 +1599,55 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="X2" t="s">
         <v>156</v>
       </c>
       <c r="Y2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AA2" t="s">
         <v>201</v>
       </c>
       <c r="AB2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AC2" t="s">
         <v>157</v>
       </c>
       <c r="AD2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AE2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AF2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AH2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AK2" t="s">
         <v>201</v>
       </c>
       <c r="AL2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AM2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -1674,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="BC2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BD2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BE2">
         <v>0</v>
@@ -1710,25 +1728,25 @@
         <v>0</v>
       </c>
       <c r="BO2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="BP2" t="s">
         <v>201</v>
       </c>
       <c r="BQ2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="BR2" t="s">
         <v>157</v>
       </c>
       <c r="BS2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BT2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BU2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1737,40 +1755,40 @@
         <v>0</v>
       </c>
       <c r="BY2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="BZ2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="CA2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CB2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="CC2">
         <v>0</v>
       </c>
       <c r="CD2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="CE2" t="s">
         <v>201</v>
       </c>
       <c r="CF2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="CG2" t="s">
         <v>157</v>
       </c>
       <c r="CH2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CI2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CJ2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -1833,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="DH2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DI2">
         <v>0</v>
       </c>
       <c r="DJ2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DK2">
         <v>0</v>
@@ -1854,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DW2" t="s">
         <v>156</v>
@@ -1866,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ2" t="s">
         <v>156</v>
       </c>
       <c r="EA2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -1899,7 +1917,7 @@
         <v>161</v>
       </c>
       <c r="EJ2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -1920,7 +1938,7 @@
         <v>155</v>
       </c>
       <c r="ER2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:148">
@@ -1964,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1973,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1982,67 +2000,67 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="X3" t="s">
         <v>157</v>
       </c>
       <c r="Y3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AA3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AB3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AC3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AD3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AE3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AF3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AH3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AK3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AL3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -2117,25 +2135,25 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BP3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BQ3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="BR3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BS3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BT3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BU3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -2144,64 +2162,64 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="BZ3" t="s">
         <v>154</v>
       </c>
       <c r="CA3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CB3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CE3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CF3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CG3">
         <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CK3">
         <v>0</v>
       </c>
       <c r="CL3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CM3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CN3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CQ3">
         <v>0</v>
       </c>
       <c r="CR3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CS3">
         <v>0</v>
@@ -2255,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU3">
         <v>0</v>
@@ -2267,22 +2285,22 @@
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EA3" t="s">
         <v>157</v>
       </c>
       <c r="EB3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EC3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="ED3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2368,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2377,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -2389,193 +2407,193 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="X4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Y4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AA4" t="s">
         <v>157</v>
       </c>
       <c r="AB4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AC4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AD4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>209</v>
+      </c>
+      <c r="BP4" t="s">
         <v>200</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="BQ4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>163</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>199</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>233</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>205</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>234</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>209</v>
+      </c>
+      <c r="CE4" t="s">
         <v>200</v>
       </c>
-      <c r="AF4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>200</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>200</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>200</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>200</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>200</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>205</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>196</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>206</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>162</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>200</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>195</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>200</v>
-      </c>
-      <c r="BW4">
-        <v>0</v>
-      </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>227</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>200</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>228</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>205</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>196</v>
-      </c>
       <c r="CF4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CG4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CH4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CI4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CJ4">
         <v>0</v>
@@ -2632,25 +2650,25 @@
         <v>0</v>
       </c>
       <c r="DB4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="DC4">
         <v>0</v>
       </c>
       <c r="DD4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DE4">
         <v>0</v>
       </c>
       <c r="DF4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DG4">
         <v>0</v>
       </c>
       <c r="DH4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="DI4">
         <v>0</v>
@@ -2659,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="DL4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DM4">
         <v>0</v>
@@ -2671,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DW4" t="s">
         <v>158</v>
@@ -2683,13 +2701,13 @@
         <v>0</v>
       </c>
       <c r="DY4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ4" t="s">
         <v>158</v>
       </c>
       <c r="EA4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2713,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="EJ4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2781,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2790,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2799,67 +2817,67 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="X5" t="s">
         <v>159</v>
       </c>
       <c r="Y5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AB5" t="s">
         <v>157</v>
       </c>
       <c r="AC5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AD5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AE5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AF5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AH5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AK5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AL5" t="s">
         <v>157</v>
       </c>
       <c r="AM5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AN5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AO5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AP5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2901,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="BD5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -2934,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="BO5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BP5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="BQ5" t="s">
         <v>157</v>
       </c>
       <c r="BR5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="BS5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="BT5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="BU5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -2961,64 +2979,64 @@
         <v>0</v>
       </c>
       <c r="BY5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="BZ5" t="s">
         <v>154</v>
       </c>
       <c r="CA5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="CB5" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="CC5">
         <v>0</v>
       </c>
       <c r="CD5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CE5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CF5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CG5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CH5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CI5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CJ5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CK5">
         <v>0</v>
       </c>
       <c r="CL5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CM5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="CN5" t="s">
         <v>157</v>
       </c>
       <c r="CO5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="CP5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="CQ5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="CR5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CS5">
         <v>0</v>
@@ -3060,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="DJ5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="DK5">
         <v>0</v>
@@ -3075,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU5">
         <v>0</v>
@@ -3087,22 +3105,22 @@
         <v>0</v>
       </c>
       <c r="DY5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EA5" t="s">
         <v>159</v>
       </c>
       <c r="EB5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EC5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="ED5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="EE5">
         <v>0</v>
@@ -3117,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -3188,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -3197,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -3209,52 +3227,52 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="X6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Y6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AA6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AB6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AD6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AE6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AF6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AG6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AH6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AK6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AL6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -3296,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="AZ6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BA6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BB6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -3341,28 +3359,28 @@
         <v>0</v>
       </c>
       <c r="BO6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="BP6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="BQ6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="BR6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BS6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BT6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BU6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BV6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -3371,28 +3389,28 @@
         <v>0</v>
       </c>
       <c r="BY6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="BZ6" t="s">
         <v>154</v>
       </c>
       <c r="CA6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CB6" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="CC6">
         <v>0</v>
       </c>
       <c r="CD6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="CE6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="CF6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="CG6">
         <v>0</v>
@@ -3458,19 +3476,19 @@
         <v>0</v>
       </c>
       <c r="DB6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DC6">
         <v>0</v>
       </c>
       <c r="DD6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="DE6">
         <v>0</v>
       </c>
       <c r="DF6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="DG6">
         <v>0</v>
@@ -3491,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU6">
         <v>0</v>
@@ -3503,19 +3521,19 @@
         <v>0</v>
       </c>
       <c r="DY6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ6" t="s">
         <v>160</v>
       </c>
       <c r="EA6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EB6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EC6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="ED6">
         <v>0</v>
@@ -3533,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="EJ6">
         <v>0</v>
@@ -3604,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -3613,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -3622,67 +3640,67 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="X7" t="s">
         <v>161</v>
       </c>
       <c r="Y7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA7" t="s">
         <v>157</v>
       </c>
       <c r="AB7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AC7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AD7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AE7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AF7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AH7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AI7">
         <v>0</v>
       </c>
       <c r="AJ7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AK7" t="s">
         <v>157</v>
       </c>
       <c r="AL7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AM7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AN7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AO7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AP7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -3757,25 +3775,25 @@
         <v>0</v>
       </c>
       <c r="BO7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BP7" t="s">
         <v>157</v>
       </c>
       <c r="BQ7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="BR7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="BS7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="BT7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BU7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -3784,64 +3802,64 @@
         <v>0</v>
       </c>
       <c r="BY7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="BZ7" t="s">
         <v>154</v>
       </c>
       <c r="CA7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CB7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="CC7">
         <v>0</v>
       </c>
       <c r="CD7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CE7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CF7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CG7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CH7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CI7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CJ7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CK7">
         <v>0</v>
       </c>
       <c r="CL7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CM7" t="s">
         <v>157</v>
       </c>
       <c r="CN7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="CO7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="CP7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="CQ7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CR7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CS7">
         <v>0</v>
@@ -3895,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU7">
         <v>0</v>
@@ -3907,22 +3925,22 @@
         <v>0</v>
       </c>
       <c r="DY7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EA7" t="s">
         <v>161</v>
       </c>
       <c r="EB7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EC7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="ED7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="EE7">
         <v>0</v>
@@ -4008,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -4017,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -4029,160 +4047,160 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="X8" t="s">
         <v>158</v>
       </c>
       <c r="Y8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AA8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AB8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AC8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AD8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="s">
         <v>200</v>
       </c>
-      <c r="AE8" t="s">
-        <v>200</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>200</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH8" t="s">
+      <c r="BP8" t="s">
         <v>207</v>
       </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>196</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>203</v>
-      </c>
       <c r="BQ8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="BR8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BS8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BT8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BU8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BV8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -4191,52 +4209,52 @@
         <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="BZ8" t="s">
         <v>154</v>
       </c>
       <c r="CA8" t="s">
+        <v>205</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>205</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>205</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="s">
         <v>200</v>
       </c>
-      <c r="CC8">
-        <v>0</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>200</v>
-      </c>
-      <c r="CE8" t="s">
-        <v>200</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG8" t="s">
-        <v>200</v>
-      </c>
-      <c r="CH8">
-        <v>0</v>
-      </c>
-      <c r="CI8">
-        <v>0</v>
-      </c>
-      <c r="CJ8">
-        <v>0</v>
-      </c>
-      <c r="CK8">
-        <v>0</v>
-      </c>
-      <c r="CL8" t="s">
-        <v>196</v>
-      </c>
       <c r="CM8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="CN8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="CO8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CP8">
         <v>0</v>
@@ -4299,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU8">
         <v>0</v>
@@ -4311,19 +4329,19 @@
         <v>0</v>
       </c>
       <c r="DY8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EA8" t="s">
         <v>158</v>
       </c>
       <c r="EB8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EC8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="ED8">
         <v>0</v>
@@ -4341,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="EI8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EJ8">
         <v>0</v>
@@ -4368,7 +4386,7 @@
         <v>155</v>
       </c>
       <c r="ER8" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:148">
@@ -4418,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -4430,55 +4448,55 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="X9" t="s">
         <v>159</v>
       </c>
       <c r="Y9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AA9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AB9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AC9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AD9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AE9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AF9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AG9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AH9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AI9">
         <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AK9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AM9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -4517,16 +4535,16 @@
         <v>0</v>
       </c>
       <c r="AZ9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BA9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BB9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BC9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BD9">
         <v>0</v>
@@ -4592,31 +4610,31 @@
         <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="BZ9" t="s">
         <v>154</v>
       </c>
       <c r="CA9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CB9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="CC9">
         <v>0</v>
       </c>
       <c r="CD9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CE9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CF9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CG9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CH9">
         <v>0</v>
@@ -4631,16 +4649,16 @@
         <v>0</v>
       </c>
       <c r="CL9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="CM9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CN9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="CO9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CP9">
         <v>0</v>
@@ -4679,25 +4697,25 @@
         <v>0</v>
       </c>
       <c r="DB9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DC9">
         <v>0</v>
       </c>
       <c r="DD9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DE9">
         <v>0</v>
       </c>
       <c r="DF9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DG9">
         <v>0</v>
       </c>
       <c r="DH9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="DI9">
         <v>0</v>
@@ -4715,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU9">
         <v>0</v>
@@ -4727,19 +4745,19 @@
         <v>0</v>
       </c>
       <c r="DY9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EA9" t="s">
         <v>159</v>
       </c>
       <c r="EB9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EC9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="ED9">
         <v>0</v>
@@ -4757,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="EJ9">
         <v>0</v>
@@ -4828,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -4837,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4849,193 +4867,193 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X10" t="s">
         <v>160</v>
       </c>
       <c r="Y10" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AA10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AB10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="s">
         <v>198</v>
       </c>
-      <c r="AC10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>200</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>200</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>200</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
-        <v>0</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
-      <c r="BI10">
-        <v>0</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>194</v>
-      </c>
       <c r="BP10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="BQ10" t="s">
+        <v>203</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>205</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>205</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>205</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>205</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>221</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>233</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>205</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>234</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="s">
         <v>198</v>
       </c>
-      <c r="BR10" t="s">
-        <v>200</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>200</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>200</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>200</v>
-      </c>
-      <c r="BW10">
-        <v>0</v>
-      </c>
-      <c r="BX10">
-        <v>0</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>217</v>
-      </c>
-      <c r="BZ10" t="s">
-        <v>227</v>
-      </c>
-      <c r="CA10" t="s">
-        <v>200</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>228</v>
-      </c>
-      <c r="CC10">
-        <v>0</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>194</v>
-      </c>
       <c r="CE10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="CF10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="CG10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CH10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CI10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CJ10">
         <v>0</v>
@@ -5092,19 +5110,19 @@
         <v>0</v>
       </c>
       <c r="DB10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="DC10">
         <v>0</v>
       </c>
       <c r="DD10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DE10">
         <v>0</v>
       </c>
       <c r="DF10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DG10">
         <v>0</v>
@@ -5125,10 +5143,10 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DW10" t="s">
         <v>160</v>
@@ -5137,13 +5155,13 @@
         <v>0</v>
       </c>
       <c r="DY10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ10" t="s">
         <v>160</v>
       </c>
       <c r="EA10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EB10">
         <v>0</v>
@@ -5167,10 +5185,10 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="EJ10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EL10">
         <v>0</v>
@@ -5208,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5235,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -5244,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -5256,58 +5274,58 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="X11" t="s">
         <v>162</v>
       </c>
       <c r="Y11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z11" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="AA11" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AB11" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AC11" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="AD11" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="AE11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AF11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AG11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AH11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AI11">
         <v>0</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
+      <c r="AJ11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>199</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -5342,20 +5360,20 @@
       <c r="AY11">
         <v>0</v>
       </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BD11">
-        <v>0</v>
+      <c r="AZ11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>205</v>
       </c>
       <c r="BE11">
         <v>0</v>
@@ -5388,28 +5406,28 @@
         <v>0</v>
       </c>
       <c r="BO11" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="BP11" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="BQ11" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="BR11" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="BS11" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="BT11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BU11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BV11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BW11">
         <v>0</v>
@@ -5418,31 +5436,34 @@
         <v>0</v>
       </c>
       <c r="BY11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="BZ11" t="s">
         <v>154</v>
       </c>
       <c r="CA11" t="s">
-        <v>200</v>
+        <v>205</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>234</v>
       </c>
       <c r="CC11">
         <v>0</v>
       </c>
       <c r="CD11" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="CE11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CF11" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG11">
-        <v>0</v>
-      </c>
-      <c r="CH11">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>205</v>
       </c>
       <c r="CI11">
         <v>0</v>
@@ -5453,20 +5474,20 @@
       <c r="CK11">
         <v>0</v>
       </c>
-      <c r="CL11">
-        <v>0</v>
-      </c>
-      <c r="CM11">
-        <v>0</v>
-      </c>
-      <c r="CN11">
-        <v>0</v>
-      </c>
-      <c r="CO11">
-        <v>0</v>
-      </c>
-      <c r="CP11">
-        <v>0</v>
+      <c r="CL11" t="s">
+        <v>201</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>170</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>170</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>163</v>
       </c>
       <c r="CQ11">
         <v>0</v>
@@ -5501,18 +5522,33 @@
       <c r="DA11">
         <v>0</v>
       </c>
+      <c r="DB11" t="s">
+        <v>205</v>
+      </c>
       <c r="DC11">
         <v>0</v>
       </c>
+      <c r="DD11" t="s">
+        <v>208</v>
+      </c>
       <c r="DE11">
         <v>0</v>
       </c>
+      <c r="DF11" t="s">
+        <v>203</v>
+      </c>
       <c r="DG11">
         <v>0</v>
       </c>
+      <c r="DH11" t="s">
+        <v>208</v>
+      </c>
       <c r="DI11">
         <v>0</v>
       </c>
+      <c r="DJ11" t="s">
+        <v>199</v>
+      </c>
       <c r="DK11">
         <v>0</v>
       </c>
@@ -5526,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU11">
         <v>0</v>
@@ -5538,19 +5574,19 @@
         <v>0</v>
       </c>
       <c r="DY11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ11" t="s">
+        <v>205</v>
+      </c>
+      <c r="EA11" t="s">
         <v>162</v>
       </c>
-      <c r="EA11" t="s">
-        <v>200</v>
-      </c>
       <c r="EB11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EC11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="ED11">
         <v>0</v>
@@ -5568,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="EJ11">
         <v>0</v>
@@ -5612,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -5639,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -5648,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -5660,40 +5696,40 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="X12" t="s">
         <v>163</v>
       </c>
       <c r="Y12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z12" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="AA12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AB12" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="AC12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AD12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AE12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AF12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AG12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AH12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -5792,28 +5828,28 @@
         <v>0</v>
       </c>
       <c r="BO12" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="BP12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BQ12" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="BR12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BS12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BT12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BU12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BV12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BW12">
         <v>0</v>
@@ -5822,28 +5858,28 @@
         <v>0</v>
       </c>
       <c r="BY12" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="BZ12" t="s">
         <v>154</v>
       </c>
       <c r="CA12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CC12">
         <v>0</v>
       </c>
       <c r="CD12" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="CE12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CF12" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG12" t="s">
-        <v>200</v>
+        <v>205</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
       </c>
       <c r="CH12">
         <v>0</v>
@@ -5857,14 +5893,14 @@
       <c r="CK12">
         <v>0</v>
       </c>
-      <c r="CL12" t="s">
-        <v>197</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>203</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>196</v>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
       </c>
       <c r="CO12">
         <v>0</v>
@@ -5930,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU12">
         <v>0</v>
@@ -5942,19 +5978,19 @@
         <v>0</v>
       </c>
       <c r="DY12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ12" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="EA12" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="EB12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EC12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="ED12">
         <v>0</v>
@@ -5972,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="EI12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EJ12">
         <v>0</v>
@@ -6016,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -6043,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -6052,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -6060,62 +6096,62 @@
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13" t="s">
-        <v>172</v>
-      </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="X13" t="s">
         <v>164</v>
       </c>
       <c r="Y13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z13" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="AA13" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="AB13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AC13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AD13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AE13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AF13" t="s">
-        <v>200</v>
+        <v>205</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>205</v>
       </c>
       <c r="AH13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AI13">
         <v>0</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>195</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>204</v>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
       </c>
-      <c r="AN13" t="s">
-        <v>204</v>
+      <c r="AN13">
+        <v>0</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -6196,25 +6232,28 @@
         <v>0</v>
       </c>
       <c r="BO13" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="BP13" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="BQ13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="BR13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="BS13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="BT13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BU13" t="s">
-        <v>200</v>
+        <v>205</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>205</v>
       </c>
       <c r="BW13">
         <v>0</v>
@@ -6223,34 +6262,31 @@
         <v>0</v>
       </c>
       <c r="BY13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="BZ13" t="s">
         <v>154</v>
       </c>
       <c r="CA13" t="s">
-        <v>200</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="CC13">
         <v>0</v>
       </c>
       <c r="CD13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CE13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CF13" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG13">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="s">
-        <v>200</v>
+        <v>205</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH13">
+        <v>0</v>
       </c>
       <c r="CI13">
         <v>0</v>
@@ -6262,19 +6298,19 @@
         <v>0</v>
       </c>
       <c r="CL13" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="CM13" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="CN13" t="s">
-        <v>204</v>
-      </c>
-      <c r="CO13">
-        <v>0</v>
-      </c>
-      <c r="CP13" t="s">
-        <v>204</v>
+        <v>198</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>203</v>
+      </c>
+      <c r="CP13">
+        <v>0</v>
       </c>
       <c r="CQ13">
         <v>0</v>
@@ -6334,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU13">
         <v>0</v>
@@ -6346,22 +6382,22 @@
         <v>0</v>
       </c>
       <c r="DY13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EA13" t="s">
         <v>164</v>
       </c>
       <c r="EB13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EC13" t="s">
-        <v>200</v>
-      </c>
-      <c r="ED13" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="ED13">
+        <v>0</v>
       </c>
       <c r="EE13">
         <v>0</v>
@@ -6376,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="EI13" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="EJ13">
         <v>0</v>
@@ -6420,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -6447,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -6456,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -6464,161 +6500,164 @@
       <c r="T14">
         <v>0</v>
       </c>
-      <c r="U14" t="s">
-        <v>172</v>
-      </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="X14" t="s">
         <v>165</v>
       </c>
       <c r="Y14" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z14" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AA14" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="AB14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AC14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AD14" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AE14" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AF14" t="s">
-        <v>195</v>
+        <v>205</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>205</v>
       </c>
       <c r="AH14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>202</v>
+      </c>
+      <c r="BP14" t="s">
         <v>207</v>
       </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>198</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>164</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>198</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>195</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>195</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
-      </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
-      <c r="BH14">
-        <v>0</v>
-      </c>
-      <c r="BI14">
-        <v>0</v>
-      </c>
-      <c r="BJ14">
-        <v>0</v>
-      </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>0</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>198</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>164</v>
-      </c>
       <c r="BQ14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BR14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="BS14" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="BT14" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="BU14" t="s">
-        <v>195</v>
+        <v>205</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>205</v>
       </c>
       <c r="BW14">
         <v>0</v>
@@ -6627,64 +6666,61 @@
         <v>0</v>
       </c>
       <c r="BY14" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="BZ14" t="s">
         <v>154</v>
       </c>
       <c r="CA14" t="s">
+        <v>205</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>205</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>205</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH14">
+        <v>0</v>
+      </c>
+      <c r="CI14">
+        <v>0</v>
+      </c>
+      <c r="CJ14">
+        <v>0</v>
+      </c>
+      <c r="CK14">
+        <v>0</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>202</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>207</v>
+      </c>
+      <c r="CN14" t="s">
         <v>200</v>
       </c>
-      <c r="CB14" t="s">
-        <v>228</v>
-      </c>
-      <c r="CC14">
-        <v>0</v>
-      </c>
-      <c r="CD14" t="s">
-        <v>200</v>
-      </c>
-      <c r="CE14" t="s">
-        <v>200</v>
-      </c>
-      <c r="CF14" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG14" t="s">
-        <v>200</v>
-      </c>
-      <c r="CH14" t="s">
-        <v>200</v>
-      </c>
-      <c r="CI14" t="s">
-        <v>200</v>
-      </c>
-      <c r="CJ14" t="s">
-        <v>200</v>
-      </c>
-      <c r="CK14">
-        <v>0</v>
-      </c>
-      <c r="CL14" t="s">
-        <v>198</v>
-      </c>
-      <c r="CM14" t="s">
-        <v>164</v>
-      </c>
-      <c r="CN14" t="s">
-        <v>198</v>
-      </c>
-      <c r="CO14" t="s">
-        <v>204</v>
-      </c>
-      <c r="CP14" t="s">
-        <v>198</v>
-      </c>
-      <c r="CQ14" t="s">
-        <v>195</v>
-      </c>
-      <c r="CR14" t="s">
-        <v>195</v>
+      <c r="CO14">
+        <v>0</v>
+      </c>
+      <c r="CP14">
+        <v>0</v>
+      </c>
+      <c r="CQ14">
+        <v>0</v>
+      </c>
+      <c r="CR14">
+        <v>0</v>
       </c>
       <c r="CS14">
         <v>0</v>
@@ -6738,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU14">
         <v>0</v>
@@ -6750,22 +6786,22 @@
         <v>0</v>
       </c>
       <c r="DY14" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ14" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EA14" t="s">
         <v>165</v>
       </c>
       <c r="EB14" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EC14" t="s">
-        <v>200</v>
-      </c>
-      <c r="ED14" t="s">
-        <v>194</v>
+        <v>205</v>
+      </c>
+      <c r="ED14">
+        <v>0</v>
       </c>
       <c r="EE14">
         <v>0</v>
@@ -6780,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="EI14" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="EJ14">
         <v>0</v>
@@ -6824,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -6850,6 +6886,9 @@
       <c r="N15">
         <v>0</v>
       </c>
+      <c r="O15" t="s">
+        <v>172</v>
+      </c>
       <c r="P15">
         <v>0</v>
       </c>
@@ -6857,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -6865,62 +6904,62 @@
       <c r="T15">
         <v>0</v>
       </c>
+      <c r="U15" t="s">
+        <v>174</v>
+      </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="X15" t="s">
         <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z15" t="s">
         <v>199</v>
       </c>
       <c r="AA15" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AB15" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="AC15" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AD15" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AE15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AF15" t="s">
-        <v>200</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AH15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AI15">
         <v>0</v>
       </c>
       <c r="AJ15" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="AK15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AL15" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>208</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -6955,14 +6994,14 @@
       <c r="AY15">
         <v>0</v>
       </c>
-      <c r="AZ15" t="s">
-        <v>200</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>200</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>200</v>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
       </c>
       <c r="BC15">
         <v>0</v>
@@ -7000,29 +7039,26 @@
       <c r="BN15">
         <v>0</v>
       </c>
-      <c r="BO15">
-        <v>0</v>
-      </c>
-      <c r="BP15">
-        <v>0</v>
-      </c>
-      <c r="BQ15">
-        <v>0</v>
-      </c>
-      <c r="BR15">
-        <v>0</v>
-      </c>
-      <c r="BS15">
-        <v>0</v>
-      </c>
-      <c r="BT15">
-        <v>0</v>
-      </c>
-      <c r="BU15">
-        <v>0</v>
-      </c>
-      <c r="BV15">
-        <v>0</v>
+      <c r="BO15" t="s">
+        <v>199</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>208</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>205</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>208</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>205</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>205</v>
       </c>
       <c r="BW15">
         <v>0</v>
@@ -7031,34 +7067,34 @@
         <v>0</v>
       </c>
       <c r="BY15" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="BZ15" t="s">
         <v>154</v>
       </c>
       <c r="CA15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CB15" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="CC15">
         <v>0</v>
       </c>
       <c r="CD15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CE15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CF15" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG15" t="s">
-        <v>200</v>
-      </c>
-      <c r="CH15">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="CG15">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>205</v>
       </c>
       <c r="CI15">
         <v>0</v>
@@ -7073,16 +7109,16 @@
         <v>199</v>
       </c>
       <c r="CM15" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="CN15" t="s">
-        <v>194</v>
-      </c>
-      <c r="CO15" t="s">
-        <v>195</v>
-      </c>
-      <c r="CP15">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="CO15">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>208</v>
       </c>
       <c r="CQ15">
         <v>0</v>
@@ -7117,21 +7153,12 @@
       <c r="DA15">
         <v>0</v>
       </c>
-      <c r="DB15" t="s">
-        <v>162</v>
-      </c>
       <c r="DC15">
         <v>0</v>
       </c>
-      <c r="DD15" t="s">
-        <v>206</v>
-      </c>
       <c r="DE15">
         <v>0</v>
       </c>
-      <c r="DF15" t="s">
-        <v>202</v>
-      </c>
       <c r="DG15">
         <v>0</v>
       </c>
@@ -7151,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="DS15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU15">
         <v>0</v>
@@ -7163,22 +7190,22 @@
         <v>0</v>
       </c>
       <c r="DY15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EA15" t="s">
         <v>166</v>
       </c>
       <c r="EB15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EC15" t="s">
-        <v>200</v>
-      </c>
-      <c r="ED15">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="ED15" t="s">
+        <v>208</v>
       </c>
       <c r="EE15">
         <v>0</v>
@@ -7193,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="EI15" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="EJ15">
         <v>0</v>
@@ -7264,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -7273,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -7282,67 +7309,67 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="X16" t="s">
         <v>167</v>
       </c>
       <c r="Y16" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z16" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AA16" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AB16" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AC16" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AD16" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="AE16" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AF16" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AH16" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AI16">
         <v>0</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
+      <c r="AJ16" t="s">
+        <v>203</v>
       </c>
       <c r="AK16" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AL16" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AM16" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="AO16" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AP16" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -7417,25 +7444,25 @@
         <v>0</v>
       </c>
       <c r="BO16" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="BP16" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="BQ16" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="BR16" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="BS16" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="BT16" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BU16" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BW16">
         <v>0</v>
@@ -7444,64 +7471,64 @@
         <v>0</v>
       </c>
       <c r="BY16" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="BZ16" t="s">
         <v>154</v>
       </c>
       <c r="CA16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CB16" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="CC16">
         <v>0</v>
       </c>
-      <c r="CD16">
-        <v>0</v>
+      <c r="CD16" t="s">
+        <v>205</v>
       </c>
       <c r="CE16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CF16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CG16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CH16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CI16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CJ16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CK16">
         <v>0</v>
       </c>
-      <c r="CL16">
-        <v>0</v>
+      <c r="CL16" t="s">
+        <v>203</v>
       </c>
       <c r="CM16" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="CN16" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="CO16" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="CP16" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="CQ16" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CR16" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CS16">
         <v>0</v>
@@ -7555,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="DS16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU16">
         <v>0</v>
@@ -7567,19 +7594,19 @@
         <v>0</v>
       </c>
       <c r="DY16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EA16" t="s">
         <v>167</v>
       </c>
       <c r="EB16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EC16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="ED16" t="s">
         <v>198</v>
@@ -7641,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -7667,9 +7694,6 @@
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="O17" t="s">
-        <v>170</v>
-      </c>
       <c r="P17">
         <v>0</v>
       </c>
@@ -7677,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -7685,68 +7709,68 @@
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17" t="s">
-        <v>172</v>
-      </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="X17" t="s">
         <v>168</v>
       </c>
       <c r="Y17" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z17" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="AA17" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="AB17" t="s">
         <v>198</v>
       </c>
       <c r="AC17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AD17" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AE17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF17" t="s">
-        <v>195</v>
+        <v>205</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>205</v>
       </c>
       <c r="AH17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AI17">
         <v>0</v>
       </c>
       <c r="AJ17" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="AK17" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="AL17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>199</v>
       </c>
       <c r="AN17">
         <v>0</v>
       </c>
-      <c r="AO17" t="s">
-        <v>204</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>195</v>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -7775,14 +7799,14 @@
       <c r="AY17">
         <v>0</v>
       </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
+      <c r="AZ17" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>205</v>
       </c>
       <c r="BC17">
         <v>0</v>
@@ -7820,26 +7844,29 @@
       <c r="BN17">
         <v>0</v>
       </c>
-      <c r="BO17" t="s">
-        <v>195</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>157</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>198</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>200</v>
-      </c>
-      <c r="BS17" t="s">
-        <v>200</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>204</v>
-      </c>
-      <c r="BU17" t="s">
-        <v>195</v>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
       </c>
       <c r="BW17">
         <v>0</v>
@@ -7848,64 +7875,64 @@
         <v>0</v>
       </c>
       <c r="BY17" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="BZ17" t="s">
         <v>154</v>
       </c>
       <c r="CA17" t="s">
+        <v>205</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>235</v>
+      </c>
+      <c r="CC17">
+        <v>0</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>205</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>205</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH17">
+        <v>0</v>
+      </c>
+      <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
+        <v>0</v>
+      </c>
+      <c r="CK17">
+        <v>0</v>
+      </c>
+      <c r="CL17" t="s">
         <v>204</v>
       </c>
-      <c r="CB17" t="s">
-        <v>228</v>
-      </c>
-      <c r="CC17">
-        <v>0</v>
-      </c>
-      <c r="CD17" t="s">
-        <v>200</v>
-      </c>
-      <c r="CE17" t="s">
-        <v>200</v>
-      </c>
-      <c r="CF17" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG17">
-        <v>0</v>
-      </c>
-      <c r="CH17">
-        <v>0</v>
-      </c>
-      <c r="CI17" t="s">
-        <v>200</v>
-      </c>
-      <c r="CJ17" t="s">
-        <v>200</v>
-      </c>
-      <c r="CK17">
-        <v>0</v>
-      </c>
-      <c r="CL17" t="s">
-        <v>195</v>
-      </c>
       <c r="CM17" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="CN17" t="s">
         <v>198</v>
       </c>
-      <c r="CO17">
-        <v>0</v>
+      <c r="CO17" t="s">
+        <v>199</v>
       </c>
       <c r="CP17">
         <v>0</v>
       </c>
-      <c r="CQ17" t="s">
-        <v>204</v>
-      </c>
-      <c r="CR17" t="s">
-        <v>195</v>
+      <c r="CQ17">
+        <v>0</v>
+      </c>
+      <c r="CR17">
+        <v>0</v>
       </c>
       <c r="CS17">
         <v>0</v>
@@ -7934,12 +7961,21 @@
       <c r="DA17">
         <v>0</v>
       </c>
+      <c r="DB17" t="s">
+        <v>163</v>
+      </c>
       <c r="DC17">
         <v>0</v>
       </c>
+      <c r="DD17" t="s">
+        <v>210</v>
+      </c>
       <c r="DE17">
         <v>0</v>
       </c>
+      <c r="DF17" t="s">
+        <v>206</v>
+      </c>
       <c r="DG17">
         <v>0</v>
       </c>
@@ -7959,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="DS17" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU17">
         <v>0</v>
@@ -7971,22 +8007,22 @@
         <v>0</v>
       </c>
       <c r="DY17" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ17" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EA17" t="s">
         <v>168</v>
       </c>
       <c r="EB17" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EC17" t="s">
-        <v>200</v>
-      </c>
-      <c r="ED17" t="s">
-        <v>164</v>
+        <v>205</v>
+      </c>
+      <c r="ED17">
+        <v>0</v>
       </c>
       <c r="EE17">
         <v>0</v>
@@ -8001,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="EI17" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="EJ17">
         <v>0</v>
@@ -8045,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -8072,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -8081,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -8089,44 +8125,44 @@
       <c r="T18">
         <v>0</v>
       </c>
+      <c r="U18" t="s">
+        <v>174</v>
+      </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="X18" t="s">
         <v>169</v>
       </c>
       <c r="Y18" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z18" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="AA18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB18" t="s">
         <v>157</v>
       </c>
-      <c r="AB18" t="s">
-        <v>198</v>
-      </c>
       <c r="AC18" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AD18" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="AE18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF18" t="s">
-        <v>200</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -8134,23 +8170,23 @@
       <c r="AJ18">
         <v>0</v>
       </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
+      <c r="AK18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>199</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -8225,28 +8261,25 @@
         <v>0</v>
       </c>
       <c r="BO18" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="BP18" t="s">
+        <v>163</v>
+      </c>
+      <c r="BQ18" t="s">
         <v>157</v>
       </c>
-      <c r="BQ18" t="s">
-        <v>198</v>
-      </c>
       <c r="BR18" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="BS18" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="BT18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BU18" t="s">
-        <v>200</v>
-      </c>
-      <c r="BV18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BW18">
         <v>0</v>
@@ -8255,61 +8288,64 @@
         <v>0</v>
       </c>
       <c r="BY18" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="BZ18" t="s">
         <v>154</v>
       </c>
       <c r="CA18" t="s">
-        <v>200</v>
+        <v>205</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>234</v>
       </c>
       <c r="CC18">
         <v>0</v>
       </c>
-      <c r="CD18" t="s">
-        <v>200</v>
+      <c r="CD18">
+        <v>0</v>
       </c>
       <c r="CE18" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CF18" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG18">
-        <v>0</v>
-      </c>
-      <c r="CH18">
-        <v>0</v>
-      </c>
-      <c r="CI18">
-        <v>0</v>
-      </c>
-      <c r="CJ18">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>205</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ18" t="s">
+        <v>205</v>
       </c>
       <c r="CK18">
         <v>0</v>
       </c>
-      <c r="CL18" t="s">
-        <v>162</v>
+      <c r="CL18">
+        <v>0</v>
       </c>
       <c r="CM18" t="s">
+        <v>163</v>
+      </c>
+      <c r="CN18" t="s">
         <v>157</v>
       </c>
-      <c r="CN18" t="s">
-        <v>198</v>
-      </c>
-      <c r="CO18">
-        <v>0</v>
-      </c>
-      <c r="CP18">
-        <v>0</v>
-      </c>
-      <c r="CQ18">
-        <v>0</v>
-      </c>
-      <c r="CR18">
-        <v>0</v>
+      <c r="CO18" t="s">
+        <v>208</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>163</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>199</v>
+      </c>
+      <c r="CR18" t="s">
+        <v>199</v>
       </c>
       <c r="CS18">
         <v>0</v>
@@ -8363,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="DS18" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU18">
         <v>0</v>
@@ -8375,22 +8411,22 @@
         <v>0</v>
       </c>
       <c r="DY18" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ18" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EA18" t="s">
         <v>169</v>
       </c>
       <c r="EB18" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EC18" t="s">
-        <v>200</v>
-      </c>
-      <c r="ED18">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="ED18" t="s">
+        <v>203</v>
       </c>
       <c r="EE18">
         <v>0</v>
@@ -8405,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="EI18" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="EJ18">
         <v>0</v>
@@ -8451,20 +8487,20 @@
       <c r="E19" t="s">
         <v>148</v>
       </c>
-      <c r="G19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I19" t="s">
-        <v>155</v>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -8476,244 +8512,244 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
+        <v>172</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>173</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
+        <v>174</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>192</v>
+      </c>
+      <c r="X19" t="s">
         <v>170</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>171</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19" t="s">
-        <v>172</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s">
-        <v>190</v>
-      </c>
-      <c r="X19" t="s">
-        <v>167</v>
-      </c>
       <c r="Y19" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Z19" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AA19" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="AB19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK19" t="s">
         <v>157</v>
       </c>
-      <c r="AC19" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>195</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>195</v>
-      </c>
       <c r="AL19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>199</v>
+      </c>
+      <c r="BP19" t="s">
         <v>157</v>
       </c>
-      <c r="AM19" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>195</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>0</v>
-      </c>
-      <c r="BB19">
-        <v>0</v>
-      </c>
-      <c r="BC19">
-        <v>0</v>
-      </c>
-      <c r="BD19">
-        <v>0</v>
-      </c>
-      <c r="BE19">
-        <v>0</v>
-      </c>
-      <c r="BF19">
-        <v>0</v>
-      </c>
-      <c r="BG19">
-        <v>0</v>
-      </c>
-      <c r="BH19">
-        <v>0</v>
-      </c>
-      <c r="BI19">
-        <v>0</v>
-      </c>
-      <c r="BJ19">
-        <v>0</v>
-      </c>
-      <c r="BK19">
-        <v>0</v>
-      </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BM19">
-        <v>0</v>
-      </c>
-      <c r="BN19">
-        <v>0</v>
-      </c>
-      <c r="BO19" t="s">
-        <v>195</v>
-      </c>
-      <c r="BP19" t="s">
-        <v>195</v>
-      </c>
       <c r="BQ19" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="BR19" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="BS19" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BT19" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="BU19" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BW19">
         <v>0</v>
       </c>
-      <c r="BX19" t="s">
-        <v>208</v>
+      <c r="BX19">
+        <v>0</v>
       </c>
       <c r="BY19" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="BZ19" t="s">
         <v>154</v>
       </c>
       <c r="CA19" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="CB19" t="s">
-        <v>228</v>
-      </c>
-      <c r="CC19" t="s">
-        <v>230</v>
+        <v>234</v>
+      </c>
+      <c r="CC19">
+        <v>0</v>
       </c>
       <c r="CD19" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CE19" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CF19" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG19" t="s">
-        <v>200</v>
+        <v>205</v>
+      </c>
+      <c r="CG19">
+        <v>0</v>
       </c>
       <c r="CH19">
         <v>0</v>
       </c>
       <c r="CI19" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CJ19" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="CK19">
         <v>0</v>
       </c>
       <c r="CL19" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CM19" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="CN19" t="s">
-        <v>157</v>
-      </c>
-      <c r="CO19" t="s">
-        <v>162</v>
+        <v>203</v>
+      </c>
+      <c r="CO19">
+        <v>0</v>
       </c>
       <c r="CP19">
         <v>0</v>
       </c>
       <c r="CQ19" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="CR19" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="CS19">
         <v>0</v>
@@ -8767,34 +8803,34 @@
         <v>0</v>
       </c>
       <c r="DS19" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DU19">
         <v>0</v>
       </c>
       <c r="DW19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="DX19">
         <v>0</v>
       </c>
       <c r="DY19" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DZ19" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EA19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="EB19" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="EC19" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="ED19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="EE19">
         <v>0</v>
@@ -8809,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="EI19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="EJ19">
         <v>0</v>
@@ -8836,6 +8872,814 @@
         <v>155</v>
       </c>
       <c r="ER19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:148">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>172</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>173</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>193</v>
+      </c>
+      <c r="X20" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>163</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>157</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>203</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>205</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>205</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>205</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>205</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>231</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>154</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>205</v>
+      </c>
+      <c r="CC20">
+        <v>0</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>205</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>205</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG20">
+        <v>0</v>
+      </c>
+      <c r="CH20">
+        <v>0</v>
+      </c>
+      <c r="CI20">
+        <v>0</v>
+      </c>
+      <c r="CJ20">
+        <v>0</v>
+      </c>
+      <c r="CK20">
+        <v>0</v>
+      </c>
+      <c r="CL20" t="s">
+        <v>163</v>
+      </c>
+      <c r="CM20" t="s">
+        <v>157</v>
+      </c>
+      <c r="CN20" t="s">
+        <v>203</v>
+      </c>
+      <c r="CO20">
+        <v>0</v>
+      </c>
+      <c r="CP20">
+        <v>0</v>
+      </c>
+      <c r="CQ20">
+        <v>0</v>
+      </c>
+      <c r="CR20">
+        <v>0</v>
+      </c>
+      <c r="CS20">
+        <v>0</v>
+      </c>
+      <c r="CT20">
+        <v>0</v>
+      </c>
+      <c r="CU20">
+        <v>0</v>
+      </c>
+      <c r="CV20">
+        <v>0</v>
+      </c>
+      <c r="CW20">
+        <v>0</v>
+      </c>
+      <c r="CX20">
+        <v>0</v>
+      </c>
+      <c r="CY20">
+        <v>0</v>
+      </c>
+      <c r="CZ20">
+        <v>0</v>
+      </c>
+      <c r="DA20">
+        <v>0</v>
+      </c>
+      <c r="DC20">
+        <v>0</v>
+      </c>
+      <c r="DE20">
+        <v>0</v>
+      </c>
+      <c r="DG20">
+        <v>0</v>
+      </c>
+      <c r="DI20">
+        <v>0</v>
+      </c>
+      <c r="DK20">
+        <v>0</v>
+      </c>
+      <c r="DM20">
+        <v>0</v>
+      </c>
+      <c r="DO20">
+        <v>0</v>
+      </c>
+      <c r="DR20">
+        <v>0</v>
+      </c>
+      <c r="DS20" t="s">
+        <v>205</v>
+      </c>
+      <c r="DU20">
+        <v>0</v>
+      </c>
+      <c r="DW20" t="s">
+        <v>171</v>
+      </c>
+      <c r="DX20">
+        <v>0</v>
+      </c>
+      <c r="DY20" t="s">
+        <v>205</v>
+      </c>
+      <c r="DZ20" t="s">
+        <v>205</v>
+      </c>
+      <c r="EA20" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB20" t="s">
+        <v>205</v>
+      </c>
+      <c r="EC20" t="s">
+        <v>205</v>
+      </c>
+      <c r="ED20">
+        <v>0</v>
+      </c>
+      <c r="EE20">
+        <v>0</v>
+      </c>
+      <c r="EF20">
+        <v>0</v>
+      </c>
+      <c r="EG20">
+        <v>0</v>
+      </c>
+      <c r="EH20">
+        <v>0</v>
+      </c>
+      <c r="EI20" t="s">
+        <v>205</v>
+      </c>
+      <c r="EJ20">
+        <v>0</v>
+      </c>
+      <c r="EK20">
+        <v>0</v>
+      </c>
+      <c r="EL20">
+        <v>0</v>
+      </c>
+      <c r="EM20">
+        <v>0</v>
+      </c>
+      <c r="EN20">
+        <v>0</v>
+      </c>
+      <c r="EO20">
+        <v>0</v>
+      </c>
+      <c r="EP20">
+        <v>0</v>
+      </c>
+      <c r="EQ20" t="s">
+        <v>155</v>
+      </c>
+      <c r="ER20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:148">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>172</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>173</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
+        <v>174</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>194</v>
+      </c>
+      <c r="X21" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>199</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>199</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>163</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>205</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>203</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>199</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>212</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>232</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>154</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>199</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>234</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>236</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>205</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>205</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH21">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>205</v>
+      </c>
+      <c r="CK21">
+        <v>0</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>199</v>
+      </c>
+      <c r="CM21" t="s">
+        <v>199</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>157</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>163</v>
+      </c>
+      <c r="CP21">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="s">
+        <v>203</v>
+      </c>
+      <c r="CR21" t="s">
+        <v>199</v>
+      </c>
+      <c r="CS21">
+        <v>0</v>
+      </c>
+      <c r="CT21">
+        <v>0</v>
+      </c>
+      <c r="CU21">
+        <v>0</v>
+      </c>
+      <c r="CV21">
+        <v>0</v>
+      </c>
+      <c r="CW21">
+        <v>0</v>
+      </c>
+      <c r="CX21">
+        <v>0</v>
+      </c>
+      <c r="CY21">
+        <v>0</v>
+      </c>
+      <c r="CZ21">
+        <v>0</v>
+      </c>
+      <c r="DA21">
+        <v>0</v>
+      </c>
+      <c r="DC21">
+        <v>0</v>
+      </c>
+      <c r="DE21">
+        <v>0</v>
+      </c>
+      <c r="DG21">
+        <v>0</v>
+      </c>
+      <c r="DI21">
+        <v>0</v>
+      </c>
+      <c r="DK21">
+        <v>0</v>
+      </c>
+      <c r="DM21">
+        <v>0</v>
+      </c>
+      <c r="DO21">
+        <v>0</v>
+      </c>
+      <c r="DR21">
+        <v>0</v>
+      </c>
+      <c r="DS21" t="s">
+        <v>205</v>
+      </c>
+      <c r="DU21">
+        <v>0</v>
+      </c>
+      <c r="DW21" t="s">
+        <v>169</v>
+      </c>
+      <c r="DX21">
+        <v>0</v>
+      </c>
+      <c r="DY21" t="s">
+        <v>205</v>
+      </c>
+      <c r="DZ21" t="s">
+        <v>205</v>
+      </c>
+      <c r="EA21" t="s">
+        <v>169</v>
+      </c>
+      <c r="EB21" t="s">
+        <v>205</v>
+      </c>
+      <c r="EC21" t="s">
+        <v>205</v>
+      </c>
+      <c r="ED21" t="s">
+        <v>166</v>
+      </c>
+      <c r="EE21">
+        <v>0</v>
+      </c>
+      <c r="EF21">
+        <v>0</v>
+      </c>
+      <c r="EG21">
+        <v>0</v>
+      </c>
+      <c r="EH21">
+        <v>0</v>
+      </c>
+      <c r="EI21" t="s">
+        <v>169</v>
+      </c>
+      <c r="EJ21">
+        <v>0</v>
+      </c>
+      <c r="EK21">
+        <v>0</v>
+      </c>
+      <c r="EL21">
+        <v>0</v>
+      </c>
+      <c r="EM21">
+        <v>0</v>
+      </c>
+      <c r="EN21">
+        <v>0</v>
+      </c>
+      <c r="EO21">
+        <v>0</v>
+      </c>
+      <c r="EP21">
+        <v>0</v>
+      </c>
+      <c r="EQ21" t="s">
+        <v>155</v>
+      </c>
+      <c r="ER21">
         <v>0</v>
       </c>
     </row>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="256">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -466,6 +466,9 @@
     <t>MBIRE</t>
   </si>
   <si>
+    <t>CHITUNGWIZA</t>
+  </si>
+  <si>
     <t>GOKWE SOUTH</t>
   </si>
   <si>
@@ -550,6 +553,12 @@
     <t>Chitsungo Mission Hospital</t>
   </si>
   <si>
+    <t>Chitungwiza Central Hospital</t>
+  </si>
+  <si>
+    <t>Citi Med</t>
+  </si>
+  <si>
     <t>Geja</t>
   </si>
   <si>
@@ -604,6 +613,9 @@
     <t>24</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
@@ -631,9 +643,6 @@
     <t>19</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -652,6 +661,21 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>malaria</t>
   </si>
   <si>
@@ -664,6 +688,12 @@
     <t>2025-05-28T10:05:11.440353Z</t>
   </si>
   <si>
+    <t>2025-07-15T10:19:40.996267Z</t>
+  </si>
+  <si>
+    <t>2025-07-15T10:16:48.982852Z</t>
+  </si>
+  <si>
     <t>2025-06-12T12:48:01.280653Z</t>
   </si>
   <si>
@@ -718,13 +748,34 @@
     <t>April</t>
   </si>
   <si>
+    <t>June</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs</t>
   </si>
   <si>
     <t>OPD</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
   <si>
     <t>Static</t>
@@ -1088,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ER21"/>
+  <dimension ref="A1:ER23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1566,379 +1617,379 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>173</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>174</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>176</v>
+      </c>
+      <c r="X2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>202</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>205</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>203</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>199</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>199</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>221</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>243</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>199</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>245</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>205</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>212</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>203</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>199</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>164</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>199</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>199</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>199</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>157</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>199</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>157</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>199</v>
+      </c>
+      <c r="EB2">
+        <v>0</v>
+      </c>
+      <c r="EC2">
+        <v>0</v>
+      </c>
+      <c r="ED2">
+        <v>0</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2">
+        <v>0</v>
+      </c>
+      <c r="EH2">
+        <v>0</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>162</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>199</v>
+      </c>
+      <c r="EL2">
+        <v>0</v>
+      </c>
+      <c r="EM2">
+        <v>0</v>
+      </c>
+      <c r="EN2">
+        <v>0</v>
+      </c>
+      <c r="EO2">
+        <v>0</v>
+      </c>
+      <c r="EP2">
+        <v>0</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>156</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>172</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>173</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>175</v>
-      </c>
-      <c r="X2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>205</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>205</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>198</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>201</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>209</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>199</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>205</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>205</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>213</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>233</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>205</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>234</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>198</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>201</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>209</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>157</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>199</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>205</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>205</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="CZ2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DG2">
-        <v>0</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>163</v>
-      </c>
-      <c r="DI2">
-        <v>0</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>205</v>
-      </c>
-      <c r="DK2">
-        <v>0</v>
-      </c>
-      <c r="DM2">
-        <v>0</v>
-      </c>
-      <c r="DO2">
-        <v>0</v>
-      </c>
-      <c r="DR2">
-        <v>0</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>205</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>205</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>156</v>
-      </c>
-      <c r="DX2">
-        <v>0</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>205</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>156</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>205</v>
-      </c>
-      <c r="EB2">
-        <v>0</v>
-      </c>
-      <c r="EC2">
-        <v>0</v>
-      </c>
-      <c r="ED2">
-        <v>0</v>
-      </c>
-      <c r="EE2">
-        <v>0</v>
-      </c>
-      <c r="EF2">
-        <v>0</v>
-      </c>
-      <c r="EG2">
-        <v>0</v>
-      </c>
-      <c r="EH2">
-        <v>0</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>161</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>205</v>
-      </c>
-      <c r="EL2">
-        <v>0</v>
-      </c>
-      <c r="EM2">
-        <v>0</v>
-      </c>
-      <c r="EN2">
-        <v>0</v>
-      </c>
-      <c r="EO2">
-        <v>0</v>
-      </c>
-      <c r="EP2">
-        <v>0</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>155</v>
-      </c>
       <c r="ER2" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:148">
@@ -1970,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1982,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1991,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2000,67 +2051,67 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="X3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Z3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AA3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AB3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AC3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AD3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AE3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AF3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AH3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL3" t="s">
         <v>211</v>
       </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>208</v>
-      </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -2135,25 +2186,25 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="BP3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="BQ3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BR3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BS3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="BT3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BU3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -2162,64 +2213,64 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="BZ3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CA3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CB3" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CE3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CF3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CG3">
         <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CK3">
         <v>0</v>
       </c>
       <c r="CL3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="CM3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="CN3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="CQ3">
         <v>0</v>
       </c>
       <c r="CR3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="CS3">
         <v>0</v>
@@ -2273,34 +2324,34 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DU3">
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DX3">
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DZ3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EA3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="EB3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EC3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="ED3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2315,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="EJ3">
         <v>0</v>
@@ -2339,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="EQ3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="ER3">
         <v>0</v>
@@ -2374,91 +2425,91 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>173</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>174</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>178</v>
+      </c>
+      <c r="X4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA4" t="s">
         <v>158</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>172</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>173</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>177</v>
-      </c>
-      <c r="X4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>157</v>
-      </c>
       <c r="AB4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AC4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AE4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AF4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AH4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>211</v>
       </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>208</v>
-      </c>
       <c r="AK4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AL4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AM4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AO4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -2491,22 +2542,22 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BA4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BB4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BC4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BD4">
         <v>0</v>
       </c>
       <c r="BE4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -2536,25 +2587,25 @@
         <v>0</v>
       </c>
       <c r="BO4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BP4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="BQ4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="BR4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BS4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BT4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="BU4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BW4">
         <v>0</v>
@@ -2563,37 +2614,37 @@
         <v>0</v>
       </c>
       <c r="BY4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="BZ4" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="CA4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CB4" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="CC4">
         <v>0</v>
       </c>
       <c r="CD4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CE4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="CF4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="CG4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CH4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CI4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="CJ4">
         <v>0</v>
@@ -2650,25 +2701,25 @@
         <v>0</v>
       </c>
       <c r="DB4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DC4">
         <v>0</v>
       </c>
       <c r="DD4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DE4">
         <v>0</v>
       </c>
       <c r="DF4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DG4">
         <v>0</v>
       </c>
       <c r="DH4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="DI4">
         <v>0</v>
@@ -2677,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="DL4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DM4">
         <v>0</v>
@@ -2689,25 +2740,25 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DU4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DW4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DX4">
         <v>0</v>
       </c>
       <c r="DY4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DZ4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="EA4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2731,10 +2782,10 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EJ4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2752,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="EQ4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="ER4">
         <v>0</v>
@@ -2772,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2786,9 +2837,6 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
-        <v>159</v>
-      </c>
       <c r="L5">
         <v>0</v>
       </c>
@@ -2798,9 +2846,6 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5" t="s">
-        <v>172</v>
-      </c>
       <c r="P5">
         <v>0</v>
       </c>
@@ -2808,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2816,68 +2861,65 @@
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5" t="s">
-        <v>174</v>
-      </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X5" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="Y5" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>211</v>
+        <v>201</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="AK5" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="AL5" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="AM5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>199</v>
+        <v>212</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2918,8 +2960,8 @@
       <c r="BC5">
         <v>0</v>
       </c>
-      <c r="BD5" t="s">
-        <v>205</v>
+      <c r="BD5">
+        <v>0</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -2951,26 +2993,29 @@
       <c r="BN5">
         <v>0</v>
       </c>
-      <c r="BO5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>206</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>208</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>208</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>208</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>199</v>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -2979,64 +3024,64 @@
         <v>0</v>
       </c>
       <c r="BY5" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="BZ5" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="CA5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="CB5" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="CC5">
         <v>0</v>
       </c>
-      <c r="CD5" t="s">
-        <v>205</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>205</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>205</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>205</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>205</v>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
       </c>
       <c r="CK5">
         <v>0</v>
       </c>
-      <c r="CL5" t="s">
-        <v>163</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>206</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>157</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>208</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>208</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>208</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>199</v>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
       </c>
       <c r="CS5">
         <v>0</v>
@@ -3077,9 +3122,6 @@
       <c r="DI5">
         <v>0</v>
       </c>
-      <c r="DJ5" t="s">
-        <v>199</v>
-      </c>
       <c r="DK5">
         <v>0</v>
       </c>
@@ -3093,34 +3135,28 @@
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DU5">
         <v>0</v>
       </c>
       <c r="DW5" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="DX5">
         <v>0</v>
       </c>
-      <c r="DY5" t="s">
-        <v>205</v>
-      </c>
       <c r="DZ5" t="s">
-        <v>205</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="EB5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EC5" t="s">
-        <v>205</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="ED5">
+        <v>0</v>
       </c>
       <c r="EE5">
         <v>0</v>
@@ -3135,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -3159,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="EQ5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="ER5">
         <v>0</v>
@@ -3179,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3193,9 +3229,6 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>160</v>
-      </c>
       <c r="L6">
         <v>0</v>
       </c>
@@ -3205,9 +3238,6 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6" t="s">
-        <v>172</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
@@ -3215,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -3227,52 +3257,49 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Y6" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>211</v>
+        <v>201</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="AK6" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="AL6" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -3314,13 +3341,13 @@
         <v>0</v>
       </c>
       <c r="AZ6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BA6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BB6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -3358,29 +3385,29 @@
       <c r="BN6">
         <v>0</v>
       </c>
-      <c r="BO6" t="s">
-        <v>198</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>198</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>203</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>205</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>205</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>205</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>205</v>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -3389,28 +3416,28 @@
         <v>0</v>
       </c>
       <c r="BY6" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="BZ6" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="CA6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CB6" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="CC6">
         <v>0</v>
       </c>
-      <c r="CD6" t="s">
-        <v>198</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>198</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>203</v>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
       </c>
       <c r="CG6">
         <v>0</v>
@@ -3476,19 +3503,19 @@
         <v>0</v>
       </c>
       <c r="DB6" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="DC6">
         <v>0</v>
       </c>
       <c r="DD6" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="DE6">
         <v>0</v>
       </c>
       <c r="DF6" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="DG6">
         <v>0</v>
@@ -3509,31 +3536,25 @@
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DU6">
         <v>0</v>
       </c>
       <c r="DW6" t="s">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="DX6">
         <v>0</v>
       </c>
-      <c r="DY6" t="s">
-        <v>205</v>
-      </c>
       <c r="DZ6" t="s">
-        <v>160</v>
-      </c>
-      <c r="EA6" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="EB6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EC6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="ED6">
         <v>0</v>
@@ -3551,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="EJ6">
         <v>0</v>
@@ -3575,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="EQ6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -3610,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3622,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -3631,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -3640,323 +3661,326 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Z7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA7" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="AB7" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="AC7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>164</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>209</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>158</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>207</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>245</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>199</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>199</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>199</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>199</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>199</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>164</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>209</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>211</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>211</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>211</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>203</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DI7">
+        <v>0</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>203</v>
+      </c>
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DR7">
+        <v>0</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>199</v>
+      </c>
+      <c r="DU7">
+        <v>0</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>160</v>
+      </c>
+      <c r="DX7">
+        <v>0</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>199</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>199</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>160</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>199</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>199</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>202</v>
+      </c>
+      <c r="EE7">
+        <v>0</v>
+      </c>
+      <c r="EF7">
+        <v>0</v>
+      </c>
+      <c r="EG7">
+        <v>0</v>
+      </c>
+      <c r="EH7">
+        <v>0</v>
+      </c>
+      <c r="EI7" t="s">
         <v>206</v>
       </c>
-      <c r="AD7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>210</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>200</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>210</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>199</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>163</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>157</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>200</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>206</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>206</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>210</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>199</v>
-      </c>
-      <c r="BW7">
-        <v>0</v>
-      </c>
-      <c r="BX7">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>218</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>154</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>205</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>234</v>
-      </c>
-      <c r="CC7">
-        <v>0</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>205</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>205</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>205</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>205</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>205</v>
-      </c>
-      <c r="CK7">
-        <v>0</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>163</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>157</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>200</v>
-      </c>
-      <c r="CO7" t="s">
-        <v>206</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>206</v>
-      </c>
-      <c r="CQ7" t="s">
-        <v>210</v>
-      </c>
-      <c r="CR7" t="s">
-        <v>199</v>
-      </c>
-      <c r="CS7">
-        <v>0</v>
-      </c>
-      <c r="CT7">
-        <v>0</v>
-      </c>
-      <c r="CU7">
-        <v>0</v>
-      </c>
-      <c r="CV7">
-        <v>0</v>
-      </c>
-      <c r="CW7">
-        <v>0</v>
-      </c>
-      <c r="CX7">
-        <v>0</v>
-      </c>
-      <c r="CY7">
-        <v>0</v>
-      </c>
-      <c r="CZ7">
-        <v>0</v>
-      </c>
-      <c r="DA7">
-        <v>0</v>
-      </c>
-      <c r="DC7">
-        <v>0</v>
-      </c>
-      <c r="DE7">
-        <v>0</v>
-      </c>
-      <c r="DG7">
-        <v>0</v>
-      </c>
-      <c r="DI7">
-        <v>0</v>
-      </c>
-      <c r="DK7">
-        <v>0</v>
-      </c>
-      <c r="DM7">
-        <v>0</v>
-      </c>
-      <c r="DO7">
-        <v>0</v>
-      </c>
-      <c r="DR7">
-        <v>0</v>
-      </c>
-      <c r="DS7" t="s">
-        <v>205</v>
-      </c>
-      <c r="DU7">
-        <v>0</v>
-      </c>
-      <c r="DW7" t="s">
-        <v>161</v>
-      </c>
-      <c r="DX7">
-        <v>0</v>
-      </c>
-      <c r="DY7" t="s">
-        <v>205</v>
-      </c>
-      <c r="DZ7" t="s">
-        <v>205</v>
-      </c>
-      <c r="EA7" t="s">
-        <v>161</v>
-      </c>
-      <c r="EB7" t="s">
-        <v>205</v>
-      </c>
-      <c r="EC7" t="s">
-        <v>205</v>
-      </c>
-      <c r="ED7" t="s">
-        <v>209</v>
-      </c>
-      <c r="EE7">
-        <v>0</v>
-      </c>
-      <c r="EF7">
-        <v>0</v>
-      </c>
-      <c r="EG7">
-        <v>0</v>
-      </c>
-      <c r="EH7">
-        <v>0</v>
-      </c>
-      <c r="EI7" t="s">
-        <v>161</v>
-      </c>
       <c r="EJ7">
         <v>0</v>
       </c>
@@ -3979,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="EQ7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="ER7">
         <v>0</v>
@@ -3999,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4014,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4026,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -4035,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -4047,53 +4071,53 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X8" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="Y8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Z8" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="AA8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AB8" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="AC8" t="s">
         <v>199</v>
       </c>
       <c r="AD8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AE8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AF8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AG8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AH8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL8" t="s">
         <v>211</v>
       </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
       <c r="AM8">
         <v>0</v>
       </c>
@@ -4133,14 +4157,14 @@
       <c r="AY8">
         <v>0</v>
       </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
+      <c r="AZ8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>199</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -4179,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="BO8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BP8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="BQ8" t="s">
         <v>207</v>
@@ -4191,16 +4215,16 @@
         <v>199</v>
       </c>
       <c r="BS8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BT8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BU8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BV8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -4209,28 +4233,31 @@
         <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="BZ8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CA8" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>245</v>
       </c>
       <c r="CC8">
         <v>0</v>
       </c>
       <c r="CD8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="CE8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="CF8" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG8" t="s">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
       </c>
       <c r="CH8">
         <v>0</v>
@@ -4244,17 +4271,17 @@
       <c r="CK8">
         <v>0</v>
       </c>
-      <c r="CL8" t="s">
-        <v>200</v>
-      </c>
-      <c r="CM8" t="s">
-        <v>207</v>
-      </c>
-      <c r="CN8" t="s">
-        <v>207</v>
-      </c>
-      <c r="CO8" t="s">
-        <v>199</v>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
       </c>
       <c r="CP8">
         <v>0</v>
@@ -4292,12 +4319,21 @@
       <c r="DA8">
         <v>0</v>
       </c>
+      <c r="DB8" t="s">
+        <v>199</v>
+      </c>
       <c r="DC8">
         <v>0</v>
       </c>
+      <c r="DD8" t="s">
+        <v>203</v>
+      </c>
       <c r="DE8">
         <v>0</v>
       </c>
+      <c r="DF8" t="s">
+        <v>211</v>
+      </c>
       <c r="DG8">
         <v>0</v>
       </c>
@@ -4317,31 +4353,31 @@
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DU8">
         <v>0</v>
       </c>
       <c r="DW8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="DX8">
         <v>0</v>
       </c>
       <c r="DY8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DZ8" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="EA8" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="EB8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EC8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="ED8">
         <v>0</v>
@@ -4359,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="EI8" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="EJ8">
         <v>0</v>
@@ -4383,10 +4419,10 @@
         <v>0</v>
       </c>
       <c r="EQ8" t="s">
-        <v>155</v>
-      </c>
-      <c r="ER8" t="s">
-        <v>238</v>
+        <v>156</v>
+      </c>
+      <c r="ER8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:148">
@@ -4403,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4418,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4429,6 +4465,9 @@
       <c r="N9">
         <v>0</v>
       </c>
+      <c r="O9" t="s">
+        <v>173</v>
+      </c>
       <c r="P9">
         <v>0</v>
       </c>
@@ -4436,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -4444,68 +4483,68 @@
       <c r="T9">
         <v>0</v>
       </c>
+      <c r="U9" t="s">
+        <v>175</v>
+      </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Y9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Z9" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="AA9" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AB9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AC9" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="AD9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AE9" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AF9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AI9">
         <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="AK9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AL9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
+        <v>209</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>203</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -4534,17 +4573,17 @@
       <c r="AY9">
         <v>0</v>
       </c>
-      <c r="AZ9" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>205</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>205</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>205</v>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
       </c>
       <c r="BD9">
         <v>0</v>
@@ -4579,29 +4618,26 @@
       <c r="BN9">
         <v>0</v>
       </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
-      <c r="BR9">
-        <v>0</v>
-      </c>
-      <c r="BS9">
-        <v>0</v>
-      </c>
-      <c r="BT9">
-        <v>0</v>
-      </c>
-      <c r="BU9">
-        <v>0</v>
-      </c>
-      <c r="BV9">
-        <v>0</v>
+      <c r="BO9" t="s">
+        <v>164</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>158</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>204</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>209</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>209</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>213</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>203</v>
       </c>
       <c r="BW9">
         <v>0</v>
@@ -4610,64 +4646,64 @@
         <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="BZ9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CA9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CB9" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="CC9">
         <v>0</v>
       </c>
       <c r="CD9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CE9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CF9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CG9" t="s">
-        <v>205</v>
-      </c>
-      <c r="CH9">
-        <v>0</v>
-      </c>
-      <c r="CI9">
-        <v>0</v>
-      </c>
-      <c r="CJ9">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>199</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>199</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>199</v>
       </c>
       <c r="CK9">
         <v>0</v>
       </c>
       <c r="CL9" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="CM9" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="CN9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="CO9" t="s">
-        <v>163</v>
-      </c>
-      <c r="CP9">
-        <v>0</v>
-      </c>
-      <c r="CQ9">
-        <v>0</v>
-      </c>
-      <c r="CR9">
-        <v>0</v>
+        <v>209</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>209</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>213</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>203</v>
       </c>
       <c r="CS9">
         <v>0</v>
@@ -4696,27 +4732,15 @@
       <c r="DA9">
         <v>0</v>
       </c>
-      <c r="DB9" t="s">
-        <v>205</v>
-      </c>
       <c r="DC9">
         <v>0</v>
       </c>
-      <c r="DD9" t="s">
-        <v>163</v>
-      </c>
       <c r="DE9">
         <v>0</v>
       </c>
-      <c r="DF9" t="s">
-        <v>205</v>
-      </c>
       <c r="DG9">
         <v>0</v>
       </c>
-      <c r="DH9" t="s">
-        <v>199</v>
-      </c>
       <c r="DI9">
         <v>0</v>
       </c>
@@ -4733,34 +4757,34 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DU9">
         <v>0</v>
       </c>
       <c r="DW9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="DX9">
         <v>0</v>
       </c>
       <c r="DY9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DZ9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EA9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="EB9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EC9" t="s">
-        <v>205</v>
-      </c>
-      <c r="ED9">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="ED9" t="s">
+        <v>212</v>
       </c>
       <c r="EE9">
         <v>0</v>
@@ -4775,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="EJ9">
         <v>0</v>
@@ -4799,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="EQ9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="ER9">
         <v>0</v>
@@ -4819,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4834,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4846,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -4855,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4867,49 +4891,52 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y10" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Z10" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AA10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="AB10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC10" t="s">
         <v>203</v>
       </c>
-      <c r="AC10" t="s">
-        <v>205</v>
-      </c>
       <c r="AD10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AE10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AF10" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>199</v>
       </c>
       <c r="AH10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AI10">
         <v>0</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>163</v>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -4950,14 +4977,14 @@
       <c r="AY10">
         <v>0</v>
       </c>
-      <c r="AZ10" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>205</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>205</v>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
       </c>
       <c r="BC10">
         <v>0</v>
@@ -4996,25 +5023,28 @@
         <v>0</v>
       </c>
       <c r="BO10" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="BP10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="BQ10" t="s">
+        <v>210</v>
+      </c>
+      <c r="BR10" t="s">
         <v>203</v>
       </c>
-      <c r="BR10" t="s">
-        <v>205</v>
-      </c>
       <c r="BS10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BT10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BU10" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>199</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -5023,56 +5053,53 @@
         <v>0</v>
       </c>
       <c r="BY10" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="BZ10" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="CA10" t="s">
-        <v>205</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="CC10">
         <v>0</v>
       </c>
       <c r="CD10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CE10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CF10" t="s">
+        <v>199</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>199</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>204</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>210</v>
+      </c>
+      <c r="CO10" t="s">
         <v>203</v>
       </c>
-      <c r="CG10" t="s">
-        <v>205</v>
-      </c>
-      <c r="CH10" t="s">
-        <v>205</v>
-      </c>
-      <c r="CI10" t="s">
-        <v>205</v>
-      </c>
-      <c r="CJ10">
-        <v>0</v>
-      </c>
-      <c r="CK10">
-        <v>0</v>
-      </c>
-      <c r="CL10">
-        <v>0</v>
-      </c>
-      <c r="CM10">
-        <v>0</v>
-      </c>
-      <c r="CN10">
-        <v>0</v>
-      </c>
-      <c r="CO10">
-        <v>0</v>
-      </c>
       <c r="CP10">
         <v>0</v>
       </c>
@@ -5109,21 +5136,12 @@
       <c r="DA10">
         <v>0</v>
       </c>
-      <c r="DB10" t="s">
-        <v>199</v>
-      </c>
       <c r="DC10">
         <v>0</v>
       </c>
-      <c r="DD10" t="s">
-        <v>163</v>
-      </c>
       <c r="DE10">
         <v>0</v>
       </c>
-      <c r="DF10" t="s">
-        <v>163</v>
-      </c>
       <c r="DG10">
         <v>0</v>
       </c>
@@ -5143,31 +5161,31 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>205</v>
-      </c>
-      <c r="DU10" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="DU10">
+        <v>0</v>
       </c>
       <c r="DW10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DX10">
         <v>0</v>
       </c>
       <c r="DY10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DZ10" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="EA10" t="s">
-        <v>205</v>
-      </c>
-      <c r="EB10">
-        <v>0</v>
-      </c>
-      <c r="EC10">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>199</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>199</v>
       </c>
       <c r="ED10">
         <v>0</v>
@@ -5185,10 +5203,13 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>166</v>
-      </c>
-      <c r="EJ10" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="EJ10">
+        <v>0</v>
+      </c>
+      <c r="EK10">
+        <v>0</v>
       </c>
       <c r="EL10">
         <v>0</v>
@@ -5206,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="s">
-        <v>155</v>
-      </c>
-      <c r="ER10">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="ER10" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:148">
@@ -5226,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5241,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5252,9 +5273,6 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11" t="s">
-        <v>172</v>
-      </c>
       <c r="P11">
         <v>0</v>
       </c>
@@ -5262,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -5274,281 +5292,278 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Y11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Z11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AA11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AB11" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="AC11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AD11" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="AE11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AF11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AG11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AH11" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>230</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>199</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>245</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>199</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>199</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>199</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>202</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>167</v>
+      </c>
+      <c r="CN11" t="s">
         <v>211</v>
       </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL11" t="s">
+      <c r="CO11" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>199</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>164</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>199</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DH11" t="s">
         <v>203</v>
       </c>
-      <c r="AM11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>205</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>205</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>205</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>205</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11">
-        <v>0</v>
-      </c>
-      <c r="BH11">
-        <v>0</v>
-      </c>
-      <c r="BI11">
-        <v>0</v>
-      </c>
-      <c r="BJ11">
-        <v>0</v>
-      </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>0</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>201</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>170</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>170</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>166</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>163</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>205</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>205</v>
-      </c>
-      <c r="BW11">
-        <v>0</v>
-      </c>
-      <c r="BX11">
-        <v>0</v>
-      </c>
-      <c r="BY11" t="s">
-        <v>222</v>
-      </c>
-      <c r="BZ11" t="s">
-        <v>154</v>
-      </c>
-      <c r="CA11" t="s">
-        <v>205</v>
-      </c>
-      <c r="CB11" t="s">
-        <v>234</v>
-      </c>
-      <c r="CC11">
-        <v>0</v>
-      </c>
-      <c r="CD11" t="s">
-        <v>205</v>
-      </c>
-      <c r="CE11" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG11" t="s">
-        <v>205</v>
-      </c>
-      <c r="CH11" t="s">
-        <v>205</v>
-      </c>
-      <c r="CI11">
-        <v>0</v>
-      </c>
-      <c r="CJ11">
-        <v>0</v>
-      </c>
-      <c r="CK11">
-        <v>0</v>
-      </c>
-      <c r="CL11" t="s">
-        <v>201</v>
-      </c>
-      <c r="CM11" t="s">
-        <v>170</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>170</v>
-      </c>
-      <c r="CO11" t="s">
-        <v>166</v>
-      </c>
-      <c r="CP11" t="s">
-        <v>163</v>
-      </c>
-      <c r="CQ11">
-        <v>0</v>
-      </c>
-      <c r="CR11">
-        <v>0</v>
-      </c>
-      <c r="CS11">
-        <v>0</v>
-      </c>
-      <c r="CT11">
-        <v>0</v>
-      </c>
-      <c r="CU11">
-        <v>0</v>
-      </c>
-      <c r="CV11">
-        <v>0</v>
-      </c>
-      <c r="CW11">
-        <v>0</v>
-      </c>
-      <c r="CX11">
-        <v>0</v>
-      </c>
-      <c r="CY11">
-        <v>0</v>
-      </c>
-      <c r="CZ11">
-        <v>0</v>
-      </c>
-      <c r="DA11">
-        <v>0</v>
-      </c>
-      <c r="DB11" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC11">
-        <v>0</v>
-      </c>
-      <c r="DD11" t="s">
-        <v>208</v>
-      </c>
-      <c r="DE11">
-        <v>0</v>
-      </c>
-      <c r="DF11" t="s">
-        <v>203</v>
-      </c>
-      <c r="DG11">
-        <v>0</v>
-      </c>
-      <c r="DH11" t="s">
-        <v>208</v>
-      </c>
       <c r="DI11">
         <v>0</v>
       </c>
-      <c r="DJ11" t="s">
-        <v>199</v>
-      </c>
       <c r="DK11">
         <v>0</v>
       </c>
@@ -5562,31 +5577,31 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DU11">
         <v>0</v>
       </c>
       <c r="DW11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="DX11">
         <v>0</v>
       </c>
       <c r="DY11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DZ11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EA11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="EB11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EC11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="ED11">
         <v>0</v>
@@ -5604,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="EJ11">
         <v>0</v>
@@ -5628,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="EQ11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="ER11">
         <v>0</v>
@@ -5648,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -5663,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -5675,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -5684,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -5696,52 +5711,49 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Y12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Z12" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="AA12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AB12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AC12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AD12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AE12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AF12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AH12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AI12">
         <v>0</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
+      <c r="AJ12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>164</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -5782,14 +5794,14 @@
       <c r="AY12">
         <v>0</v>
       </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
+      <c r="AZ12" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>199</v>
       </c>
       <c r="BC12">
         <v>0</v>
@@ -5828,28 +5840,25 @@
         <v>0</v>
       </c>
       <c r="BO12" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="BP12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="BQ12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="BR12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BS12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BT12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BU12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BW12">
         <v>0</v>
@@ -5858,34 +5867,37 @@
         <v>0</v>
       </c>
       <c r="BY12" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="BZ12" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="CA12" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>245</v>
       </c>
       <c r="CC12">
         <v>0</v>
       </c>
       <c r="CD12" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="CE12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="CF12" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG12">
-        <v>0</v>
-      </c>
-      <c r="CH12">
-        <v>0</v>
-      </c>
-      <c r="CI12">
-        <v>0</v>
+        <v>207</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>199</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>199</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>199</v>
       </c>
       <c r="CJ12">
         <v>0</v>
@@ -5941,12 +5953,21 @@
       <c r="DA12">
         <v>0</v>
       </c>
+      <c r="DB12" t="s">
+        <v>203</v>
+      </c>
       <c r="DC12">
         <v>0</v>
       </c>
+      <c r="DD12" t="s">
+        <v>164</v>
+      </c>
       <c r="DE12">
         <v>0</v>
       </c>
+      <c r="DF12" t="s">
+        <v>164</v>
+      </c>
       <c r="DG12">
         <v>0</v>
       </c>
@@ -5966,31 +5987,31 @@
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>205</v>
-      </c>
-      <c r="DU12">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="DU12" t="s">
+        <v>199</v>
       </c>
       <c r="DW12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="DX12">
         <v>0</v>
       </c>
       <c r="DY12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DZ12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="EA12" t="s">
-        <v>205</v>
-      </c>
-      <c r="EB12" t="s">
-        <v>205</v>
-      </c>
-      <c r="EC12" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="EB12">
+        <v>0</v>
+      </c>
+      <c r="EC12">
+        <v>0</v>
       </c>
       <c r="ED12">
         <v>0</v>
@@ -6008,13 +6029,10 @@
         <v>0</v>
       </c>
       <c r="EI12" t="s">
-        <v>205</v>
-      </c>
-      <c r="EJ12">
-        <v>0</v>
-      </c>
-      <c r="EK12">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="EJ12" t="s">
+        <v>199</v>
       </c>
       <c r="EL12">
         <v>0</v>
@@ -6032,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="EQ12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="ER12">
         <v>0</v>
@@ -6052,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -6067,296 +6085,314 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
+        <v>163</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>174</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>187</v>
+      </c>
+      <c r="X13" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD13" t="s">
         <v>164</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>172</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>173</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s">
-        <v>186</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="AE13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>205</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>171</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>167</v>
+      </c>
+      <c r="BS13" t="s">
         <v>164</v>
       </c>
-      <c r="Y13" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC13" t="s">
+      <c r="BT13" t="s">
+        <v>199</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>199</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>199</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>232</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>199</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>245</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>199</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>199</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>199</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>199</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
+      </c>
+      <c r="CK13">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>205</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>171</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>171</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>167</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>164</v>
+      </c>
+      <c r="CQ13">
+        <v>0</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>199</v>
+      </c>
+      <c r="DC13">
+        <v>0</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>211</v>
+      </c>
+      <c r="DE13">
+        <v>0</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>207</v>
+      </c>
+      <c r="DG13">
+        <v>0</v>
+      </c>
+      <c r="DH13" t="s">
+        <v>211</v>
+      </c>
+      <c r="DI13">
+        <v>0</v>
+      </c>
+      <c r="DJ13" t="s">
         <v>203</v>
       </c>
-      <c r="AD13" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>166</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>166</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>198</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>203</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>205</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>205</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>205</v>
-      </c>
-      <c r="BW13">
-        <v>0</v>
-      </c>
-      <c r="BX13">
-        <v>0</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>154</v>
-      </c>
-      <c r="CA13" t="s">
-        <v>205</v>
-      </c>
-      <c r="CC13">
-        <v>0</v>
-      </c>
-      <c r="CD13" t="s">
-        <v>205</v>
-      </c>
-      <c r="CE13" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG13" t="s">
-        <v>205</v>
-      </c>
-      <c r="CH13">
-        <v>0</v>
-      </c>
-      <c r="CI13">
-        <v>0</v>
-      </c>
-      <c r="CJ13">
-        <v>0</v>
-      </c>
-      <c r="CK13">
-        <v>0</v>
-      </c>
-      <c r="CL13" t="s">
-        <v>166</v>
-      </c>
-      <c r="CM13" t="s">
-        <v>166</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>198</v>
-      </c>
-      <c r="CO13" t="s">
-        <v>203</v>
-      </c>
-      <c r="CP13">
-        <v>0</v>
-      </c>
-      <c r="CQ13">
-        <v>0</v>
-      </c>
-      <c r="CR13">
-        <v>0</v>
-      </c>
-      <c r="CS13">
-        <v>0</v>
-      </c>
-      <c r="CT13">
-        <v>0</v>
-      </c>
-      <c r="CU13">
-        <v>0</v>
-      </c>
-      <c r="CV13">
-        <v>0</v>
-      </c>
-      <c r="CW13">
-        <v>0</v>
-      </c>
-      <c r="CX13">
-        <v>0</v>
-      </c>
-      <c r="CY13">
-        <v>0</v>
-      </c>
-      <c r="CZ13">
-        <v>0</v>
-      </c>
-      <c r="DA13">
-        <v>0</v>
-      </c>
-      <c r="DC13">
-        <v>0</v>
-      </c>
-      <c r="DE13">
-        <v>0</v>
-      </c>
-      <c r="DG13">
-        <v>0</v>
-      </c>
-      <c r="DI13">
-        <v>0</v>
-      </c>
       <c r="DK13">
         <v>0</v>
       </c>
@@ -6370,31 +6406,31 @@
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DU13">
         <v>0</v>
       </c>
       <c r="DW13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DX13">
         <v>0</v>
       </c>
       <c r="DY13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DZ13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EA13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="EB13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EC13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="ED13">
         <v>0</v>
@@ -6412,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="EI13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="EJ13">
         <v>0</v>
@@ -6436,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="EQ13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="ER13">
         <v>0</v>
@@ -6456,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -6471,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -6483,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -6492,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -6504,40 +6540,40 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y14" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Z14" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="AA14" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AB14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AD14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AE14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AF14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AG14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AH14" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -6636,28 +6672,28 @@
         <v>0</v>
       </c>
       <c r="BO14" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="BP14" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="BQ14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BR14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BS14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BT14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BU14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BV14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BW14">
         <v>0</v>
@@ -6666,28 +6702,28 @@
         <v>0</v>
       </c>
       <c r="BY14" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="BZ14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CA14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CC14">
         <v>0</v>
       </c>
       <c r="CD14" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="CE14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CF14" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG14" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="CG14">
+        <v>0</v>
       </c>
       <c r="CH14">
         <v>0</v>
@@ -6701,14 +6737,14 @@
       <c r="CK14">
         <v>0</v>
       </c>
-      <c r="CL14" t="s">
-        <v>202</v>
-      </c>
-      <c r="CM14" t="s">
-        <v>207</v>
-      </c>
-      <c r="CN14" t="s">
-        <v>200</v>
+      <c r="CL14">
+        <v>0</v>
+      </c>
+      <c r="CM14">
+        <v>0</v>
+      </c>
+      <c r="CN14">
+        <v>0</v>
       </c>
       <c r="CO14">
         <v>0</v>
@@ -6774,31 +6810,31 @@
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DU14">
         <v>0</v>
       </c>
       <c r="DW14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DX14">
         <v>0</v>
       </c>
       <c r="DY14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DZ14" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="EA14" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="EB14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EC14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="ED14">
         <v>0</v>
@@ -6816,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="EI14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EJ14">
         <v>0</v>
@@ -6840,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="EQ14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="ER14">
         <v>0</v>
@@ -6860,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -6875,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -6887,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -6896,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -6904,62 +6940,62 @@
       <c r="T15">
         <v>0</v>
       </c>
-      <c r="U15" t="s">
-        <v>174</v>
-      </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="X15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Z15" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="AA15" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="AB15" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AC15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AD15" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AE15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AF15" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>199</v>
       </c>
       <c r="AH15" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AI15">
         <v>0</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>208</v>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
       </c>
-      <c r="AN15" t="s">
-        <v>208</v>
+      <c r="AN15">
+        <v>0</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -7040,25 +7076,28 @@
         <v>0</v>
       </c>
       <c r="BO15" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="BP15" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="BQ15" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="BR15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="BS15" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="BT15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="BU15" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>199</v>
       </c>
       <c r="BW15">
         <v>0</v>
@@ -7067,34 +7106,31 @@
         <v>0</v>
       </c>
       <c r="BY15" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="BZ15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CA15" t="s">
-        <v>205</v>
-      </c>
-      <c r="CB15" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="CC15">
         <v>0</v>
       </c>
       <c r="CD15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CE15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CF15" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG15">
-        <v>0</v>
-      </c>
-      <c r="CH15" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>199</v>
+      </c>
+      <c r="CH15">
+        <v>0</v>
       </c>
       <c r="CI15">
         <v>0</v>
@@ -7106,19 +7142,19 @@
         <v>0</v>
       </c>
       <c r="CL15" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="CM15" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="CN15" t="s">
-        <v>208</v>
-      </c>
-      <c r="CO15">
-        <v>0</v>
-      </c>
-      <c r="CP15" t="s">
-        <v>208</v>
+        <v>202</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>207</v>
+      </c>
+      <c r="CP15">
+        <v>0</v>
       </c>
       <c r="CQ15">
         <v>0</v>
@@ -7178,34 +7214,34 @@
         <v>0</v>
       </c>
       <c r="DS15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DU15">
         <v>0</v>
       </c>
       <c r="DW15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="DX15">
         <v>0</v>
       </c>
       <c r="DY15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DZ15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EA15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="EB15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EC15" t="s">
-        <v>205</v>
-      </c>
-      <c r="ED15" t="s">
-        <v>208</v>
+        <v>199</v>
+      </c>
+      <c r="ED15">
+        <v>0</v>
       </c>
       <c r="EE15">
         <v>0</v>
@@ -7220,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="EI15" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="EJ15">
         <v>0</v>
@@ -7244,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="EQ15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="ER15">
         <v>0</v>
@@ -7264,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -7279,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -7291,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -7300,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -7308,308 +7344,308 @@
       <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16" t="s">
-        <v>174</v>
-      </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Z16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AA16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>206</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>210</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>204</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>199</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>199</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>199</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>199</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>199</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>235</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>199</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>199</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>199</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>199</v>
+      </c>
+      <c r="CH16">
+        <v>0</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CK16">
+        <v>0</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>206</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>204</v>
+      </c>
+      <c r="CO16">
+        <v>0</v>
+      </c>
+      <c r="CP16">
+        <v>0</v>
+      </c>
+      <c r="CQ16">
+        <v>0</v>
+      </c>
+      <c r="CR16">
+        <v>0</v>
+      </c>
+      <c r="CS16">
+        <v>0</v>
+      </c>
+      <c r="CT16">
+        <v>0</v>
+      </c>
+      <c r="CU16">
+        <v>0</v>
+      </c>
+      <c r="CV16">
+        <v>0</v>
+      </c>
+      <c r="CW16">
+        <v>0</v>
+      </c>
+      <c r="CX16">
+        <v>0</v>
+      </c>
+      <c r="CY16">
+        <v>0</v>
+      </c>
+      <c r="CZ16">
+        <v>0</v>
+      </c>
+      <c r="DA16">
+        <v>0</v>
+      </c>
+      <c r="DC16">
+        <v>0</v>
+      </c>
+      <c r="DE16">
+        <v>0</v>
+      </c>
+      <c r="DG16">
+        <v>0</v>
+      </c>
+      <c r="DI16">
+        <v>0</v>
+      </c>
+      <c r="DK16">
+        <v>0</v>
+      </c>
+      <c r="DM16">
+        <v>0</v>
+      </c>
+      <c r="DO16">
+        <v>0</v>
+      </c>
+      <c r="DR16">
+        <v>0</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>199</v>
+      </c>
+      <c r="DU16">
+        <v>0</v>
+      </c>
+      <c r="DW16" t="s">
         <v>166</v>
       </c>
-      <c r="AB16" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK16" t="s">
+      <c r="DX16">
+        <v>0</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>199</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>199</v>
+      </c>
+      <c r="EA16" t="s">
         <v>166</v>
       </c>
-      <c r="AL16" t="s">
-        <v>203</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>208</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>203</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
-        <v>0</v>
-      </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16">
-        <v>0</v>
-      </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
-      <c r="BB16">
-        <v>0</v>
-      </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
-      <c r="BD16">
-        <v>0</v>
-      </c>
-      <c r="BE16">
-        <v>0</v>
-      </c>
-      <c r="BF16">
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <v>0</v>
-      </c>
-      <c r="BH16">
-        <v>0</v>
-      </c>
-      <c r="BI16">
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <v>0</v>
-      </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BM16">
-        <v>0</v>
-      </c>
-      <c r="BN16">
-        <v>0</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>203</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>166</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>203</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>208</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>203</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>199</v>
-      </c>
-      <c r="BU16" t="s">
-        <v>199</v>
-      </c>
-      <c r="BW16">
-        <v>0</v>
-      </c>
-      <c r="BX16">
-        <v>0</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>227</v>
-      </c>
-      <c r="BZ16" t="s">
-        <v>154</v>
-      </c>
-      <c r="CA16" t="s">
-        <v>205</v>
-      </c>
-      <c r="CB16" t="s">
-        <v>234</v>
-      </c>
-      <c r="CC16">
-        <v>0</v>
-      </c>
-      <c r="CD16" t="s">
-        <v>205</v>
-      </c>
-      <c r="CE16" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF16" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG16" t="s">
-        <v>205</v>
-      </c>
-      <c r="CH16" t="s">
-        <v>205</v>
-      </c>
-      <c r="CI16" t="s">
-        <v>205</v>
-      </c>
-      <c r="CJ16" t="s">
-        <v>205</v>
-      </c>
-      <c r="CK16">
-        <v>0</v>
-      </c>
-      <c r="CL16" t="s">
-        <v>203</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>166</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>203</v>
-      </c>
-      <c r="CO16" t="s">
-        <v>208</v>
-      </c>
-      <c r="CP16" t="s">
-        <v>203</v>
-      </c>
-      <c r="CQ16" t="s">
-        <v>199</v>
-      </c>
-      <c r="CR16" t="s">
-        <v>199</v>
-      </c>
-      <c r="CS16">
-        <v>0</v>
-      </c>
-      <c r="CT16">
-        <v>0</v>
-      </c>
-      <c r="CU16">
-        <v>0</v>
-      </c>
-      <c r="CV16">
-        <v>0</v>
-      </c>
-      <c r="CW16">
-        <v>0</v>
-      </c>
-      <c r="CX16">
-        <v>0</v>
-      </c>
-      <c r="CY16">
-        <v>0</v>
-      </c>
-      <c r="CZ16">
-        <v>0</v>
-      </c>
-      <c r="DA16">
-        <v>0</v>
-      </c>
-      <c r="DC16">
-        <v>0</v>
-      </c>
-      <c r="DE16">
-        <v>0</v>
-      </c>
-      <c r="DG16">
-        <v>0</v>
-      </c>
-      <c r="DI16">
-        <v>0</v>
-      </c>
-      <c r="DK16">
-        <v>0</v>
-      </c>
-      <c r="DM16">
-        <v>0</v>
-      </c>
-      <c r="DO16">
-        <v>0</v>
-      </c>
-      <c r="DR16">
-        <v>0</v>
-      </c>
-      <c r="DS16" t="s">
-        <v>205</v>
-      </c>
-      <c r="DU16">
-        <v>0</v>
-      </c>
-      <c r="DW16" t="s">
-        <v>167</v>
-      </c>
-      <c r="DX16">
-        <v>0</v>
-      </c>
-      <c r="DY16" t="s">
-        <v>205</v>
-      </c>
-      <c r="DZ16" t="s">
-        <v>205</v>
-      </c>
-      <c r="EA16" t="s">
-        <v>167</v>
-      </c>
       <c r="EB16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EC16" t="s">
-        <v>205</v>
-      </c>
-      <c r="ED16" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="ED16">
+        <v>0</v>
       </c>
       <c r="EE16">
         <v>0</v>
@@ -7624,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="EI16" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="EJ16">
         <v>0</v>
@@ -7648,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="EQ16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="ER16">
         <v>0</v>
@@ -7668,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -7683,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -7694,6 +7730,9 @@
       <c r="N17">
         <v>0</v>
       </c>
+      <c r="O17" t="s">
+        <v>173</v>
+      </c>
       <c r="P17">
         <v>0</v>
       </c>
@@ -7701,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -7709,62 +7748,62 @@
       <c r="T17">
         <v>0</v>
       </c>
+      <c r="U17" t="s">
+        <v>175</v>
+      </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="X17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y17" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Z17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AB17" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="AC17" t="s">
         <v>199</v>
       </c>
       <c r="AD17" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AE17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AF17" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AH17" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK17" t="s">
         <v>211</v>
       </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>210</v>
-      </c>
       <c r="AL17" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>211</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -7799,14 +7838,14 @@
       <c r="AY17">
         <v>0</v>
       </c>
-      <c r="AZ17" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>205</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>205</v>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
       </c>
       <c r="BC17">
         <v>0</v>
@@ -7844,29 +7883,26 @@
       <c r="BN17">
         <v>0</v>
       </c>
-      <c r="BO17">
-        <v>0</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>0</v>
-      </c>
-      <c r="BR17">
-        <v>0</v>
-      </c>
-      <c r="BS17">
-        <v>0</v>
-      </c>
-      <c r="BT17">
-        <v>0</v>
-      </c>
-      <c r="BU17">
-        <v>0</v>
-      </c>
-      <c r="BV17">
-        <v>0</v>
+      <c r="BO17" t="s">
+        <v>203</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>211</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>211</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>199</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>211</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>199</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>199</v>
       </c>
       <c r="BW17">
         <v>0</v>
@@ -7875,34 +7911,34 @@
         <v>0</v>
       </c>
       <c r="BY17" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="BZ17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CA17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CB17" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="CC17">
         <v>0</v>
       </c>
       <c r="CD17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CE17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CF17" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG17" t="s">
-        <v>205</v>
-      </c>
-      <c r="CH17">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="CG17">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>199</v>
       </c>
       <c r="CI17">
         <v>0</v>
@@ -7914,19 +7950,19 @@
         <v>0</v>
       </c>
       <c r="CL17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CM17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CN17" t="s">
-        <v>198</v>
-      </c>
-      <c r="CO17" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP17">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="CO17">
+        <v>0</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>211</v>
       </c>
       <c r="CQ17">
         <v>0</v>
@@ -7961,21 +7997,12 @@
       <c r="DA17">
         <v>0</v>
       </c>
-      <c r="DB17" t="s">
-        <v>163</v>
-      </c>
       <c r="DC17">
         <v>0</v>
       </c>
-      <c r="DD17" t="s">
-        <v>210</v>
-      </c>
       <c r="DE17">
         <v>0</v>
       </c>
-      <c r="DF17" t="s">
-        <v>206</v>
-      </c>
       <c r="DG17">
         <v>0</v>
       </c>
@@ -7995,34 +8022,34 @@
         <v>0</v>
       </c>
       <c r="DS17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DU17">
         <v>0</v>
       </c>
       <c r="DW17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="DX17">
         <v>0</v>
       </c>
       <c r="DY17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DZ17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EA17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="EB17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EC17" t="s">
-        <v>205</v>
-      </c>
-      <c r="ED17">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="ED17" t="s">
+        <v>211</v>
       </c>
       <c r="EE17">
         <v>0</v>
@@ -8037,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="EI17" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="EJ17">
         <v>0</v>
@@ -8061,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="EQ17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="ER17">
         <v>0</v>
@@ -8096,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -8108,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -8117,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -8126,67 +8153,67 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y18" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Z18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AA18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AB18" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="AC18" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AD18" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="AE18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AF18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AH18" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM18" t="s">
         <v>211</v>
       </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>208</v>
-      </c>
       <c r="AN18" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="AO18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AP18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -8261,25 +8288,25 @@
         <v>0</v>
       </c>
       <c r="BO18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="BP18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="BQ18" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="BR18" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BS18" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="BT18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="BU18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="BW18">
         <v>0</v>
@@ -8288,64 +8315,64 @@
         <v>0</v>
       </c>
       <c r="BY18" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="BZ18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CA18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CB18" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="CC18">
         <v>0</v>
       </c>
-      <c r="CD18">
-        <v>0</v>
+      <c r="CD18" t="s">
+        <v>199</v>
       </c>
       <c r="CE18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CF18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CG18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CH18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CI18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CJ18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CK18">
         <v>0</v>
       </c>
-      <c r="CL18">
-        <v>0</v>
+      <c r="CL18" t="s">
+        <v>207</v>
       </c>
       <c r="CM18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="CN18" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="CO18" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="CP18" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="CQ18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="CR18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="CS18">
         <v>0</v>
@@ -8399,34 +8426,34 @@
         <v>0</v>
       </c>
       <c r="DS18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DU18">
         <v>0</v>
       </c>
       <c r="DW18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="DX18">
         <v>0</v>
       </c>
       <c r="DY18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DZ18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EA18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="EB18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EC18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="ED18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="EE18">
         <v>0</v>
@@ -8441,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="EI18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="EJ18">
         <v>0</v>
@@ -8465,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="EQ18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="ER18">
         <v>0</v>
@@ -8485,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -8500,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -8511,9 +8538,6 @@
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="O19" t="s">
-        <v>172</v>
-      </c>
       <c r="P19">
         <v>0</v>
       </c>
@@ -8521,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -8529,227 +8553,230 @@
       <c r="T19">
         <v>0</v>
       </c>
-      <c r="U19" t="s">
-        <v>174</v>
-      </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="X19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Z19" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AA19" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="AB19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC19" t="s">
         <v>203</v>
       </c>
-      <c r="AC19" t="s">
-        <v>205</v>
-      </c>
       <c r="AD19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AE19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>0</v>
+      </c>
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>238</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>199</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>248</v>
+      </c>
+      <c r="CC19">
+        <v>0</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>199</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>199</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>199</v>
+      </c>
+      <c r="CH19">
+        <v>0</v>
+      </c>
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
+        <v>0</v>
+      </c>
+      <c r="CK19">
+        <v>0</v>
+      </c>
+      <c r="CL19" t="s">
         <v>208</v>
       </c>
-      <c r="AF19" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL19" t="s">
+      <c r="CM19" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>202</v>
+      </c>
+      <c r="CO19" t="s">
         <v>203</v>
       </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>208</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>199</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>0</v>
-      </c>
-      <c r="BB19">
-        <v>0</v>
-      </c>
-      <c r="BC19">
-        <v>0</v>
-      </c>
-      <c r="BD19">
-        <v>0</v>
-      </c>
-      <c r="BE19">
-        <v>0</v>
-      </c>
-      <c r="BF19">
-        <v>0</v>
-      </c>
-      <c r="BG19">
-        <v>0</v>
-      </c>
-      <c r="BH19">
-        <v>0</v>
-      </c>
-      <c r="BI19">
-        <v>0</v>
-      </c>
-      <c r="BJ19">
-        <v>0</v>
-      </c>
-      <c r="BK19">
-        <v>0</v>
-      </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BM19">
-        <v>0</v>
-      </c>
-      <c r="BN19">
-        <v>0</v>
-      </c>
-      <c r="BO19" t="s">
-        <v>199</v>
-      </c>
-      <c r="BP19" t="s">
-        <v>157</v>
-      </c>
-      <c r="BQ19" t="s">
-        <v>203</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>205</v>
-      </c>
-      <c r="BS19" t="s">
-        <v>205</v>
-      </c>
-      <c r="BT19" t="s">
-        <v>208</v>
-      </c>
-      <c r="BU19" t="s">
-        <v>199</v>
-      </c>
-      <c r="BW19">
-        <v>0</v>
-      </c>
-      <c r="BX19">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="s">
-        <v>230</v>
-      </c>
-      <c r="BZ19" t="s">
-        <v>154</v>
-      </c>
-      <c r="CA19" t="s">
-        <v>208</v>
-      </c>
-      <c r="CB19" t="s">
-        <v>234</v>
-      </c>
-      <c r="CC19">
-        <v>0</v>
-      </c>
-      <c r="CD19" t="s">
-        <v>205</v>
-      </c>
-      <c r="CE19" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF19" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG19">
-        <v>0</v>
-      </c>
-      <c r="CH19">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="s">
-        <v>205</v>
-      </c>
-      <c r="CJ19" t="s">
-        <v>205</v>
-      </c>
-      <c r="CK19">
-        <v>0</v>
-      </c>
-      <c r="CL19" t="s">
-        <v>199</v>
-      </c>
-      <c r="CM19" t="s">
-        <v>157</v>
-      </c>
-      <c r="CN19" t="s">
-        <v>203</v>
-      </c>
-      <c r="CO19">
-        <v>0</v>
-      </c>
       <c r="CP19">
         <v>0</v>
       </c>
-      <c r="CQ19" t="s">
-        <v>208</v>
-      </c>
-      <c r="CR19" t="s">
-        <v>199</v>
+      <c r="CQ19">
+        <v>0</v>
+      </c>
+      <c r="CR19">
+        <v>0</v>
       </c>
       <c r="CS19">
         <v>0</v>
@@ -8778,12 +8805,21 @@
       <c r="DA19">
         <v>0</v>
       </c>
+      <c r="DB19" t="s">
+        <v>164</v>
+      </c>
       <c r="DC19">
         <v>0</v>
       </c>
+      <c r="DD19" t="s">
+        <v>213</v>
+      </c>
       <c r="DE19">
         <v>0</v>
       </c>
+      <c r="DF19" t="s">
+        <v>209</v>
+      </c>
       <c r="DG19">
         <v>0</v>
       </c>
@@ -8803,34 +8839,34 @@
         <v>0</v>
       </c>
       <c r="DS19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DU19">
         <v>0</v>
       </c>
       <c r="DW19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="DX19">
         <v>0</v>
       </c>
       <c r="DY19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DZ19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EA19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="EB19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EC19" t="s">
-        <v>205</v>
-      </c>
-      <c r="ED19" t="s">
-        <v>166</v>
+        <v>199</v>
+      </c>
+      <c r="ED19">
+        <v>0</v>
       </c>
       <c r="EE19">
         <v>0</v>
@@ -8845,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="EI19" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="EJ19">
         <v>0</v>
@@ -8869,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="EQ19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="ER19">
         <v>0</v>
@@ -8889,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -8904,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -8916,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -8925,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -8933,68 +8969,68 @@
       <c r="T20">
         <v>0</v>
       </c>
+      <c r="U20" t="s">
+        <v>175</v>
+      </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Y20" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Z20" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="AA20" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE20" t="s">
         <v>203</v>
       </c>
-      <c r="AC20" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>205</v>
-      </c>
       <c r="AF20" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH20" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM20" t="s">
         <v>211</v>
       </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
+      <c r="AN20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>203</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -9069,28 +9105,25 @@
         <v>0</v>
       </c>
       <c r="BO20" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="BP20" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="BQ20" t="s">
+        <v>158</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>211</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT20" t="s">
         <v>203</v>
       </c>
-      <c r="BR20" t="s">
-        <v>205</v>
-      </c>
-      <c r="BS20" t="s">
-        <v>205</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>205</v>
-      </c>
       <c r="BU20" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="BW20">
         <v>0</v>
@@ -9099,61 +9132,64 @@
         <v>0</v>
       </c>
       <c r="BY20" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="BZ20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CA20" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>245</v>
       </c>
       <c r="CC20">
         <v>0</v>
       </c>
-      <c r="CD20" t="s">
-        <v>205</v>
+      <c r="CD20">
+        <v>0</v>
       </c>
       <c r="CE20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="CF20" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG20">
-        <v>0</v>
-      </c>
-      <c r="CH20">
-        <v>0</v>
-      </c>
-      <c r="CI20">
-        <v>0</v>
-      </c>
-      <c r="CJ20">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>199</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>199</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>199</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>199</v>
       </c>
       <c r="CK20">
         <v>0</v>
       </c>
-      <c r="CL20" t="s">
-        <v>163</v>
+      <c r="CL20">
+        <v>0</v>
       </c>
       <c r="CM20" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="CN20" t="s">
+        <v>158</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>211</v>
+      </c>
+      <c r="CP20" t="s">
+        <v>164</v>
+      </c>
+      <c r="CQ20" t="s">
         <v>203</v>
       </c>
-      <c r="CO20">
-        <v>0</v>
-      </c>
-      <c r="CP20">
-        <v>0</v>
-      </c>
-      <c r="CQ20">
-        <v>0</v>
-      </c>
-      <c r="CR20">
-        <v>0</v>
+      <c r="CR20" t="s">
+        <v>203</v>
       </c>
       <c r="CS20">
         <v>0</v>
@@ -9207,34 +9243,34 @@
         <v>0</v>
       </c>
       <c r="DS20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DU20">
         <v>0</v>
       </c>
       <c r="DW20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DX20">
         <v>0</v>
       </c>
       <c r="DY20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="DZ20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EA20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EB20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="EC20" t="s">
-        <v>205</v>
-      </c>
-      <c r="ED20">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="ED20" t="s">
+        <v>207</v>
       </c>
       <c r="EE20">
         <v>0</v>
@@ -9249,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="EI20" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="EJ20">
         <v>0</v>
@@ -9273,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="EQ20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="ER20">
         <v>0</v>
@@ -9295,391 +9331,1199 @@
       <c r="E21" t="s">
         <v>148</v>
       </c>
-      <c r="G21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>173</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>174</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
+        <v>175</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>195</v>
+      </c>
+      <c r="X21" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>203</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>158</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>207</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>199</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>199</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>211</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>203</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>240</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>211</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>245</v>
+      </c>
+      <c r="CC21">
+        <v>0</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>199</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>199</v>
+      </c>
+      <c r="CG21">
+        <v>0</v>
+      </c>
+      <c r="CH21">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="s">
+        <v>199</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK21">
+        <v>0</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>203</v>
+      </c>
+      <c r="CM21" t="s">
+        <v>158</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>207</v>
+      </c>
+      <c r="CO21">
+        <v>0</v>
+      </c>
+      <c r="CP21">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="s">
+        <v>211</v>
+      </c>
+      <c r="CR21" t="s">
+        <v>203</v>
+      </c>
+      <c r="CS21">
+        <v>0</v>
+      </c>
+      <c r="CT21">
+        <v>0</v>
+      </c>
+      <c r="CU21">
+        <v>0</v>
+      </c>
+      <c r="CV21">
+        <v>0</v>
+      </c>
+      <c r="CW21">
+        <v>0</v>
+      </c>
+      <c r="CX21">
+        <v>0</v>
+      </c>
+      <c r="CY21">
+        <v>0</v>
+      </c>
+      <c r="CZ21">
+        <v>0</v>
+      </c>
+      <c r="DA21">
+        <v>0</v>
+      </c>
+      <c r="DC21">
+        <v>0</v>
+      </c>
+      <c r="DE21">
+        <v>0</v>
+      </c>
+      <c r="DG21">
+        <v>0</v>
+      </c>
+      <c r="DI21">
+        <v>0</v>
+      </c>
+      <c r="DK21">
+        <v>0</v>
+      </c>
+      <c r="DM21">
+        <v>0</v>
+      </c>
+      <c r="DO21">
+        <v>0</v>
+      </c>
+      <c r="DR21">
+        <v>0</v>
+      </c>
+      <c r="DS21" t="s">
+        <v>199</v>
+      </c>
+      <c r="DU21">
+        <v>0</v>
+      </c>
+      <c r="DW21" t="s">
+        <v>171</v>
+      </c>
+      <c r="DX21">
+        <v>0</v>
+      </c>
+      <c r="DY21" t="s">
+        <v>199</v>
+      </c>
+      <c r="DZ21" t="s">
+        <v>199</v>
+      </c>
+      <c r="EA21" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB21" t="s">
+        <v>199</v>
+      </c>
+      <c r="EC21" t="s">
+        <v>199</v>
+      </c>
+      <c r="ED21" t="s">
+        <v>167</v>
+      </c>
+      <c r="EE21">
+        <v>0</v>
+      </c>
+      <c r="EF21">
+        <v>0</v>
+      </c>
+      <c r="EG21">
+        <v>0</v>
+      </c>
+      <c r="EH21">
+        <v>0</v>
+      </c>
+      <c r="EI21" t="s">
+        <v>171</v>
+      </c>
+      <c r="EJ21">
+        <v>0</v>
+      </c>
+      <c r="EK21">
+        <v>0</v>
+      </c>
+      <c r="EL21">
+        <v>0</v>
+      </c>
+      <c r="EM21">
+        <v>0</v>
+      </c>
+      <c r="EN21">
+        <v>0</v>
+      </c>
+      <c r="EO21">
+        <v>0</v>
+      </c>
+      <c r="EP21">
+        <v>0</v>
+      </c>
+      <c r="EQ21" t="s">
+        <v>156</v>
+      </c>
+      <c r="ER21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:148">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>173</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>174</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>196</v>
+      </c>
+      <c r="X22" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>164</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>207</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>199</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>199</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>199</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>199</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>199</v>
+      </c>
+      <c r="BW22">
+        <v>0</v>
+      </c>
+      <c r="BX22">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>241</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>199</v>
+      </c>
+      <c r="CC22">
+        <v>0</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>199</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>199</v>
+      </c>
+      <c r="CG22">
+        <v>0</v>
+      </c>
+      <c r="CH22">
+        <v>0</v>
+      </c>
+      <c r="CI22">
+        <v>0</v>
+      </c>
+      <c r="CJ22">
+        <v>0</v>
+      </c>
+      <c r="CK22">
+        <v>0</v>
+      </c>
+      <c r="CL22" t="s">
+        <v>164</v>
+      </c>
+      <c r="CM22" t="s">
+        <v>158</v>
+      </c>
+      <c r="CN22" t="s">
+        <v>207</v>
+      </c>
+      <c r="CO22">
+        <v>0</v>
+      </c>
+      <c r="CP22">
+        <v>0</v>
+      </c>
+      <c r="CQ22">
+        <v>0</v>
+      </c>
+      <c r="CR22">
+        <v>0</v>
+      </c>
+      <c r="CS22">
+        <v>0</v>
+      </c>
+      <c r="CT22">
+        <v>0</v>
+      </c>
+      <c r="CU22">
+        <v>0</v>
+      </c>
+      <c r="CV22">
+        <v>0</v>
+      </c>
+      <c r="CW22">
+        <v>0</v>
+      </c>
+      <c r="CX22">
+        <v>0</v>
+      </c>
+      <c r="CY22">
+        <v>0</v>
+      </c>
+      <c r="CZ22">
+        <v>0</v>
+      </c>
+      <c r="DA22">
+        <v>0</v>
+      </c>
+      <c r="DC22">
+        <v>0</v>
+      </c>
+      <c r="DE22">
+        <v>0</v>
+      </c>
+      <c r="DG22">
+        <v>0</v>
+      </c>
+      <c r="DI22">
+        <v>0</v>
+      </c>
+      <c r="DK22">
+        <v>0</v>
+      </c>
+      <c r="DM22">
+        <v>0</v>
+      </c>
+      <c r="DO22">
+        <v>0</v>
+      </c>
+      <c r="DR22">
+        <v>0</v>
+      </c>
+      <c r="DS22" t="s">
+        <v>199</v>
+      </c>
+      <c r="DU22">
+        <v>0</v>
+      </c>
+      <c r="DW22" t="s">
+        <v>172</v>
+      </c>
+      <c r="DX22">
+        <v>0</v>
+      </c>
+      <c r="DY22" t="s">
+        <v>199</v>
+      </c>
+      <c r="DZ22" t="s">
+        <v>199</v>
+      </c>
+      <c r="EA22" t="s">
+        <v>172</v>
+      </c>
+      <c r="EB22" t="s">
+        <v>199</v>
+      </c>
+      <c r="EC22" t="s">
+        <v>199</v>
+      </c>
+      <c r="ED22">
+        <v>0</v>
+      </c>
+      <c r="EE22">
+        <v>0</v>
+      </c>
+      <c r="EF22">
+        <v>0</v>
+      </c>
+      <c r="EG22">
+        <v>0</v>
+      </c>
+      <c r="EH22">
+        <v>0</v>
+      </c>
+      <c r="EI22" t="s">
+        <v>199</v>
+      </c>
+      <c r="EJ22">
+        <v>0</v>
+      </c>
+      <c r="EK22">
+        <v>0</v>
+      </c>
+      <c r="EL22">
+        <v>0</v>
+      </c>
+      <c r="EM22">
+        <v>0</v>
+      </c>
+      <c r="EN22">
+        <v>0</v>
+      </c>
+      <c r="EO22">
+        <v>0</v>
+      </c>
+      <c r="EP22">
+        <v>0</v>
+      </c>
+      <c r="EQ22" t="s">
+        <v>156</v>
+      </c>
+      <c r="ER22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:148">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
         <v>148</v>
       </c>
-      <c r="I21" t="s">
+      <c r="G23" t="s">
         <v>155</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>169</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>172</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="H23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>170</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
         <v>173</v>
       </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
         <v>174</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21" t="s">
-        <v>194</v>
-      </c>
-      <c r="X21" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
+        <v>175</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
         <v>197</v>
       </c>
-      <c r="Z21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE21" t="s">
+      <c r="X23" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z23" t="s">
         <v>203</v>
       </c>
-      <c r="AF21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="s">
+      <c r="AA23" t="s">
         <v>203</v>
       </c>
-      <c r="AP21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
-      <c r="AW21">
-        <v>0</v>
-      </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
-      <c r="AZ21">
-        <v>0</v>
-      </c>
-      <c r="BA21">
-        <v>0</v>
-      </c>
-      <c r="BB21">
-        <v>0</v>
-      </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
-      <c r="BD21">
-        <v>0</v>
-      </c>
-      <c r="BE21">
-        <v>0</v>
-      </c>
-      <c r="BF21">
-        <v>0</v>
-      </c>
-      <c r="BG21">
-        <v>0</v>
-      </c>
-      <c r="BH21">
-        <v>0</v>
-      </c>
-      <c r="BI21">
-        <v>0</v>
-      </c>
-      <c r="BJ21">
-        <v>0</v>
-      </c>
-      <c r="BK21">
-        <v>0</v>
-      </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BM21">
-        <v>0</v>
-      </c>
-      <c r="BN21">
-        <v>0</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>199</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>199</v>
-      </c>
-      <c r="BQ21" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS21" t="s">
-        <v>205</v>
-      </c>
-      <c r="BT21" t="s">
+      <c r="AB23" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF23" t="s">
         <v>203</v>
       </c>
-      <c r="BU21" t="s">
-        <v>199</v>
-      </c>
-      <c r="BW21">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="s">
-        <v>212</v>
-      </c>
-      <c r="BY21" t="s">
-        <v>232</v>
-      </c>
-      <c r="BZ21" t="s">
-        <v>154</v>
-      </c>
-      <c r="CA21" t="s">
-        <v>199</v>
-      </c>
-      <c r="CB21" t="s">
-        <v>234</v>
-      </c>
-      <c r="CC21" t="s">
-        <v>236</v>
-      </c>
-      <c r="CD21" t="s">
-        <v>205</v>
-      </c>
-      <c r="CE21" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF21" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG21" t="s">
-        <v>205</v>
-      </c>
-      <c r="CH21">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="s">
-        <v>205</v>
-      </c>
-      <c r="CJ21" t="s">
-        <v>205</v>
-      </c>
-      <c r="CK21">
-        <v>0</v>
-      </c>
-      <c r="CL21" t="s">
-        <v>199</v>
-      </c>
-      <c r="CM21" t="s">
-        <v>199</v>
-      </c>
-      <c r="CN21" t="s">
-        <v>157</v>
-      </c>
-      <c r="CO21" t="s">
-        <v>163</v>
-      </c>
-      <c r="CP21">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="s">
+      <c r="AH23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>203</v>
       </c>
-      <c r="CR21" t="s">
-        <v>199</v>
-      </c>
-      <c r="CS21">
-        <v>0</v>
-      </c>
-      <c r="CT21">
-        <v>0</v>
-      </c>
-      <c r="CU21">
-        <v>0</v>
-      </c>
-      <c r="CV21">
-        <v>0</v>
-      </c>
-      <c r="CW21">
-        <v>0</v>
-      </c>
-      <c r="CX21">
-        <v>0</v>
-      </c>
-      <c r="CY21">
-        <v>0</v>
-      </c>
-      <c r="CZ21">
-        <v>0</v>
-      </c>
-      <c r="DA21">
-        <v>0</v>
-      </c>
-      <c r="DC21">
-        <v>0</v>
-      </c>
-      <c r="DE21">
-        <v>0</v>
-      </c>
-      <c r="DG21">
-        <v>0</v>
-      </c>
-      <c r="DI21">
-        <v>0</v>
-      </c>
-      <c r="DK21">
-        <v>0</v>
-      </c>
-      <c r="DM21">
-        <v>0</v>
-      </c>
-      <c r="DO21">
-        <v>0</v>
-      </c>
-      <c r="DR21">
-        <v>0</v>
-      </c>
-      <c r="DS21" t="s">
-        <v>205</v>
-      </c>
-      <c r="DU21">
-        <v>0</v>
-      </c>
-      <c r="DW21" t="s">
-        <v>169</v>
-      </c>
-      <c r="DX21">
-        <v>0</v>
-      </c>
-      <c r="DY21" t="s">
-        <v>205</v>
-      </c>
-      <c r="DZ21" t="s">
-        <v>205</v>
-      </c>
-      <c r="EA21" t="s">
-        <v>169</v>
-      </c>
-      <c r="EB21" t="s">
-        <v>205</v>
-      </c>
-      <c r="EC21" t="s">
-        <v>205</v>
-      </c>
-      <c r="ED21" t="s">
-        <v>166</v>
-      </c>
-      <c r="EE21">
-        <v>0</v>
-      </c>
-      <c r="EF21">
-        <v>0</v>
-      </c>
-      <c r="EG21">
-        <v>0</v>
-      </c>
-      <c r="EH21">
-        <v>0</v>
-      </c>
-      <c r="EI21" t="s">
-        <v>169</v>
-      </c>
-      <c r="EJ21">
-        <v>0</v>
-      </c>
-      <c r="EK21">
-        <v>0</v>
-      </c>
-      <c r="EL21">
-        <v>0</v>
-      </c>
-      <c r="EM21">
-        <v>0</v>
-      </c>
-      <c r="EN21">
-        <v>0</v>
-      </c>
-      <c r="EO21">
-        <v>0</v>
-      </c>
-      <c r="EP21">
-        <v>0</v>
-      </c>
-      <c r="EQ21" t="s">
+      <c r="AK23" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>207</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>203</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>203</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>158</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>164</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>199</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>207</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>203</v>
+      </c>
+      <c r="BW23">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>220</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>242</v>
+      </c>
+      <c r="BZ23" t="s">
         <v>155</v>
       </c>
-      <c r="ER21">
+      <c r="CA23" t="s">
+        <v>203</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>245</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>249</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>199</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>199</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>199</v>
+      </c>
+      <c r="CH23">
+        <v>0</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>199</v>
+      </c>
+      <c r="CJ23" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK23">
+        <v>0</v>
+      </c>
+      <c r="CL23" t="s">
+        <v>203</v>
+      </c>
+      <c r="CM23" t="s">
+        <v>203</v>
+      </c>
+      <c r="CN23" t="s">
+        <v>158</v>
+      </c>
+      <c r="CO23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP23">
+        <v>0</v>
+      </c>
+      <c r="CQ23" t="s">
+        <v>207</v>
+      </c>
+      <c r="CR23" t="s">
+        <v>203</v>
+      </c>
+      <c r="CS23">
+        <v>0</v>
+      </c>
+      <c r="CT23">
+        <v>0</v>
+      </c>
+      <c r="CU23">
+        <v>0</v>
+      </c>
+      <c r="CV23">
+        <v>0</v>
+      </c>
+      <c r="CW23">
+        <v>0</v>
+      </c>
+      <c r="CX23">
+        <v>0</v>
+      </c>
+      <c r="CY23">
+        <v>0</v>
+      </c>
+      <c r="CZ23">
+        <v>0</v>
+      </c>
+      <c r="DA23">
+        <v>0</v>
+      </c>
+      <c r="DC23">
+        <v>0</v>
+      </c>
+      <c r="DE23">
+        <v>0</v>
+      </c>
+      <c r="DG23">
+        <v>0</v>
+      </c>
+      <c r="DI23">
+        <v>0</v>
+      </c>
+      <c r="DK23">
+        <v>0</v>
+      </c>
+      <c r="DM23">
+        <v>0</v>
+      </c>
+      <c r="DO23">
+        <v>0</v>
+      </c>
+      <c r="DR23">
+        <v>0</v>
+      </c>
+      <c r="DS23" t="s">
+        <v>199</v>
+      </c>
+      <c r="DU23">
+        <v>0</v>
+      </c>
+      <c r="DW23" t="s">
+        <v>170</v>
+      </c>
+      <c r="DX23">
+        <v>0</v>
+      </c>
+      <c r="DY23" t="s">
+        <v>199</v>
+      </c>
+      <c r="DZ23" t="s">
+        <v>199</v>
+      </c>
+      <c r="EA23" t="s">
+        <v>170</v>
+      </c>
+      <c r="EB23" t="s">
+        <v>199</v>
+      </c>
+      <c r="EC23" t="s">
+        <v>199</v>
+      </c>
+      <c r="ED23" t="s">
+        <v>167</v>
+      </c>
+      <c r="EE23">
+        <v>0</v>
+      </c>
+      <c r="EF23">
+        <v>0</v>
+      </c>
+      <c r="EG23">
+        <v>0</v>
+      </c>
+      <c r="EH23">
+        <v>0</v>
+      </c>
+      <c r="EI23" t="s">
+        <v>170</v>
+      </c>
+      <c r="EJ23">
+        <v>0</v>
+      </c>
+      <c r="EK23">
+        <v>0</v>
+      </c>
+      <c r="EL23">
+        <v>0</v>
+      </c>
+      <c r="EM23">
+        <v>0</v>
+      </c>
+      <c r="EN23">
+        <v>0</v>
+      </c>
+      <c r="EO23">
+        <v>0</v>
+      </c>
+      <c r="EP23">
+        <v>0</v>
+      </c>
+      <c r="EQ23" t="s">
+        <v>156</v>
+      </c>
+      <c r="ER23">
         <v>0</v>
       </c>
     </row>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="260">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -538,12 +538,18 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
     <t>referral_srh</t>
   </si>
   <si>
+    <t>referral_sti</t>
+  </si>
+  <si>
     <t>Chidamoyo Mission Hospital</t>
   </si>
   <si>
@@ -616,6 +622,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>83</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
@@ -628,6 +637,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -661,21 +673,30 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>56</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>57</t>
+    <t>96</t>
+  </si>
+  <si>
+    <t>67</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>malaria</t>
   </si>
   <si>
@@ -688,10 +709,10 @@
     <t>2025-05-28T10:05:11.440353Z</t>
   </si>
   <si>
-    <t>2025-07-15T10:19:40.996267Z</t>
-  </si>
-  <si>
-    <t>2025-07-15T10:16:48.982852Z</t>
+    <t>2025-07-18T07:13:42.557147Z</t>
+  </si>
+  <si>
+    <t>2025-07-18T07:18:24.030753Z</t>
   </si>
   <si>
     <t>2025-06-12T12:48:01.280653Z</t>
@@ -754,12 +775,6 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50_yrs</t>
   </si>
   <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs</t>
-  </si>
-  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs</t>
   </si>
   <si>
@@ -770,9 +785,6 @@
   </si>
   <si>
     <t>197</t>
-  </si>
-  <si>
-    <t>231</t>
   </si>
   <si>
     <t>123</t>
@@ -1638,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1650,55 +1662,55 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="X2" t="s">
         <v>157</v>
       </c>
       <c r="Y2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AA2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AB2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AC2" t="s">
         <v>158</v>
       </c>
       <c r="AD2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AE2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AK2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AL2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM2" t="s">
         <v>164</v>
       </c>
       <c r="AN2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -1743,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BD2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BE2">
         <v>0</v>
@@ -1779,25 +1791,25 @@
         <v>0</v>
       </c>
       <c r="BO2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BP2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="BQ2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="BR2" t="s">
         <v>158</v>
       </c>
       <c r="BS2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BT2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BU2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1806,40 +1818,40 @@
         <v>0</v>
       </c>
       <c r="BY2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="BZ2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="CA2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CB2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="CC2">
         <v>0</v>
       </c>
       <c r="CD2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="CE2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="CF2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="CG2" t="s">
         <v>158</v>
       </c>
       <c r="CH2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CI2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CJ2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -1908,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="DJ2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DK2">
         <v>0</v>
@@ -1923,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DW2" t="s">
         <v>157</v>
@@ -1935,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ2" t="s">
         <v>157</v>
       </c>
       <c r="EA2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -1968,7 +1980,7 @@
         <v>162</v>
       </c>
       <c r="EJ2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -1989,7 +2001,7 @@
         <v>156</v>
       </c>
       <c r="ER2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:148">
@@ -2042,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2051,67 +2063,67 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="X3" t="s">
         <v>158</v>
       </c>
       <c r="Y3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AA3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AB3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AC3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AE3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AH3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AK3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AL3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -2186,25 +2198,25 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BP3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BQ3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BR3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BS3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BT3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BU3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -2213,64 +2225,64 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="BZ3" t="s">
         <v>155</v>
       </c>
       <c r="CA3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CB3" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CE3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CF3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CG3">
         <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CK3">
         <v>0</v>
       </c>
       <c r="CL3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CM3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CN3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CQ3">
         <v>0</v>
       </c>
       <c r="CR3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CS3">
         <v>0</v>
@@ -2324,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU3">
         <v>0</v>
@@ -2336,22 +2348,22 @@
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EA3" t="s">
         <v>158</v>
       </c>
       <c r="EB3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2446,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -2458,13 +2470,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="X4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Y4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z4" t="s">
         <v>167</v>
@@ -2473,43 +2485,43 @@
         <v>158</v>
       </c>
       <c r="AB4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AC4" t="s">
         <v>164</v>
       </c>
       <c r="AD4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AE4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AK4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AM4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AO4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -2542,22 +2554,22 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BA4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BD4">
         <v>0</v>
       </c>
       <c r="BE4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -2587,25 +2599,25 @@
         <v>0</v>
       </c>
       <c r="BO4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="BP4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="BQ4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="BR4" t="s">
         <v>164</v>
       </c>
       <c r="BS4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BT4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BU4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BW4">
         <v>0</v>
@@ -2614,37 +2626,37 @@
         <v>0</v>
       </c>
       <c r="BY4" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="BZ4" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="CA4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CB4" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="CC4">
         <v>0</v>
       </c>
       <c r="CD4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="CE4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="CF4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="CG4" t="s">
         <v>164</v>
       </c>
       <c r="CH4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CI4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CJ4">
         <v>0</v>
@@ -2701,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="DB4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="DC4">
         <v>0</v>
       </c>
       <c r="DD4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DE4">
         <v>0</v>
       </c>
       <c r="DF4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DG4">
         <v>0</v>
       </c>
       <c r="DH4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="DI4">
         <v>0</v>
@@ -2728,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="DL4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DM4">
         <v>0</v>
@@ -2740,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DW4" t="s">
         <v>159</v>
@@ -2752,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="DY4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ4" t="s">
         <v>159</v>
       </c>
       <c r="EA4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2785,7 +2797,7 @@
         <v>164</v>
       </c>
       <c r="EJ4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2846,6 +2858,9 @@
       <c r="N5">
         <v>0</v>
       </c>
+      <c r="O5" t="s">
+        <v>174</v>
+      </c>
       <c r="P5">
         <v>0</v>
       </c>
@@ -2853,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2865,13 +2880,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="X5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Y5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2900,17 +2915,17 @@
       <c r="AI5">
         <v>0</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>215</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>212</v>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -2993,17 +3008,17 @@
       <c r="BN5">
         <v>0</v>
       </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5">
-        <v>0</v>
+      <c r="BO5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>207</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>225</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>216</v>
       </c>
       <c r="BS5">
         <v>0</v>
@@ -3024,31 +3039,28 @@
         <v>0</v>
       </c>
       <c r="BY5" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="BZ5" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="CA5" t="s">
-        <v>199</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="CC5">
         <v>0</v>
       </c>
-      <c r="CD5">
-        <v>0</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
-      </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
-      <c r="CG5">
-        <v>0</v>
+      <c r="CD5" t="s">
+        <v>201</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>201</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>201</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>201</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -3062,17 +3074,17 @@
       <c r="CK5">
         <v>0</v>
       </c>
-      <c r="CL5">
-        <v>0</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
+      <c r="CL5" t="s">
+        <v>201</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>201</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>201</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>201</v>
       </c>
       <c r="CP5">
         <v>0</v>
@@ -3135,25 +3147,25 @@
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU5">
         <v>0</v>
       </c>
       <c r="DW5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="DX5">
         <v>0</v>
       </c>
       <c r="DZ5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EB5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED5">
         <v>0</v>
@@ -3171,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -3238,6 +3250,9 @@
       <c r="N6">
         <v>0</v>
       </c>
+      <c r="O6" t="s">
+        <v>174</v>
+      </c>
       <c r="P6">
         <v>0</v>
       </c>
@@ -3245,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -3253,26 +3268,29 @@
       <c r="T6">
         <v>0</v>
       </c>
+      <c r="U6" t="s">
+        <v>177</v>
+      </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="X6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Y6" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>205</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -3289,14 +3307,17 @@
       <c r="AG6">
         <v>0</v>
       </c>
+      <c r="AH6" t="s">
+        <v>219</v>
+      </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AK6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AL6" t="s">
         <v>161</v>
@@ -3341,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="AZ6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BA6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -3385,17 +3406,17 @@
       <c r="BN6">
         <v>0</v>
       </c>
-      <c r="BO6">
-        <v>0</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
-      <c r="BR6">
-        <v>0</v>
+      <c r="BO6" t="s">
+        <v>223</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>224</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>226</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>201</v>
       </c>
       <c r="BS6">
         <v>0</v>
@@ -3416,28 +3437,28 @@
         <v>0</v>
       </c>
       <c r="BY6" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="BZ6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="CA6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CB6" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="CC6">
         <v>0</v>
       </c>
-      <c r="CD6">
-        <v>0</v>
-      </c>
-      <c r="CE6">
-        <v>0</v>
-      </c>
-      <c r="CF6">
-        <v>0</v>
+      <c r="CD6" t="s">
+        <v>201</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>201</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>201</v>
       </c>
       <c r="CG6">
         <v>0</v>
@@ -3454,14 +3475,14 @@
       <c r="CK6">
         <v>0</v>
       </c>
-      <c r="CL6">
-        <v>0</v>
-      </c>
-      <c r="CM6">
-        <v>0</v>
-      </c>
-      <c r="CN6">
-        <v>0</v>
+      <c r="CL6" t="s">
+        <v>223</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>224</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>226</v>
       </c>
       <c r="CO6">
         <v>0</v>
@@ -3503,13 +3524,13 @@
         <v>0</v>
       </c>
       <c r="DB6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="DC6">
         <v>0</v>
       </c>
       <c r="DD6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="DE6">
         <v>0</v>
@@ -3536,31 +3557,31 @@
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU6">
         <v>0</v>
       </c>
       <c r="DW6" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="DX6">
         <v>0</v>
       </c>
       <c r="DZ6" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="EB6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED6">
         <v>0</v>
       </c>
-      <c r="EE6">
-        <v>0</v>
+      <c r="EE6" t="s">
+        <v>164</v>
       </c>
       <c r="EF6">
         <v>0</v>
@@ -3572,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EJ6">
         <v>0</v>
@@ -3652,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -3661,43 +3682,43 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X7" t="s">
         <v>160</v>
       </c>
       <c r="Y7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z7" t="s">
         <v>164</v>
       </c>
       <c r="AA7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AB7" t="s">
         <v>158</v>
       </c>
       <c r="AC7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AD7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AE7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AF7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AH7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -3706,22 +3727,22 @@
         <v>164</v>
       </c>
       <c r="AK7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AL7" t="s">
         <v>158</v>
       </c>
       <c r="AM7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AN7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AO7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AP7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -3763,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="BD7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BE7">
         <v>0</v>
@@ -3799,22 +3820,22 @@
         <v>164</v>
       </c>
       <c r="BP7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="BQ7" t="s">
         <v>158</v>
       </c>
       <c r="BR7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BS7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BT7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BU7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -3823,40 +3844,40 @@
         <v>0</v>
       </c>
       <c r="BY7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="BZ7" t="s">
         <v>155</v>
       </c>
       <c r="CA7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CB7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="CC7">
         <v>0</v>
       </c>
       <c r="CD7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CE7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CF7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CG7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CH7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CI7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CJ7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CK7">
         <v>0</v>
@@ -3865,22 +3886,22 @@
         <v>164</v>
       </c>
       <c r="CM7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="CN7" t="s">
         <v>158</v>
       </c>
       <c r="CO7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="CP7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="CQ7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="CR7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CS7">
         <v>0</v>
@@ -3922,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="DJ7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="DK7">
         <v>0</v>
@@ -3937,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU7">
         <v>0</v>
@@ -3949,22 +3970,22 @@
         <v>0</v>
       </c>
       <c r="DY7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EA7" t="s">
         <v>160</v>
       </c>
       <c r="EB7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="EE7">
         <v>0</v>
@@ -3979,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="EJ7">
         <v>0</v>
@@ -4059,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -4071,160 +4092,160 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="X8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Y8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z8" t="s">
         <v>167</v>
       </c>
       <c r="AA8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AB8" t="s">
         <v>164</v>
       </c>
       <c r="AC8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AE8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
       <c r="AJ8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AK8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AL8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>201</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>201</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>205</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>205</v>
+      </c>
+      <c r="BQ8" t="s">
         <v>211</v>
       </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>199</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>199</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>199</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>202</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>202</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>207</v>
-      </c>
       <c r="BR8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BS8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BT8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BU8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BV8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -4233,28 +4254,28 @@
         <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="BZ8" t="s">
         <v>155</v>
       </c>
       <c r="CA8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CB8" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="CC8">
         <v>0</v>
       </c>
       <c r="CD8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="CE8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="CF8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CG8">
         <v>0</v>
@@ -4320,19 +4341,19 @@
         <v>0</v>
       </c>
       <c r="DB8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DC8">
         <v>0</v>
       </c>
       <c r="DD8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="DE8">
         <v>0</v>
       </c>
       <c r="DF8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="DG8">
         <v>0</v>
@@ -4353,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU8">
         <v>0</v>
@@ -4365,19 +4386,19 @@
         <v>0</v>
       </c>
       <c r="DY8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ8" t="s">
         <v>161</v>
       </c>
       <c r="EA8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EB8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED8">
         <v>0</v>
@@ -4475,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -4484,19 +4505,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="X9" t="s">
         <v>162</v>
       </c>
       <c r="Y9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z9" t="s">
         <v>164</v>
@@ -4505,22 +4526,22 @@
         <v>158</v>
       </c>
       <c r="AB9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AC9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AD9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AE9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AF9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AH9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -4532,19 +4553,19 @@
         <v>158</v>
       </c>
       <c r="AL9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AM9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AN9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AO9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AP9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -4625,19 +4646,19 @@
         <v>158</v>
       </c>
       <c r="BQ9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="BR9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="BS9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="BT9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="BU9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BW9">
         <v>0</v>
@@ -4646,40 +4667,40 @@
         <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="BZ9" t="s">
         <v>155</v>
       </c>
       <c r="CA9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CB9" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="CC9">
         <v>0</v>
       </c>
       <c r="CD9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CE9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CF9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CG9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CH9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CI9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CJ9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CK9">
         <v>0</v>
@@ -4691,19 +4712,19 @@
         <v>158</v>
       </c>
       <c r="CN9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="CO9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="CP9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="CQ9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="CR9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CS9">
         <v>0</v>
@@ -4757,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU9">
         <v>0</v>
@@ -4769,22 +4790,22 @@
         <v>0</v>
       </c>
       <c r="DY9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EA9" t="s">
         <v>162</v>
       </c>
       <c r="EB9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="EE9">
         <v>0</v>
@@ -4879,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4891,160 +4912,160 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="X10" t="s">
         <v>159</v>
       </c>
       <c r="Y10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z10" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AA10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AB10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AC10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AD10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AE10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AH10" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BP10" t="s">
         <v>214</v>
       </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
-        <v>0</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
-      <c r="BI10">
-        <v>0</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>204</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>210</v>
-      </c>
       <c r="BQ10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="BR10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BS10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BT10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BU10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BV10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -5053,28 +5074,28 @@
         <v>0</v>
       </c>
       <c r="BY10" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="BZ10" t="s">
         <v>155</v>
       </c>
       <c r="CA10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CC10">
         <v>0</v>
       </c>
       <c r="CD10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CE10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CF10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CG10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CH10">
         <v>0</v>
@@ -5089,16 +5110,16 @@
         <v>0</v>
       </c>
       <c r="CL10" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="CM10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="CN10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="CO10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CP10">
         <v>0</v>
@@ -5161,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU10">
         <v>0</v>
@@ -5173,19 +5194,19 @@
         <v>0</v>
       </c>
       <c r="DY10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EA10" t="s">
         <v>159</v>
       </c>
       <c r="EB10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED10">
         <v>0</v>
@@ -5203,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EJ10">
         <v>0</v>
@@ -5230,7 +5251,7 @@
         <v>156</v>
       </c>
       <c r="ER10" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:148">
@@ -5280,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -5292,55 +5313,55 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="X11" t="s">
         <v>160</v>
       </c>
       <c r="Y11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AA11" t="s">
         <v>167</v>
       </c>
       <c r="AB11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AC11" t="s">
         <v>164</v>
       </c>
       <c r="AD11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AE11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI11">
         <v>0</v>
       </c>
       <c r="AJ11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AK11" t="s">
         <v>164</v>
       </c>
       <c r="AL11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AM11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AN11">
         <v>0</v>
@@ -5379,16 +5400,16 @@
         <v>0</v>
       </c>
       <c r="AZ11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BA11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BB11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BD11">
         <v>0</v>
@@ -5454,31 +5475,31 @@
         <v>0</v>
       </c>
       <c r="BY11" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="BZ11" t="s">
         <v>155</v>
       </c>
       <c r="CA11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CB11" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="CC11">
         <v>0</v>
       </c>
       <c r="CD11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CE11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CF11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CG11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CH11">
         <v>0</v>
@@ -5493,13 +5514,13 @@
         <v>0</v>
       </c>
       <c r="CL11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="CM11" t="s">
         <v>167</v>
       </c>
       <c r="CN11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="CO11" t="s">
         <v>164</v>
@@ -5541,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="DB11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DC11">
         <v>0</v>
@@ -5553,13 +5574,13 @@
         <v>0</v>
       </c>
       <c r="DF11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DG11">
         <v>0</v>
       </c>
       <c r="DH11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="DI11">
         <v>0</v>
@@ -5577,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU11">
         <v>0</v>
@@ -5589,19 +5610,19 @@
         <v>0</v>
       </c>
       <c r="DY11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EA11" t="s">
         <v>160</v>
       </c>
       <c r="EB11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED11">
         <v>0</v>
@@ -5619,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="EJ11">
         <v>0</v>
@@ -5699,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -5711,43 +5732,43 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="X12" t="s">
         <v>161</v>
       </c>
       <c r="Y12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AA12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AB12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AC12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AE12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI12">
         <v>0</v>
       </c>
       <c r="AJ12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AK12" t="s">
         <v>164</v>
@@ -5795,13 +5816,13 @@
         <v>0</v>
       </c>
       <c r="AZ12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BA12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BB12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BC12">
         <v>0</v>
@@ -5840,25 +5861,25 @@
         <v>0</v>
       </c>
       <c r="BO12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BP12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BQ12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BR12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BS12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BT12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BU12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BW12">
         <v>0</v>
@@ -5867,37 +5888,37 @@
         <v>0</v>
       </c>
       <c r="BY12" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="BZ12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="CA12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CB12" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="CC12">
         <v>0</v>
       </c>
       <c r="CD12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="CE12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="CF12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CG12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CH12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CI12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CJ12">
         <v>0</v>
@@ -5954,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="DB12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="DC12">
         <v>0</v>
@@ -5987,10 +6008,10 @@
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DW12" t="s">
         <v>161</v>
@@ -5999,13 +6020,13 @@
         <v>0</v>
       </c>
       <c r="DY12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ12" t="s">
         <v>161</v>
       </c>
       <c r="EA12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EB12">
         <v>0</v>
@@ -6032,7 +6053,7 @@
         <v>167</v>
       </c>
       <c r="EJ12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EL12">
         <v>0</v>
@@ -6106,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -6118,16 +6139,16 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="X13" t="s">
         <v>163</v>
       </c>
       <c r="Y13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z13" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AA13" t="s">
         <v>171</v>
@@ -6142,34 +6163,34 @@
         <v>164</v>
       </c>
       <c r="AE13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI13">
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AK13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL13" t="s">
         <v>211</v>
       </c>
-      <c r="AL13" t="s">
-        <v>207</v>
-      </c>
       <c r="AM13" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AN13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -6205,19 +6226,19 @@
         <v>0</v>
       </c>
       <c r="AZ13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BA13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BB13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BD13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BE13">
         <v>0</v>
@@ -6250,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="BO13" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="BP13" t="s">
         <v>171</v>
@@ -6265,13 +6286,13 @@
         <v>164</v>
       </c>
       <c r="BT13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BU13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BV13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BW13">
         <v>0</v>
@@ -6280,34 +6301,34 @@
         <v>0</v>
       </c>
       <c r="BY13" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="BZ13" t="s">
         <v>155</v>
       </c>
       <c r="CA13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CB13" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="CC13">
         <v>0</v>
       </c>
       <c r="CD13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CE13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CF13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CG13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CH13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CI13">
         <v>0</v>
@@ -6319,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="CL13" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="CM13" t="s">
         <v>171</v>
@@ -6367,31 +6388,31 @@
         <v>0</v>
       </c>
       <c r="DB13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DC13">
         <v>0</v>
       </c>
       <c r="DD13" t="s">
+        <v>215</v>
+      </c>
+      <c r="DE13">
+        <v>0</v>
+      </c>
+      <c r="DF13" t="s">
         <v>211</v>
       </c>
-      <c r="DE13">
-        <v>0</v>
-      </c>
-      <c r="DF13" t="s">
-        <v>207</v>
-      </c>
       <c r="DG13">
         <v>0</v>
       </c>
       <c r="DH13" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="DI13">
         <v>0</v>
       </c>
       <c r="DJ13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="DK13">
         <v>0</v>
@@ -6406,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU13">
         <v>0</v>
@@ -6418,19 +6439,19 @@
         <v>0</v>
       </c>
       <c r="DY13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EA13" t="s">
         <v>163</v>
       </c>
       <c r="EB13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED13">
         <v>0</v>
@@ -6448,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="EI13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="EJ13">
         <v>0</v>
@@ -6528,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -6540,40 +6561,40 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="X14" t="s">
         <v>164</v>
       </c>
       <c r="Y14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z14" t="s">
         <v>164</v>
       </c>
       <c r="AA14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AB14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AC14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AE14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AH14" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -6675,25 +6696,25 @@
         <v>164</v>
       </c>
       <c r="BP14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BQ14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BR14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BS14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BT14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BU14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BV14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BW14">
         <v>0</v>
@@ -6702,13 +6723,13 @@
         <v>0</v>
       </c>
       <c r="BY14" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BZ14" t="s">
         <v>155</v>
       </c>
       <c r="CA14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CC14">
         <v>0</v>
@@ -6717,10 +6738,10 @@
         <v>164</v>
       </c>
       <c r="CE14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CF14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CG14">
         <v>0</v>
@@ -6810,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU14">
         <v>0</v>
@@ -6822,19 +6843,19 @@
         <v>0</v>
       </c>
       <c r="DY14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ14" t="s">
         <v>164</v>
       </c>
       <c r="EA14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EB14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED14">
         <v>0</v>
@@ -6852,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="EI14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EJ14">
         <v>0</v>
@@ -6932,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -6944,13 +6965,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="X15" t="s">
         <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z15" t="s">
         <v>167</v>
@@ -6959,25 +6980,25 @@
         <v>167</v>
       </c>
       <c r="AB15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AC15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AD15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AE15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AH15" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -7082,22 +7103,22 @@
         <v>167</v>
       </c>
       <c r="BQ15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BR15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BS15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BT15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BU15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BV15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BW15">
         <v>0</v>
@@ -7106,28 +7127,28 @@
         <v>0</v>
       </c>
       <c r="BY15" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="BZ15" t="s">
         <v>155</v>
       </c>
       <c r="CA15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CC15">
         <v>0</v>
       </c>
       <c r="CD15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CE15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CF15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CG15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CH15">
         <v>0</v>
@@ -7148,10 +7169,10 @@
         <v>167</v>
       </c>
       <c r="CN15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="CO15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CP15">
         <v>0</v>
@@ -7214,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="DS15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU15">
         <v>0</v>
@@ -7226,19 +7247,19 @@
         <v>0</v>
       </c>
       <c r="DY15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EA15" t="s">
         <v>165</v>
       </c>
       <c r="EB15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED15">
         <v>0</v>
@@ -7256,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="EI15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EJ15">
         <v>0</v>
@@ -7336,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -7348,160 +7369,160 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="X16" t="s">
         <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AA16" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="s">
         <v>210</v>
       </c>
-      <c r="AB16" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="BP16" t="s">
         <v>214</v>
       </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
-        <v>0</v>
-      </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16">
-        <v>0</v>
-      </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
-      <c r="BB16">
-        <v>0</v>
-      </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
-      <c r="BD16">
-        <v>0</v>
-      </c>
-      <c r="BE16">
-        <v>0</v>
-      </c>
-      <c r="BF16">
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <v>0</v>
-      </c>
-      <c r="BH16">
-        <v>0</v>
-      </c>
-      <c r="BI16">
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <v>0</v>
-      </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BM16">
-        <v>0</v>
-      </c>
-      <c r="BN16">
-        <v>0</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>206</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>210</v>
-      </c>
       <c r="BQ16" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="BR16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BS16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BT16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BU16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BV16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BW16">
         <v>0</v>
@@ -7510,28 +7531,28 @@
         <v>0</v>
       </c>
       <c r="BY16" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="BZ16" t="s">
         <v>155</v>
       </c>
       <c r="CA16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CC16">
         <v>0</v>
       </c>
       <c r="CD16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CE16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CF16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CG16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CH16">
         <v>0</v>
@@ -7546,13 +7567,13 @@
         <v>0</v>
       </c>
       <c r="CL16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CM16" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="CN16" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="CO16">
         <v>0</v>
@@ -7618,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="DS16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU16">
         <v>0</v>
@@ -7630,19 +7651,19 @@
         <v>0</v>
       </c>
       <c r="DY16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EA16" t="s">
         <v>166</v>
       </c>
       <c r="EB16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED16">
         <v>0</v>
@@ -7660,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="EI16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EJ16">
         <v>0</v>
@@ -7740,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -7749,61 +7770,61 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="X17" t="s">
         <v>167</v>
       </c>
       <c r="Y17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AA17" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AB17" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AC17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD17" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AE17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI17">
         <v>0</v>
       </c>
       <c r="AJ17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AK17" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AL17" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AM17">
         <v>0</v>
       </c>
       <c r="AN17" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -7884,25 +7905,25 @@
         <v>0</v>
       </c>
       <c r="BO17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BP17" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BQ17" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BR17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BS17" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BT17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BU17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BW17">
         <v>0</v>
@@ -7911,34 +7932,34 @@
         <v>0</v>
       </c>
       <c r="BY17" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BZ17" t="s">
         <v>155</v>
       </c>
       <c r="CA17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CB17" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="CC17">
         <v>0</v>
       </c>
       <c r="CD17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CE17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CF17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CG17">
         <v>0</v>
       </c>
       <c r="CH17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CI17">
         <v>0</v>
@@ -7950,19 +7971,19 @@
         <v>0</v>
       </c>
       <c r="CL17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CM17" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="CN17" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="CO17">
         <v>0</v>
       </c>
       <c r="CP17" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="CQ17">
         <v>0</v>
@@ -8022,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="DS17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU17">
         <v>0</v>
@@ -8034,22 +8055,22 @@
         <v>0</v>
       </c>
       <c r="DY17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EA17" t="s">
         <v>167</v>
       </c>
       <c r="EB17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED17" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="EE17">
         <v>0</v>
@@ -8144,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -8153,67 +8174,67 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="X18" t="s">
         <v>168</v>
       </c>
       <c r="Y18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AA18" t="s">
         <v>167</v>
       </c>
       <c r="AB18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AC18" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD18" t="s">
         <v>211</v>
       </c>
-      <c r="AD18" t="s">
-        <v>207</v>
-      </c>
       <c r="AE18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AH18" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI18">
         <v>0</v>
       </c>
       <c r="AJ18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AK18" t="s">
         <v>167</v>
       </c>
       <c r="AL18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN18" t="s">
         <v>211</v>
       </c>
-      <c r="AN18" t="s">
-        <v>207</v>
-      </c>
       <c r="AO18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AP18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -8288,25 +8309,25 @@
         <v>0</v>
       </c>
       <c r="BO18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BP18" t="s">
         <v>167</v>
       </c>
       <c r="BQ18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BR18" t="s">
+        <v>215</v>
+      </c>
+      <c r="BS18" t="s">
         <v>211</v>
       </c>
-      <c r="BS18" t="s">
-        <v>207</v>
-      </c>
       <c r="BT18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BU18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BW18">
         <v>0</v>
@@ -8315,64 +8336,64 @@
         <v>0</v>
       </c>
       <c r="BY18" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="BZ18" t="s">
         <v>155</v>
       </c>
       <c r="CA18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CB18" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="CC18">
         <v>0</v>
       </c>
       <c r="CD18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CE18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CF18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CG18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CH18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CI18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CJ18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CK18">
         <v>0</v>
       </c>
       <c r="CL18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CM18" t="s">
         <v>167</v>
       </c>
       <c r="CN18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CO18" t="s">
+        <v>215</v>
+      </c>
+      <c r="CP18" t="s">
         <v>211</v>
       </c>
-      <c r="CP18" t="s">
-        <v>207</v>
-      </c>
       <c r="CQ18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CR18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CS18">
         <v>0</v>
@@ -8426,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="DS18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU18">
         <v>0</v>
@@ -8438,22 +8459,22 @@
         <v>0</v>
       </c>
       <c r="DY18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EA18" t="s">
         <v>168</v>
       </c>
       <c r="EB18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED18" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="EE18">
         <v>0</v>
@@ -8545,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -8557,40 +8578,40 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s">
         <v>169</v>
       </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z19" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AA19" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AB19" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AC19" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AD19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AE19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AH19" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -8599,13 +8620,13 @@
         <v>164</v>
       </c>
       <c r="AK19" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL19" t="s">
         <v>213</v>
       </c>
-      <c r="AL19" t="s">
-        <v>209</v>
-      </c>
       <c r="AM19" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AN19">
         <v>0</v>
@@ -8644,13 +8665,13 @@
         <v>0</v>
       </c>
       <c r="AZ19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BA19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BB19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BC19">
         <v>0</v>
@@ -8719,31 +8740,31 @@
         <v>0</v>
       </c>
       <c r="BY19" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="BZ19" t="s">
         <v>155</v>
       </c>
       <c r="CA19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CB19" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CC19">
         <v>0</v>
       </c>
       <c r="CD19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CE19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CF19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CG19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CH19">
         <v>0</v>
@@ -8758,16 +8779,16 @@
         <v>0</v>
       </c>
       <c r="CL19" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="CM19" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="CN19" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="CO19" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CP19">
         <v>0</v>
@@ -8812,14 +8833,14 @@
         <v>0</v>
       </c>
       <c r="DD19" t="s">
+        <v>217</v>
+      </c>
+      <c r="DE19">
+        <v>0</v>
+      </c>
+      <c r="DF19" t="s">
         <v>213</v>
       </c>
-      <c r="DE19">
-        <v>0</v>
-      </c>
-      <c r="DF19" t="s">
-        <v>209</v>
-      </c>
       <c r="DG19">
         <v>0</v>
       </c>
@@ -8839,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="DS19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU19">
         <v>0</v>
@@ -8851,19 +8872,19 @@
         <v>0</v>
       </c>
       <c r="DY19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EA19" t="s">
         <v>169</v>
       </c>
       <c r="EB19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED19">
         <v>0</v>
@@ -8881,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="EI19" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="EJ19">
         <v>0</v>
@@ -8961,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -8970,22 +8991,22 @@
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="X20" t="s">
         <v>170</v>
       </c>
       <c r="Y20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AA20" t="s">
         <v>164</v>
@@ -8994,19 +9015,19 @@
         <v>158</v>
       </c>
       <c r="AC20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AD20" t="s">
         <v>164</v>
       </c>
       <c r="AE20" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF20" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AH20" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -9021,16 +9042,16 @@
         <v>158</v>
       </c>
       <c r="AM20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s">
         <v>164</v>
       </c>
       <c r="AO20" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AP20" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -9105,7 +9126,7 @@
         <v>0</v>
       </c>
       <c r="BO20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BP20" t="s">
         <v>164</v>
@@ -9114,16 +9135,16 @@
         <v>158</v>
       </c>
       <c r="BR20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BS20" t="s">
         <v>164</v>
       </c>
       <c r="BT20" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BU20" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BW20">
         <v>0</v>
@@ -9132,16 +9153,16 @@
         <v>0</v>
       </c>
       <c r="BY20" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="BZ20" t="s">
         <v>155</v>
       </c>
       <c r="CA20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CB20" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="CC20">
         <v>0</v>
@@ -9150,22 +9171,22 @@
         <v>0</v>
       </c>
       <c r="CE20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CF20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CG20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CH20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CI20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CJ20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CK20">
         <v>0</v>
@@ -9180,16 +9201,16 @@
         <v>158</v>
       </c>
       <c r="CO20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="CP20" t="s">
         <v>164</v>
       </c>
       <c r="CQ20" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CR20" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CS20">
         <v>0</v>
@@ -9243,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="DS20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU20">
         <v>0</v>
@@ -9255,22 +9276,22 @@
         <v>0</v>
       </c>
       <c r="DY20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EA20" t="s">
         <v>170</v>
       </c>
       <c r="EB20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED20" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="EE20">
         <v>0</v>
@@ -9365,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -9374,55 +9395,55 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="X21" t="s">
         <v>171</v>
       </c>
       <c r="Y21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AA21" t="s">
         <v>158</v>
       </c>
       <c r="AB21" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AC21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AE21" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AH21" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI21">
         <v>0</v>
       </c>
       <c r="AJ21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AK21" t="s">
         <v>158</v>
       </c>
       <c r="AL21" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -9431,10 +9452,10 @@
         <v>0</v>
       </c>
       <c r="AO21" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AP21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -9509,25 +9530,25 @@
         <v>0</v>
       </c>
       <c r="BO21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BP21" t="s">
         <v>158</v>
       </c>
       <c r="BQ21" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BR21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BS21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BT21" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BU21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BW21">
         <v>0</v>
@@ -9536,28 +9557,28 @@
         <v>0</v>
       </c>
       <c r="BY21" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="BZ21" t="s">
         <v>155</v>
       </c>
       <c r="CA21" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="CB21" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="CC21">
         <v>0</v>
       </c>
       <c r="CD21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CE21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CF21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CG21">
         <v>0</v>
@@ -9566,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="CI21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CJ21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CK21">
         <v>0</v>
       </c>
       <c r="CL21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CM21" t="s">
         <v>158</v>
       </c>
       <c r="CN21" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CO21">
         <v>0</v>
@@ -9590,10 +9611,10 @@
         <v>0</v>
       </c>
       <c r="CQ21" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="CR21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CS21">
         <v>0</v>
@@ -9647,7 +9668,7 @@
         <v>0</v>
       </c>
       <c r="DS21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU21">
         <v>0</v>
@@ -9659,19 +9680,19 @@
         <v>0</v>
       </c>
       <c r="DY21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EA21" t="s">
         <v>171</v>
       </c>
       <c r="EB21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED21" t="s">
         <v>167</v>
@@ -9769,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -9781,13 +9802,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="X22" t="s">
         <v>172</v>
       </c>
       <c r="Y22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z22" t="s">
         <v>164</v>
@@ -9796,25 +9817,25 @@
         <v>158</v>
       </c>
       <c r="AB22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AC22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AE22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AH22" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -9919,22 +9940,22 @@
         <v>158</v>
       </c>
       <c r="BQ22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BR22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BS22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BT22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BU22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BV22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BW22">
         <v>0</v>
@@ -9943,25 +9964,25 @@
         <v>0</v>
       </c>
       <c r="BY22" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="BZ22" t="s">
         <v>155</v>
       </c>
       <c r="CA22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CC22">
         <v>0</v>
       </c>
       <c r="CD22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CE22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CF22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CG22">
         <v>0</v>
@@ -9985,7 +10006,7 @@
         <v>158</v>
       </c>
       <c r="CN22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CO22">
         <v>0</v>
@@ -10051,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="DS22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU22">
         <v>0</v>
@@ -10063,19 +10084,19 @@
         <v>0</v>
       </c>
       <c r="DY22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EA22" t="s">
         <v>172</v>
       </c>
       <c r="EB22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED22">
         <v>0</v>
@@ -10093,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="EI22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EJ22">
         <v>0</v>
@@ -10173,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -10182,25 +10203,25 @@
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="X23" t="s">
         <v>170</v>
       </c>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AA23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AB23" t="s">
         <v>158</v>
@@ -10209,25 +10230,25 @@
         <v>164</v>
       </c>
       <c r="AD23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AE23" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AF23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AH23" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AI23">
         <v>0</v>
       </c>
       <c r="AJ23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AK23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AL23" t="s">
         <v>158</v>
@@ -10239,10 +10260,10 @@
         <v>0</v>
       </c>
       <c r="AO23" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AP23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -10317,10 +10338,10 @@
         <v>0</v>
       </c>
       <c r="BO23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BP23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BQ23" t="s">
         <v>158</v>
@@ -10329,64 +10350,64 @@
         <v>164</v>
       </c>
       <c r="BS23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BT23" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BU23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BW23">
         <v>0</v>
       </c>
       <c r="BX23" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="BY23" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="BZ23" t="s">
         <v>155</v>
       </c>
       <c r="CA23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CB23" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="CC23" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="CD23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CE23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CF23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CG23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CH23">
         <v>0</v>
       </c>
       <c r="CI23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CJ23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CK23">
         <v>0</v>
       </c>
       <c r="CL23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CM23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CN23" t="s">
         <v>158</v>
@@ -10398,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="CQ23" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CR23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CS23">
         <v>0</v>
@@ -10455,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="DS23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DU23">
         <v>0</v>
@@ -10467,19 +10488,19 @@
         <v>0</v>
       </c>
       <c r="DY23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DZ23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EA23" t="s">
         <v>170</v>
       </c>
       <c r="EB23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EC23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ED23" t="s">
         <v>167</v>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="264">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -469,6 +469,9 @@
     <t>CHITUNGWIZA</t>
   </si>
   <si>
+    <t>GURUVE</t>
+  </si>
+  <si>
     <t>GOKWE SOUTH</t>
   </si>
   <si>
@@ -541,6 +544,9 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
@@ -571,6 +577,9 @@
     <t>Gonono Clinic</t>
   </si>
   <si>
+    <t>Gota</t>
+  </si>
+  <si>
     <t>Jompani</t>
   </si>
   <si>
@@ -628,6 +637,9 @@
     <t>18</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>correction</t>
   </si>
   <si>
@@ -649,9 +661,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -719,6 +728,9 @@
   </si>
   <si>
     <t>2025-06-19T13:54:38.602973Z</t>
+  </si>
+  <si>
+    <t>2025-07-18T07:55:21.492660Z</t>
   </si>
   <si>
     <t>2025-06-12T12:35:28.391560Z</t>
@@ -1151,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ER23"/>
+  <dimension ref="A1:ER24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1629,379 +1641,379 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>174</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>180</v>
+      </c>
+      <c r="X2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>209</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>254</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>204</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>209</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>213</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>219</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>159</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>210</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>204</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>204</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>165</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>204</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>204</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>204</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>158</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>204</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>158</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>204</v>
+      </c>
+      <c r="EB2">
+        <v>0</v>
+      </c>
+      <c r="EC2">
+        <v>0</v>
+      </c>
+      <c r="ED2">
+        <v>0</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2">
+        <v>0</v>
+      </c>
+      <c r="EH2">
+        <v>0</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>163</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>204</v>
+      </c>
+      <c r="EL2">
+        <v>0</v>
+      </c>
+      <c r="EM2">
+        <v>0</v>
+      </c>
+      <c r="EN2">
+        <v>0</v>
+      </c>
+      <c r="EO2">
+        <v>0</v>
+      </c>
+      <c r="EP2">
+        <v>0</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>157</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>173</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>175</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>178</v>
-      </c>
-      <c r="X2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>201</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>201</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>205</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>209</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>216</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>206</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>201</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>201</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>201</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>252</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>205</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>209</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>216</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>158</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>206</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>201</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>201</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="CZ2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DG2">
-        <v>0</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>164</v>
-      </c>
-      <c r="DI2">
-        <v>0</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>201</v>
-      </c>
-      <c r="DK2">
-        <v>0</v>
-      </c>
-      <c r="DM2">
-        <v>0</v>
-      </c>
-      <c r="DO2">
-        <v>0</v>
-      </c>
-      <c r="DR2">
-        <v>0</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>201</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>201</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>157</v>
-      </c>
-      <c r="DX2">
-        <v>0</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>201</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>157</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>201</v>
-      </c>
-      <c r="EB2">
-        <v>0</v>
-      </c>
-      <c r="EC2">
-        <v>0</v>
-      </c>
-      <c r="ED2">
-        <v>0</v>
-      </c>
-      <c r="EE2">
-        <v>0</v>
-      </c>
-      <c r="EF2">
-        <v>0</v>
-      </c>
-      <c r="EG2">
-        <v>0</v>
-      </c>
-      <c r="EH2">
-        <v>0</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>162</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>201</v>
-      </c>
-      <c r="EL2">
-        <v>0</v>
-      </c>
-      <c r="EM2">
-        <v>0</v>
-      </c>
-      <c r="EN2">
-        <v>0</v>
-      </c>
-      <c r="EO2">
-        <v>0</v>
-      </c>
-      <c r="EP2">
-        <v>0</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>156</v>
-      </c>
       <c r="ER2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:148">
@@ -2033,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2045,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2054,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2063,67 +2075,67 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="X3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AA3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AB3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AC3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AD3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AE3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AF3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AH3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL3" t="s">
         <v>218</v>
       </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>215</v>
-      </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -2198,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BP3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BQ3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="BR3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BS3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BT3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BU3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -2225,64 +2237,64 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="BZ3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CA3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CB3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CE3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CF3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CG3">
         <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CK3">
         <v>0</v>
       </c>
       <c r="CL3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CM3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CN3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CQ3">
         <v>0</v>
       </c>
       <c r="CR3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CS3">
         <v>0</v>
@@ -2336,34 +2348,34 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU3">
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DX3">
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EA3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="EB3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EC3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="ED3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2378,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="EJ3">
         <v>0</v>
@@ -2402,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="EQ3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER3">
         <v>0</v>
@@ -2437,91 +2449,91 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>174</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>177</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>182</v>
+      </c>
+      <c r="X4" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA4" t="s">
         <v>159</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>175</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>180</v>
-      </c>
-      <c r="X4" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>158</v>
-      </c>
       <c r="AB4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AC4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AD4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AE4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AF4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AH4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>218</v>
       </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>215</v>
-      </c>
       <c r="AK4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AL4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AM4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AO4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -2554,22 +2566,22 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BA4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BB4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BD4">
         <v>0</v>
       </c>
       <c r="BE4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -2599,25 +2611,25 @@
         <v>0</v>
       </c>
       <c r="BO4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="BP4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="BQ4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="BR4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BS4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BT4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BU4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BW4">
         <v>0</v>
@@ -2626,37 +2638,37 @@
         <v>0</v>
       </c>
       <c r="BY4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="BZ4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="CA4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CB4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CC4">
         <v>0</v>
       </c>
       <c r="CD4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="CE4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="CF4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="CH4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CI4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CJ4">
         <v>0</v>
@@ -2713,25 +2725,25 @@
         <v>0</v>
       </c>
       <c r="DB4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="DC4">
         <v>0</v>
       </c>
       <c r="DD4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DE4">
         <v>0</v>
       </c>
       <c r="DF4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DG4">
         <v>0</v>
       </c>
       <c r="DH4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="DI4">
         <v>0</v>
@@ -2740,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="DL4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DM4">
         <v>0</v>
@@ -2752,25 +2764,25 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DW4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DX4">
         <v>0</v>
       </c>
       <c r="DY4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="EA4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2794,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="EJ4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2815,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="EQ4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER4">
         <v>0</v>
@@ -2859,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2868,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2880,13 +2892,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Y5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -3009,16 +3021,16 @@
         <v>0</v>
       </c>
       <c r="BO5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="BP5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BQ5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="BR5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="BS5">
         <v>0</v>
@@ -3039,28 +3051,28 @@
         <v>0</v>
       </c>
       <c r="BY5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="BZ5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="CA5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CC5">
         <v>0</v>
       </c>
       <c r="CD5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CE5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CF5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CG5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -3075,16 +3087,16 @@
         <v>0</v>
       </c>
       <c r="CL5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CM5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CN5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CO5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CP5">
         <v>0</v>
@@ -3147,25 +3159,25 @@
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU5">
         <v>0</v>
       </c>
       <c r="DW5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="DX5">
         <v>0</v>
       </c>
       <c r="DZ5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EB5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EC5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="ED5">
         <v>0</v>
@@ -3183,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -3207,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="EQ5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER5">
         <v>0</v>
@@ -3251,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -3260,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -3269,28 +3281,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="X6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Y6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AA6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AB6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -3308,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="AH6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AK6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AL6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -3362,13 +3374,13 @@
         <v>0</v>
       </c>
       <c r="AZ6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BA6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BB6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -3407,136 +3419,136 @@
         <v>0</v>
       </c>
       <c r="BO6" t="s">
+        <v>226</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>227</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>229</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>204</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>235</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>255</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>204</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>222</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>204</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>204</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>227</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>229</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6" t="s">
         <v>223</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6" t="s">
         <v>224</v>
       </c>
-      <c r="BQ6" t="s">
-        <v>226</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>201</v>
-      </c>
-      <c r="BS6">
-        <v>0</v>
-      </c>
-      <c r="BT6">
-        <v>0</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6">
-        <v>0</v>
-      </c>
-      <c r="BX6">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>232</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>251</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>201</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>219</v>
-      </c>
-      <c r="CC6">
-        <v>0</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>201</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>201</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>201</v>
-      </c>
-      <c r="CG6">
-        <v>0</v>
-      </c>
-      <c r="CH6">
-        <v>0</v>
-      </c>
-      <c r="CI6">
-        <v>0</v>
-      </c>
-      <c r="CJ6">
-        <v>0</v>
-      </c>
-      <c r="CK6">
-        <v>0</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>223</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>224</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>226</v>
-      </c>
-      <c r="CO6">
-        <v>0</v>
-      </c>
-      <c r="CP6">
-        <v>0</v>
-      </c>
-      <c r="CQ6">
-        <v>0</v>
-      </c>
-      <c r="CR6">
-        <v>0</v>
-      </c>
-      <c r="CS6">
-        <v>0</v>
-      </c>
-      <c r="CT6">
-        <v>0</v>
-      </c>
-      <c r="CU6">
-        <v>0</v>
-      </c>
-      <c r="CV6">
-        <v>0</v>
-      </c>
-      <c r="CW6">
-        <v>0</v>
-      </c>
-      <c r="CX6">
-        <v>0</v>
-      </c>
-      <c r="CY6">
-        <v>0</v>
-      </c>
-      <c r="CZ6">
-        <v>0</v>
-      </c>
-      <c r="DA6">
-        <v>0</v>
-      </c>
-      <c r="DB6" t="s">
-        <v>220</v>
-      </c>
-      <c r="DC6">
-        <v>0</v>
-      </c>
-      <c r="DD6" t="s">
-        <v>221</v>
-      </c>
       <c r="DE6">
         <v>0</v>
       </c>
       <c r="DF6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DG6">
         <v>0</v>
@@ -3557,31 +3569,31 @@
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU6">
         <v>0</v>
       </c>
       <c r="DW6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="DX6">
         <v>0</v>
       </c>
       <c r="DZ6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="EB6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EC6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="ED6">
         <v>0</v>
       </c>
       <c r="EE6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="EF6">
         <v>0</v>
@@ -3593,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="EJ6">
         <v>0</v>
@@ -3617,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="EQ6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -3652,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3664,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -3673,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -3682,67 +3694,67 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="X7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AB7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AC7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AD7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AE7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AF7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AH7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM7" t="s">
         <v>218</v>
       </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>215</v>
-      </c>
       <c r="AN7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AO7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AP7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -3784,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="BD7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BE7">
         <v>0</v>
@@ -3817,25 +3829,25 @@
         <v>0</v>
       </c>
       <c r="BO7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BP7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="BQ7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BR7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="BS7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="BT7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="BU7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -3844,64 +3856,64 @@
         <v>0</v>
       </c>
       <c r="BY7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="BZ7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CA7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="CB7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CC7">
         <v>0</v>
       </c>
       <c r="CD7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CE7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CF7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CG7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CH7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CI7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CJ7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CK7">
         <v>0</v>
       </c>
       <c r="CL7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="CM7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CN7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="CO7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="CP7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="CQ7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="CR7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CS7">
         <v>0</v>
@@ -3943,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="DJ7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="DK7">
         <v>0</v>
@@ -3958,34 +3970,34 @@
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU7">
         <v>0</v>
       </c>
       <c r="DW7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DX7">
         <v>0</v>
       </c>
       <c r="DY7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EA7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="EB7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EC7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="ED7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="EE7">
         <v>0</v>
@@ -4000,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EJ7">
         <v>0</v>
@@ -4024,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="EQ7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER7">
         <v>0</v>
@@ -4059,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4071,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -4080,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -4092,53 +4104,53 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="X8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Y8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AB8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AD8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AE8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AF8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AH8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL8" t="s">
         <v>218</v>
       </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>206</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>215</v>
-      </c>
       <c r="AM8">
         <v>0</v>
       </c>
@@ -4179,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="AZ8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BA8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BB8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -4224,28 +4236,28 @@
         <v>0</v>
       </c>
       <c r="BO8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="BP8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="BQ8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="BR8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BS8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BT8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BU8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BV8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -4254,28 +4266,28 @@
         <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="BZ8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CA8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CB8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CC8">
         <v>0</v>
       </c>
       <c r="CD8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="CE8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="CF8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="CG8">
         <v>0</v>
@@ -4341,19 +4353,19 @@
         <v>0</v>
       </c>
       <c r="DB8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DC8">
         <v>0</v>
       </c>
       <c r="DD8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="DE8">
         <v>0</v>
       </c>
       <c r="DF8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="DG8">
         <v>0</v>
@@ -4374,31 +4386,31 @@
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU8">
         <v>0</v>
       </c>
       <c r="DW8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DX8">
         <v>0</v>
       </c>
       <c r="DY8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="EA8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EB8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EC8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="ED8">
         <v>0</v>
@@ -4416,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="EI8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="EJ8">
         <v>0</v>
@@ -4440,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="EQ8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER8">
         <v>0</v>
@@ -4460,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4474,9 +4486,6 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
-        <v>162</v>
-      </c>
       <c r="L9">
         <v>0</v>
       </c>
@@ -4487,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -4495,8 +4504,8 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9" t="s">
-        <v>175</v>
+      <c r="R9">
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -4504,68 +4513,68 @@
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>187</v>
+      </c>
+      <c r="X9" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="s">
         <v>176</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
-        <v>185</v>
-      </c>
-      <c r="X9" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>218</v>
-      </c>
       <c r="AI9">
         <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -4640,25 +4649,28 @@
         <v>0</v>
       </c>
       <c r="BO9" t="s">
-        <v>164</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>158</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>208</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>213</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>213</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>217</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
       </c>
       <c r="BW9">
         <v>0</v>
@@ -4667,64 +4679,64 @@
         <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="BZ9" t="s">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="CA9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CB9" t="s">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="CC9">
         <v>0</v>
       </c>
       <c r="CD9" t="s">
-        <v>201</v>
-      </c>
-      <c r="CE9" t="s">
-        <v>201</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>201</v>
-      </c>
-      <c r="CG9" t="s">
-        <v>201</v>
-      </c>
-      <c r="CH9" t="s">
-        <v>201</v>
-      </c>
-      <c r="CI9" t="s">
-        <v>201</v>
-      </c>
-      <c r="CJ9" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
       </c>
       <c r="CK9">
         <v>0</v>
       </c>
       <c r="CL9" t="s">
-        <v>164</v>
-      </c>
-      <c r="CM9" t="s">
-        <v>158</v>
-      </c>
-      <c r="CN9" t="s">
-        <v>208</v>
-      </c>
-      <c r="CO9" t="s">
-        <v>213</v>
-      </c>
-      <c r="CP9" t="s">
-        <v>213</v>
-      </c>
-      <c r="CQ9" t="s">
-        <v>217</v>
-      </c>
-      <c r="CR9" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
       </c>
       <c r="CS9">
         <v>0</v>
@@ -4778,34 +4790,31 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU9">
         <v>0</v>
       </c>
       <c r="DW9" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="DX9">
         <v>0</v>
       </c>
       <c r="DY9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ9" t="s">
-        <v>201</v>
-      </c>
-      <c r="EA9" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="EB9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EC9" t="s">
-        <v>201</v>
-      </c>
-      <c r="ED9" t="s">
-        <v>216</v>
+        <v>204</v>
+      </c>
+      <c r="ED9">
+        <v>0</v>
       </c>
       <c r="EE9">
         <v>0</v>
@@ -4820,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="EJ9">
         <v>0</v>
@@ -4844,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="EQ9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER9">
         <v>0</v>
@@ -4864,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4879,97 +4888,97 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>174</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>177</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>178</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>188</v>
+      </c>
+      <c r="X10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA10" t="s">
         <v>159</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>173</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
-        <v>175</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10" t="s">
-        <v>186</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="AB10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK10" t="s">
         <v>159</v>
       </c>
-      <c r="Y10" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
+      <c r="AL10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>210</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -5044,28 +5053,25 @@
         <v>0</v>
       </c>
       <c r="BO10" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="BP10" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="BQ10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BR10" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="BS10" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="BT10" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="BU10" t="s">
-        <v>201</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -5074,61 +5080,64 @@
         <v>0</v>
       </c>
       <c r="BY10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BZ10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CA10" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>256</v>
       </c>
       <c r="CC10">
         <v>0</v>
       </c>
       <c r="CD10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CE10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CF10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CG10" t="s">
-        <v>201</v>
-      </c>
-      <c r="CH10">
-        <v>0</v>
-      </c>
-      <c r="CI10">
-        <v>0</v>
-      </c>
-      <c r="CJ10">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>204</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>204</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>204</v>
       </c>
       <c r="CK10">
         <v>0</v>
       </c>
       <c r="CL10" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="CM10" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="CN10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="CO10" t="s">
-        <v>206</v>
-      </c>
-      <c r="CP10">
-        <v>0</v>
-      </c>
-      <c r="CQ10">
-        <v>0</v>
-      </c>
-      <c r="CR10">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>216</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>220</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>210</v>
       </c>
       <c r="CS10">
         <v>0</v>
@@ -5182,34 +5191,34 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU10">
         <v>0</v>
       </c>
       <c r="DW10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="DX10">
         <v>0</v>
       </c>
       <c r="DY10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EA10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="EB10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EC10" t="s">
-        <v>201</v>
-      </c>
-      <c r="ED10">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="ED10" t="s">
+        <v>219</v>
       </c>
       <c r="EE10">
         <v>0</v>
@@ -5224,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="EJ10">
         <v>0</v>
@@ -5248,10 +5257,10 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="s">
-        <v>156</v>
-      </c>
-      <c r="ER10" t="s">
-        <v>259</v>
+        <v>157</v>
+      </c>
+      <c r="ER10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:148">
@@ -5294,6 +5303,9 @@
       <c r="N11">
         <v>0</v>
       </c>
+      <c r="O11" t="s">
+        <v>174</v>
+      </c>
       <c r="P11">
         <v>0</v>
       </c>
@@ -5301,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -5313,55 +5325,55 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="X11" t="s">
         <v>160</v>
       </c>
       <c r="Y11" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z11" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AA11" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="AB11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AC11" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="AD11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AE11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AF11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AH11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AI11">
         <v>0</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>206</v>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
       </c>
       <c r="AN11">
         <v>0</v>
@@ -5399,17 +5411,17 @@
       <c r="AY11">
         <v>0</v>
       </c>
-      <c r="AZ11" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>201</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>201</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>201</v>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
       </c>
       <c r="BD11">
         <v>0</v>
@@ -5444,29 +5456,29 @@
       <c r="BN11">
         <v>0</v>
       </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
-      <c r="BP11">
-        <v>0</v>
-      </c>
-      <c r="BQ11">
-        <v>0</v>
-      </c>
-      <c r="BR11">
-        <v>0</v>
-      </c>
-      <c r="BS11">
-        <v>0</v>
-      </c>
-      <c r="BT11">
-        <v>0</v>
-      </c>
-      <c r="BU11">
-        <v>0</v>
-      </c>
-      <c r="BV11">
-        <v>0</v>
+      <c r="BO11" t="s">
+        <v>212</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>217</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>217</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>210</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>204</v>
       </c>
       <c r="BW11">
         <v>0</v>
@@ -5475,31 +5487,28 @@
         <v>0</v>
       </c>
       <c r="BY11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="BZ11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CA11" t="s">
-        <v>201</v>
-      </c>
-      <c r="CB11" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="CC11">
         <v>0</v>
       </c>
       <c r="CD11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CE11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CF11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CG11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CH11">
         <v>0</v>
@@ -5514,16 +5523,16 @@
         <v>0</v>
       </c>
       <c r="CL11" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="CM11" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="CN11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="CO11" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="CP11">
         <v>0</v>
@@ -5561,27 +5570,15 @@
       <c r="DA11">
         <v>0</v>
       </c>
-      <c r="DB11" t="s">
-        <v>201</v>
-      </c>
       <c r="DC11">
         <v>0</v>
       </c>
-      <c r="DD11" t="s">
-        <v>164</v>
-      </c>
       <c r="DE11">
         <v>0</v>
       </c>
-      <c r="DF11" t="s">
-        <v>201</v>
-      </c>
       <c r="DG11">
         <v>0</v>
       </c>
-      <c r="DH11" t="s">
-        <v>206</v>
-      </c>
       <c r="DI11">
         <v>0</v>
       </c>
@@ -5598,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU11">
         <v>0</v>
@@ -5610,19 +5607,19 @@
         <v>0</v>
       </c>
       <c r="DY11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EA11" t="s">
         <v>160</v>
       </c>
       <c r="EB11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EC11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="ED11">
         <v>0</v>
@@ -5640,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="EJ11">
         <v>0</v>
@@ -5664,10 +5661,10 @@
         <v>0</v>
       </c>
       <c r="EQ11" t="s">
-        <v>156</v>
-      </c>
-      <c r="ER11">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="ER11" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:148">
@@ -5684,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -5710,9 +5707,6 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12" t="s">
-        <v>173</v>
-      </c>
       <c r="P12">
         <v>0</v>
       </c>
@@ -5720,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -5732,211 +5726,217 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="X12" t="s">
         <v>161</v>
       </c>
       <c r="Y12" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z12" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AA12" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="AB12" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AC12" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="AD12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AE12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AF12" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>204</v>
       </c>
       <c r="AH12" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>204</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>204</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>204</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>241</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>156</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>204</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>256</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>204</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>204</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>204</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>209</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>168</v>
+      </c>
+      <c r="CN12" t="s">
         <v>218</v>
       </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>164</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>201</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>201</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
-      <c r="BI12">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>0</v>
-      </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
-        <v>0</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>211</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>201</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>201</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>201</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>201</v>
-      </c>
-      <c r="BW12">
-        <v>0</v>
-      </c>
-      <c r="BX12">
-        <v>0</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>238</v>
-      </c>
-      <c r="BZ12" t="s">
-        <v>250</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>201</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>252</v>
-      </c>
-      <c r="CC12">
-        <v>0</v>
-      </c>
-      <c r="CD12" t="s">
-        <v>205</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>211</v>
-      </c>
-      <c r="CG12" t="s">
-        <v>201</v>
-      </c>
-      <c r="CH12" t="s">
-        <v>201</v>
-      </c>
-      <c r="CI12" t="s">
-        <v>201</v>
-      </c>
-      <c r="CJ12">
-        <v>0</v>
-      </c>
-      <c r="CK12">
-        <v>0</v>
-      </c>
-      <c r="CL12">
-        <v>0</v>
-      </c>
-      <c r="CM12">
-        <v>0</v>
-      </c>
-      <c r="CN12">
-        <v>0</v>
-      </c>
-      <c r="CO12">
-        <v>0</v>
+      <c r="CO12" t="s">
+        <v>165</v>
       </c>
       <c r="CP12">
         <v>0</v>
@@ -5975,23 +5975,26 @@
         <v>0</v>
       </c>
       <c r="DB12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="DC12">
         <v>0</v>
       </c>
       <c r="DD12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DE12">
         <v>0</v>
       </c>
       <c r="DF12" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="DG12">
         <v>0</v>
       </c>
+      <c r="DH12" t="s">
+        <v>210</v>
+      </c>
       <c r="DI12">
         <v>0</v>
       </c>
@@ -6008,10 +6011,10 @@
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>201</v>
-      </c>
-      <c r="DU12" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="DU12">
+        <v>0</v>
       </c>
       <c r="DW12" t="s">
         <v>161</v>
@@ -6020,19 +6023,19 @@
         <v>0</v>
       </c>
       <c r="DY12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ12" t="s">
+        <v>204</v>
+      </c>
+      <c r="EA12" t="s">
         <v>161</v>
       </c>
-      <c r="EA12" t="s">
-        <v>201</v>
-      </c>
-      <c r="EB12">
-        <v>0</v>
-      </c>
-      <c r="EC12">
-        <v>0</v>
+      <c r="EB12" t="s">
+        <v>204</v>
+      </c>
+      <c r="EC12" t="s">
+        <v>204</v>
       </c>
       <c r="ED12">
         <v>0</v>
@@ -6050,10 +6053,13 @@
         <v>0</v>
       </c>
       <c r="EI12" t="s">
-        <v>167</v>
-      </c>
-      <c r="EJ12" t="s">
-        <v>201</v>
+        <v>207</v>
+      </c>
+      <c r="EJ12">
+        <v>0</v>
+      </c>
+      <c r="EK12">
+        <v>0</v>
       </c>
       <c r="EL12">
         <v>0</v>
@@ -6071,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="EQ12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER12">
         <v>0</v>
@@ -6091,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -6106,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -6118,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -6127,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -6139,58 +6145,55 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="X13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z13" t="s">
         <v>209</v>
       </c>
       <c r="AA13" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="AB13" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="AC13" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="AD13" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="AE13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AF13" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AH13" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AI13">
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AK13" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="AL13" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>215</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>206</v>
+        <v>165</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -6226,19 +6229,19 @@
         <v>0</v>
       </c>
       <c r="AZ13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BA13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BB13" t="s">
-        <v>201</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>201</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
       </c>
       <c r="BE13">
         <v>0</v>
@@ -6274,25 +6277,22 @@
         <v>209</v>
       </c>
       <c r="BP13" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="BQ13" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="BR13" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="BS13" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="BT13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BU13" t="s">
-        <v>201</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BW13">
         <v>0</v>
@@ -6301,37 +6301,37 @@
         <v>0</v>
       </c>
       <c r="BY13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="BZ13" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="CA13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CB13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CC13">
         <v>0</v>
       </c>
       <c r="CD13" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="CE13" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="CF13" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="CG13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CH13" t="s">
-        <v>201</v>
-      </c>
-      <c r="CI13">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>204</v>
       </c>
       <c r="CJ13">
         <v>0</v>
@@ -6339,20 +6339,20 @@
       <c r="CK13">
         <v>0</v>
       </c>
-      <c r="CL13" t="s">
-        <v>209</v>
-      </c>
-      <c r="CM13" t="s">
-        <v>171</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>171</v>
-      </c>
-      <c r="CO13" t="s">
-        <v>167</v>
-      </c>
-      <c r="CP13" t="s">
-        <v>164</v>
+      <c r="CL13">
+        <v>0</v>
+      </c>
+      <c r="CM13">
+        <v>0</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>0</v>
+      </c>
+      <c r="CP13">
+        <v>0</v>
       </c>
       <c r="CQ13">
         <v>0</v>
@@ -6388,32 +6388,26 @@
         <v>0</v>
       </c>
       <c r="DB13" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="DC13">
         <v>0</v>
       </c>
       <c r="DD13" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="DE13">
         <v>0</v>
       </c>
       <c r="DF13" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="DG13">
         <v>0</v>
       </c>
-      <c r="DH13" t="s">
-        <v>215</v>
-      </c>
       <c r="DI13">
         <v>0</v>
       </c>
-      <c r="DJ13" t="s">
-        <v>206</v>
-      </c>
       <c r="DK13">
         <v>0</v>
       </c>
@@ -6427,31 +6421,31 @@
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>201</v>
-      </c>
-      <c r="DU13">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>204</v>
       </c>
       <c r="DW13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DX13">
         <v>0</v>
       </c>
       <c r="DY13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ13" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="EA13" t="s">
-        <v>163</v>
-      </c>
-      <c r="EB13" t="s">
-        <v>201</v>
-      </c>
-      <c r="EC13" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="EB13">
+        <v>0</v>
+      </c>
+      <c r="EC13">
+        <v>0</v>
       </c>
       <c r="ED13">
         <v>0</v>
@@ -6469,13 +6463,10 @@
         <v>0</v>
       </c>
       <c r="EI13" t="s">
-        <v>205</v>
-      </c>
-      <c r="EJ13">
-        <v>0</v>
-      </c>
-      <c r="EK13">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="EJ13" t="s">
+        <v>204</v>
       </c>
       <c r="EL13">
         <v>0</v>
@@ -6493,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="EQ13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER13">
         <v>0</v>
@@ -6513,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -6540,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -6549,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -6561,58 +6552,58 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="X14" t="s">
         <v>164</v>
       </c>
       <c r="Y14" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z14" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="AA14" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="AB14" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="AC14" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="AD14" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="AE14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AF14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AH14" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK14" t="s">
         <v>218</v>
       </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
+      <c r="AL14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>210</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -6647,20 +6638,20 @@
       <c r="AY14">
         <v>0</v>
       </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
+      <c r="AZ14" t="s">
+        <v>204</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>204</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>204</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>204</v>
       </c>
       <c r="BE14">
         <v>0</v>
@@ -6693,28 +6684,28 @@
         <v>0</v>
       </c>
       <c r="BO14" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="BP14" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="BQ14" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="BR14" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="BS14" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="BT14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BU14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BV14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BW14">
         <v>0</v>
@@ -6723,31 +6714,34 @@
         <v>0</v>
       </c>
       <c r="BY14" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="BZ14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CA14" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>256</v>
       </c>
       <c r="CC14">
         <v>0</v>
       </c>
       <c r="CD14" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="CE14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CF14" t="s">
-        <v>201</v>
-      </c>
-      <c r="CG14">
-        <v>0</v>
-      </c>
-      <c r="CH14">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>204</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>204</v>
       </c>
       <c r="CI14">
         <v>0</v>
@@ -6758,20 +6752,20 @@
       <c r="CK14">
         <v>0</v>
       </c>
-      <c r="CL14">
-        <v>0</v>
-      </c>
-      <c r="CM14">
-        <v>0</v>
-      </c>
-      <c r="CN14">
-        <v>0</v>
-      </c>
-      <c r="CO14">
-        <v>0</v>
-      </c>
-      <c r="CP14">
-        <v>0</v>
+      <c r="CL14" t="s">
+        <v>213</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>172</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>172</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>168</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>165</v>
       </c>
       <c r="CQ14">
         <v>0</v>
@@ -6806,18 +6800,33 @@
       <c r="DA14">
         <v>0</v>
       </c>
+      <c r="DB14" t="s">
+        <v>204</v>
+      </c>
       <c r="DC14">
         <v>0</v>
       </c>
+      <c r="DD14" t="s">
+        <v>218</v>
+      </c>
       <c r="DE14">
         <v>0</v>
       </c>
+      <c r="DF14" t="s">
+        <v>207</v>
+      </c>
       <c r="DG14">
         <v>0</v>
       </c>
+      <c r="DH14" t="s">
+        <v>218</v>
+      </c>
       <c r="DI14">
         <v>0</v>
       </c>
+      <c r="DJ14" t="s">
+        <v>210</v>
+      </c>
       <c r="DK14">
         <v>0</v>
       </c>
@@ -6831,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU14">
         <v>0</v>
@@ -6843,19 +6852,19 @@
         <v>0</v>
       </c>
       <c r="DY14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ14" t="s">
+        <v>204</v>
+      </c>
+      <c r="EA14" t="s">
         <v>164</v>
       </c>
-      <c r="EA14" t="s">
-        <v>201</v>
-      </c>
       <c r="EB14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EC14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="ED14">
         <v>0</v>
@@ -6873,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="EI14" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="EJ14">
         <v>0</v>
@@ -6897,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="EQ14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER14">
         <v>0</v>
@@ -6917,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -6944,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -6953,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -6965,40 +6974,40 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="X15" t="s">
         <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AA15" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="AB15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AC15" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AD15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AE15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AF15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AH15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -7097,28 +7106,28 @@
         <v>0</v>
       </c>
       <c r="BO15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BP15" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="BQ15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BR15" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="BS15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BT15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BU15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BV15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BW15">
         <v>0</v>
@@ -7127,28 +7136,28 @@
         <v>0</v>
       </c>
       <c r="BY15" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="BZ15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CA15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CC15">
         <v>0</v>
       </c>
       <c r="CD15" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="CE15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CF15" t="s">
-        <v>201</v>
-      </c>
-      <c r="CG15" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="CG15">
+        <v>0</v>
       </c>
       <c r="CH15">
         <v>0</v>
@@ -7162,17 +7171,17 @@
       <c r="CK15">
         <v>0</v>
       </c>
-      <c r="CL15" t="s">
-        <v>167</v>
-      </c>
-      <c r="CM15" t="s">
-        <v>167</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>205</v>
-      </c>
-      <c r="CO15" t="s">
-        <v>211</v>
+      <c r="CL15">
+        <v>0</v>
+      </c>
+      <c r="CM15">
+        <v>0</v>
+      </c>
+      <c r="CN15">
+        <v>0</v>
+      </c>
+      <c r="CO15">
+        <v>0</v>
       </c>
       <c r="CP15">
         <v>0</v>
@@ -7235,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="DS15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU15">
         <v>0</v>
@@ -7247,19 +7256,19 @@
         <v>0</v>
       </c>
       <c r="DY15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ15" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="EA15" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="EB15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EC15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="ED15">
         <v>0</v>
@@ -7277,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="EI15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EJ15">
         <v>0</v>
@@ -7301,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="EQ15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER15">
         <v>0</v>
@@ -7321,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -7348,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -7357,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -7369,40 +7378,40 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="X16" t="s">
         <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z16" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="AA16" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="AB16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC16" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AD16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AE16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AF16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AH16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -7501,28 +7510,28 @@
         <v>0</v>
       </c>
       <c r="BO16" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="BP16" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="BQ16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BR16" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="BS16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BT16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BU16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BV16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BW16">
         <v>0</v>
@@ -7531,28 +7540,28 @@
         <v>0</v>
       </c>
       <c r="BY16" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="BZ16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CA16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CC16">
         <v>0</v>
       </c>
       <c r="CD16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CE16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CF16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CG16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CH16">
         <v>0</v>
@@ -7567,16 +7576,16 @@
         <v>0</v>
       </c>
       <c r="CL16" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="CM16" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="CN16" t="s">
-        <v>208</v>
-      </c>
-      <c r="CO16">
-        <v>0</v>
+        <v>209</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>207</v>
       </c>
       <c r="CP16">
         <v>0</v>
@@ -7639,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="DS16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU16">
         <v>0</v>
@@ -7651,19 +7660,19 @@
         <v>0</v>
       </c>
       <c r="DY16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EA16" t="s">
         <v>166</v>
       </c>
       <c r="EB16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EC16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="ED16">
         <v>0</v>
@@ -7681,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="EI16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EJ16">
         <v>0</v>
@@ -7705,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="EQ16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER16">
         <v>0</v>
@@ -7725,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -7752,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -7761,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -7769,62 +7778,62 @@
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17" t="s">
-        <v>176</v>
-      </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="X17" t="s">
         <v>167</v>
       </c>
       <c r="Y17" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z17" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AA17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AB17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AC17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AD17" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AE17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AF17" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>204</v>
       </c>
       <c r="AH17" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AI17">
         <v>0</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>215</v>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
       </c>
-      <c r="AN17" t="s">
-        <v>215</v>
+      <c r="AN17">
+        <v>0</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -7905,25 +7914,28 @@
         <v>0</v>
       </c>
       <c r="BO17" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="BP17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="BQ17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BR17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BS17" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="BT17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BU17" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>204</v>
       </c>
       <c r="BW17">
         <v>0</v>
@@ -7932,34 +7944,31 @@
         <v>0</v>
       </c>
       <c r="BY17" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="BZ17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CA17" t="s">
-        <v>201</v>
-      </c>
-      <c r="CB17" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="CC17">
         <v>0</v>
       </c>
       <c r="CD17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CE17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CF17" t="s">
-        <v>201</v>
-      </c>
-      <c r="CG17">
-        <v>0</v>
-      </c>
-      <c r="CH17" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>204</v>
+      </c>
+      <c r="CH17">
+        <v>0</v>
       </c>
       <c r="CI17">
         <v>0</v>
@@ -7971,19 +7980,19 @@
         <v>0</v>
       </c>
       <c r="CL17" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="CM17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="CN17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="CO17">
         <v>0</v>
       </c>
-      <c r="CP17" t="s">
-        <v>215</v>
+      <c r="CP17">
+        <v>0</v>
       </c>
       <c r="CQ17">
         <v>0</v>
@@ -8043,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="DS17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU17">
         <v>0</v>
@@ -8055,22 +8064,22 @@
         <v>0</v>
       </c>
       <c r="DY17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EA17" t="s">
         <v>167</v>
       </c>
       <c r="EB17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EC17" t="s">
-        <v>201</v>
-      </c>
-      <c r="ED17" t="s">
-        <v>215</v>
+        <v>204</v>
+      </c>
+      <c r="ED17">
+        <v>0</v>
       </c>
       <c r="EE17">
         <v>0</v>
@@ -8085,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="EI17" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="EJ17">
         <v>0</v>
@@ -8109,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="EQ17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER17">
         <v>0</v>
@@ -8156,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -8165,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -8174,67 +8183,67 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s">
         <v>168</v>
       </c>
       <c r="Y18" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA18" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="AB18" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AC18" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AD18" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AE18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AF18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AH18" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK18" t="s">
         <v>218</v>
       </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>211</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>167</v>
-      </c>
       <c r="AL18" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
       </c>
       <c r="AN18" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>206</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>206</v>
+        <v>218</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -8309,25 +8318,25 @@
         <v>0</v>
       </c>
       <c r="BO18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BP18" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="BQ18" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="BR18" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="BS18" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="BT18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BU18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BW18">
         <v>0</v>
@@ -8336,64 +8345,64 @@
         <v>0</v>
       </c>
       <c r="BY18" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="BZ18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CA18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CB18" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CC18">
         <v>0</v>
       </c>
       <c r="CD18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CE18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CF18" t="s">
-        <v>201</v>
-      </c>
-      <c r="CG18" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="CG18">
+        <v>0</v>
       </c>
       <c r="CH18" t="s">
-        <v>201</v>
-      </c>
-      <c r="CI18" t="s">
-        <v>201</v>
-      </c>
-      <c r="CJ18" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="CI18">
+        <v>0</v>
+      </c>
+      <c r="CJ18">
+        <v>0</v>
       </c>
       <c r="CK18">
         <v>0</v>
       </c>
       <c r="CL18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CM18" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="CN18" t="s">
-        <v>211</v>
-      </c>
-      <c r="CO18" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+      <c r="CO18">
+        <v>0</v>
       </c>
       <c r="CP18" t="s">
-        <v>211</v>
-      </c>
-      <c r="CQ18" t="s">
-        <v>206</v>
-      </c>
-      <c r="CR18" t="s">
-        <v>206</v>
+        <v>218</v>
+      </c>
+      <c r="CQ18">
+        <v>0</v>
+      </c>
+      <c r="CR18">
+        <v>0</v>
       </c>
       <c r="CS18">
         <v>0</v>
@@ -8447,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="DS18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU18">
         <v>0</v>
@@ -8459,22 +8468,22 @@
         <v>0</v>
       </c>
       <c r="DY18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EA18" t="s">
         <v>168</v>
       </c>
       <c r="EB18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EC18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="ED18" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="EE18">
         <v>0</v>
@@ -8513,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="EQ18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER18">
         <v>0</v>
@@ -8533,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -8559,6 +8568,9 @@
       <c r="N19">
         <v>0</v>
       </c>
+      <c r="O19" t="s">
+        <v>174</v>
+      </c>
       <c r="P19">
         <v>0</v>
       </c>
@@ -8566,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -8574,68 +8586,68 @@
       <c r="T19">
         <v>0</v>
       </c>
+      <c r="U19" t="s">
+        <v>178</v>
+      </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s">
         <v>169</v>
       </c>
       <c r="Y19" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z19" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AA19" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="AB19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AC19" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="AD19" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AE19" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AH19" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM19" t="s">
         <v>218</v>
       </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>217</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
+      <c r="AN19" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>210</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -8664,14 +8676,14 @@
       <c r="AY19">
         <v>0</v>
       </c>
-      <c r="AZ19" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>201</v>
-      </c>
-      <c r="BB19" t="s">
-        <v>201</v>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
       </c>
       <c r="BC19">
         <v>0</v>
@@ -8709,29 +8721,26 @@
       <c r="BN19">
         <v>0</v>
       </c>
-      <c r="BO19">
-        <v>0</v>
-      </c>
-      <c r="BP19">
-        <v>0</v>
-      </c>
-      <c r="BQ19">
-        <v>0</v>
-      </c>
-      <c r="BR19">
-        <v>0</v>
-      </c>
-      <c r="BS19">
-        <v>0</v>
-      </c>
-      <c r="BT19">
-        <v>0</v>
-      </c>
-      <c r="BU19">
-        <v>0</v>
-      </c>
-      <c r="BV19">
-        <v>0</v>
+      <c r="BO19" t="s">
+        <v>207</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>207</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>218</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>207</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>210</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>210</v>
       </c>
       <c r="BW19">
         <v>0</v>
@@ -8740,64 +8749,64 @@
         <v>0</v>
       </c>
       <c r="BY19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="BZ19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CA19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CB19" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="CC19">
         <v>0</v>
       </c>
       <c r="CD19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CE19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CF19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CG19" t="s">
-        <v>201</v>
-      </c>
-      <c r="CH19">
-        <v>0</v>
-      </c>
-      <c r="CI19">
-        <v>0</v>
-      </c>
-      <c r="CJ19">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>204</v>
+      </c>
+      <c r="CI19" t="s">
+        <v>204</v>
+      </c>
+      <c r="CJ19" t="s">
+        <v>204</v>
       </c>
       <c r="CK19">
         <v>0</v>
       </c>
       <c r="CL19" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="CM19" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="CN19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="CO19" t="s">
-        <v>206</v>
-      </c>
-      <c r="CP19">
-        <v>0</v>
-      </c>
-      <c r="CQ19">
-        <v>0</v>
-      </c>
-      <c r="CR19">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="CP19" t="s">
+        <v>207</v>
+      </c>
+      <c r="CQ19" t="s">
+        <v>210</v>
+      </c>
+      <c r="CR19" t="s">
+        <v>210</v>
       </c>
       <c r="CS19">
         <v>0</v>
@@ -8826,21 +8835,12 @@
       <c r="DA19">
         <v>0</v>
       </c>
-      <c r="DB19" t="s">
-        <v>164</v>
-      </c>
       <c r="DC19">
         <v>0</v>
       </c>
-      <c r="DD19" t="s">
-        <v>217</v>
-      </c>
       <c r="DE19">
         <v>0</v>
       </c>
-      <c r="DF19" t="s">
-        <v>213</v>
-      </c>
       <c r="DG19">
         <v>0</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="DS19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU19">
         <v>0</v>
@@ -8872,22 +8872,22 @@
         <v>0</v>
       </c>
       <c r="DY19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EA19" t="s">
         <v>169</v>
       </c>
       <c r="EB19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EC19" t="s">
-        <v>201</v>
-      </c>
-      <c r="ED19">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="ED19" t="s">
+        <v>209</v>
       </c>
       <c r="EE19">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="EI19" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="EJ19">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="EQ19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER19">
         <v>0</v>
@@ -8946,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -8972,9 +8972,6 @@
       <c r="N20">
         <v>0</v>
       </c>
-      <c r="O20" t="s">
-        <v>173</v>
-      </c>
       <c r="P20">
         <v>0</v>
       </c>
@@ -8982,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -8990,227 +8987,230 @@
       <c r="T20">
         <v>0</v>
       </c>
-      <c r="U20" t="s">
-        <v>176</v>
-      </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="X20" t="s">
         <v>170</v>
       </c>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z20" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="AA20" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="AB20" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="AC20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>204</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>204</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>249</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>156</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>204</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>257</v>
+      </c>
+      <c r="CC20">
+        <v>0</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>204</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>204</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>204</v>
+      </c>
+      <c r="CH20">
+        <v>0</v>
+      </c>
+      <c r="CI20">
+        <v>0</v>
+      </c>
+      <c r="CJ20">
+        <v>0</v>
+      </c>
+      <c r="CK20">
+        <v>0</v>
+      </c>
+      <c r="CL20" t="s">
         <v>215</v>
       </c>
-      <c r="AD20" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>206</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>164</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>158</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>215</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>206</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>206</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="BB20">
-        <v>0</v>
-      </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
-      <c r="BD20">
-        <v>0</v>
-      </c>
-      <c r="BE20">
-        <v>0</v>
-      </c>
-      <c r="BF20">
-        <v>0</v>
-      </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
-      <c r="BH20">
-        <v>0</v>
-      </c>
-      <c r="BI20">
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <v>0</v>
-      </c>
-      <c r="BK20">
-        <v>0</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BM20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
-        <v>0</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>201</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>164</v>
-      </c>
-      <c r="BQ20" t="s">
-        <v>158</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>215</v>
-      </c>
-      <c r="BS20" t="s">
-        <v>164</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>206</v>
-      </c>
-      <c r="BU20" t="s">
-        <v>206</v>
-      </c>
-      <c r="BW20">
-        <v>0</v>
-      </c>
-      <c r="BX20">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="s">
-        <v>246</v>
-      </c>
-      <c r="BZ20" t="s">
-        <v>155</v>
-      </c>
-      <c r="CA20" t="s">
-        <v>201</v>
-      </c>
-      <c r="CB20" t="s">
-        <v>252</v>
-      </c>
-      <c r="CC20">
-        <v>0</v>
-      </c>
-      <c r="CD20">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="s">
-        <v>201</v>
-      </c>
-      <c r="CF20" t="s">
-        <v>201</v>
-      </c>
-      <c r="CG20" t="s">
-        <v>201</v>
-      </c>
-      <c r="CH20" t="s">
-        <v>201</v>
-      </c>
-      <c r="CI20" t="s">
-        <v>201</v>
-      </c>
-      <c r="CJ20" t="s">
-        <v>201</v>
-      </c>
-      <c r="CK20">
-        <v>0</v>
-      </c>
-      <c r="CL20">
-        <v>0</v>
-      </c>
       <c r="CM20" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="CN20" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="CO20" t="s">
-        <v>215</v>
-      </c>
-      <c r="CP20" t="s">
-        <v>164</v>
-      </c>
-      <c r="CQ20" t="s">
-        <v>206</v>
-      </c>
-      <c r="CR20" t="s">
-        <v>206</v>
+        <v>210</v>
+      </c>
+      <c r="CP20">
+        <v>0</v>
+      </c>
+      <c r="CQ20">
+        <v>0</v>
+      </c>
+      <c r="CR20">
+        <v>0</v>
       </c>
       <c r="CS20">
         <v>0</v>
@@ -9239,12 +9239,21 @@
       <c r="DA20">
         <v>0</v>
       </c>
+      <c r="DB20" t="s">
+        <v>165</v>
+      </c>
       <c r="DC20">
         <v>0</v>
       </c>
+      <c r="DD20" t="s">
+        <v>220</v>
+      </c>
       <c r="DE20">
         <v>0</v>
       </c>
+      <c r="DF20" t="s">
+        <v>216</v>
+      </c>
       <c r="DG20">
         <v>0</v>
       </c>
@@ -9264,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="DS20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU20">
         <v>0</v>
@@ -9276,22 +9285,22 @@
         <v>0</v>
       </c>
       <c r="DY20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EA20" t="s">
         <v>170</v>
       </c>
       <c r="EB20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EC20" t="s">
-        <v>201</v>
-      </c>
-      <c r="ED20" t="s">
-        <v>211</v>
+        <v>204</v>
+      </c>
+      <c r="ED20">
+        <v>0</v>
       </c>
       <c r="EE20">
         <v>0</v>
@@ -9306,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="EI20" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="EJ20">
         <v>0</v>
@@ -9330,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="EQ20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER20">
         <v>0</v>
@@ -9377,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -9386,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -9395,67 +9404,67 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="X21" t="s">
         <v>171</v>
       </c>
       <c r="Y21" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AA21" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="AB21" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="AC21" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="AD21" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="AE21" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AF21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AH21" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM21" t="s">
         <v>218</v>
       </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
+      <c r="AN21" t="s">
+        <v>165</v>
       </c>
       <c r="AO21" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AP21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -9530,25 +9539,25 @@
         <v>0</v>
       </c>
       <c r="BO21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BP21" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="BQ21" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="BR21" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="BS21" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="BT21" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="BU21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BW21">
         <v>0</v>
@@ -9557,64 +9566,64 @@
         <v>0</v>
       </c>
       <c r="BY21" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="BZ21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CA21" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="CB21" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CC21">
         <v>0</v>
       </c>
-      <c r="CD21" t="s">
-        <v>201</v>
+      <c r="CD21">
+        <v>0</v>
       </c>
       <c r="CE21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CF21" t="s">
-        <v>201</v>
-      </c>
-      <c r="CG21">
-        <v>0</v>
-      </c>
-      <c r="CH21">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>204</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>204</v>
       </c>
       <c r="CI21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CJ21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CK21">
         <v>0</v>
       </c>
-      <c r="CL21" t="s">
-        <v>206</v>
+      <c r="CL21">
+        <v>0</v>
       </c>
       <c r="CM21" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="CN21" t="s">
-        <v>211</v>
-      </c>
-      <c r="CO21">
-        <v>0</v>
-      </c>
-      <c r="CP21">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>218</v>
+      </c>
+      <c r="CP21" t="s">
+        <v>165</v>
       </c>
       <c r="CQ21" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="CR21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="CS21">
         <v>0</v>
@@ -9668,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="DS21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU21">
         <v>0</v>
@@ -9680,22 +9689,22 @@
         <v>0</v>
       </c>
       <c r="DY21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EA21" t="s">
         <v>171</v>
       </c>
       <c r="EB21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EC21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="ED21" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="EE21">
         <v>0</v>
@@ -9734,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="EQ21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER21">
         <v>0</v>
@@ -9754,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -9781,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -9790,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -9798,68 +9807,68 @@
       <c r="T22">
         <v>0</v>
       </c>
+      <c r="U22" t="s">
+        <v>178</v>
+      </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="X22" t="s">
         <v>172</v>
       </c>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z22" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="AA22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AB22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AC22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AD22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AE22" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="AF22" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AH22" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="s">
         <v>218</v>
       </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
+      <c r="AP22" t="s">
+        <v>210</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -9934,28 +9943,25 @@
         <v>0</v>
       </c>
       <c r="BO22" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="BP22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BQ22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="BR22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BS22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BT22" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="BU22" t="s">
-        <v>201</v>
-      </c>
-      <c r="BV22" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="BW22">
         <v>0</v>
@@ -9964,25 +9970,28 @@
         <v>0</v>
       </c>
       <c r="BY22" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="BZ22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CA22" t="s">
-        <v>201</v>
+        <v>218</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>256</v>
       </c>
       <c r="CC22">
         <v>0</v>
       </c>
       <c r="CD22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CE22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CF22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="CG22">
         <v>0</v>
@@ -9990,23 +9999,23 @@
       <c r="CH22">
         <v>0</v>
       </c>
-      <c r="CI22">
-        <v>0</v>
-      </c>
-      <c r="CJ22">
-        <v>0</v>
+      <c r="CI22" t="s">
+        <v>204</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>204</v>
       </c>
       <c r="CK22">
         <v>0</v>
       </c>
       <c r="CL22" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="CM22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="CN22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="CO22">
         <v>0</v>
@@ -10014,11 +10023,11 @@
       <c r="CP22">
         <v>0</v>
       </c>
-      <c r="CQ22">
-        <v>0</v>
-      </c>
-      <c r="CR22">
-        <v>0</v>
+      <c r="CQ22" t="s">
+        <v>218</v>
+      </c>
+      <c r="CR22" t="s">
+        <v>210</v>
       </c>
       <c r="CS22">
         <v>0</v>
@@ -10072,7 +10081,7 @@
         <v>0</v>
       </c>
       <c r="DS22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU22">
         <v>0</v>
@@ -10084,22 +10093,22 @@
         <v>0</v>
       </c>
       <c r="DY22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DZ22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EA22" t="s">
         <v>172</v>
       </c>
       <c r="EB22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EC22" t="s">
-        <v>201</v>
-      </c>
-      <c r="ED22">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="ED22" t="s">
+        <v>168</v>
       </c>
       <c r="EE22">
         <v>0</v>
@@ -10114,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="EI22" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="EJ22">
         <v>0</v>
@@ -10138,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="EQ22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="ER22">
         <v>0</v>
@@ -10158,393 +10167,797 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>174</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>177</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X23" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>159</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>207</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>204</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>204</v>
+      </c>
+      <c r="BW23">
+        <v>0</v>
+      </c>
+      <c r="BX23">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>252</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>156</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>204</v>
+      </c>
+      <c r="CC23">
+        <v>0</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>204</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>204</v>
+      </c>
+      <c r="CG23">
+        <v>0</v>
+      </c>
+      <c r="CH23">
+        <v>0</v>
+      </c>
+      <c r="CI23">
+        <v>0</v>
+      </c>
+      <c r="CJ23">
+        <v>0</v>
+      </c>
+      <c r="CK23">
+        <v>0</v>
+      </c>
+      <c r="CL23" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM23" t="s">
+        <v>159</v>
+      </c>
+      <c r="CN23" t="s">
+        <v>207</v>
+      </c>
+      <c r="CO23">
+        <v>0</v>
+      </c>
+      <c r="CP23">
+        <v>0</v>
+      </c>
+      <c r="CQ23">
+        <v>0</v>
+      </c>
+      <c r="CR23">
+        <v>0</v>
+      </c>
+      <c r="CS23">
+        <v>0</v>
+      </c>
+      <c r="CT23">
+        <v>0</v>
+      </c>
+      <c r="CU23">
+        <v>0</v>
+      </c>
+      <c r="CV23">
+        <v>0</v>
+      </c>
+      <c r="CW23">
+        <v>0</v>
+      </c>
+      <c r="CX23">
+        <v>0</v>
+      </c>
+      <c r="CY23">
+        <v>0</v>
+      </c>
+      <c r="CZ23">
+        <v>0</v>
+      </c>
+      <c r="DA23">
+        <v>0</v>
+      </c>
+      <c r="DC23">
+        <v>0</v>
+      </c>
+      <c r="DE23">
+        <v>0</v>
+      </c>
+      <c r="DG23">
+        <v>0</v>
+      </c>
+      <c r="DI23">
+        <v>0</v>
+      </c>
+      <c r="DK23">
+        <v>0</v>
+      </c>
+      <c r="DM23">
+        <v>0</v>
+      </c>
+      <c r="DO23">
+        <v>0</v>
+      </c>
+      <c r="DR23">
+        <v>0</v>
+      </c>
+      <c r="DS23" t="s">
+        <v>204</v>
+      </c>
+      <c r="DU23">
+        <v>0</v>
+      </c>
+      <c r="DW23" t="s">
+        <v>173</v>
+      </c>
+      <c r="DX23">
+        <v>0</v>
+      </c>
+      <c r="DY23" t="s">
+        <v>204</v>
+      </c>
+      <c r="DZ23" t="s">
+        <v>204</v>
+      </c>
+      <c r="EA23" t="s">
+        <v>173</v>
+      </c>
+      <c r="EB23" t="s">
+        <v>204</v>
+      </c>
+      <c r="EC23" t="s">
+        <v>204</v>
+      </c>
+      <c r="ED23">
+        <v>0</v>
+      </c>
+      <c r="EE23">
+        <v>0</v>
+      </c>
+      <c r="EF23">
+        <v>0</v>
+      </c>
+      <c r="EG23">
+        <v>0</v>
+      </c>
+      <c r="EH23">
+        <v>0</v>
+      </c>
+      <c r="EI23" t="s">
+        <v>204</v>
+      </c>
+      <c r="EJ23">
+        <v>0</v>
+      </c>
+      <c r="EK23">
+        <v>0</v>
+      </c>
+      <c r="EL23">
+        <v>0</v>
+      </c>
+      <c r="EM23">
+        <v>0</v>
+      </c>
+      <c r="EN23">
+        <v>0</v>
+      </c>
+      <c r="EO23">
+        <v>0</v>
+      </c>
+      <c r="EP23">
+        <v>0</v>
+      </c>
+      <c r="EQ23" t="s">
+        <v>157</v>
+      </c>
+      <c r="ER23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:148">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
         <v>148</v>
       </c>
-      <c r="G23" t="s">
-        <v>155</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" t="s">
         <v>148</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>177</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
+        <v>178</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>202</v>
+      </c>
+      <c r="X24" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>207</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BN24">
+        <v>0</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>210</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>159</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>207</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>210</v>
+      </c>
+      <c r="BW24">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>230</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>253</v>
+      </c>
+      <c r="BZ24" t="s">
         <v>156</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>170</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23" t="s">
-        <v>173</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23" t="s">
-        <v>175</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23" t="s">
-        <v>176</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23" t="s">
-        <v>199</v>
-      </c>
-      <c r="X23" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>206</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>158</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>164</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>206</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>0</v>
-      </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23">
-        <v>0</v>
-      </c>
-      <c r="AX23">
-        <v>0</v>
-      </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
-      <c r="AZ23">
-        <v>0</v>
-      </c>
-      <c r="BA23">
-        <v>0</v>
-      </c>
-      <c r="BB23">
-        <v>0</v>
-      </c>
-      <c r="BC23">
-        <v>0</v>
-      </c>
-      <c r="BD23">
-        <v>0</v>
-      </c>
-      <c r="BE23">
-        <v>0</v>
-      </c>
-      <c r="BF23">
-        <v>0</v>
-      </c>
-      <c r="BG23">
-        <v>0</v>
-      </c>
-      <c r="BH23">
-        <v>0</v>
-      </c>
-      <c r="BI23">
-        <v>0</v>
-      </c>
-      <c r="BJ23">
-        <v>0</v>
-      </c>
-      <c r="BK23">
-        <v>0</v>
-      </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BM23">
-        <v>0</v>
-      </c>
-      <c r="BN23">
-        <v>0</v>
-      </c>
-      <c r="BO23" t="s">
-        <v>206</v>
-      </c>
-      <c r="BP23" t="s">
-        <v>206</v>
-      </c>
-      <c r="BQ23" t="s">
-        <v>158</v>
-      </c>
-      <c r="BR23" t="s">
-        <v>164</v>
-      </c>
-      <c r="BS23" t="s">
-        <v>201</v>
-      </c>
-      <c r="BT23" t="s">
-        <v>211</v>
-      </c>
-      <c r="BU23" t="s">
-        <v>206</v>
-      </c>
-      <c r="BW23">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="s">
-        <v>227</v>
-      </c>
-      <c r="BY23" t="s">
-        <v>249</v>
-      </c>
-      <c r="BZ23" t="s">
-        <v>155</v>
-      </c>
-      <c r="CA23" t="s">
-        <v>206</v>
-      </c>
-      <c r="CB23" t="s">
-        <v>252</v>
-      </c>
-      <c r="CC23" t="s">
-        <v>254</v>
-      </c>
-      <c r="CD23" t="s">
-        <v>201</v>
-      </c>
-      <c r="CE23" t="s">
-        <v>201</v>
-      </c>
-      <c r="CF23" t="s">
-        <v>201</v>
-      </c>
-      <c r="CG23" t="s">
-        <v>201</v>
-      </c>
-      <c r="CH23">
-        <v>0</v>
-      </c>
-      <c r="CI23" t="s">
-        <v>201</v>
-      </c>
-      <c r="CJ23" t="s">
-        <v>201</v>
-      </c>
-      <c r="CK23">
-        <v>0</v>
-      </c>
-      <c r="CL23" t="s">
-        <v>206</v>
-      </c>
-      <c r="CM23" t="s">
-        <v>206</v>
-      </c>
-      <c r="CN23" t="s">
-        <v>158</v>
-      </c>
-      <c r="CO23" t="s">
-        <v>164</v>
-      </c>
-      <c r="CP23">
-        <v>0</v>
-      </c>
-      <c r="CQ23" t="s">
-        <v>211</v>
-      </c>
-      <c r="CR23" t="s">
-        <v>206</v>
-      </c>
-      <c r="CS23">
-        <v>0</v>
-      </c>
-      <c r="CT23">
-        <v>0</v>
-      </c>
-      <c r="CU23">
-        <v>0</v>
-      </c>
-      <c r="CV23">
-        <v>0</v>
-      </c>
-      <c r="CW23">
-        <v>0</v>
-      </c>
-      <c r="CX23">
-        <v>0</v>
-      </c>
-      <c r="CY23">
-        <v>0</v>
-      </c>
-      <c r="CZ23">
-        <v>0</v>
-      </c>
-      <c r="DA23">
-        <v>0</v>
-      </c>
-      <c r="DC23">
-        <v>0</v>
-      </c>
-      <c r="DE23">
-        <v>0</v>
-      </c>
-      <c r="DG23">
-        <v>0</v>
-      </c>
-      <c r="DI23">
-        <v>0</v>
-      </c>
-      <c r="DK23">
-        <v>0</v>
-      </c>
-      <c r="DM23">
-        <v>0</v>
-      </c>
-      <c r="DO23">
-        <v>0</v>
-      </c>
-      <c r="DR23">
-        <v>0</v>
-      </c>
-      <c r="DS23" t="s">
-        <v>201</v>
-      </c>
-      <c r="DU23">
-        <v>0</v>
-      </c>
-      <c r="DW23" t="s">
-        <v>170</v>
-      </c>
-      <c r="DX23">
-        <v>0</v>
-      </c>
-      <c r="DY23" t="s">
-        <v>201</v>
-      </c>
-      <c r="DZ23" t="s">
-        <v>201</v>
-      </c>
-      <c r="EA23" t="s">
-        <v>170</v>
-      </c>
-      <c r="EB23" t="s">
-        <v>201</v>
-      </c>
-      <c r="EC23" t="s">
-        <v>201</v>
-      </c>
-      <c r="ED23" t="s">
-        <v>167</v>
-      </c>
-      <c r="EE23">
-        <v>0</v>
-      </c>
-      <c r="EF23">
-        <v>0</v>
-      </c>
-      <c r="EG23">
-        <v>0</v>
-      </c>
-      <c r="EH23">
-        <v>0</v>
-      </c>
-      <c r="EI23" t="s">
-        <v>170</v>
-      </c>
-      <c r="EJ23">
-        <v>0</v>
-      </c>
-      <c r="EK23">
-        <v>0</v>
-      </c>
-      <c r="EL23">
-        <v>0</v>
-      </c>
-      <c r="EM23">
-        <v>0</v>
-      </c>
-      <c r="EN23">
-        <v>0</v>
-      </c>
-      <c r="EO23">
-        <v>0</v>
-      </c>
-      <c r="EP23">
-        <v>0</v>
-      </c>
-      <c r="EQ23" t="s">
-        <v>156</v>
-      </c>
-      <c r="ER23">
+      <c r="CA24" t="s">
+        <v>210</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>256</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>204</v>
+      </c>
+      <c r="CE24" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>204</v>
+      </c>
+      <c r="CG24" t="s">
+        <v>204</v>
+      </c>
+      <c r="CH24">
+        <v>0</v>
+      </c>
+      <c r="CI24" t="s">
+        <v>204</v>
+      </c>
+      <c r="CJ24" t="s">
+        <v>204</v>
+      </c>
+      <c r="CK24">
+        <v>0</v>
+      </c>
+      <c r="CL24" t="s">
+        <v>210</v>
+      </c>
+      <c r="CM24" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN24" t="s">
+        <v>159</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP24">
+        <v>0</v>
+      </c>
+      <c r="CQ24" t="s">
+        <v>207</v>
+      </c>
+      <c r="CR24" t="s">
+        <v>210</v>
+      </c>
+      <c r="CS24">
+        <v>0</v>
+      </c>
+      <c r="CT24">
+        <v>0</v>
+      </c>
+      <c r="CU24">
+        <v>0</v>
+      </c>
+      <c r="CV24">
+        <v>0</v>
+      </c>
+      <c r="CW24">
+        <v>0</v>
+      </c>
+      <c r="CX24">
+        <v>0</v>
+      </c>
+      <c r="CY24">
+        <v>0</v>
+      </c>
+      <c r="CZ24">
+        <v>0</v>
+      </c>
+      <c r="DA24">
+        <v>0</v>
+      </c>
+      <c r="DC24">
+        <v>0</v>
+      </c>
+      <c r="DE24">
+        <v>0</v>
+      </c>
+      <c r="DG24">
+        <v>0</v>
+      </c>
+      <c r="DI24">
+        <v>0</v>
+      </c>
+      <c r="DK24">
+        <v>0</v>
+      </c>
+      <c r="DM24">
+        <v>0</v>
+      </c>
+      <c r="DO24">
+        <v>0</v>
+      </c>
+      <c r="DR24">
+        <v>0</v>
+      </c>
+      <c r="DS24" t="s">
+        <v>204</v>
+      </c>
+      <c r="DU24">
+        <v>0</v>
+      </c>
+      <c r="DW24" t="s">
+        <v>171</v>
+      </c>
+      <c r="DX24">
+        <v>0</v>
+      </c>
+      <c r="DY24" t="s">
+        <v>204</v>
+      </c>
+      <c r="DZ24" t="s">
+        <v>204</v>
+      </c>
+      <c r="EA24" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB24" t="s">
+        <v>204</v>
+      </c>
+      <c r="EC24" t="s">
+        <v>204</v>
+      </c>
+      <c r="ED24" t="s">
+        <v>168</v>
+      </c>
+      <c r="EE24">
+        <v>0</v>
+      </c>
+      <c r="EF24">
+        <v>0</v>
+      </c>
+      <c r="EG24">
+        <v>0</v>
+      </c>
+      <c r="EH24">
+        <v>0</v>
+      </c>
+      <c r="EI24" t="s">
+        <v>171</v>
+      </c>
+      <c r="EJ24">
+        <v>0</v>
+      </c>
+      <c r="EK24">
+        <v>0</v>
+      </c>
+      <c r="EL24">
+        <v>0</v>
+      </c>
+      <c r="EM24">
+        <v>0</v>
+      </c>
+      <c r="EN24">
+        <v>0</v>
+      </c>
+      <c r="EO24">
+        <v>0</v>
+      </c>
+      <c r="EP24">
+        <v>0</v>
+      </c>
+      <c r="EQ24" t="s">
+        <v>157</v>
+      </c>
+      <c r="ER24">
         <v>0</v>
       </c>
     </row>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="264">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -544,9 +544,6 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs</t>
   </si>
   <si>
-    <t>15-19_yrs</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -637,21 +634,24 @@
     <t>18</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>correction</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -676,15 +676,15 @@
     <t>10</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs</t>
+  </si>
+  <si>
     <t>44</t>
   </si>
   <si>
@@ -718,7 +718,7 @@
     <t>2025-05-28T10:05:11.440353Z</t>
   </si>
   <si>
-    <t>2025-07-18T07:13:42.557147Z</t>
+    <t>2025-07-18T10:10:11.510109Z</t>
   </si>
   <si>
     <t>2025-07-18T07:18:24.030753Z</t>
@@ -730,7 +730,7 @@
     <t>2025-06-19T13:54:38.602973Z</t>
   </si>
   <si>
-    <t>2025-07-18T07:55:21.492660Z</t>
+    <t>2025-07-18T09:48:36.622915Z</t>
   </si>
   <si>
     <t>2025-06-12T12:35:28.391560Z</t>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1674,16 +1674,16 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X2" t="s">
         <v>158</v>
       </c>
       <c r="Y2" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z2" t="s">
         <v>208</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>209</v>
       </c>
       <c r="AA2" t="s">
         <v>213</v>
@@ -1695,22 +1695,22 @@
         <v>159</v>
       </c>
       <c r="AD2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AE2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AK2" t="s">
         <v>213</v>
@@ -1722,7 +1722,7 @@
         <v>165</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="BC2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BD2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE2">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="BO2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BP2" t="s">
         <v>213</v>
@@ -1815,13 +1815,13 @@
         <v>159</v>
       </c>
       <c r="BS2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BT2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BU2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>254</v>
       </c>
       <c r="CA2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CB2" t="s">
         <v>256</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="CD2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CE2" t="s">
         <v>213</v>
@@ -1857,13 +1857,13 @@
         <v>159</v>
       </c>
       <c r="CH2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CI2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CJ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="DJ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DK2">
         <v>0</v>
@@ -1947,10 +1947,10 @@
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DW2" t="s">
         <v>158</v>
@@ -1959,13 +1959,13 @@
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ2" t="s">
         <v>158</v>
       </c>
       <c r="EA2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>163</v>
       </c>
       <c r="EJ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -2066,61 +2066,61 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
+        <v>176</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
         <v>177</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3" t="s">
-        <v>178</v>
-      </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X3" t="s">
         <v>159</v>
       </c>
       <c r="Y3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AB3" t="s">
         <v>218</v>
       </c>
       <c r="AC3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AD3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AE3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AK3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL3" t="s">
         <v>218</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BP3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BQ3" t="s">
         <v>218</v>
       </c>
       <c r="BR3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BS3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BT3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BU3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>156</v>
       </c>
       <c r="CA3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CB3" t="s">
         <v>256</v>
@@ -2252,34 +2252,34 @@
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG3">
         <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CI3">
         <v>0</v>
       </c>
       <c r="CJ3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CK3">
         <v>0</v>
       </c>
       <c r="CL3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CM3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CN3" t="s">
         <v>218</v>
@@ -2288,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="CP3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CQ3">
         <v>0</v>
       </c>
       <c r="CR3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CS3">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU3">
         <v>0</v>
@@ -2360,19 +2360,19 @@
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EA3" t="s">
         <v>159</v>
       </c>
       <c r="EB3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED3" t="s">
         <v>218</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z4" t="s">
         <v>168</v>
@@ -2503,16 +2503,16 @@
         <v>165</v>
       </c>
       <c r="AD4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>218</v>
       </c>
       <c r="AK4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AL4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AO4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -2566,22 +2566,22 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BB4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BC4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BD4">
         <v>0</v>
       </c>
       <c r="BE4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -2617,19 +2617,19 @@
         <v>212</v>
       </c>
       <c r="BQ4" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="BR4" t="s">
         <v>165</v>
       </c>
       <c r="BS4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BT4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BU4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BW4">
         <v>0</v>
@@ -2644,7 +2644,7 @@
         <v>254</v>
       </c>
       <c r="CA4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CB4" t="s">
         <v>256</v>
@@ -2659,16 +2659,16 @@
         <v>212</v>
       </c>
       <c r="CF4" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="CG4" t="s">
         <v>165</v>
       </c>
       <c r="CH4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CI4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CJ4">
         <v>0</v>
@@ -2731,19 +2731,19 @@
         <v>0</v>
       </c>
       <c r="DD4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DE4">
         <v>0</v>
       </c>
       <c r="DF4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DG4">
         <v>0</v>
       </c>
       <c r="DH4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DI4">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="DL4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DM4">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DW4" t="s">
         <v>160</v>
@@ -2776,13 +2776,13 @@
         <v>0</v>
       </c>
       <c r="DY4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ4" t="s">
         <v>160</v>
       </c>
       <c r="EA4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>165</v>
       </c>
       <c r="EJ4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2879,8 +2879,8 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5" t="s">
-        <v>177</v>
+      <c r="R5">
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2892,13 +2892,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>225</v>
       </c>
       <c r="BP5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BQ5" t="s">
         <v>228</v>
@@ -3057,22 +3057,22 @@
         <v>255</v>
       </c>
       <c r="CA5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CC5">
         <v>0</v>
       </c>
       <c r="CD5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -3087,16 +3087,16 @@
         <v>0</v>
       </c>
       <c r="CL5" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="CM5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="CN5" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="CO5" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="CP5">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU5">
         <v>0</v>
@@ -3170,14 +3170,17 @@
       <c r="DX5">
         <v>0</v>
       </c>
+      <c r="DY5" t="s">
+        <v>203</v>
+      </c>
       <c r="DZ5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EB5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED5">
         <v>0</v>
@@ -3195,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -3272,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -3281,28 +3284,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA6" t="s">
         <v>169</v>
       </c>
       <c r="AB6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -3320,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="AH6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -3374,13 +3377,13 @@
         <v>0</v>
       </c>
       <c r="AZ6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BB6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -3428,7 +3431,7 @@
         <v>229</v>
       </c>
       <c r="BR6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BS6">
         <v>0</v>
@@ -3455,22 +3458,22 @@
         <v>255</v>
       </c>
       <c r="CA6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CB6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="CC6">
         <v>0</v>
       </c>
       <c r="CD6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG6">
         <v>0</v>
@@ -3569,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU6">
         <v>0</v>
@@ -3584,10 +3587,10 @@
         <v>229</v>
       </c>
       <c r="EB6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED6">
         <v>0</v>
@@ -3685,28 +3688,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
+        <v>176</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
         <v>177</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7" t="s">
-        <v>178</v>
-      </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X7" t="s">
         <v>161</v>
       </c>
       <c r="Y7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z7" t="s">
         <v>165</v>
@@ -3727,10 +3730,10 @@
         <v>218</v>
       </c>
       <c r="AF7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -3748,13 +3751,13 @@
         <v>218</v>
       </c>
       <c r="AN7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO7" t="s">
         <v>218</v>
       </c>
       <c r="AP7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -3796,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="BD7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE7">
         <v>0</v>
@@ -3847,7 +3850,7 @@
         <v>218</v>
       </c>
       <c r="BU7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -3862,7 +3865,7 @@
         <v>156</v>
       </c>
       <c r="CA7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CB7" t="s">
         <v>256</v>
@@ -3871,25 +3874,25 @@
         <v>0</v>
       </c>
       <c r="CD7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CH7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CI7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CJ7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CK7">
         <v>0</v>
@@ -3913,7 +3916,7 @@
         <v>218</v>
       </c>
       <c r="CR7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CS7">
         <v>0</v>
@@ -3955,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="DJ7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DK7">
         <v>0</v>
@@ -3970,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU7">
         <v>0</v>
@@ -3982,22 +3985,22 @@
         <v>0</v>
       </c>
       <c r="DY7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EA7" t="s">
         <v>161</v>
       </c>
       <c r="EB7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="EE7">
         <v>0</v>
@@ -4092,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -4104,13 +4107,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Y8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z8" t="s">
         <v>168</v>
@@ -4122,31 +4125,31 @@
         <v>165</v>
       </c>
       <c r="AC8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AD8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
       <c r="AJ8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AK8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL8" t="s">
         <v>218</v>
@@ -4191,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="AZ8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BB8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -4236,28 +4239,28 @@
         <v>0</v>
       </c>
       <c r="BO8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BP8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BQ8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BR8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BS8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BT8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BU8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BV8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -4272,7 +4275,7 @@
         <v>156</v>
       </c>
       <c r="CA8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CB8" t="s">
         <v>256</v>
@@ -4281,85 +4284,85 @@
         <v>0</v>
       </c>
       <c r="CD8" t="s">
+        <v>208</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>211</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>203</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8" t="s">
         <v>209</v>
-      </c>
-      <c r="CE8" t="s">
-        <v>209</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>207</v>
-      </c>
-      <c r="CG8">
-        <v>0</v>
-      </c>
-      <c r="CH8">
-        <v>0</v>
-      </c>
-      <c r="CI8">
-        <v>0</v>
-      </c>
-      <c r="CJ8">
-        <v>0</v>
-      </c>
-      <c r="CK8">
-        <v>0</v>
-      </c>
-      <c r="CL8">
-        <v>0</v>
-      </c>
-      <c r="CM8">
-        <v>0</v>
-      </c>
-      <c r="CN8">
-        <v>0</v>
-      </c>
-      <c r="CO8">
-        <v>0</v>
-      </c>
-      <c r="CP8">
-        <v>0</v>
-      </c>
-      <c r="CQ8">
-        <v>0</v>
-      </c>
-      <c r="CR8">
-        <v>0</v>
-      </c>
-      <c r="CS8">
-        <v>0</v>
-      </c>
-      <c r="CT8">
-        <v>0</v>
-      </c>
-      <c r="CU8">
-        <v>0</v>
-      </c>
-      <c r="CV8">
-        <v>0</v>
-      </c>
-      <c r="CW8">
-        <v>0</v>
-      </c>
-      <c r="CX8">
-        <v>0</v>
-      </c>
-      <c r="CY8">
-        <v>0</v>
-      </c>
-      <c r="CZ8">
-        <v>0</v>
-      </c>
-      <c r="DA8">
-        <v>0</v>
-      </c>
-      <c r="DB8" t="s">
-        <v>204</v>
-      </c>
-      <c r="DC8">
-        <v>0</v>
-      </c>
-      <c r="DD8" t="s">
-        <v>210</v>
       </c>
       <c r="DE8">
         <v>0</v>
@@ -4386,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU8">
         <v>0</v>
@@ -4398,19 +4401,19 @@
         <v>0</v>
       </c>
       <c r="DY8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ8" t="s">
         <v>162</v>
       </c>
       <c r="EA8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EB8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED8">
         <v>0</v>
@@ -4496,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -4513,23 +4516,26 @@
       <c r="T9">
         <v>0</v>
       </c>
+      <c r="U9" t="s">
+        <v>177</v>
+      </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X9" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y9" t="s">
         <v>207</v>
       </c>
-      <c r="Y9" t="s">
-        <v>208</v>
-      </c>
       <c r="Z9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>168</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -4550,16 +4556,16 @@
         <v>0</v>
       </c>
       <c r="AH9" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="AI9">
         <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>168</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -4649,16 +4655,16 @@
         <v>0</v>
       </c>
       <c r="BO9" t="s">
-        <v>207</v>
-      </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
-      <c r="BR9">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>203</v>
       </c>
       <c r="BS9">
         <v>0</v>
@@ -4685,19 +4691,19 @@
         <v>255</v>
       </c>
       <c r="CA9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CB9" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="CC9">
         <v>0</v>
       </c>
       <c r="CD9" t="s">
-        <v>204</v>
-      </c>
-      <c r="CE9">
-        <v>0</v>
+        <v>203</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>203</v>
       </c>
       <c r="CF9">
         <v>0</v>
@@ -4718,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="CL9" t="s">
-        <v>207</v>
-      </c>
-      <c r="CM9">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>168</v>
       </c>
       <c r="CN9">
         <v>0</v>
@@ -4790,31 +4796,31 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU9">
         <v>0</v>
       </c>
       <c r="DW9" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="DX9">
         <v>0</v>
       </c>
       <c r="DY9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EB9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC9" t="s">
-        <v>204</v>
-      </c>
-      <c r="ED9">
-        <v>0</v>
+        <v>203</v>
+      </c>
+      <c r="ED9" t="s">
+        <v>216</v>
       </c>
       <c r="EE9">
         <v>0</v>
@@ -4829,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="EJ9">
         <v>0</v>
@@ -4909,28 +4915,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
+        <v>176</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
         <v>177</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10" t="s">
-        <v>178</v>
-      </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X10" t="s">
         <v>163</v>
       </c>
       <c r="Y10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z10" t="s">
         <v>165</v>
@@ -4948,13 +4954,13 @@
         <v>216</v>
       </c>
       <c r="AE10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH10" t="s">
         <v>220</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>221</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -4975,10 +4981,10 @@
         <v>216</v>
       </c>
       <c r="AO10" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="AP10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -5068,10 +5074,10 @@
         <v>216</v>
       </c>
       <c r="BT10" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="BU10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -5086,7 +5092,7 @@
         <v>156</v>
       </c>
       <c r="CA10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CB10" t="s">
         <v>256</v>
@@ -5095,25 +5101,25 @@
         <v>0</v>
       </c>
       <c r="CD10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CH10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CI10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CJ10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CK10">
         <v>0</v>
@@ -5134,10 +5140,10 @@
         <v>216</v>
       </c>
       <c r="CQ10" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="CR10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CS10">
         <v>0</v>
@@ -5191,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU10">
         <v>0</v>
@@ -5203,19 +5209,19 @@
         <v>0</v>
       </c>
       <c r="DY10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EA10" t="s">
         <v>163</v>
       </c>
       <c r="EB10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED10" t="s">
         <v>219</v>
@@ -5313,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -5325,13 +5331,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X11" t="s">
         <v>160</v>
       </c>
       <c r="Y11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z11" t="s">
         <v>212</v>
@@ -5343,22 +5349,22 @@
         <v>217</v>
       </c>
       <c r="AC11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AD11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -5466,19 +5472,19 @@
         <v>217</v>
       </c>
       <c r="BR11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BS11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BT11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BU11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BV11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BW11">
         <v>0</v>
@@ -5493,22 +5499,22 @@
         <v>156</v>
       </c>
       <c r="CA11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CC11">
         <v>0</v>
       </c>
       <c r="CD11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CH11">
         <v>0</v>
@@ -5532,7 +5538,7 @@
         <v>217</v>
       </c>
       <c r="CO11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CP11">
         <v>0</v>
@@ -5595,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU11">
         <v>0</v>
@@ -5607,19 +5613,19 @@
         <v>0</v>
       </c>
       <c r="DY11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EA11" t="s">
         <v>160</v>
       </c>
       <c r="EB11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED11">
         <v>0</v>
@@ -5637,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EJ11">
         <v>0</v>
@@ -5714,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -5726,16 +5732,16 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X12" t="s">
         <v>161</v>
       </c>
       <c r="Y12" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z12" t="s">
         <v>208</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>209</v>
       </c>
       <c r="AA12" t="s">
         <v>168</v>
@@ -5747,34 +5753,34 @@
         <v>165</v>
       </c>
       <c r="AD12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI12">
         <v>0</v>
       </c>
       <c r="AJ12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AK12" t="s">
         <v>165</v>
       </c>
       <c r="AL12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -5813,16 +5819,16 @@
         <v>0</v>
       </c>
       <c r="AZ12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BB12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BC12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BD12">
         <v>0</v>
@@ -5894,7 +5900,7 @@
         <v>156</v>
       </c>
       <c r="CA12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CB12" t="s">
         <v>256</v>
@@ -5903,16 +5909,16 @@
         <v>0</v>
       </c>
       <c r="CD12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CH12">
         <v>0</v>
@@ -5927,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="CL12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CM12" t="s">
         <v>168</v>
@@ -5975,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="DB12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DC12">
         <v>0</v>
@@ -5987,13 +5993,13 @@
         <v>0</v>
       </c>
       <c r="DF12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DG12">
         <v>0</v>
       </c>
       <c r="DH12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DI12">
         <v>0</v>
@@ -6011,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU12">
         <v>0</v>
@@ -6023,19 +6029,19 @@
         <v>0</v>
       </c>
       <c r="DY12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EA12" t="s">
         <v>161</v>
       </c>
       <c r="EB12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED12">
         <v>0</v>
@@ -6053,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="EI12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="EJ12">
         <v>0</v>
@@ -6133,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -6145,43 +6151,43 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X13" t="s">
         <v>162</v>
       </c>
       <c r="Y13" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z13" t="s">
         <v>208</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>209</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>207</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>210</v>
       </c>
       <c r="AK13" t="s">
         <v>165</v>
@@ -6229,13 +6235,13 @@
         <v>0</v>
       </c>
       <c r="AZ13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BB13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BC13">
         <v>0</v>
@@ -6274,25 +6280,25 @@
         <v>0</v>
       </c>
       <c r="BO13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BP13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BQ13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BR13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BS13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BT13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BU13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BW13">
         <v>0</v>
@@ -6307,7 +6313,7 @@
         <v>254</v>
       </c>
       <c r="CA13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CB13" t="s">
         <v>256</v>
@@ -6316,79 +6322,79 @@
         <v>0</v>
       </c>
       <c r="CD13" t="s">
+        <v>208</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>211</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>203</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>203</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>203</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
+      </c>
+      <c r="CK13">
+        <v>0</v>
+      </c>
+      <c r="CL13">
+        <v>0</v>
+      </c>
+      <c r="CM13">
+        <v>0</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>0</v>
+      </c>
+      <c r="CP13">
+        <v>0</v>
+      </c>
+      <c r="CQ13">
+        <v>0</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DB13" t="s">
         <v>209</v>
-      </c>
-      <c r="CE13" t="s">
-        <v>209</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>207</v>
-      </c>
-      <c r="CG13" t="s">
-        <v>204</v>
-      </c>
-      <c r="CH13" t="s">
-        <v>204</v>
-      </c>
-      <c r="CI13" t="s">
-        <v>204</v>
-      </c>
-      <c r="CJ13">
-        <v>0</v>
-      </c>
-      <c r="CK13">
-        <v>0</v>
-      </c>
-      <c r="CL13">
-        <v>0</v>
-      </c>
-      <c r="CM13">
-        <v>0</v>
-      </c>
-      <c r="CN13">
-        <v>0</v>
-      </c>
-      <c r="CO13">
-        <v>0</v>
-      </c>
-      <c r="CP13">
-        <v>0</v>
-      </c>
-      <c r="CQ13">
-        <v>0</v>
-      </c>
-      <c r="CR13">
-        <v>0</v>
-      </c>
-      <c r="CS13">
-        <v>0</v>
-      </c>
-      <c r="CT13">
-        <v>0</v>
-      </c>
-      <c r="CU13">
-        <v>0</v>
-      </c>
-      <c r="CV13">
-        <v>0</v>
-      </c>
-      <c r="CW13">
-        <v>0</v>
-      </c>
-      <c r="CX13">
-        <v>0</v>
-      </c>
-      <c r="CY13">
-        <v>0</v>
-      </c>
-      <c r="CZ13">
-        <v>0</v>
-      </c>
-      <c r="DA13">
-        <v>0</v>
-      </c>
-      <c r="DB13" t="s">
-        <v>210</v>
       </c>
       <c r="DC13">
         <v>0</v>
@@ -6421,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DW13" t="s">
         <v>162</v>
@@ -6433,13 +6439,13 @@
         <v>0</v>
       </c>
       <c r="DY13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ13" t="s">
         <v>162</v>
       </c>
       <c r="EA13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EB13">
         <v>0</v>
@@ -6466,7 +6472,7 @@
         <v>168</v>
       </c>
       <c r="EJ13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EL13">
         <v>0</v>
@@ -6540,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -6552,13 +6558,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X14" t="s">
         <v>164</v>
       </c>
       <c r="Y14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z14" t="s">
         <v>213</v>
@@ -6576,34 +6582,34 @@
         <v>165</v>
       </c>
       <c r="AE14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI14">
         <v>0</v>
       </c>
       <c r="AJ14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AK14" t="s">
         <v>218</v>
       </c>
       <c r="AL14" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AM14" t="s">
         <v>218</v>
       </c>
       <c r="AN14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -6639,19 +6645,19 @@
         <v>0</v>
       </c>
       <c r="AZ14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BB14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BC14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BD14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE14">
         <v>0</v>
@@ -6699,13 +6705,13 @@
         <v>165</v>
       </c>
       <c r="BT14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BU14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BV14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BW14">
         <v>0</v>
@@ -6720,7 +6726,7 @@
         <v>156</v>
       </c>
       <c r="CA14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CB14" t="s">
         <v>256</v>
@@ -6729,19 +6735,19 @@
         <v>0</v>
       </c>
       <c r="CD14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CH14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CI14">
         <v>0</v>
@@ -6801,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="DB14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DC14">
         <v>0</v>
@@ -6813,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="DF14" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="DG14">
         <v>0</v>
@@ -6825,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="DJ14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DK14">
         <v>0</v>
@@ -6840,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU14">
         <v>0</v>
@@ -6852,19 +6858,19 @@
         <v>0</v>
       </c>
       <c r="DY14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EA14" t="s">
         <v>164</v>
       </c>
       <c r="EB14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED14">
         <v>0</v>
@@ -6882,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="EI14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="EJ14">
         <v>0</v>
@@ -6962,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -6974,40 +6980,40 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X15" t="s">
         <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z15" t="s">
         <v>165</v>
       </c>
       <c r="AA15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AC15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AD15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -7109,25 +7115,25 @@
         <v>165</v>
       </c>
       <c r="BP15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BQ15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BR15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BS15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BT15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BU15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BV15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BW15">
         <v>0</v>
@@ -7142,7 +7148,7 @@
         <v>156</v>
       </c>
       <c r="CA15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CC15">
         <v>0</v>
@@ -7151,10 +7157,10 @@
         <v>165</v>
       </c>
       <c r="CE15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG15">
         <v>0</v>
@@ -7244,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="DS15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU15">
         <v>0</v>
@@ -7256,19 +7262,19 @@
         <v>0</v>
       </c>
       <c r="DY15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ15" t="s">
         <v>165</v>
       </c>
       <c r="EA15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EB15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED15">
         <v>0</v>
@@ -7286,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="EI15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EJ15">
         <v>0</v>
@@ -7366,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -7378,13 +7384,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X16" t="s">
         <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z16" t="s">
         <v>168</v>
@@ -7393,25 +7399,25 @@
         <v>168</v>
       </c>
       <c r="AB16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AC16" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AD16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -7516,22 +7522,22 @@
         <v>168</v>
       </c>
       <c r="BQ16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BR16" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BS16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BT16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BU16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BV16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BW16">
         <v>0</v>
@@ -7546,22 +7552,22 @@
         <v>156</v>
       </c>
       <c r="CA16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CC16">
         <v>0</v>
       </c>
       <c r="CD16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CH16">
         <v>0</v>
@@ -7582,10 +7588,10 @@
         <v>168</v>
       </c>
       <c r="CN16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CO16" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CP16">
         <v>0</v>
@@ -7648,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="DS16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU16">
         <v>0</v>
@@ -7660,19 +7666,19 @@
         <v>0</v>
       </c>
       <c r="DY16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EA16" t="s">
         <v>166</v>
       </c>
       <c r="EB16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED16">
         <v>0</v>
@@ -7690,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="EI16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EJ16">
         <v>0</v>
@@ -7770,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -7782,13 +7788,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X17" t="s">
         <v>167</v>
       </c>
       <c r="Y17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z17" t="s">
         <v>214</v>
@@ -7800,22 +7806,22 @@
         <v>212</v>
       </c>
       <c r="AC17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AD17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI17">
         <v>0</v>
@@ -7923,19 +7929,19 @@
         <v>212</v>
       </c>
       <c r="BR17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BS17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BT17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BU17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BV17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BW17">
         <v>0</v>
@@ -7950,22 +7956,22 @@
         <v>156</v>
       </c>
       <c r="CA17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CC17">
         <v>0</v>
       </c>
       <c r="CD17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CH17">
         <v>0</v>
@@ -8052,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="DS17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU17">
         <v>0</v>
@@ -8064,19 +8070,19 @@
         <v>0</v>
       </c>
       <c r="DY17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EA17" t="s">
         <v>167</v>
       </c>
       <c r="EB17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED17">
         <v>0</v>
@@ -8094,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="EI17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EJ17">
         <v>0</v>
@@ -8174,31 +8180,31 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
+        <v>176</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
         <v>177</v>
       </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18" t="s">
-        <v>178</v>
-      </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X18" t="s">
         <v>168</v>
       </c>
       <c r="Y18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA18" t="s">
         <v>218</v>
@@ -8207,25 +8213,25 @@
         <v>218</v>
       </c>
       <c r="AC18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AD18" t="s">
         <v>218</v>
       </c>
       <c r="AE18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI18">
         <v>0</v>
       </c>
       <c r="AJ18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AK18" t="s">
         <v>218</v>
@@ -8318,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="BO18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BP18" t="s">
         <v>218</v>
@@ -8327,16 +8333,16 @@
         <v>218</v>
       </c>
       <c r="BR18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BS18" t="s">
         <v>218</v>
       </c>
       <c r="BT18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BU18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BW18">
         <v>0</v>
@@ -8351,7 +8357,7 @@
         <v>156</v>
       </c>
       <c r="CA18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CB18" t="s">
         <v>256</v>
@@ -8360,19 +8366,19 @@
         <v>0</v>
       </c>
       <c r="CD18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG18">
         <v>0</v>
       </c>
       <c r="CH18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CI18">
         <v>0</v>
@@ -8384,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="CL18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CM18" t="s">
         <v>218</v>
@@ -8456,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="DS18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU18">
         <v>0</v>
@@ -8468,19 +8474,19 @@
         <v>0</v>
       </c>
       <c r="DY18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EA18" t="s">
         <v>168</v>
       </c>
       <c r="EB18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED18" t="s">
         <v>218</v>
@@ -8578,76 +8584,76 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
+        <v>176</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
         <v>177</v>
       </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19" t="s">
-        <v>178</v>
-      </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X19" t="s">
         <v>169</v>
       </c>
       <c r="Y19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AA19" t="s">
         <v>168</v>
       </c>
       <c r="AB19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AC19" t="s">
         <v>218</v>
       </c>
       <c r="AD19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AE19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI19">
         <v>0</v>
       </c>
       <c r="AJ19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AK19" t="s">
         <v>168</v>
       </c>
       <c r="AL19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s">
         <v>218</v>
       </c>
       <c r="AN19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AO19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -8722,25 +8728,25 @@
         <v>0</v>
       </c>
       <c r="BO19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BP19" t="s">
         <v>168</v>
       </c>
       <c r="BQ19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BR19" t="s">
         <v>218</v>
       </c>
       <c r="BS19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BT19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BU19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BW19">
         <v>0</v>
@@ -8755,7 +8761,7 @@
         <v>156</v>
       </c>
       <c r="CA19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CB19" t="s">
         <v>256</v>
@@ -8764,49 +8770,49 @@
         <v>0</v>
       </c>
       <c r="CD19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CH19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CI19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CJ19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CK19">
         <v>0</v>
       </c>
       <c r="CL19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CM19" t="s">
         <v>168</v>
       </c>
       <c r="CN19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CO19" t="s">
         <v>218</v>
       </c>
       <c r="CP19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CQ19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CR19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CS19">
         <v>0</v>
@@ -8860,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="DS19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU19">
         <v>0</v>
@@ -8872,22 +8878,22 @@
         <v>0</v>
       </c>
       <c r="DY19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EA19" t="s">
         <v>169</v>
       </c>
       <c r="EB19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="EE19">
         <v>0</v>
@@ -8979,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -8991,13 +8997,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X20" t="s">
         <v>170</v>
       </c>
       <c r="Y20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z20" t="s">
         <v>215</v>
@@ -9006,25 +9012,25 @@
         <v>217</v>
       </c>
       <c r="AB20" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC20" t="s">
         <v>209</v>
       </c>
-      <c r="AC20" t="s">
-        <v>210</v>
-      </c>
       <c r="AD20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -9033,13 +9039,13 @@
         <v>165</v>
       </c>
       <c r="AK20" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="AL20" t="s">
         <v>216</v>
       </c>
       <c r="AM20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AN20">
         <v>0</v>
@@ -9078,13 +9084,13 @@
         <v>0</v>
       </c>
       <c r="AZ20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BB20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BC20">
         <v>0</v>
@@ -9159,7 +9165,7 @@
         <v>156</v>
       </c>
       <c r="CA20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CB20" t="s">
         <v>257</v>
@@ -9168,16 +9174,16 @@
         <v>0</v>
       </c>
       <c r="CD20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CH20">
         <v>0</v>
@@ -9198,10 +9204,10 @@
         <v>217</v>
       </c>
       <c r="CN20" t="s">
+        <v>208</v>
+      </c>
+      <c r="CO20" t="s">
         <v>209</v>
-      </c>
-      <c r="CO20" t="s">
-        <v>210</v>
       </c>
       <c r="CP20">
         <v>0</v>
@@ -9246,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="DD20" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="DE20">
         <v>0</v>
@@ -9273,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="DS20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU20">
         <v>0</v>
@@ -9285,19 +9291,19 @@
         <v>0</v>
       </c>
       <c r="DY20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EA20" t="s">
         <v>170</v>
       </c>
       <c r="EB20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED20">
         <v>0</v>
@@ -9395,31 +9401,31 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
+        <v>176</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
         <v>177</v>
       </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21" t="s">
-        <v>178</v>
-      </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X21" t="s">
         <v>171</v>
       </c>
       <c r="Y21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA21" t="s">
         <v>165</v>
@@ -9434,13 +9440,13 @@
         <v>165</v>
       </c>
       <c r="AE21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -9461,10 +9467,10 @@
         <v>165</v>
       </c>
       <c r="AO21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -9539,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="BO21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BP21" t="s">
         <v>165</v>
@@ -9554,10 +9560,10 @@
         <v>165</v>
       </c>
       <c r="BT21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BU21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BW21">
         <v>0</v>
@@ -9572,7 +9578,7 @@
         <v>156</v>
       </c>
       <c r="CA21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CB21" t="s">
         <v>256</v>
@@ -9584,22 +9590,22 @@
         <v>0</v>
       </c>
       <c r="CE21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CH21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CI21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CJ21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CK21">
         <v>0</v>
@@ -9620,10 +9626,10 @@
         <v>165</v>
       </c>
       <c r="CQ21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CR21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CS21">
         <v>0</v>
@@ -9677,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="DS21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU21">
         <v>0</v>
@@ -9689,22 +9695,22 @@
         <v>0</v>
       </c>
       <c r="DY21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EA21" t="s">
         <v>171</v>
       </c>
       <c r="EB21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED21" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="EE21">
         <v>0</v>
@@ -9799,64 +9805,64 @@
         <v>0</v>
       </c>
       <c r="R22" t="s">
+        <v>176</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
         <v>177</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22" t="s">
-        <v>178</v>
-      </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X22" t="s">
         <v>172</v>
       </c>
       <c r="Y22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA22" t="s">
         <v>159</v>
       </c>
       <c r="AB22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AC22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AD22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE22" t="s">
         <v>218</v>
       </c>
       <c r="AF22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI22">
         <v>0</v>
       </c>
       <c r="AJ22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AK22" t="s">
         <v>159</v>
       </c>
       <c r="AL22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AM22">
         <v>0</v>
@@ -9868,7 +9874,7 @@
         <v>218</v>
       </c>
       <c r="AP22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -9943,25 +9949,25 @@
         <v>0</v>
       </c>
       <c r="BO22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BP22" t="s">
         <v>159</v>
       </c>
       <c r="BQ22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BR22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BS22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BT22" t="s">
         <v>218</v>
       </c>
       <c r="BU22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BW22">
         <v>0</v>
@@ -9985,13 +9991,13 @@
         <v>0</v>
       </c>
       <c r="CD22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG22">
         <v>0</v>
@@ -10000,22 +10006,22 @@
         <v>0</v>
       </c>
       <c r="CI22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CJ22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CK22">
         <v>0</v>
       </c>
       <c r="CL22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CM22" t="s">
         <v>159</v>
       </c>
       <c r="CN22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CO22">
         <v>0</v>
@@ -10027,7 +10033,7 @@
         <v>218</v>
       </c>
       <c r="CR22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CS22">
         <v>0</v>
@@ -10081,7 +10087,7 @@
         <v>0</v>
       </c>
       <c r="DS22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU22">
         <v>0</v>
@@ -10093,19 +10099,19 @@
         <v>0</v>
       </c>
       <c r="DY22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EA22" t="s">
         <v>172</v>
       </c>
       <c r="EB22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED22" t="s">
         <v>168</v>
@@ -10203,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -10215,13 +10221,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X23" t="s">
         <v>173</v>
       </c>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z23" t="s">
         <v>165</v>
@@ -10230,25 +10236,25 @@
         <v>159</v>
       </c>
       <c r="AB23" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AC23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AD23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -10353,22 +10359,22 @@
         <v>159</v>
       </c>
       <c r="BQ23" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BR23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BS23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BT23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BU23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BV23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BW23">
         <v>0</v>
@@ -10383,19 +10389,19 @@
         <v>156</v>
       </c>
       <c r="CA23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CC23">
         <v>0</v>
       </c>
       <c r="CD23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG23">
         <v>0</v>
@@ -10419,7 +10425,7 @@
         <v>159</v>
       </c>
       <c r="CN23" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CO23">
         <v>0</v>
@@ -10485,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="DS23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU23">
         <v>0</v>
@@ -10497,19 +10503,19 @@
         <v>0</v>
       </c>
       <c r="DY23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EA23" t="s">
         <v>173</v>
       </c>
       <c r="EB23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED23">
         <v>0</v>
@@ -10527,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="EI23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EJ23">
         <v>0</v>
@@ -10607,34 +10613,34 @@
         <v>0</v>
       </c>
       <c r="R24" t="s">
+        <v>176</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
         <v>177</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24" t="s">
-        <v>178</v>
-      </c>
       <c r="V24">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X24" t="s">
         <v>171</v>
       </c>
       <c r="Y24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AB24" t="s">
         <v>159</v>
@@ -10643,25 +10649,25 @@
         <v>165</v>
       </c>
       <c r="AD24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE24" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI24">
         <v>0</v>
       </c>
       <c r="AJ24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AK24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL24" t="s">
         <v>159</v>
@@ -10673,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="AO24" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AP24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -10751,10 +10757,10 @@
         <v>0</v>
       </c>
       <c r="BO24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BP24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BQ24" t="s">
         <v>159</v>
@@ -10763,13 +10769,13 @@
         <v>165</v>
       </c>
       <c r="BS24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BT24" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BU24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BW24">
         <v>0</v>
@@ -10784,7 +10790,7 @@
         <v>156</v>
       </c>
       <c r="CA24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CB24" t="s">
         <v>256</v>
@@ -10793,34 +10799,34 @@
         <v>258</v>
       </c>
       <c r="CD24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CE24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CG24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CH24">
         <v>0</v>
       </c>
       <c r="CI24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CJ24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CK24">
         <v>0</v>
       </c>
       <c r="CL24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CM24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CN24" t="s">
         <v>159</v>
@@ -10832,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="CQ24" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="CR24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CS24">
         <v>0</v>
@@ -10889,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="DS24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DU24">
         <v>0</v>
@@ -10901,19 +10907,19 @@
         <v>0</v>
       </c>
       <c r="DY24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DZ24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EA24" t="s">
         <v>171</v>
       </c>
       <c r="EB24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="ED24" t="s">
         <v>168</v>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="268">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -493,6 +493,9 @@
     <t>43</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -541,6 +544,9 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs</t>
   </si>
   <si>
@@ -640,9 +646,6 @@
     <t>correction</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -679,6 +682,9 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs</t>
   </si>
   <si>
@@ -712,6 +718,9 @@
     <t>2025-05-28T09:04:34.280966Z</t>
   </si>
   <si>
+    <t>2025-07-18T13:37:16.145505Z</t>
+  </si>
+  <si>
     <t>2025-06-12T12:25:14.018607Z</t>
   </si>
   <si>
@@ -785,6 +794,9 @@
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 50_yrs</t>
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs</t>
@@ -1163,7 +1175,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ER24"/>
+  <dimension ref="A1:ER25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1653,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1662,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1674,55 +1686,55 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="X2" t="s">
         <v>158</v>
       </c>
       <c r="Y2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z2" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="AA2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AC2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>159</v>
       </c>
-      <c r="AD2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL2" t="s">
         <v>220</v>
       </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>219</v>
-      </c>
       <c r="AM2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -1767,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="BC2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BD2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BE2">
         <v>0</v>
@@ -1803,67 +1815,67 @@
         <v>0</v>
       </c>
       <c r="BO2" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="BP2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BQ2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BR2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>205</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>205</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>257</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>205</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>259</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="s">
         <v>159</v>
       </c>
-      <c r="BS2" t="s">
-        <v>209</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>203</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>203</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>231</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>254</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>203</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>256</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>208</v>
-      </c>
       <c r="CE2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="CF2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="CG2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CH2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CI2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CJ2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -1926,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="DH2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DI2">
         <v>0</v>
       </c>
       <c r="DJ2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DK2">
         <v>0</v>
@@ -1947,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DW2" t="s">
         <v>158</v>
@@ -1959,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ2" t="s">
         <v>158</v>
       </c>
       <c r="EA2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -1989,10 +2001,10 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EJ2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -2013,7 +2025,7 @@
         <v>157</v>
       </c>
       <c r="ER2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:148">
@@ -2057,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2065,8 +2077,8 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3" t="s">
-        <v>176</v>
+      <c r="R3">
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2075,67 +2087,70 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="X3" t="s">
         <v>159</v>
       </c>
       <c r="Y3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AA3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AB3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AC3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AD3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AE3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
       </c>
       <c r="AH3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>209</v>
+      <c r="AJ3">
+        <v>0</v>
       </c>
       <c r="AK3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AL3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>210</v>
       </c>
       <c r="AN3" t="s">
-        <v>209</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -2210,25 +2225,28 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="BP3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="BQ3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="BR3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="BS3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BT3" t="s">
-        <v>203</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -2237,64 +2255,64 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="BZ3" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="CA3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CB3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
-      <c r="CD3" t="s">
-        <v>203</v>
+      <c r="CD3">
+        <v>0</v>
       </c>
       <c r="CE3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CF3" t="s">
-        <v>203</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>205</v>
       </c>
       <c r="CH3" t="s">
-        <v>203</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
       </c>
       <c r="CK3">
         <v>0</v>
       </c>
-      <c r="CL3" t="s">
-        <v>209</v>
+      <c r="CL3">
+        <v>0</v>
       </c>
       <c r="CM3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="CN3" t="s">
-        <v>218</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>210</v>
       </c>
       <c r="CP3" t="s">
-        <v>209</v>
-      </c>
-      <c r="CQ3">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>210</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
       </c>
       <c r="CS3">
         <v>0</v>
@@ -2348,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU3">
         <v>0</v>
@@ -2360,22 +2378,22 @@
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EA3" t="s">
         <v>159</v>
       </c>
       <c r="EB3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="ED3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2434,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2461,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2470,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -2478,65 +2496,68 @@
       <c r="T4">
         <v>0</v>
       </c>
+      <c r="U4" t="s">
+        <v>179</v>
+      </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X4" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="Y4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z4" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="AA4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="AB4" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AC4" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="AD4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AE4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AH4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AK4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AL4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
+        <v>219</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>210</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -2565,23 +2586,23 @@
       <c r="AY4">
         <v>0</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>203</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>203</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>203</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>203</v>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
       </c>
       <c r="BD4">
         <v>0</v>
       </c>
-      <c r="BE4" t="s">
-        <v>203</v>
+      <c r="BE4">
+        <v>0</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -2611,25 +2632,25 @@
         <v>0</v>
       </c>
       <c r="BO4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BQ4" t="s">
         <v>219</v>
       </c>
-      <c r="BP4" t="s">
-        <v>212</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>206</v>
-      </c>
       <c r="BR4" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="BS4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="BT4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="BU4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="BW4">
         <v>0</v>
@@ -2638,64 +2659,64 @@
         <v>0</v>
       </c>
       <c r="BY4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BZ4" t="s">
-        <v>254</v>
+        <v>156</v>
       </c>
       <c r="CA4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CB4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CC4">
         <v>0</v>
       </c>
       <c r="CD4" t="s">
+        <v>205</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>205</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>205</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>205</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>210</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN4" t="s">
         <v>219</v>
       </c>
-      <c r="CE4" t="s">
-        <v>212</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>206</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>165</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>203</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>209</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
       <c r="CO4">
         <v>0</v>
       </c>
-      <c r="CP4">
-        <v>0</v>
+      <c r="CP4" t="s">
+        <v>210</v>
       </c>
       <c r="CQ4">
         <v>0</v>
       </c>
-      <c r="CR4">
-        <v>0</v>
+      <c r="CR4" t="s">
+        <v>210</v>
       </c>
       <c r="CS4">
         <v>0</v>
@@ -2724,36 +2745,21 @@
       <c r="DA4">
         <v>0</v>
       </c>
-      <c r="DB4" t="s">
-        <v>218</v>
-      </c>
       <c r="DC4">
         <v>0</v>
       </c>
-      <c r="DD4" t="s">
-        <v>203</v>
-      </c>
       <c r="DE4">
         <v>0</v>
       </c>
-      <c r="DF4" t="s">
-        <v>203</v>
-      </c>
       <c r="DG4">
         <v>0</v>
       </c>
-      <c r="DH4" t="s">
-        <v>209</v>
-      </c>
       <c r="DI4">
         <v>0</v>
       </c>
       <c r="DK4">
         <v>0</v>
       </c>
-      <c r="DL4" t="s">
-        <v>203</v>
-      </c>
       <c r="DM4">
         <v>0</v>
       </c>
@@ -2764,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>203</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
       </c>
       <c r="DW4" t="s">
         <v>160</v>
@@ -2776,22 +2782,22 @@
         <v>0</v>
       </c>
       <c r="DY4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ4" t="s">
+        <v>205</v>
+      </c>
+      <c r="EA4" t="s">
         <v>160</v>
       </c>
-      <c r="EA4" t="s">
-        <v>203</v>
-      </c>
-      <c r="EB4">
-        <v>0</v>
-      </c>
-      <c r="EC4">
-        <v>0</v>
-      </c>
-      <c r="ED4">
-        <v>0</v>
+      <c r="EB4" t="s">
+        <v>205</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>205</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>219</v>
       </c>
       <c r="EE4">
         <v>0</v>
@@ -2806,10 +2812,13 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>165</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>203</v>
+        <v>160</v>
+      </c>
+      <c r="EJ4">
+        <v>0</v>
+      </c>
+      <c r="EK4">
+        <v>0</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2847,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2860,6 +2869,9 @@
       </c>
       <c r="J5">
         <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>161</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2879,8 +2891,8 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5">
-        <v>0</v>
+      <c r="R5" t="s">
+        <v>178</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2892,58 +2904,58 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y5" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
+        <v>209</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>221</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
+      <c r="AJ5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>210</v>
       </c>
       <c r="AN5">
         <v>0</v>
       </c>
-      <c r="AO5">
-        <v>0</v>
+      <c r="AO5" t="s">
+        <v>205</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -2975,23 +2987,23 @@
       <c r="AY5">
         <v>0</v>
       </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
+      <c r="AZ5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>205</v>
       </c>
       <c r="BD5">
         <v>0</v>
       </c>
-      <c r="BE5">
-        <v>0</v>
+      <c r="BE5" t="s">
+        <v>205</v>
       </c>
       <c r="BF5">
         <v>0</v>
@@ -3021,134 +3033,149 @@
         <v>0</v>
       </c>
       <c r="BO5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="BP5" t="s">
+        <v>213</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>208</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>166</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BT5" t="s">
         <v>210</v>
       </c>
-      <c r="BQ5" t="s">
-        <v>228</v>
-      </c>
-      <c r="BR5" t="s">
+      <c r="BU5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>236</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>257</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>205</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>259</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>220</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>213</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>208</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>166</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>205</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>210</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="s">
         <v>219</v>
       </c>
-      <c r="BS5">
-        <v>0</v>
-      </c>
-      <c r="BT5">
-        <v>0</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5">
-        <v>0</v>
-      </c>
-      <c r="BX5">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>234</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>255</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>203</v>
-      </c>
-      <c r="CC5">
-        <v>0</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>203</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>203</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>203</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>203</v>
-      </c>
-      <c r="CH5">
-        <v>0</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5">
-        <v>0</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>225</v>
-      </c>
-      <c r="CM5" t="s">
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>205</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>205</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5" t="s">
         <v>210</v>
       </c>
-      <c r="CN5" t="s">
-        <v>228</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>219</v>
-      </c>
-      <c r="CP5">
-        <v>0</v>
-      </c>
-      <c r="CQ5">
-        <v>0</v>
-      </c>
-      <c r="CR5">
-        <v>0</v>
-      </c>
-      <c r="CS5">
-        <v>0</v>
-      </c>
-      <c r="CT5">
-        <v>0</v>
-      </c>
-      <c r="CU5">
-        <v>0</v>
-      </c>
-      <c r="CV5">
-        <v>0</v>
-      </c>
-      <c r="CW5">
-        <v>0</v>
-      </c>
-      <c r="CX5">
-        <v>0</v>
-      </c>
-      <c r="CY5">
-        <v>0</v>
-      </c>
-      <c r="CZ5">
-        <v>0</v>
-      </c>
-      <c r="DA5">
-        <v>0</v>
-      </c>
-      <c r="DC5">
-        <v>0</v>
-      </c>
-      <c r="DE5">
-        <v>0</v>
-      </c>
-      <c r="DG5">
-        <v>0</v>
-      </c>
       <c r="DI5">
         <v>0</v>
       </c>
       <c r="DK5">
         <v>0</v>
       </c>
+      <c r="DL5" t="s">
+        <v>205</v>
+      </c>
       <c r="DM5">
         <v>0</v>
       </c>
@@ -3159,28 +3186,31 @@
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>203</v>
-      </c>
-      <c r="DU5">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>205</v>
       </c>
       <c r="DW5" t="s">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="DX5">
         <v>0</v>
       </c>
       <c r="DY5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ5" t="s">
-        <v>203</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>203</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>203</v>
+        <v>161</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>205</v>
+      </c>
+      <c r="EB5">
+        <v>0</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
       </c>
       <c r="ED5">
         <v>0</v>
@@ -3198,13 +3228,10 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>203</v>
-      </c>
-      <c r="EJ5">
-        <v>0</v>
-      </c>
-      <c r="EK5">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>205</v>
       </c>
       <c r="EL5">
         <v>0</v>
@@ -3266,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -3274,8 +3301,8 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6" t="s">
-        <v>176</v>
+      <c r="R6">
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -3283,29 +3310,26 @@
       <c r="T6">
         <v>0</v>
       </c>
-      <c r="U6" t="s">
-        <v>178</v>
-      </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y6" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -3322,20 +3346,17 @@
       <c r="AG6">
         <v>0</v>
       </c>
-      <c r="AH6" t="s">
-        <v>221</v>
-      </c>
       <c r="AI6">
         <v>0</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>223</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>224</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>162</v>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -3376,14 +3397,14 @@
       <c r="AY6">
         <v>0</v>
       </c>
-      <c r="AZ6" t="s">
-        <v>203</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>203</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>203</v>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -3422,85 +3443,82 @@
         <v>0</v>
       </c>
       <c r="BO6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BP6" t="s">
+        <v>211</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>220</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>237</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>258</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>205</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>205</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>205</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="s">
         <v>227</v>
       </c>
-      <c r="BQ6" t="s">
-        <v>229</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>203</v>
-      </c>
-      <c r="BS6">
-        <v>0</v>
-      </c>
-      <c r="BT6">
-        <v>0</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6">
-        <v>0</v>
-      </c>
-      <c r="BX6">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>235</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>255</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>203</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>221</v>
-      </c>
-      <c r="CC6">
-        <v>0</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>203</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>203</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>203</v>
-      </c>
-      <c r="CG6">
-        <v>0</v>
-      </c>
-      <c r="CH6">
-        <v>0</v>
-      </c>
-      <c r="CI6">
-        <v>0</v>
-      </c>
-      <c r="CJ6">
-        <v>0</v>
-      </c>
-      <c r="CK6">
-        <v>0</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>226</v>
-      </c>
       <c r="CM6" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="CN6" t="s">
-        <v>229</v>
-      </c>
-      <c r="CO6">
-        <v>0</v>
+        <v>230</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>220</v>
       </c>
       <c r="CP6">
         <v>0</v>
@@ -3538,21 +3556,12 @@
       <c r="DA6">
         <v>0</v>
       </c>
-      <c r="DB6" t="s">
-        <v>223</v>
-      </c>
       <c r="DC6">
         <v>0</v>
       </c>
-      <c r="DD6" t="s">
-        <v>224</v>
-      </c>
       <c r="DE6">
         <v>0</v>
       </c>
-      <c r="DF6" t="s">
-        <v>162</v>
-      </c>
       <c r="DG6">
         <v>0</v>
       </c>
@@ -3572,31 +3581,34 @@
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU6">
         <v>0</v>
       </c>
       <c r="DW6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="DX6">
         <v>0</v>
       </c>
+      <c r="DY6" t="s">
+        <v>205</v>
+      </c>
       <c r="DZ6" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="EB6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="ED6">
         <v>0</v>
       </c>
-      <c r="EE6" t="s">
-        <v>165</v>
+      <c r="EE6">
+        <v>0</v>
       </c>
       <c r="EF6">
         <v>0</v>
@@ -3608,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="EJ6">
         <v>0</v>
@@ -3652,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3666,9 +3678,6 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
-        <v>161</v>
-      </c>
       <c r="L7">
         <v>0</v>
       </c>
@@ -3679,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -3688,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -3697,67 +3706,70 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X7" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="Y7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z7" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="AA7" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="AB7" t="s">
         <v>159</v>
       </c>
-      <c r="AC7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>209</v>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
       </c>
       <c r="AH7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AI7">
         <v>0</v>
       </c>
       <c r="AJ7" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="AK7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="AL7" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>209</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>209</v>
+        <v>163</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -3786,20 +3798,20 @@
       <c r="AY7">
         <v>0</v>
       </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
+      <c r="AZ7" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>205</v>
       </c>
       <c r="BC7">
         <v>0</v>
       </c>
-      <c r="BD7" t="s">
-        <v>203</v>
+      <c r="BD7">
+        <v>0</v>
       </c>
       <c r="BE7">
         <v>0</v>
@@ -3832,25 +3844,28 @@
         <v>0</v>
       </c>
       <c r="BO7" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="BP7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="BQ7" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="BR7" t="s">
-        <v>218</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>218</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>218</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>209</v>
+        <v>205</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -3859,64 +3874,64 @@
         <v>0</v>
       </c>
       <c r="BY7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BZ7" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="CA7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="CB7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="CC7">
         <v>0</v>
       </c>
       <c r="CD7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CE7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CF7" t="s">
-        <v>203</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>203</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>203</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>203</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
       </c>
       <c r="CK7">
         <v>0</v>
       </c>
       <c r="CL7" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="CM7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="CN7" t="s">
-        <v>159</v>
-      </c>
-      <c r="CO7" t="s">
-        <v>218</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>218</v>
-      </c>
-      <c r="CQ7" t="s">
-        <v>218</v>
-      </c>
-      <c r="CR7" t="s">
-        <v>209</v>
+        <v>231</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
       </c>
       <c r="CS7">
         <v>0</v>
@@ -3945,21 +3960,27 @@
       <c r="DA7">
         <v>0</v>
       </c>
+      <c r="DB7" t="s">
+        <v>225</v>
+      </c>
       <c r="DC7">
         <v>0</v>
       </c>
+      <c r="DD7" t="s">
+        <v>226</v>
+      </c>
       <c r="DE7">
         <v>0</v>
       </c>
+      <c r="DF7" t="s">
+        <v>163</v>
+      </c>
       <c r="DG7">
         <v>0</v>
       </c>
       <c r="DI7">
         <v>0</v>
       </c>
-      <c r="DJ7" t="s">
-        <v>209</v>
-      </c>
       <c r="DK7">
         <v>0</v>
       </c>
@@ -3973,37 +3994,31 @@
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU7">
         <v>0</v>
       </c>
       <c r="DW7" t="s">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c r="DX7">
         <v>0</v>
       </c>
-      <c r="DY7" t="s">
-        <v>203</v>
-      </c>
       <c r="DZ7" t="s">
-        <v>203</v>
-      </c>
-      <c r="EA7" t="s">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="EB7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC7" t="s">
-        <v>203</v>
-      </c>
-      <c r="ED7" t="s">
-        <v>208</v>
-      </c>
-      <c r="EE7">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="ED7">
+        <v>0</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>166</v>
       </c>
       <c r="EF7">
         <v>0</v>
@@ -4015,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="EJ7">
         <v>0</v>
@@ -4059,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4086,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -4095,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -4103,68 +4118,68 @@
       <c r="T8">
         <v>0</v>
       </c>
+      <c r="U8" t="s">
+        <v>179</v>
+      </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X8" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="Y8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AA8" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AB8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AC8" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="AD8" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="AE8" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="AF8" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AH8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
       <c r="AJ8" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="AK8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AL8" t="s">
-        <v>218</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>210</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -4193,20 +4208,20 @@
       <c r="AY8">
         <v>0</v>
       </c>
-      <c r="AZ8" t="s">
-        <v>203</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>203</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>203</v>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
       </c>
       <c r="BC8">
         <v>0</v>
       </c>
-      <c r="BD8">
-        <v>0</v>
+      <c r="BD8" t="s">
+        <v>205</v>
       </c>
       <c r="BE8">
         <v>0</v>
@@ -4239,28 +4254,25 @@
         <v>0</v>
       </c>
       <c r="BO8" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="BP8" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="BQ8" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="BR8" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="BS8" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="BT8" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="BU8" t="s">
-        <v>203</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -4269,64 +4281,64 @@
         <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="BZ8" t="s">
         <v>156</v>
       </c>
       <c r="CA8" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="CB8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CC8">
         <v>0</v>
       </c>
       <c r="CD8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="CE8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="CF8" t="s">
-        <v>211</v>
-      </c>
-      <c r="CG8">
-        <v>0</v>
-      </c>
-      <c r="CH8">
-        <v>0</v>
-      </c>
-      <c r="CI8">
-        <v>0</v>
-      </c>
-      <c r="CJ8">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>205</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>205</v>
       </c>
       <c r="CK8">
         <v>0</v>
       </c>
-      <c r="CL8">
-        <v>0</v>
-      </c>
-      <c r="CM8">
-        <v>0</v>
-      </c>
-      <c r="CN8">
-        <v>0</v>
-      </c>
-      <c r="CO8">
-        <v>0</v>
-      </c>
-      <c r="CP8">
-        <v>0</v>
-      </c>
-      <c r="CQ8">
-        <v>0</v>
-      </c>
-      <c r="CR8">
-        <v>0</v>
+      <c r="CL8" t="s">
+        <v>166</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>217</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>160</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>219</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>219</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>219</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>210</v>
       </c>
       <c r="CS8">
         <v>0</v>
@@ -4355,27 +4367,21 @@
       <c r="DA8">
         <v>0</v>
       </c>
-      <c r="DB8" t="s">
-        <v>203</v>
-      </c>
       <c r="DC8">
         <v>0</v>
       </c>
-      <c r="DD8" t="s">
-        <v>209</v>
-      </c>
       <c r="DE8">
         <v>0</v>
       </c>
-      <c r="DF8" t="s">
-        <v>218</v>
-      </c>
       <c r="DG8">
         <v>0</v>
       </c>
       <c r="DI8">
         <v>0</v>
       </c>
+      <c r="DJ8" t="s">
+        <v>210</v>
+      </c>
       <c r="DK8">
         <v>0</v>
       </c>
@@ -4389,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU8">
         <v>0</v>
@@ -4401,22 +4407,22 @@
         <v>0</v>
       </c>
       <c r="DY8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ8" t="s">
+        <v>205</v>
+      </c>
+      <c r="EA8" t="s">
         <v>162</v>
       </c>
-      <c r="EA8" t="s">
-        <v>203</v>
-      </c>
       <c r="EB8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC8" t="s">
-        <v>203</v>
-      </c>
-      <c r="ED8">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>159</v>
       </c>
       <c r="EE8">
         <v>0</v>
@@ -4431,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="EI8" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="EJ8">
         <v>0</v>
@@ -4475,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4488,6 +4494,9 @@
       </c>
       <c r="J9">
         <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>163</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4507,8 +4516,8 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9">
-        <v>0</v>
+      <c r="R9" t="s">
+        <v>178</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -4516,59 +4525,56 @@
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9" t="s">
-        <v>177</v>
-      </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z9" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="AA9" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>205</v>
       </c>
       <c r="AH9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AI9">
         <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AK9" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>219</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -4609,14 +4615,14 @@
       <c r="AY9">
         <v>0</v>
       </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
+      <c r="AZ9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>205</v>
       </c>
       <c r="BC9">
         <v>0</v>
@@ -4655,28 +4661,28 @@
         <v>0</v>
       </c>
       <c r="BO9" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="BP9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="BQ9" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="BR9" t="s">
-        <v>203</v>
-      </c>
-      <c r="BS9">
-        <v>0</v>
-      </c>
-      <c r="BT9">
-        <v>0</v>
-      </c>
-      <c r="BU9">
-        <v>0</v>
-      </c>
-      <c r="BV9">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>205</v>
       </c>
       <c r="BW9">
         <v>0</v>
@@ -4685,28 +4691,28 @@
         <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="BZ9" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="CA9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CB9" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="CC9">
         <v>0</v>
       </c>
       <c r="CD9" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="CE9" t="s">
-        <v>203</v>
-      </c>
-      <c r="CF9">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>212</v>
       </c>
       <c r="CG9">
         <v>0</v>
@@ -4723,11 +4729,11 @@
       <c r="CK9">
         <v>0</v>
       </c>
-      <c r="CL9" t="s">
-        <v>211</v>
-      </c>
-      <c r="CM9" t="s">
-        <v>168</v>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
       </c>
       <c r="CN9">
         <v>0</v>
@@ -4771,12 +4777,21 @@
       <c r="DA9">
         <v>0</v>
       </c>
+      <c r="DB9" t="s">
+        <v>205</v>
+      </c>
       <c r="DC9">
         <v>0</v>
       </c>
+      <c r="DD9" t="s">
+        <v>210</v>
+      </c>
       <c r="DE9">
         <v>0</v>
       </c>
+      <c r="DF9" t="s">
+        <v>219</v>
+      </c>
       <c r="DG9">
         <v>0</v>
       </c>
@@ -4796,31 +4811,34 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU9">
         <v>0</v>
       </c>
       <c r="DW9" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="DX9">
         <v>0</v>
       </c>
       <c r="DY9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ9" t="s">
-        <v>203</v>
+        <v>163</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>205</v>
       </c>
       <c r="EB9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC9" t="s">
-        <v>203</v>
-      </c>
-      <c r="ED9" t="s">
-        <v>216</v>
+        <v>205</v>
+      </c>
+      <c r="ED9">
+        <v>0</v>
       </c>
       <c r="EE9">
         <v>0</v>
@@ -4835,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="EJ9">
         <v>0</v>
@@ -4879,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4893,9 +4911,6 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
-        <v>163</v>
-      </c>
       <c r="L10">
         <v>0</v>
       </c>
@@ -4906,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -4914,8 +4929,8 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10" t="s">
-        <v>176</v>
+      <c r="R10">
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4924,226 +4939,232 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X10" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="Y10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z10" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="AA10" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB10" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>212</v>
       </c>
-      <c r="AC10" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>165</v>
-      </c>
       <c r="AK10" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL10" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="s">
         <v>212</v>
       </c>
-      <c r="AM10" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>216</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
-        <v>0</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
-      <c r="BI10">
-        <v>0</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>165</v>
-      </c>
       <c r="BP10" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="BQ10" t="s">
+        <v>205</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>205</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>241</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>258</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>205</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>224</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>205</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>205</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="s">
         <v>212</v>
       </c>
-      <c r="BR10" t="s">
-        <v>216</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>216</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>206</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>209</v>
-      </c>
-      <c r="BW10">
-        <v>0</v>
-      </c>
-      <c r="BX10">
-        <v>0</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>239</v>
-      </c>
-      <c r="BZ10" t="s">
-        <v>156</v>
-      </c>
-      <c r="CA10" t="s">
-        <v>203</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>256</v>
-      </c>
-      <c r="CC10">
-        <v>0</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>203</v>
-      </c>
-      <c r="CE10" t="s">
-        <v>203</v>
-      </c>
-      <c r="CF10" t="s">
-        <v>203</v>
-      </c>
-      <c r="CG10" t="s">
-        <v>203</v>
-      </c>
-      <c r="CH10" t="s">
-        <v>203</v>
-      </c>
-      <c r="CI10" t="s">
-        <v>203</v>
-      </c>
-      <c r="CJ10" t="s">
-        <v>203</v>
-      </c>
-      <c r="CK10">
-        <v>0</v>
-      </c>
-      <c r="CL10" t="s">
-        <v>165</v>
-      </c>
       <c r="CM10" t="s">
-        <v>159</v>
-      </c>
-      <c r="CN10" t="s">
-        <v>212</v>
-      </c>
-      <c r="CO10" t="s">
-        <v>216</v>
-      </c>
-      <c r="CP10" t="s">
-        <v>216</v>
-      </c>
-      <c r="CQ10" t="s">
-        <v>206</v>
-      </c>
-      <c r="CR10" t="s">
-        <v>209</v>
+        <v>169</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
       </c>
       <c r="CS10">
         <v>0</v>
@@ -5197,34 +5218,31 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU10">
         <v>0</v>
       </c>
       <c r="DW10" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="DX10">
         <v>0</v>
       </c>
       <c r="DY10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ10" t="s">
-        <v>203</v>
-      </c>
-      <c r="EA10" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="EB10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="ED10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="EE10">
         <v>0</v>
@@ -5239,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="EJ10">
         <v>0</v>
@@ -5283,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5298,97 +5316,97 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
+        <v>164</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>175</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>178</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>179</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>189</v>
+      </c>
+      <c r="X11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA11" t="s">
         <v>160</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>174</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>176</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11" t="s">
-        <v>188</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="AB11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK11" t="s">
         <v>160</v>
       </c>
-      <c r="Y11" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA11" t="s">
+      <c r="AL11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM11" t="s">
         <v>217</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AN11" t="s">
         <v>217</v>
       </c>
-      <c r="AC11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
+      <c r="AO11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>210</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -5463,28 +5481,25 @@
         <v>0</v>
       </c>
       <c r="BO11" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="BP11" t="s">
+        <v>160</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR11" t="s">
         <v>217</v>
       </c>
-      <c r="BQ11" t="s">
+      <c r="BS11" t="s">
         <v>217</v>
       </c>
-      <c r="BR11" t="s">
-        <v>209</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>203</v>
-      </c>
       <c r="BT11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="BU11" t="s">
-        <v>203</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="BW11">
         <v>0</v>
@@ -5493,61 +5508,64 @@
         <v>0</v>
       </c>
       <c r="BY11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="BZ11" t="s">
         <v>156</v>
       </c>
       <c r="CA11" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>259</v>
       </c>
       <c r="CC11">
         <v>0</v>
       </c>
       <c r="CD11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CE11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CF11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CG11" t="s">
-        <v>203</v>
-      </c>
-      <c r="CH11">
-        <v>0</v>
-      </c>
-      <c r="CI11">
-        <v>0</v>
-      </c>
-      <c r="CJ11">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>205</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>205</v>
       </c>
       <c r="CK11">
         <v>0</v>
       </c>
       <c r="CL11" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="CM11" t="s">
+        <v>160</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>213</v>
+      </c>
+      <c r="CO11" t="s">
         <v>217</v>
       </c>
-      <c r="CN11" t="s">
+      <c r="CP11" t="s">
         <v>217</v>
       </c>
-      <c r="CO11" t="s">
-        <v>209</v>
-      </c>
-      <c r="CP11">
-        <v>0</v>
-      </c>
-      <c r="CQ11">
-        <v>0</v>
-      </c>
-      <c r="CR11">
-        <v>0</v>
+      <c r="CQ11" t="s">
+        <v>208</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>210</v>
       </c>
       <c r="CS11">
         <v>0</v>
@@ -5601,34 +5619,34 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU11">
         <v>0</v>
       </c>
       <c r="DW11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="DX11">
         <v>0</v>
       </c>
       <c r="DY11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EA11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="EB11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC11" t="s">
-        <v>203</v>
-      </c>
-      <c r="ED11">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="ED11" t="s">
+        <v>220</v>
       </c>
       <c r="EE11">
         <v>0</v>
@@ -5643,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="EJ11">
         <v>0</v>
@@ -5669,8 +5687,8 @@
       <c r="EQ11" t="s">
         <v>157</v>
       </c>
-      <c r="ER11" t="s">
-        <v>263</v>
+      <c r="ER11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:148">
@@ -5687,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -5713,6 +5731,9 @@
       <c r="N12">
         <v>0</v>
       </c>
+      <c r="O12" t="s">
+        <v>175</v>
+      </c>
       <c r="P12">
         <v>0</v>
       </c>
@@ -5720,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -5732,55 +5753,55 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X12" t="s">
         <v>161</v>
       </c>
       <c r="Y12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z12" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AA12" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="AB12" t="s">
         <v>218</v>
       </c>
       <c r="AC12" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="AD12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AE12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AH12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI12">
         <v>0</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>203</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>209</v>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -5818,17 +5839,17 @@
       <c r="AY12">
         <v>0</v>
       </c>
-      <c r="AZ12" t="s">
-        <v>203</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>203</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>203</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>203</v>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
       </c>
       <c r="BD12">
         <v>0</v>
@@ -5863,29 +5884,29 @@
       <c r="BN12">
         <v>0</v>
       </c>
-      <c r="BO12">
-        <v>0</v>
-      </c>
-      <c r="BP12">
-        <v>0</v>
-      </c>
-      <c r="BQ12">
-        <v>0</v>
-      </c>
-      <c r="BR12">
-        <v>0</v>
-      </c>
-      <c r="BS12">
-        <v>0</v>
-      </c>
-      <c r="BT12">
-        <v>0</v>
-      </c>
-      <c r="BU12">
-        <v>0</v>
-      </c>
-      <c r="BV12">
-        <v>0</v>
+      <c r="BO12" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>218</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>218</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>210</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>205</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>205</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>205</v>
       </c>
       <c r="BW12">
         <v>0</v>
@@ -5894,31 +5915,28 @@
         <v>0</v>
       </c>
       <c r="BY12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BZ12" t="s">
         <v>156</v>
       </c>
       <c r="CA12" t="s">
-        <v>203</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="CC12">
         <v>0</v>
       </c>
       <c r="CD12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CE12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CF12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CG12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CH12">
         <v>0</v>
@@ -5933,16 +5951,16 @@
         <v>0</v>
       </c>
       <c r="CL12" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="CM12" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="CN12" t="s">
         <v>218</v>
       </c>
       <c r="CO12" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="CP12">
         <v>0</v>
@@ -5980,27 +5998,15 @@
       <c r="DA12">
         <v>0</v>
       </c>
-      <c r="DB12" t="s">
-        <v>203</v>
-      </c>
       <c r="DC12">
         <v>0</v>
       </c>
-      <c r="DD12" t="s">
-        <v>165</v>
-      </c>
       <c r="DE12">
         <v>0</v>
       </c>
-      <c r="DF12" t="s">
-        <v>203</v>
-      </c>
       <c r="DG12">
         <v>0</v>
       </c>
-      <c r="DH12" t="s">
-        <v>209</v>
-      </c>
       <c r="DI12">
         <v>0</v>
       </c>
@@ -6017,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU12">
         <v>0</v>
@@ -6029,19 +6035,19 @@
         <v>0</v>
       </c>
       <c r="DY12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EA12" t="s">
         <v>161</v>
       </c>
       <c r="EB12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="ED12">
         <v>0</v>
@@ -6059,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="EI12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="EJ12">
         <v>0</v>
@@ -6085,8 +6091,8 @@
       <c r="EQ12" t="s">
         <v>157</v>
       </c>
-      <c r="ER12">
-        <v>0</v>
+      <c r="ER12" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:148">
@@ -6103,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -6129,9 +6135,6 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13" t="s">
-        <v>174</v>
-      </c>
       <c r="P13">
         <v>0</v>
       </c>
@@ -6139,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -6151,52 +6154,55 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="X13" t="s">
         <v>162</v>
       </c>
       <c r="Y13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z13" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="AA13" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="AB13" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="AC13" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="AD13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AE13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF13" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>205</v>
       </c>
       <c r="AH13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI13">
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL13" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>210</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -6235,16 +6241,16 @@
         <v>0</v>
       </c>
       <c r="AZ13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BA13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BB13" t="s">
-        <v>203</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>205</v>
       </c>
       <c r="BD13">
         <v>0</v>
@@ -6279,26 +6285,29 @@
       <c r="BN13">
         <v>0</v>
       </c>
-      <c r="BO13" t="s">
-        <v>208</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>208</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>211</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>203</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>203</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>203</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>203</v>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
       </c>
       <c r="BW13">
         <v>0</v>
@@ -6307,37 +6316,37 @@
         <v>0</v>
       </c>
       <c r="BY13" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="BZ13" t="s">
-        <v>254</v>
+        <v>156</v>
       </c>
       <c r="CA13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CB13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CC13">
         <v>0</v>
       </c>
       <c r="CD13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="CE13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="CF13" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="CG13" t="s">
-        <v>203</v>
-      </c>
-      <c r="CH13" t="s">
-        <v>203</v>
-      </c>
-      <c r="CI13" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="CH13">
+        <v>0</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
       </c>
       <c r="CJ13">
         <v>0</v>
@@ -6345,17 +6354,17 @@
       <c r="CK13">
         <v>0</v>
       </c>
-      <c r="CL13">
-        <v>0</v>
-      </c>
-      <c r="CM13">
-        <v>0</v>
-      </c>
-      <c r="CN13">
-        <v>0</v>
-      </c>
-      <c r="CO13">
-        <v>0</v>
+      <c r="CL13" t="s">
+        <v>159</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>169</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>219</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>166</v>
       </c>
       <c r="CP13">
         <v>0</v>
@@ -6394,23 +6403,26 @@
         <v>0</v>
       </c>
       <c r="DB13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="DC13">
         <v>0</v>
       </c>
       <c r="DD13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DE13">
         <v>0</v>
       </c>
       <c r="DF13" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="DG13">
         <v>0</v>
       </c>
+      <c r="DH13" t="s">
+        <v>210</v>
+      </c>
       <c r="DI13">
         <v>0</v>
       </c>
@@ -6427,10 +6439,10 @@
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>203</v>
-      </c>
-      <c r="DU13" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="DU13">
+        <v>0</v>
       </c>
       <c r="DW13" t="s">
         <v>162</v>
@@ -6439,19 +6451,19 @@
         <v>0</v>
       </c>
       <c r="DY13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ13" t="s">
+        <v>205</v>
+      </c>
+      <c r="EA13" t="s">
         <v>162</v>
       </c>
-      <c r="EA13" t="s">
-        <v>203</v>
-      </c>
-      <c r="EB13">
-        <v>0</v>
-      </c>
-      <c r="EC13">
-        <v>0</v>
+      <c r="EB13" t="s">
+        <v>205</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>205</v>
       </c>
       <c r="ED13">
         <v>0</v>
@@ -6469,10 +6481,13 @@
         <v>0</v>
       </c>
       <c r="EI13" t="s">
-        <v>168</v>
-      </c>
-      <c r="EJ13" t="s">
-        <v>203</v>
+        <v>212</v>
+      </c>
+      <c r="EJ13">
+        <v>0</v>
+      </c>
+      <c r="EK13">
+        <v>0</v>
       </c>
       <c r="EL13">
         <v>0</v>
@@ -6510,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -6525,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -6537,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -6546,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -6558,58 +6573,55 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z14" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="AA14" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="AB14" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="AC14" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="AD14" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="AE14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF14" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AH14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI14">
         <v>0</v>
       </c>
       <c r="AJ14" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AK14" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="AL14" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>218</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>209</v>
+        <v>166</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -6645,19 +6657,19 @@
         <v>0</v>
       </c>
       <c r="AZ14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BA14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BB14" t="s">
-        <v>203</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>203</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
       </c>
       <c r="BE14">
         <v>0</v>
@@ -6690,28 +6702,25 @@
         <v>0</v>
       </c>
       <c r="BO14" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="BP14" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="BQ14" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="BR14" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="BS14" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="BT14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BU14" t="s">
-        <v>203</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BW14">
         <v>0</v>
@@ -6720,37 +6729,37 @@
         <v>0</v>
       </c>
       <c r="BY14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="BZ14" t="s">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="CA14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CB14" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CC14">
         <v>0</v>
       </c>
       <c r="CD14" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="CE14" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="CF14" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="CG14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CH14" t="s">
-        <v>203</v>
-      </c>
-      <c r="CI14">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>205</v>
       </c>
       <c r="CJ14">
         <v>0</v>
@@ -6758,20 +6767,20 @@
       <c r="CK14">
         <v>0</v>
       </c>
-      <c r="CL14" t="s">
-        <v>213</v>
-      </c>
-      <c r="CM14" t="s">
-        <v>172</v>
-      </c>
-      <c r="CN14" t="s">
-        <v>172</v>
-      </c>
-      <c r="CO14" t="s">
-        <v>168</v>
-      </c>
-      <c r="CP14" t="s">
-        <v>165</v>
+      <c r="CL14">
+        <v>0</v>
+      </c>
+      <c r="CM14">
+        <v>0</v>
+      </c>
+      <c r="CN14">
+        <v>0</v>
+      </c>
+      <c r="CO14">
+        <v>0</v>
+      </c>
+      <c r="CP14">
+        <v>0</v>
       </c>
       <c r="CQ14">
         <v>0</v>
@@ -6807,32 +6816,26 @@
         <v>0</v>
       </c>
       <c r="DB14" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="DC14">
         <v>0</v>
       </c>
       <c r="DD14" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="DE14">
         <v>0</v>
       </c>
       <c r="DF14" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="DG14">
         <v>0</v>
       </c>
-      <c r="DH14" t="s">
-        <v>218</v>
-      </c>
       <c r="DI14">
         <v>0</v>
       </c>
-      <c r="DJ14" t="s">
-        <v>209</v>
-      </c>
       <c r="DK14">
         <v>0</v>
       </c>
@@ -6846,31 +6849,31 @@
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>203</v>
-      </c>
-      <c r="DU14">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>205</v>
       </c>
       <c r="DW14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DX14">
         <v>0</v>
       </c>
       <c r="DY14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ14" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="EA14" t="s">
-        <v>164</v>
-      </c>
-      <c r="EB14" t="s">
-        <v>203</v>
-      </c>
-      <c r="EC14" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="EB14">
+        <v>0</v>
+      </c>
+      <c r="EC14">
+        <v>0</v>
       </c>
       <c r="ED14">
         <v>0</v>
@@ -6888,13 +6891,10 @@
         <v>0</v>
       </c>
       <c r="EI14" t="s">
-        <v>208</v>
-      </c>
-      <c r="EJ14">
-        <v>0</v>
-      </c>
-      <c r="EK14">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="EJ14" t="s">
+        <v>205</v>
       </c>
       <c r="EL14">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -6980,58 +6980,58 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="X15" t="s">
         <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z15" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="AA15" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="AB15" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="AC15" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="AD15" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="AE15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AH15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI15">
         <v>0</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
+      <c r="AJ15" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>210</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -7066,20 +7066,20 @@
       <c r="AY15">
         <v>0</v>
       </c>
-      <c r="AZ15">
-        <v>0</v>
-      </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15">
-        <v>0</v>
-      </c>
-      <c r="BD15">
-        <v>0</v>
+      <c r="AZ15" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>205</v>
       </c>
       <c r="BE15">
         <v>0</v>
@@ -7112,28 +7112,28 @@
         <v>0</v>
       </c>
       <c r="BO15" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="BP15" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="BQ15" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="BR15" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="BS15" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="BT15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BU15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BV15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BW15">
         <v>0</v>
@@ -7142,31 +7142,34 @@
         <v>0</v>
       </c>
       <c r="BY15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BZ15" t="s">
         <v>156</v>
       </c>
       <c r="CA15" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>259</v>
       </c>
       <c r="CC15">
         <v>0</v>
       </c>
       <c r="CD15" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="CE15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CF15" t="s">
-        <v>203</v>
-      </c>
-      <c r="CG15">
-        <v>0</v>
-      </c>
-      <c r="CH15">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>205</v>
       </c>
       <c r="CI15">
         <v>0</v>
@@ -7177,20 +7180,20 @@
       <c r="CK15">
         <v>0</v>
       </c>
-      <c r="CL15">
-        <v>0</v>
-      </c>
-      <c r="CM15">
-        <v>0</v>
-      </c>
-      <c r="CN15">
-        <v>0</v>
-      </c>
-      <c r="CO15">
-        <v>0</v>
-      </c>
-      <c r="CP15">
-        <v>0</v>
+      <c r="CL15" t="s">
+        <v>214</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>173</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>173</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>169</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>166</v>
       </c>
       <c r="CQ15">
         <v>0</v>
@@ -7225,18 +7228,33 @@
       <c r="DA15">
         <v>0</v>
       </c>
+      <c r="DB15" t="s">
+        <v>205</v>
+      </c>
       <c r="DC15">
         <v>0</v>
       </c>
+      <c r="DD15" t="s">
+        <v>219</v>
+      </c>
       <c r="DE15">
         <v>0</v>
       </c>
+      <c r="DF15" t="s">
+        <v>212</v>
+      </c>
       <c r="DG15">
         <v>0</v>
       </c>
+      <c r="DH15" t="s">
+        <v>219</v>
+      </c>
       <c r="DI15">
         <v>0</v>
       </c>
+      <c r="DJ15" t="s">
+        <v>210</v>
+      </c>
       <c r="DK15">
         <v>0</v>
       </c>
@@ -7250,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="DS15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU15">
         <v>0</v>
@@ -7262,19 +7280,19 @@
         <v>0</v>
       </c>
       <c r="DY15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ15" t="s">
+        <v>205</v>
+      </c>
+      <c r="EA15" t="s">
         <v>165</v>
       </c>
-      <c r="EA15" t="s">
-        <v>203</v>
-      </c>
       <c r="EB15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="ED15">
         <v>0</v>
@@ -7292,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="EI15" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="EJ15">
         <v>0</v>
@@ -7336,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -7363,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -7372,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -7384,40 +7402,40 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X16" t="s">
         <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AA16" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="AB16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AC16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AD16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AE16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AH16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -7516,28 +7534,28 @@
         <v>0</v>
       </c>
       <c r="BO16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BP16" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="BQ16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="BR16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="BS16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BT16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BU16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BV16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BW16">
         <v>0</v>
@@ -7546,28 +7564,28 @@
         <v>0</v>
       </c>
       <c r="BY16" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BZ16" t="s">
         <v>156</v>
       </c>
       <c r="CA16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CC16">
         <v>0</v>
       </c>
       <c r="CD16" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="CE16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CF16" t="s">
-        <v>203</v>
-      </c>
-      <c r="CG16" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="CG16">
+        <v>0</v>
       </c>
       <c r="CH16">
         <v>0</v>
@@ -7581,17 +7599,17 @@
       <c r="CK16">
         <v>0</v>
       </c>
-      <c r="CL16" t="s">
-        <v>168</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>168</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>208</v>
-      </c>
-      <c r="CO16" t="s">
-        <v>211</v>
+      <c r="CL16">
+        <v>0</v>
+      </c>
+      <c r="CM16">
+        <v>0</v>
+      </c>
+      <c r="CN16">
+        <v>0</v>
+      </c>
+      <c r="CO16">
+        <v>0</v>
       </c>
       <c r="CP16">
         <v>0</v>
@@ -7654,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="DS16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU16">
         <v>0</v>
@@ -7666,19 +7684,19 @@
         <v>0</v>
       </c>
       <c r="DY16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ16" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="EA16" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="EB16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="ED16">
         <v>0</v>
@@ -7696,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="EI16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EJ16">
         <v>0</v>
@@ -7767,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -7776,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -7788,40 +7806,40 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X17" t="s">
         <v>167</v>
       </c>
       <c r="Y17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z17" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="AA17" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="AB17" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC17" t="s">
         <v>212</v>
       </c>
-      <c r="AC17" t="s">
-        <v>203</v>
-      </c>
       <c r="AD17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AE17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AH17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI17">
         <v>0</v>
@@ -7920,28 +7938,28 @@
         <v>0</v>
       </c>
       <c r="BO17" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="BP17" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="BQ17" t="s">
+        <v>159</v>
+      </c>
+      <c r="BR17" t="s">
         <v>212</v>
       </c>
-      <c r="BR17" t="s">
-        <v>203</v>
-      </c>
       <c r="BS17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BT17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BU17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BV17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BW17">
         <v>0</v>
@@ -7950,28 +7968,28 @@
         <v>0</v>
       </c>
       <c r="BY17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BZ17" t="s">
         <v>156</v>
       </c>
       <c r="CA17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CC17">
         <v>0</v>
       </c>
       <c r="CD17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CE17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CF17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CG17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CH17">
         <v>0</v>
@@ -7986,17 +8004,17 @@
         <v>0</v>
       </c>
       <c r="CL17" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="CM17" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="CN17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CO17" t="s">
         <v>212</v>
       </c>
-      <c r="CO17">
-        <v>0</v>
-      </c>
       <c r="CP17">
         <v>0</v>
       </c>
@@ -8058,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="DS17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU17">
         <v>0</v>
@@ -8070,19 +8088,19 @@
         <v>0</v>
       </c>
       <c r="DY17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EA17" t="s">
         <v>167</v>
       </c>
       <c r="EB17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="ED17">
         <v>0</v>
@@ -8100,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="EI17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EJ17">
         <v>0</v>
@@ -8144,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -8171,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -8180,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -8188,62 +8206,62 @@
       <c r="T18">
         <v>0</v>
       </c>
-      <c r="U18" t="s">
-        <v>177</v>
-      </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s">
         <v>168</v>
       </c>
       <c r="Y18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z18" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AA18" t="s">
         <v>218</v>
       </c>
       <c r="AB18" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AC18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AD18" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="AE18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF18" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>205</v>
       </c>
       <c r="AH18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI18">
         <v>0</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>218</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>218</v>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
       </c>
       <c r="AM18">
         <v>0</v>
       </c>
-      <c r="AN18" t="s">
-        <v>218</v>
+      <c r="AN18">
+        <v>0</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -8324,25 +8342,28 @@
         <v>0</v>
       </c>
       <c r="BO18" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="BP18" t="s">
         <v>218</v>
       </c>
       <c r="BQ18" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="BR18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BS18" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="BT18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BU18" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>205</v>
       </c>
       <c r="BW18">
         <v>0</v>
@@ -8351,34 +8372,31 @@
         <v>0</v>
       </c>
       <c r="BY18" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BZ18" t="s">
         <v>156</v>
       </c>
       <c r="CA18" t="s">
-        <v>203</v>
-      </c>
-      <c r="CB18" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="CC18">
         <v>0</v>
       </c>
       <c r="CD18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CE18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CF18" t="s">
-        <v>203</v>
-      </c>
-      <c r="CG18">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH18">
+        <v>0</v>
       </c>
       <c r="CI18">
         <v>0</v>
@@ -8390,19 +8408,19 @@
         <v>0</v>
       </c>
       <c r="CL18" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="CM18" t="s">
         <v>218</v>
       </c>
       <c r="CN18" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="CO18">
         <v>0</v>
       </c>
-      <c r="CP18" t="s">
-        <v>218</v>
+      <c r="CP18">
+        <v>0</v>
       </c>
       <c r="CQ18">
         <v>0</v>
@@ -8462,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="DS18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU18">
         <v>0</v>
@@ -8474,22 +8492,22 @@
         <v>0</v>
       </c>
       <c r="DY18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EA18" t="s">
         <v>168</v>
       </c>
       <c r="EB18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC18" t="s">
-        <v>203</v>
-      </c>
-      <c r="ED18" t="s">
-        <v>218</v>
+        <v>205</v>
+      </c>
+      <c r="ED18">
+        <v>0</v>
       </c>
       <c r="EE18">
         <v>0</v>
@@ -8504,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="EI18" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="EJ18">
         <v>0</v>
@@ -8575,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -8584,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -8593,67 +8611,67 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s">
         <v>169</v>
       </c>
       <c r="Y19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA19" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="AB19" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="AC19" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="AD19" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="AE19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AF19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AH19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI19">
         <v>0</v>
       </c>
       <c r="AJ19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AK19" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="AL19" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
       </c>
       <c r="AN19" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>209</v>
+        <v>219</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -8728,25 +8746,25 @@
         <v>0</v>
       </c>
       <c r="BO19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BP19" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="BQ19" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="BR19" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="BS19" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="BT19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="BU19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="BW19">
         <v>0</v>
@@ -8755,64 +8773,64 @@
         <v>0</v>
       </c>
       <c r="BY19" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="BZ19" t="s">
         <v>156</v>
       </c>
       <c r="CA19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CB19" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CC19">
         <v>0</v>
       </c>
       <c r="CD19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CE19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CF19" t="s">
-        <v>203</v>
-      </c>
-      <c r="CG19" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="CG19">
+        <v>0</v>
       </c>
       <c r="CH19" t="s">
-        <v>203</v>
-      </c>
-      <c r="CI19" t="s">
-        <v>203</v>
-      </c>
-      <c r="CJ19" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
+        <v>0</v>
       </c>
       <c r="CK19">
         <v>0</v>
       </c>
       <c r="CL19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CM19" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="CN19" t="s">
-        <v>211</v>
-      </c>
-      <c r="CO19" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="CO19">
+        <v>0</v>
       </c>
       <c r="CP19" t="s">
-        <v>211</v>
-      </c>
-      <c r="CQ19" t="s">
-        <v>209</v>
-      </c>
-      <c r="CR19" t="s">
-        <v>209</v>
+        <v>219</v>
+      </c>
+      <c r="CQ19">
+        <v>0</v>
+      </c>
+      <c r="CR19">
+        <v>0</v>
       </c>
       <c r="CS19">
         <v>0</v>
@@ -8866,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="DS19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU19">
         <v>0</v>
@@ -8878,22 +8896,22 @@
         <v>0</v>
       </c>
       <c r="DY19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EA19" t="s">
         <v>169</v>
       </c>
       <c r="EB19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="ED19" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="EE19">
         <v>0</v>
@@ -8952,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -8978,6 +8996,9 @@
       <c r="N20">
         <v>0</v>
       </c>
+      <c r="O20" t="s">
+        <v>175</v>
+      </c>
       <c r="P20">
         <v>0</v>
       </c>
@@ -8985,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -8993,68 +9014,68 @@
       <c r="T20">
         <v>0</v>
       </c>
+      <c r="U20" t="s">
+        <v>179</v>
+      </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X20" t="s">
         <v>170</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AA20" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="AB20" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AC20" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="AD20" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AE20" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AF20" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AH20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI20">
         <v>0</v>
       </c>
       <c r="AJ20" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="AK20" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="AL20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s">
-        <v>209</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
+        <v>219</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>210</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -9083,14 +9104,14 @@
       <c r="AY20">
         <v>0</v>
       </c>
-      <c r="AZ20" t="s">
-        <v>203</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>203</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>203</v>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
       </c>
       <c r="BC20">
         <v>0</v>
@@ -9128,29 +9149,26 @@
       <c r="BN20">
         <v>0</v>
       </c>
-      <c r="BO20">
-        <v>0</v>
-      </c>
-      <c r="BP20">
-        <v>0</v>
-      </c>
-      <c r="BQ20">
-        <v>0</v>
-      </c>
-      <c r="BR20">
-        <v>0</v>
-      </c>
-      <c r="BS20">
-        <v>0</v>
-      </c>
-      <c r="BT20">
-        <v>0</v>
-      </c>
-      <c r="BU20">
-        <v>0</v>
-      </c>
-      <c r="BV20">
-        <v>0</v>
+      <c r="BO20" t="s">
+        <v>212</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>169</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>212</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>219</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>212</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>210</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>210</v>
       </c>
       <c r="BW20">
         <v>0</v>
@@ -9159,64 +9177,64 @@
         <v>0</v>
       </c>
       <c r="BY20" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BZ20" t="s">
         <v>156</v>
       </c>
       <c r="CA20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CB20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="CC20">
         <v>0</v>
       </c>
       <c r="CD20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CE20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CF20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CG20" t="s">
-        <v>203</v>
-      </c>
-      <c r="CH20">
-        <v>0</v>
-      </c>
-      <c r="CI20">
-        <v>0</v>
-      </c>
-      <c r="CJ20">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>205</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>205</v>
       </c>
       <c r="CK20">
         <v>0</v>
       </c>
       <c r="CL20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="CM20" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="CN20" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="CO20" t="s">
-        <v>209</v>
-      </c>
-      <c r="CP20">
-        <v>0</v>
-      </c>
-      <c r="CQ20">
-        <v>0</v>
-      </c>
-      <c r="CR20">
-        <v>0</v>
+        <v>219</v>
+      </c>
+      <c r="CP20" t="s">
+        <v>212</v>
+      </c>
+      <c r="CQ20" t="s">
+        <v>210</v>
+      </c>
+      <c r="CR20" t="s">
+        <v>210</v>
       </c>
       <c r="CS20">
         <v>0</v>
@@ -9245,21 +9263,12 @@
       <c r="DA20">
         <v>0</v>
       </c>
-      <c r="DB20" t="s">
-        <v>165</v>
-      </c>
       <c r="DC20">
         <v>0</v>
       </c>
-      <c r="DD20" t="s">
-        <v>206</v>
-      </c>
       <c r="DE20">
         <v>0</v>
       </c>
-      <c r="DF20" t="s">
-        <v>216</v>
-      </c>
       <c r="DG20">
         <v>0</v>
       </c>
@@ -9279,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="DS20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU20">
         <v>0</v>
@@ -9291,22 +9300,22 @@
         <v>0</v>
       </c>
       <c r="DY20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EA20" t="s">
         <v>170</v>
       </c>
       <c r="EB20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC20" t="s">
-        <v>203</v>
-      </c>
-      <c r="ED20">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="ED20" t="s">
+        <v>159</v>
       </c>
       <c r="EE20">
         <v>0</v>
@@ -9321,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="EI20" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="EJ20">
         <v>0</v>
@@ -9365,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -9391,9 +9400,6 @@
       <c r="N21">
         <v>0</v>
       </c>
-      <c r="O21" t="s">
-        <v>174</v>
-      </c>
       <c r="P21">
         <v>0</v>
       </c>
@@ -9401,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -9409,68 +9415,68 @@
       <c r="T21">
         <v>0</v>
       </c>
-      <c r="U21" t="s">
-        <v>177</v>
-      </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X21" t="s">
         <v>171</v>
       </c>
       <c r="Y21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z21" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="AA21" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="AB21" t="s">
         <v>159</v>
       </c>
       <c r="AC21" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AD21" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="AE21" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AF21" t="s">
-        <v>209</v>
+        <v>205</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>205</v>
       </c>
       <c r="AH21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI21">
         <v>0</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
+      <c r="AJ21" t="s">
+        <v>166</v>
       </c>
       <c r="AK21" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="AL21" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s">
-        <v>218</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>165</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -9499,14 +9505,14 @@
       <c r="AY21">
         <v>0</v>
       </c>
-      <c r="AZ21">
-        <v>0</v>
-      </c>
-      <c r="BA21">
-        <v>0</v>
-      </c>
-      <c r="BB21">
-        <v>0</v>
+      <c r="AZ21" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>205</v>
       </c>
       <c r="BC21">
         <v>0</v>
@@ -9544,26 +9550,29 @@
       <c r="BN21">
         <v>0</v>
       </c>
-      <c r="BO21" t="s">
-        <v>203</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>165</v>
-      </c>
-      <c r="BQ21" t="s">
-        <v>159</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>218</v>
-      </c>
-      <c r="BS21" t="s">
-        <v>165</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>209</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>209</v>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
+      </c>
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>0</v>
       </c>
       <c r="BW21">
         <v>0</v>
@@ -9572,64 +9581,64 @@
         <v>0</v>
       </c>
       <c r="BY21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BZ21" t="s">
         <v>156</v>
       </c>
       <c r="CA21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CB21" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="CC21">
         <v>0</v>
       </c>
-      <c r="CD21">
-        <v>0</v>
+      <c r="CD21" t="s">
+        <v>205</v>
       </c>
       <c r="CE21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CF21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CG21" t="s">
-        <v>203</v>
-      </c>
-      <c r="CH21" t="s">
-        <v>203</v>
-      </c>
-      <c r="CI21" t="s">
-        <v>203</v>
-      </c>
-      <c r="CJ21" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="CH21">
+        <v>0</v>
+      </c>
+      <c r="CI21">
+        <v>0</v>
+      </c>
+      <c r="CJ21">
+        <v>0</v>
       </c>
       <c r="CK21">
         <v>0</v>
       </c>
-      <c r="CL21">
-        <v>0</v>
+      <c r="CL21" t="s">
+        <v>216</v>
       </c>
       <c r="CM21" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="CN21" t="s">
         <v>159</v>
       </c>
       <c r="CO21" t="s">
-        <v>218</v>
-      </c>
-      <c r="CP21" t="s">
-        <v>165</v>
-      </c>
-      <c r="CQ21" t="s">
-        <v>209</v>
-      </c>
-      <c r="CR21" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="CP21">
+        <v>0</v>
+      </c>
+      <c r="CQ21">
+        <v>0</v>
+      </c>
+      <c r="CR21">
+        <v>0</v>
       </c>
       <c r="CS21">
         <v>0</v>
@@ -9658,12 +9667,21 @@
       <c r="DA21">
         <v>0</v>
       </c>
+      <c r="DB21" t="s">
+        <v>166</v>
+      </c>
       <c r="DC21">
         <v>0</v>
       </c>
+      <c r="DD21" t="s">
+        <v>208</v>
+      </c>
       <c r="DE21">
         <v>0</v>
       </c>
+      <c r="DF21" t="s">
+        <v>217</v>
+      </c>
       <c r="DG21">
         <v>0</v>
       </c>
@@ -9683,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="DS21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU21">
         <v>0</v>
@@ -9695,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="DY21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EA21" t="s">
         <v>171</v>
       </c>
       <c r="EB21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC21" t="s">
-        <v>203</v>
-      </c>
-      <c r="ED21" t="s">
-        <v>211</v>
+        <v>205</v>
+      </c>
+      <c r="ED21">
+        <v>0</v>
       </c>
       <c r="EE21">
         <v>0</v>
@@ -9725,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="EI21" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="EJ21">
         <v>0</v>
@@ -9796,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -9805,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -9814,67 +9832,67 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="X22" t="s">
         <v>172</v>
       </c>
       <c r="Y22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AA22" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AB22" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="AC22" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="AD22" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="AE22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AF22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AH22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI22">
         <v>0</v>
       </c>
-      <c r="AJ22" t="s">
-        <v>209</v>
+      <c r="AJ22">
+        <v>0</v>
       </c>
       <c r="AK22" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AL22" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>166</v>
       </c>
       <c r="AO22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AP22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -9949,25 +9967,25 @@
         <v>0</v>
       </c>
       <c r="BO22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="BP22" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="BQ22" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="BR22" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="BS22" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="BT22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="BU22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BW22">
         <v>0</v>
@@ -9976,64 +9994,64 @@
         <v>0</v>
       </c>
       <c r="BY22" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BZ22" t="s">
         <v>156</v>
       </c>
       <c r="CA22" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="CB22" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CC22">
         <v>0</v>
       </c>
-      <c r="CD22" t="s">
-        <v>203</v>
+      <c r="CD22">
+        <v>0</v>
       </c>
       <c r="CE22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CF22" t="s">
-        <v>203</v>
-      </c>
-      <c r="CG22">
-        <v>0</v>
-      </c>
-      <c r="CH22">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>205</v>
       </c>
       <c r="CI22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CJ22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CK22">
         <v>0</v>
       </c>
-      <c r="CL22" t="s">
-        <v>209</v>
+      <c r="CL22">
+        <v>0</v>
       </c>
       <c r="CM22" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="CN22" t="s">
-        <v>211</v>
-      </c>
-      <c r="CO22">
-        <v>0</v>
-      </c>
-      <c r="CP22">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>219</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>166</v>
       </c>
       <c r="CQ22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="CR22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CS22">
         <v>0</v>
@@ -10087,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="DS22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU22">
         <v>0</v>
@@ -10099,22 +10117,22 @@
         <v>0</v>
       </c>
       <c r="DY22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EA22" t="s">
         <v>172</v>
       </c>
       <c r="EB22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="ED22" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="EE22">
         <v>0</v>
@@ -10173,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -10200,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -10209,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -10217,56 +10235,56 @@
       <c r="T23">
         <v>0</v>
       </c>
+      <c r="U23" t="s">
+        <v>179</v>
+      </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X23" t="s">
         <v>173</v>
       </c>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z23" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="AA23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AC23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AD23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AE23" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="AF23" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AH23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI23">
         <v>0</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
+      <c r="AJ23" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>212</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -10274,11 +10292,11 @@
       <c r="AN23">
         <v>0</v>
       </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
+      <c r="AO23" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>210</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -10353,28 +10371,25 @@
         <v>0</v>
       </c>
       <c r="BO23" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="BP23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BQ23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BR23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BS23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BT23" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="BU23" t="s">
-        <v>203</v>
-      </c>
-      <c r="BV23" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="BW23">
         <v>0</v>
@@ -10383,25 +10398,28 @@
         <v>0</v>
       </c>
       <c r="BY23" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BZ23" t="s">
         <v>156</v>
       </c>
       <c r="CA23" t="s">
-        <v>203</v>
+        <v>219</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>259</v>
       </c>
       <c r="CC23">
         <v>0</v>
       </c>
       <c r="CD23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CE23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CF23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CG23">
         <v>0</v>
@@ -10409,23 +10427,23 @@
       <c r="CH23">
         <v>0</v>
       </c>
-      <c r="CI23">
-        <v>0</v>
-      </c>
-      <c r="CJ23">
-        <v>0</v>
+      <c r="CI23" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ23" t="s">
+        <v>205</v>
       </c>
       <c r="CK23">
         <v>0</v>
       </c>
       <c r="CL23" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="CM23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CN23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CO23">
         <v>0</v>
@@ -10433,11 +10451,11 @@
       <c r="CP23">
         <v>0</v>
       </c>
-      <c r="CQ23">
-        <v>0</v>
-      </c>
-      <c r="CR23">
-        <v>0</v>
+      <c r="CQ23" t="s">
+        <v>219</v>
+      </c>
+      <c r="CR23" t="s">
+        <v>210</v>
       </c>
       <c r="CS23">
         <v>0</v>
@@ -10491,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="DS23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU23">
         <v>0</v>
@@ -10503,22 +10521,22 @@
         <v>0</v>
       </c>
       <c r="DY23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EA23" t="s">
         <v>173</v>
       </c>
       <c r="EB23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC23" t="s">
-        <v>203</v>
-      </c>
-      <c r="ED23">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="ED23" t="s">
+        <v>169</v>
       </c>
       <c r="EE23">
         <v>0</v>
@@ -10533,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="EI23" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="EJ23">
         <v>0</v>
@@ -10577,22 +10595,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" t="s">
-        <v>156</v>
-      </c>
-      <c r="H24" t="s">
-        <v>148</v>
-      </c>
-      <c r="I24" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -10604,85 +10622,85 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
+        <v>175</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>178</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>202</v>
+      </c>
+      <c r="X24" t="s">
         <v>174</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24" t="s">
-        <v>176</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24" t="s">
-        <v>177</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24" t="s">
-        <v>201</v>
-      </c>
-      <c r="X24" t="s">
-        <v>171</v>
-      </c>
       <c r="Y24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z24" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="AA24" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="AB24" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="AC24" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="AD24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AE24" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AF24" t="s">
-        <v>209</v>
+        <v>205</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>205</v>
       </c>
       <c r="AH24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI24">
         <v>0</v>
       </c>
-      <c r="AJ24" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>165</v>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
       </c>
       <c r="AN24">
         <v>0</v>
       </c>
-      <c r="AO24" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>209</v>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -10757,91 +10775,91 @@
         <v>0</v>
       </c>
       <c r="BO24" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="BP24" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="BQ24" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="BR24" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="BS24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BT24" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="BU24" t="s">
-        <v>209</v>
+        <v>205</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>205</v>
       </c>
       <c r="BW24">
         <v>0</v>
       </c>
-      <c r="BX24" t="s">
-        <v>230</v>
+      <c r="BX24">
+        <v>0</v>
       </c>
       <c r="BY24" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="BZ24" t="s">
         <v>156</v>
       </c>
       <c r="CA24" t="s">
-        <v>209</v>
-      </c>
-      <c r="CB24" t="s">
-        <v>256</v>
-      </c>
-      <c r="CC24" t="s">
-        <v>258</v>
+        <v>205</v>
+      </c>
+      <c r="CC24">
+        <v>0</v>
       </c>
       <c r="CD24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CE24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="CF24" t="s">
-        <v>203</v>
-      </c>
-      <c r="CG24" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="CG24">
+        <v>0</v>
       </c>
       <c r="CH24">
         <v>0</v>
       </c>
-      <c r="CI24" t="s">
-        <v>203</v>
-      </c>
-      <c r="CJ24" t="s">
-        <v>203</v>
+      <c r="CI24">
+        <v>0</v>
+      </c>
+      <c r="CJ24">
+        <v>0</v>
       </c>
       <c r="CK24">
         <v>0</v>
       </c>
       <c r="CL24" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="CM24" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="CN24" t="s">
-        <v>159</v>
-      </c>
-      <c r="CO24" t="s">
-        <v>165</v>
+        <v>212</v>
+      </c>
+      <c r="CO24">
+        <v>0</v>
       </c>
       <c r="CP24">
         <v>0</v>
       </c>
-      <c r="CQ24" t="s">
-        <v>211</v>
-      </c>
-      <c r="CR24" t="s">
-        <v>209</v>
+      <c r="CQ24">
+        <v>0</v>
+      </c>
+      <c r="CR24">
+        <v>0</v>
       </c>
       <c r="CS24">
         <v>0</v>
@@ -10895,34 +10913,34 @@
         <v>0</v>
       </c>
       <c r="DS24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DU24">
         <v>0</v>
       </c>
       <c r="DW24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="DX24">
         <v>0</v>
       </c>
       <c r="DY24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DZ24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EA24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="EB24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EC24" t="s">
-        <v>203</v>
-      </c>
-      <c r="ED24" t="s">
-        <v>168</v>
+        <v>205</v>
+      </c>
+      <c r="ED24">
+        <v>0</v>
       </c>
       <c r="EE24">
         <v>0</v>
@@ -10937,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="EI24" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="EJ24">
         <v>0</v>
@@ -10964,6 +10982,410 @@
         <v>157</v>
       </c>
       <c r="ER24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:148">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" t="s">
+        <v>148</v>
+      </c>
+      <c r="I25" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>178</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25" t="s">
+        <v>179</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>203</v>
+      </c>
+      <c r="X25" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>212</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <v>0</v>
+      </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <v>0</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>210</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>160</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>166</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>205</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>212</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>210</v>
+      </c>
+      <c r="BW25">
+        <v>0</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>232</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>256</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>156</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>210</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>259</v>
+      </c>
+      <c r="CC25" t="s">
+        <v>262</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>205</v>
+      </c>
+      <c r="CE25" t="s">
+        <v>205</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG25" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH25">
+        <v>0</v>
+      </c>
+      <c r="CI25" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ25" t="s">
+        <v>205</v>
+      </c>
+      <c r="CK25">
+        <v>0</v>
+      </c>
+      <c r="CL25" t="s">
+        <v>210</v>
+      </c>
+      <c r="CM25" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN25" t="s">
+        <v>160</v>
+      </c>
+      <c r="CO25" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP25">
+        <v>0</v>
+      </c>
+      <c r="CQ25" t="s">
+        <v>212</v>
+      </c>
+      <c r="CR25" t="s">
+        <v>210</v>
+      </c>
+      <c r="CS25">
+        <v>0</v>
+      </c>
+      <c r="CT25">
+        <v>0</v>
+      </c>
+      <c r="CU25">
+        <v>0</v>
+      </c>
+      <c r="CV25">
+        <v>0</v>
+      </c>
+      <c r="CW25">
+        <v>0</v>
+      </c>
+      <c r="CX25">
+        <v>0</v>
+      </c>
+      <c r="CY25">
+        <v>0</v>
+      </c>
+      <c r="CZ25">
+        <v>0</v>
+      </c>
+      <c r="DA25">
+        <v>0</v>
+      </c>
+      <c r="DC25">
+        <v>0</v>
+      </c>
+      <c r="DE25">
+        <v>0</v>
+      </c>
+      <c r="DG25">
+        <v>0</v>
+      </c>
+      <c r="DI25">
+        <v>0</v>
+      </c>
+      <c r="DK25">
+        <v>0</v>
+      </c>
+      <c r="DM25">
+        <v>0</v>
+      </c>
+      <c r="DO25">
+        <v>0</v>
+      </c>
+      <c r="DR25">
+        <v>0</v>
+      </c>
+      <c r="DS25" t="s">
+        <v>205</v>
+      </c>
+      <c r="DU25">
+        <v>0</v>
+      </c>
+      <c r="DW25" t="s">
+        <v>172</v>
+      </c>
+      <c r="DX25">
+        <v>0</v>
+      </c>
+      <c r="DY25" t="s">
+        <v>205</v>
+      </c>
+      <c r="DZ25" t="s">
+        <v>205</v>
+      </c>
+      <c r="EA25" t="s">
+        <v>172</v>
+      </c>
+      <c r="EB25" t="s">
+        <v>205</v>
+      </c>
+      <c r="EC25" t="s">
+        <v>205</v>
+      </c>
+      <c r="ED25" t="s">
+        <v>169</v>
+      </c>
+      <c r="EE25">
+        <v>0</v>
+      </c>
+      <c r="EF25">
+        <v>0</v>
+      </c>
+      <c r="EG25">
+        <v>0</v>
+      </c>
+      <c r="EH25">
+        <v>0</v>
+      </c>
+      <c r="EI25" t="s">
+        <v>172</v>
+      </c>
+      <c r="EJ25">
+        <v>0</v>
+      </c>
+      <c r="EK25">
+        <v>0</v>
+      </c>
+      <c r="EL25">
+        <v>0</v>
+      </c>
+      <c r="EM25">
+        <v>0</v>
+      </c>
+      <c r="EN25">
+        <v>0</v>
+      </c>
+      <c r="EO25">
+        <v>0</v>
+      </c>
+      <c r="EP25">
+        <v>0</v>
+      </c>
+      <c r="EQ25" t="s">
+        <v>157</v>
+      </c>
+      <c r="ER25">
         <v>0</v>
       </c>
     </row>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="271">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -460,12 +460,12 @@
     <t>HURUNGWE</t>
   </si>
   <si>
+    <t>MBIRE</t>
+  </si>
+  <si>
     <t>SANYATI</t>
   </si>
   <si>
-    <t>MBIRE</t>
-  </si>
-  <si>
     <t>CHITUNGWIZA</t>
   </si>
   <si>
@@ -493,6 +493,9 @@
     <t>43</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -562,6 +565,9 @@
     <t>Chidamoyo Mission Hospital</t>
   </si>
   <si>
+    <t>Chidodo Clinic</t>
+  </si>
+  <si>
     <t>Chirikiti</t>
   </si>
   <si>
@@ -628,6 +634,9 @@
     <t>Vere</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -646,6 +655,9 @@
     <t>correction</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -655,9 +667,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -706,9 +715,6 @@
     <t>67</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
@@ -716,6 +722,9 @@
   </si>
   <si>
     <t>2025-05-28T09:04:34.280966Z</t>
+  </si>
+  <si>
+    <t>2025-07-27T13:44:21.138163Z</t>
   </si>
   <si>
     <t>2025-07-18T13:37:16.145505Z</t>
@@ -1175,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ER25"/>
+  <dimension ref="A1:ER26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1665,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1674,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1686,196 +1695,196 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X2" t="s">
         <v>158</v>
       </c>
       <c r="Y2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Z2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD2" t="s">
         <v>214</v>
       </c>
-      <c r="AB2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>160</v>
       </c>
-      <c r="AD2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>159</v>
-      </c>
       <c r="AK2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>223</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BS2" t="s">
         <v>214</v>
       </c>
-      <c r="AL2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>205</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>205</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BT2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>260</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>208</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>160</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>217</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>223</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>161</v>
+      </c>
+      <c r="CH2" t="s">
         <v>214</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>210</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>205</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>205</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>233</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>257</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>205</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>259</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>159</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>214</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>220</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>160</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>210</v>
-      </c>
       <c r="CI2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CJ2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -1938,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="DH2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="DI2">
         <v>0</v>
       </c>
       <c r="DJ2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DK2">
         <v>0</v>
@@ -1959,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DU2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DW2" t="s">
         <v>158</v>
@@ -1971,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DZ2" t="s">
         <v>158</v>
       </c>
       <c r="EA2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -2001,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="EJ2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -2025,7 +2034,7 @@
         <v>157</v>
       </c>
       <c r="ER2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:148">
@@ -2086,47 +2095,44 @@
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3" t="s">
-        <v>179</v>
-      </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X3" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="Y3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Z3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AA3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AB3" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AC3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AD3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AE3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>208</v>
       </c>
       <c r="AH3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -2134,20 +2140,20 @@
       <c r="AJ3">
         <v>0</v>
       </c>
-      <c r="AK3" t="s">
-        <v>217</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>210</v>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -2225,28 +2231,28 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="BP3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="BQ3" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="BR3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="BS3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="BT3" t="s">
-        <v>210</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>214</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>208</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -2255,40 +2261,37 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BZ3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="CA3" t="s">
-        <v>205</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
-      <c r="CD3">
-        <v>0</v>
+      <c r="CD3" t="s">
+        <v>223</v>
       </c>
       <c r="CE3" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="CF3" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="CG3" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="CH3" t="s">
-        <v>205</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>205</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>214</v>
       </c>
       <c r="CK3">
         <v>0</v>
@@ -2296,20 +2299,20 @@
       <c r="CL3">
         <v>0</v>
       </c>
-      <c r="CM3" t="s">
-        <v>217</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>210</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>210</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>210</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>210</v>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
       </c>
       <c r="CR3">
         <v>0</v>
@@ -2366,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DU3">
         <v>0</v>
@@ -2378,22 +2381,22 @@
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DZ3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="EA3" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="EB3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="EC3" t="s">
-        <v>205</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>217</v>
+        <v>208</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2408,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="EJ3">
         <v>0</v>
@@ -2452,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2479,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2487,8 +2490,8 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4" t="s">
-        <v>178</v>
+      <c r="R4">
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -2497,67 +2500,70 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="X4" t="s">
         <v>160</v>
       </c>
       <c r="Y4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Z4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AA4" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AC4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AD4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AE4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
       </c>
       <c r="AH4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>210</v>
+      <c r="AJ4">
+        <v>0</v>
       </c>
       <c r="AK4" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AL4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>214</v>
       </c>
       <c r="AN4" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -2632,25 +2638,28 @@
         <v>0</v>
       </c>
       <c r="BO4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="BP4" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="BQ4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="BR4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="BS4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="BT4" t="s">
-        <v>205</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
       </c>
       <c r="BW4">
         <v>0</v>
@@ -2659,64 +2668,64 @@
         <v>0</v>
       </c>
       <c r="BY4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BZ4" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="CA4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CB4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CC4">
         <v>0</v>
       </c>
-      <c r="CD4" t="s">
-        <v>205</v>
+      <c r="CD4">
+        <v>0</v>
       </c>
       <c r="CE4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CF4" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>208</v>
       </c>
       <c r="CH4" t="s">
-        <v>205</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>208</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
       </c>
       <c r="CK4">
         <v>0</v>
       </c>
-      <c r="CL4" t="s">
-        <v>210</v>
+      <c r="CL4">
+        <v>0</v>
       </c>
       <c r="CM4" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="CN4" t="s">
-        <v>219</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>214</v>
       </c>
       <c r="CP4" t="s">
-        <v>210</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>214</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
       </c>
       <c r="CS4">
         <v>0</v>
@@ -2770,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DU4">
         <v>0</v>
@@ -2782,22 +2791,22 @@
         <v>0</v>
       </c>
       <c r="DY4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DZ4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="EA4" t="s">
         <v>160</v>
       </c>
       <c r="EB4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="EC4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="ED4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="EE4">
         <v>0</v>
@@ -2883,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2892,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2900,65 +2909,68 @@
       <c r="T5">
         <v>0</v>
       </c>
+      <c r="U5" t="s">
+        <v>180</v>
+      </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X5" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="Y5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Z5" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="AA5" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="AB5" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AC5" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="AD5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AE5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AF5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AH5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AK5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AL5" t="s">
-        <v>205</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>214</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2987,23 +2999,23 @@
       <c r="AY5">
         <v>0</v>
       </c>
-      <c r="AZ5" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>205</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>205</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>205</v>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
       </c>
       <c r="BD5">
         <v>0</v>
       </c>
-      <c r="BE5" t="s">
-        <v>205</v>
+      <c r="BE5">
+        <v>0</v>
       </c>
       <c r="BF5">
         <v>0</v>
@@ -3033,25 +3045,25 @@
         <v>0</v>
       </c>
       <c r="BO5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="BP5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BQ5" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="BR5" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="BS5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="BT5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="BU5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -3060,64 +3072,64 @@
         <v>0</v>
       </c>
       <c r="BY5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BZ5" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="CA5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CB5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="CC5">
         <v>0</v>
       </c>
       <c r="CD5" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="CE5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="CF5" t="s">
         <v>208</v>
       </c>
-      <c r="CG5" t="s">
-        <v>166</v>
+      <c r="CG5">
+        <v>0</v>
       </c>
       <c r="CH5" t="s">
-        <v>205</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>210</v>
-      </c>
-      <c r="CJ5">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>208</v>
       </c>
       <c r="CK5">
         <v>0</v>
       </c>
-      <c r="CL5">
-        <v>0</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
+      <c r="CL5" t="s">
+        <v>214</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>214</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>222</v>
       </c>
       <c r="CO5">
         <v>0</v>
       </c>
-      <c r="CP5">
-        <v>0</v>
+      <c r="CP5" t="s">
+        <v>214</v>
       </c>
       <c r="CQ5">
         <v>0</v>
       </c>
-      <c r="CR5">
-        <v>0</v>
+      <c r="CR5" t="s">
+        <v>214</v>
       </c>
       <c r="CS5">
         <v>0</v>
@@ -3146,36 +3158,21 @@
       <c r="DA5">
         <v>0</v>
       </c>
-      <c r="DB5" t="s">
-        <v>219</v>
-      </c>
       <c r="DC5">
         <v>0</v>
       </c>
-      <c r="DD5" t="s">
-        <v>205</v>
-      </c>
       <c r="DE5">
         <v>0</v>
       </c>
-      <c r="DF5" t="s">
-        <v>205</v>
-      </c>
       <c r="DG5">
         <v>0</v>
       </c>
-      <c r="DH5" t="s">
-        <v>210</v>
-      </c>
       <c r="DI5">
         <v>0</v>
       </c>
       <c r="DK5">
         <v>0</v>
       </c>
-      <c r="DL5" t="s">
-        <v>205</v>
-      </c>
       <c r="DM5">
         <v>0</v>
       </c>
@@ -3186,10 +3183,10 @@
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>205</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="DU5">
+        <v>0</v>
       </c>
       <c r="DW5" t="s">
         <v>161</v>
@@ -3198,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="DY5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DZ5" t="s">
+        <v>208</v>
+      </c>
+      <c r="EA5" t="s">
         <v>161</v>
       </c>
-      <c r="EA5" t="s">
-        <v>205</v>
-      </c>
-      <c r="EB5">
-        <v>0</v>
-      </c>
-      <c r="EC5">
-        <v>0</v>
-      </c>
-      <c r="ED5">
-        <v>0</v>
+      <c r="EB5" t="s">
+        <v>208</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>208</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>222</v>
       </c>
       <c r="EE5">
         <v>0</v>
@@ -3228,10 +3225,13 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>166</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>205</v>
+        <v>161</v>
+      </c>
+      <c r="EJ5">
+        <v>0</v>
+      </c>
+      <c r="EK5">
+        <v>0</v>
       </c>
       <c r="EL5">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3283,6 +3283,9 @@
       <c r="J6">
         <v>0</v>
       </c>
+      <c r="K6" t="s">
+        <v>162</v>
+      </c>
       <c r="L6">
         <v>0</v>
       </c>
@@ -3293,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -3301,8 +3304,8 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6">
-        <v>0</v>
+      <c r="R6" t="s">
+        <v>179</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -3314,58 +3317,58 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Y6" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>224</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
+      <c r="AJ6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>214</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
-      <c r="AO6">
-        <v>0</v>
+      <c r="AO6" t="s">
+        <v>208</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -3397,23 +3400,23 @@
       <c r="AY6">
         <v>0</v>
       </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
+      <c r="AZ6" t="s">
+        <v>208</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>208</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>208</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>208</v>
       </c>
       <c r="BD6">
         <v>0</v>
       </c>
-      <c r="BE6">
-        <v>0</v>
+      <c r="BE6" t="s">
+        <v>208</v>
       </c>
       <c r="BF6">
         <v>0</v>
@@ -3443,28 +3446,25 @@
         <v>0</v>
       </c>
       <c r="BO6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="BP6" t="s">
+        <v>213</v>
+      </c>
+      <c r="BQ6" t="s">
         <v>211</v>
       </c>
-      <c r="BQ6" t="s">
-        <v>230</v>
-      </c>
       <c r="BR6" t="s">
-        <v>220</v>
-      </c>
-      <c r="BS6">
-        <v>0</v>
-      </c>
-      <c r="BT6">
-        <v>0</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>208</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>214</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>208</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -3473,34 +3473,37 @@
         <v>0</v>
       </c>
       <c r="BY6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="BZ6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="CA6" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>262</v>
       </c>
       <c r="CC6">
         <v>0</v>
       </c>
       <c r="CD6" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="CE6" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="CF6" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="CG6" t="s">
-        <v>205</v>
-      </c>
-      <c r="CH6">
-        <v>0</v>
-      </c>
-      <c r="CI6">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>208</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>214</v>
       </c>
       <c r="CJ6">
         <v>0</v>
@@ -3508,17 +3511,17 @@
       <c r="CK6">
         <v>0</v>
       </c>
-      <c r="CL6" t="s">
-        <v>227</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>211</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>230</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>220</v>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
       </c>
       <c r="CP6">
         <v>0</v>
@@ -3556,21 +3559,36 @@
       <c r="DA6">
         <v>0</v>
       </c>
+      <c r="DB6" t="s">
+        <v>222</v>
+      </c>
       <c r="DC6">
         <v>0</v>
       </c>
+      <c r="DD6" t="s">
+        <v>208</v>
+      </c>
       <c r="DE6">
         <v>0</v>
       </c>
+      <c r="DF6" t="s">
+        <v>208</v>
+      </c>
       <c r="DG6">
         <v>0</v>
       </c>
+      <c r="DH6" t="s">
+        <v>214</v>
+      </c>
       <c r="DI6">
         <v>0</v>
       </c>
       <c r="DK6">
         <v>0</v>
       </c>
+      <c r="DL6" t="s">
+        <v>208</v>
+      </c>
       <c r="DM6">
         <v>0</v>
       </c>
@@ -3581,28 +3599,31 @@
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>205</v>
-      </c>
-      <c r="DU6">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>208</v>
       </c>
       <c r="DW6" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="DX6">
         <v>0</v>
       </c>
       <c r="DY6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DZ6" t="s">
-        <v>205</v>
-      </c>
-      <c r="EB6" t="s">
-        <v>205</v>
-      </c>
-      <c r="EC6" t="s">
-        <v>205</v>
+        <v>162</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>208</v>
+      </c>
+      <c r="EB6">
+        <v>0</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
       </c>
       <c r="ED6">
         <v>0</v>
@@ -3620,13 +3641,10 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>205</v>
-      </c>
-      <c r="EJ6">
-        <v>0</v>
-      </c>
-      <c r="EK6">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>208</v>
       </c>
       <c r="EL6">
         <v>0</v>
@@ -3688,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -3696,8 +3714,8 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" t="s">
-        <v>178</v>
+      <c r="R7">
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -3705,156 +3723,150 @@
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7" t="s">
-        <v>180</v>
-      </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>215</v>
+      </c>
+      <c r="BQ7" t="s">
         <v>159</v>
       </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="s">
+      <c r="BR7" t="s">
         <v>223</v>
       </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>205</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>205</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>228</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>229</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>231</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>205</v>
-      </c>
       <c r="BS7">
         <v>0</v>
       </c>
@@ -3874,56 +3886,53 @@
         <v>0</v>
       </c>
       <c r="BY7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="BZ7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="CA7" t="s">
-        <v>205</v>
-      </c>
-      <c r="CB7" t="s">
+        <v>208</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>208</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>208</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>208</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>230</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>215</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CO7" t="s">
         <v>223</v>
       </c>
-      <c r="CC7">
-        <v>0</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>205</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG7">
-        <v>0</v>
-      </c>
-      <c r="CH7">
-        <v>0</v>
-      </c>
-      <c r="CI7">
-        <v>0</v>
-      </c>
-      <c r="CJ7">
-        <v>0</v>
-      </c>
-      <c r="CK7">
-        <v>0</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>228</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>229</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>231</v>
-      </c>
-      <c r="CO7">
-        <v>0</v>
-      </c>
       <c r="CP7">
         <v>0</v>
       </c>
@@ -3960,21 +3969,12 @@
       <c r="DA7">
         <v>0</v>
       </c>
-      <c r="DB7" t="s">
-        <v>225</v>
-      </c>
       <c r="DC7">
         <v>0</v>
       </c>
-      <c r="DD7" t="s">
-        <v>226</v>
-      </c>
       <c r="DE7">
         <v>0</v>
       </c>
-      <c r="DF7" t="s">
-        <v>163</v>
-      </c>
       <c r="DG7">
         <v>0</v>
       </c>
@@ -3994,31 +3994,34 @@
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DU7">
         <v>0</v>
       </c>
       <c r="DW7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="DX7">
         <v>0</v>
       </c>
+      <c r="DY7" t="s">
+        <v>208</v>
+      </c>
       <c r="DZ7" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="EB7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="EC7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="ED7">
         <v>0</v>
       </c>
-      <c r="EE7" t="s">
-        <v>166</v>
+      <c r="EE7">
+        <v>0</v>
       </c>
       <c r="EF7">
         <v>0</v>
@@ -4030,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="EJ7">
         <v>0</v>
@@ -4074,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4088,9 +4091,6 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
-        <v>162</v>
-      </c>
       <c r="L8">
         <v>0</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -4119,67 +4119,70 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X8" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="Y8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Z8" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="AA8" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="AB8" t="s">
         <v>160</v>
       </c>
-      <c r="AC8" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>210</v>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
       </c>
       <c r="AH8" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
       <c r="AJ8" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="AK8" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AL8" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>219</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>210</v>
+        <v>164</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -4208,20 +4211,20 @@
       <c r="AY8">
         <v>0</v>
       </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
+      <c r="AZ8" t="s">
+        <v>208</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>208</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>208</v>
       </c>
       <c r="BC8">
         <v>0</v>
       </c>
-      <c r="BD8" t="s">
-        <v>205</v>
+      <c r="BD8">
+        <v>0</v>
       </c>
       <c r="BE8">
         <v>0</v>
@@ -4254,25 +4257,28 @@
         <v>0</v>
       </c>
       <c r="BO8" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="BP8" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="BQ8" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="BR8" t="s">
-        <v>219</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>219</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>219</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -4281,64 +4287,64 @@
         <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="BZ8" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="CA8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="CB8" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="CC8">
         <v>0</v>
       </c>
       <c r="CD8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CE8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CF8" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG8" t="s">
-        <v>205</v>
-      </c>
-      <c r="CH8" t="s">
-        <v>205</v>
-      </c>
-      <c r="CI8" t="s">
-        <v>205</v>
-      </c>
-      <c r="CJ8" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
       </c>
       <c r="CK8">
         <v>0</v>
       </c>
       <c r="CL8" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="CM8" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="CN8" t="s">
-        <v>160</v>
-      </c>
-      <c r="CO8" t="s">
-        <v>219</v>
-      </c>
-      <c r="CP8" t="s">
-        <v>219</v>
-      </c>
-      <c r="CQ8" t="s">
-        <v>219</v>
-      </c>
-      <c r="CR8" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
       </c>
       <c r="CS8">
         <v>0</v>
@@ -4367,21 +4373,27 @@
       <c r="DA8">
         <v>0</v>
       </c>
+      <c r="DB8" t="s">
+        <v>228</v>
+      </c>
       <c r="DC8">
         <v>0</v>
       </c>
+      <c r="DD8" t="s">
+        <v>229</v>
+      </c>
       <c r="DE8">
         <v>0</v>
       </c>
+      <c r="DF8" t="s">
+        <v>164</v>
+      </c>
       <c r="DG8">
         <v>0</v>
       </c>
       <c r="DI8">
         <v>0</v>
       </c>
-      <c r="DJ8" t="s">
-        <v>210</v>
-      </c>
       <c r="DK8">
         <v>0</v>
       </c>
@@ -4395,37 +4407,31 @@
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DU8">
         <v>0</v>
       </c>
       <c r="DW8" t="s">
-        <v>162</v>
+        <v>267</v>
       </c>
       <c r="DX8">
         <v>0</v>
       </c>
-      <c r="DY8" t="s">
-        <v>205</v>
-      </c>
       <c r="DZ8" t="s">
-        <v>205</v>
-      </c>
-      <c r="EA8" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="EB8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="EC8" t="s">
-        <v>205</v>
-      </c>
-      <c r="ED8" t="s">
-        <v>159</v>
-      </c>
-      <c r="EE8">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="ED8">
+        <v>0</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>167</v>
       </c>
       <c r="EF8">
         <v>0</v>
@@ -4437,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="EI8" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="EJ8">
         <v>0</v>
@@ -4508,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -4517,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -4525,68 +4531,68 @@
       <c r="T9">
         <v>0</v>
       </c>
+      <c r="U9" t="s">
+        <v>180</v>
+      </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X9" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="Y9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Z9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AA9" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AB9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AC9" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AD9" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AE9" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AF9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AH9" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AI9">
         <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="AK9" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AL9" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>214</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -4615,20 +4621,20 @@
       <c r="AY9">
         <v>0</v>
       </c>
-      <c r="AZ9" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>205</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>205</v>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
       </c>
       <c r="BC9">
         <v>0</v>
       </c>
-      <c r="BD9">
-        <v>0</v>
+      <c r="BD9" t="s">
+        <v>208</v>
       </c>
       <c r="BE9">
         <v>0</v>
@@ -4661,28 +4667,25 @@
         <v>0</v>
       </c>
       <c r="BO9" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="BP9" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="BQ9" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="BR9" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="BS9" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="BT9" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="BU9" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="BW9">
         <v>0</v>
@@ -4691,64 +4694,64 @@
         <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="BZ9" t="s">
         <v>156</v>
       </c>
       <c r="CA9" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="CB9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="CC9">
         <v>0</v>
       </c>
       <c r="CD9" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="CE9" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="CF9" t="s">
-        <v>212</v>
-      </c>
-      <c r="CG9">
-        <v>0</v>
-      </c>
-      <c r="CH9">
-        <v>0</v>
-      </c>
-      <c r="CI9">
-        <v>0</v>
-      </c>
-      <c r="CJ9">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>208</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>208</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>208</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>208</v>
       </c>
       <c r="CK9">
         <v>0</v>
       </c>
-      <c r="CL9">
-        <v>0</v>
-      </c>
-      <c r="CM9">
-        <v>0</v>
-      </c>
-      <c r="CN9">
-        <v>0</v>
-      </c>
-      <c r="CO9">
-        <v>0</v>
-      </c>
-      <c r="CP9">
-        <v>0</v>
-      </c>
-      <c r="CQ9">
-        <v>0</v>
-      </c>
-      <c r="CR9">
-        <v>0</v>
+      <c r="CL9" t="s">
+        <v>167</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>220</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>161</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>222</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>222</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>222</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>214</v>
       </c>
       <c r="CS9">
         <v>0</v>
@@ -4777,27 +4780,21 @@
       <c r="DA9">
         <v>0</v>
       </c>
-      <c r="DB9" t="s">
-        <v>205</v>
-      </c>
       <c r="DC9">
         <v>0</v>
       </c>
-      <c r="DD9" t="s">
-        <v>210</v>
-      </c>
       <c r="DE9">
         <v>0</v>
       </c>
-      <c r="DF9" t="s">
-        <v>219</v>
-      </c>
       <c r="DG9">
         <v>0</v>
       </c>
       <c r="DI9">
         <v>0</v>
       </c>
+      <c r="DJ9" t="s">
+        <v>214</v>
+      </c>
       <c r="DK9">
         <v>0</v>
       </c>
@@ -4811,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DU9">
         <v>0</v>
@@ -4823,22 +4820,22 @@
         <v>0</v>
       </c>
       <c r="DY9" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DZ9" t="s">
+        <v>208</v>
+      </c>
+      <c r="EA9" t="s">
         <v>163</v>
       </c>
-      <c r="EA9" t="s">
-        <v>205</v>
-      </c>
       <c r="EB9" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="EC9" t="s">
-        <v>205</v>
-      </c>
-      <c r="ED9">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="ED9" t="s">
+        <v>160</v>
       </c>
       <c r="EE9">
         <v>0</v>
@@ -4853,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="EJ9">
         <v>0</v>
@@ -4897,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4911,6 +4908,9 @@
       <c r="J10">
         <v>0</v>
       </c>
+      <c r="K10" t="s">
+        <v>164</v>
+      </c>
       <c r="L10">
         <v>0</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -4929,8 +4929,8 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10">
-        <v>0</v>
+      <c r="R10" t="s">
+        <v>179</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4938,44 +4938,41 @@
       <c r="T10">
         <v>0</v>
       </c>
-      <c r="U10" t="s">
-        <v>179</v>
-      </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="X10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Z10" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="AA10" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>208</v>
       </c>
       <c r="AH10" t="s">
         <v>224</v>
@@ -4984,13 +4981,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AK10" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>222</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -5031,14 +5028,14 @@
       <c r="AY10">
         <v>0</v>
       </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
+      <c r="AZ10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>208</v>
       </c>
       <c r="BC10">
         <v>0</v>
@@ -5077,28 +5074,28 @@
         <v>0</v>
       </c>
       <c r="BO10" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="BP10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="BQ10" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="BR10" t="s">
-        <v>205</v>
-      </c>
-      <c r="BS10">
-        <v>0</v>
-      </c>
-      <c r="BT10">
-        <v>0</v>
-      </c>
-      <c r="BU10">
-        <v>0</v>
-      </c>
-      <c r="BV10">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>208</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -5107,28 +5104,28 @@
         <v>0</v>
       </c>
       <c r="BY10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BZ10" t="s">
-        <v>258</v>
+        <v>156</v>
       </c>
       <c r="CA10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CB10" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="CC10">
         <v>0</v>
       </c>
       <c r="CD10" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="CE10" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF10">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>216</v>
       </c>
       <c r="CG10">
         <v>0</v>
@@ -5145,11 +5142,11 @@
       <c r="CK10">
         <v>0</v>
       </c>
-      <c r="CL10" t="s">
-        <v>212</v>
-      </c>
-      <c r="CM10" t="s">
-        <v>169</v>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
       </c>
       <c r="CN10">
         <v>0</v>
@@ -5193,12 +5190,21 @@
       <c r="DA10">
         <v>0</v>
       </c>
+      <c r="DB10" t="s">
+        <v>208</v>
+      </c>
       <c r="DC10">
         <v>0</v>
       </c>
+      <c r="DD10" t="s">
+        <v>214</v>
+      </c>
       <c r="DE10">
         <v>0</v>
       </c>
+      <c r="DF10" t="s">
+        <v>222</v>
+      </c>
       <c r="DG10">
         <v>0</v>
       </c>
@@ -5218,31 +5224,34 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DU10">
         <v>0</v>
       </c>
       <c r="DW10" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="DX10">
         <v>0</v>
       </c>
       <c r="DY10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DZ10" t="s">
-        <v>205</v>
+        <v>164</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>208</v>
       </c>
       <c r="EB10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="EC10" t="s">
-        <v>205</v>
-      </c>
-      <c r="ED10" t="s">
-        <v>217</v>
+        <v>208</v>
+      </c>
+      <c r="ED10">
+        <v>0</v>
       </c>
       <c r="EE10">
         <v>0</v>
@@ -5257,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="EJ10">
         <v>0</v>
@@ -5301,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5315,9 +5324,6 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
-        <v>164</v>
-      </c>
       <c r="L11">
         <v>0</v>
       </c>
@@ -5328,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -5336,8 +5342,8 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11" t="s">
-        <v>178</v>
+      <c r="R11">
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -5346,67 +5352,70 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X11" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="Y11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Z11" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="AA11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>210</v>
+        <v>170</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
       </c>
       <c r="AH11" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AI11">
         <v>0</v>
       </c>
       <c r="AJ11" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="AK11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>217</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>210</v>
+        <v>170</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -5481,25 +5490,28 @@
         <v>0</v>
       </c>
       <c r="BO11" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="BP11" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="BQ11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="BR11" t="s">
-        <v>217</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>217</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>208</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
       </c>
       <c r="BW11">
         <v>0</v>
@@ -5508,64 +5520,64 @@
         <v>0</v>
       </c>
       <c r="BY11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="BZ11" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="CA11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CB11" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="CC11">
         <v>0</v>
       </c>
       <c r="CD11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CE11" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG11" t="s">
-        <v>205</v>
-      </c>
-      <c r="CH11" t="s">
-        <v>205</v>
-      </c>
-      <c r="CI11" t="s">
-        <v>205</v>
-      </c>
-      <c r="CJ11" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
       </c>
       <c r="CK11">
         <v>0</v>
       </c>
       <c r="CL11" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="CM11" t="s">
-        <v>160</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>213</v>
-      </c>
-      <c r="CO11" t="s">
-        <v>217</v>
-      </c>
-      <c r="CP11" t="s">
-        <v>217</v>
-      </c>
-      <c r="CQ11" t="s">
-        <v>208</v>
-      </c>
-      <c r="CR11" t="s">
-        <v>210</v>
+        <v>170</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
       </c>
       <c r="CS11">
         <v>0</v>
@@ -5619,31 +5631,28 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DU11">
         <v>0</v>
       </c>
       <c r="DW11" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="DX11">
         <v>0</v>
       </c>
       <c r="DY11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DZ11" t="s">
-        <v>205</v>
-      </c>
-      <c r="EA11" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="EB11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="EC11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="ED11" t="s">
         <v>220</v>
@@ -5661,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="EJ11">
         <v>0</v>
@@ -5705,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -5720,97 +5729,97 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>176</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>179</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>180</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>191</v>
+      </c>
+      <c r="X12" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA12" t="s">
         <v>161</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>175</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>178</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
-        <v>190</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="AB12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK12" t="s">
         <v>161</v>
       </c>
-      <c r="Y12" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="AL12" t="s">
         <v>213</v>
       </c>
-      <c r="AA12" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
+      <c r="AM12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>214</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -5885,28 +5894,25 @@
         <v>0</v>
       </c>
       <c r="BO12" t="s">
+        <v>167</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BQ12" t="s">
         <v>213</v>
       </c>
-      <c r="BP12" t="s">
-        <v>218</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>218</v>
-      </c>
       <c r="BR12" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="BS12" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="BT12" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="BU12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="BW12">
         <v>0</v>
@@ -5915,61 +5921,64 @@
         <v>0</v>
       </c>
       <c r="BY12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="BZ12" t="s">
         <v>156</v>
       </c>
       <c r="CA12" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>262</v>
       </c>
       <c r="CC12">
         <v>0</v>
       </c>
       <c r="CD12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CE12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CF12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CG12" t="s">
-        <v>205</v>
-      </c>
-      <c r="CH12">
-        <v>0</v>
-      </c>
-      <c r="CI12">
-        <v>0</v>
-      </c>
-      <c r="CJ12">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>208</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>208</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>208</v>
       </c>
       <c r="CK12">
         <v>0</v>
       </c>
       <c r="CL12" t="s">
+        <v>167</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>161</v>
+      </c>
+      <c r="CN12" t="s">
         <v>213</v>
       </c>
-      <c r="CM12" t="s">
-        <v>218</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>218</v>
-      </c>
       <c r="CO12" t="s">
-        <v>210</v>
-      </c>
-      <c r="CP12">
-        <v>0</v>
-      </c>
-      <c r="CQ12">
-        <v>0</v>
-      </c>
-      <c r="CR12">
-        <v>0</v>
+        <v>220</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>220</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>211</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>214</v>
       </c>
       <c r="CS12">
         <v>0</v>
@@ -6023,34 +6032,34 @@
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DU12">
         <v>0</v>
       </c>
       <c r="DW12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="DX12">
         <v>0</v>
       </c>
       <c r="DY12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DZ12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="EA12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="EB12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="EC12" t="s">
-        <v>205</v>
-      </c>
-      <c r="ED12">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="ED12" t="s">
+        <v>223</v>
       </c>
       <c r="EE12">
         <v>0</v>
@@ -6065,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="EI12" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="EJ12">
         <v>0</v>
@@ -6091,8 +6100,8 @@
       <c r="EQ12" t="s">
         <v>157</v>
       </c>
-      <c r="ER12" t="s">
-        <v>267</v>
+      <c r="ER12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:148">
@@ -6109,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -6135,6 +6144,9 @@
       <c r="N13">
         <v>0</v>
       </c>
+      <c r="O13" t="s">
+        <v>176</v>
+      </c>
       <c r="P13">
         <v>0</v>
       </c>
@@ -6142,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -6154,160 +6166,160 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X13" t="s">
         <v>162</v>
       </c>
       <c r="Y13" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Z13" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="AA13" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="AB13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AC13" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="AD13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AE13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AF13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AG13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AH13" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP13" t="s">
         <v>221</v>
       </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>205</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>205</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>205</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>205</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
-        <v>0</v>
-      </c>
-      <c r="BS13">
-        <v>0</v>
-      </c>
-      <c r="BT13">
-        <v>0</v>
-      </c>
-      <c r="BU13">
-        <v>0</v>
-      </c>
-      <c r="BV13">
-        <v>0</v>
+      <c r="BQ13" t="s">
+        <v>221</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>208</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>208</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>208</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>208</v>
       </c>
       <c r="BW13">
         <v>0</v>
@@ -6316,31 +6328,28 @@
         <v>0</v>
       </c>
       <c r="BY13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BZ13" t="s">
         <v>156</v>
       </c>
       <c r="CA13" t="s">
-        <v>205</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="CC13">
         <v>0</v>
       </c>
       <c r="CD13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CE13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CF13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CG13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CH13">
         <v>0</v>
@@ -6355,16 +6364,16 @@
         <v>0</v>
       </c>
       <c r="CL13" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="CM13" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="CN13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="CO13" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="CP13">
         <v>0</v>
@@ -6402,27 +6411,15 @@
       <c r="DA13">
         <v>0</v>
       </c>
-      <c r="DB13" t="s">
-        <v>205</v>
-      </c>
       <c r="DC13">
         <v>0</v>
       </c>
-      <c r="DD13" t="s">
-        <v>166</v>
-      </c>
       <c r="DE13">
         <v>0</v>
       </c>
-      <c r="DF13" t="s">
-        <v>205</v>
-      </c>
       <c r="DG13">
         <v>0</v>
       </c>
-      <c r="DH13" t="s">
-        <v>210</v>
-      </c>
       <c r="DI13">
         <v>0</v>
       </c>
@@ -6439,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DU13">
         <v>0</v>
@@ -6451,19 +6448,19 @@
         <v>0</v>
       </c>
       <c r="DY13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DZ13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="EA13" t="s">
         <v>162</v>
       </c>
       <c r="EB13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="EC13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="ED13">
         <v>0</v>
@@ -6481,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="EI13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="EJ13">
         <v>0</v>
@@ -6507,8 +6504,8 @@
       <c r="EQ13" t="s">
         <v>157</v>
       </c>
-      <c r="ER13">
-        <v>0</v>
+      <c r="ER13" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:148">
@@ -6525,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -6551,9 +6548,6 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14" t="s">
-        <v>175</v>
-      </c>
       <c r="P14">
         <v>0</v>
       </c>
@@ -6561,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -6573,52 +6567,55 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="X14" t="s">
         <v>163</v>
       </c>
       <c r="Y14" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Z14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA14" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="AB14" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="AC14" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="AD14" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AE14" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AF14" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>208</v>
       </c>
       <c r="AH14" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AI14">
         <v>0</v>
       </c>
       <c r="AJ14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AK14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>214</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -6657,16 +6654,16 @@
         <v>0</v>
       </c>
       <c r="AZ14" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="BA14" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="BB14" t="s">
-        <v>205</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>208</v>
       </c>
       <c r="BD14">
         <v>0</v>
@@ -6701,26 +6698,29 @@
       <c r="BN14">
         <v>0</v>
       </c>
-      <c r="BO14" t="s">
-        <v>159</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>159</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>212</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>205</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>205</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>205</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>205</v>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>0</v>
       </c>
       <c r="BW14">
         <v>0</v>
@@ -6729,37 +6729,37 @@
         <v>0</v>
       </c>
       <c r="BY14" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BZ14" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="CA14" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CB14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="CC14">
         <v>0</v>
       </c>
       <c r="CD14" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="CE14" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="CF14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="CG14" t="s">
-        <v>205</v>
-      </c>
-      <c r="CH14" t="s">
-        <v>205</v>
-      </c>
-      <c r="CI14" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="CH14">
+        <v>0</v>
+      </c>
+      <c r="CI14">
+        <v>0</v>
       </c>
       <c r="CJ14">
         <v>0</v>
@@ -6767,17 +6767,17 @@
       <c r="CK14">
         <v>0</v>
       </c>
-      <c r="CL14">
-        <v>0</v>
-      </c>
-      <c r="CM14">
-        <v>0</v>
-      </c>
-      <c r="CN14">
-        <v>0</v>
-      </c>
-      <c r="CO14">
-        <v>0</v>
+      <c r="CL14" t="s">
+        <v>160</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>170</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>222</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>167</v>
       </c>
       <c r="CP14">
         <v>0</v>
@@ -6816,23 +6816,26 @@
         <v>0</v>
       </c>
       <c r="DB14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="DC14">
         <v>0</v>
       </c>
       <c r="DD14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="DE14">
         <v>0</v>
       </c>
       <c r="DF14" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="DG14">
         <v>0</v>
       </c>
+      <c r="DH14" t="s">
+        <v>214</v>
+      </c>
       <c r="DI14">
         <v>0</v>
       </c>
@@ -6849,10 +6852,10 @@
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>205</v>
-      </c>
-      <c r="DU14" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="DU14">
+        <v>0</v>
       </c>
       <c r="DW14" t="s">
         <v>163</v>
@@ -6861,19 +6864,19 @@
         <v>0</v>
       </c>
       <c r="DY14" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DZ14" t="s">
+        <v>208</v>
+      </c>
+      <c r="EA14" t="s">
         <v>163</v>
       </c>
-      <c r="EA14" t="s">
-        <v>205</v>
-      </c>
-      <c r="EB14">
-        <v>0</v>
-      </c>
-      <c r="EC14">
-        <v>0</v>
+      <c r="EB14" t="s">
+        <v>208</v>
+      </c>
+      <c r="EC14" t="s">
+        <v>208</v>
       </c>
       <c r="ED14">
         <v>0</v>
@@ -6891,10 +6894,13 @@
         <v>0</v>
       </c>
       <c r="EI14" t="s">
-        <v>169</v>
-      </c>
-      <c r="EJ14" t="s">
-        <v>205</v>
+        <v>216</v>
+      </c>
+      <c r="EJ14">
+        <v>0</v>
+      </c>
+      <c r="EK14">
+        <v>0</v>
       </c>
       <c r="EL14">
         <v>0</v>
@@ -6932,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -6947,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -6959,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -6968,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -6980,58 +6986,55 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y15" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Z15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>214</v>
       </c>
-      <c r="AA15" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>205</v>
-      </c>
       <c r="AK15" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="AL15" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>210</v>
+        <v>167</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -7067,19 +7070,19 @@
         <v>0</v>
       </c>
       <c r="AZ15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="BA15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="BB15" t="s">
-        <v>205</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>205</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
       </c>
       <c r="BE15">
         <v>0</v>
@@ -7112,149 +7115,140 @@
         <v>0</v>
       </c>
       <c r="BO15" t="s">
+        <v>160</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>160</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>216</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>208</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>208</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>208</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>208</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>248</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>260</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>208</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>160</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>160</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>216</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>208</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>208</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>208</v>
+      </c>
+      <c r="CJ15">
+        <v>0</v>
+      </c>
+      <c r="CK15">
+        <v>0</v>
+      </c>
+      <c r="CL15">
+        <v>0</v>
+      </c>
+      <c r="CM15">
+        <v>0</v>
+      </c>
+      <c r="CN15">
+        <v>0</v>
+      </c>
+      <c r="CO15">
+        <v>0</v>
+      </c>
+      <c r="CP15">
+        <v>0</v>
+      </c>
+      <c r="CQ15">
+        <v>0</v>
+      </c>
+      <c r="CR15">
+        <v>0</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15">
+        <v>0</v>
+      </c>
+      <c r="CU15">
+        <v>0</v>
+      </c>
+      <c r="CV15">
+        <v>0</v>
+      </c>
+      <c r="CW15">
+        <v>0</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15">
+        <v>0</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DA15">
+        <v>0</v>
+      </c>
+      <c r="DB15" t="s">
         <v>214</v>
       </c>
-      <c r="BP15" t="s">
-        <v>173</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>173</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>169</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>166</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>205</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>205</v>
-      </c>
-      <c r="BW15">
-        <v>0</v>
-      </c>
-      <c r="BX15">
-        <v>0</v>
-      </c>
-      <c r="BY15" t="s">
-        <v>246</v>
-      </c>
-      <c r="BZ15" t="s">
-        <v>156</v>
-      </c>
-      <c r="CA15" t="s">
-        <v>205</v>
-      </c>
-      <c r="CB15" t="s">
-        <v>259</v>
-      </c>
-      <c r="CC15">
-        <v>0</v>
-      </c>
-      <c r="CD15" t="s">
-        <v>205</v>
-      </c>
-      <c r="CE15" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF15" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG15" t="s">
-        <v>205</v>
-      </c>
-      <c r="CH15" t="s">
-        <v>205</v>
-      </c>
-      <c r="CI15">
-        <v>0</v>
-      </c>
-      <c r="CJ15">
-        <v>0</v>
-      </c>
-      <c r="CK15">
-        <v>0</v>
-      </c>
-      <c r="CL15" t="s">
-        <v>214</v>
-      </c>
-      <c r="CM15" t="s">
-        <v>173</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>173</v>
-      </c>
-      <c r="CO15" t="s">
-        <v>169</v>
-      </c>
-      <c r="CP15" t="s">
-        <v>166</v>
-      </c>
-      <c r="CQ15">
-        <v>0</v>
-      </c>
-      <c r="CR15">
-        <v>0</v>
-      </c>
-      <c r="CS15">
-        <v>0</v>
-      </c>
-      <c r="CT15">
-        <v>0</v>
-      </c>
-      <c r="CU15">
-        <v>0</v>
-      </c>
-      <c r="CV15">
-        <v>0</v>
-      </c>
-      <c r="CW15">
-        <v>0</v>
-      </c>
-      <c r="CX15">
-        <v>0</v>
-      </c>
-      <c r="CY15">
-        <v>0</v>
-      </c>
-      <c r="CZ15">
-        <v>0</v>
-      </c>
-      <c r="DA15">
-        <v>0</v>
-      </c>
-      <c r="DB15" t="s">
-        <v>205</v>
-      </c>
       <c r="DC15">
         <v>0</v>
       </c>
       <c r="DD15" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="DE15">
         <v>0</v>
       </c>
       <c r="DF15" t="s">
-        <v>212<